--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>Status</t>
   </si>
@@ -134,21 +134,6 @@
     <t>Data Perusahaan</t>
   </si>
   <si>
-    <t>jakarta barat</t>
-  </si>
-  <si>
-    <t>kebon jeruk</t>
-  </si>
-  <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>bisnis</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
     <t>Syarat dan Ketentuan Daftar Akun</t>
   </si>
   <si>
@@ -158,42 +143,9 @@
     <t>Foto KTP</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>jl kebon</t>
-  </si>
-  <si>
-    <t>DKI jakarta</t>
-  </si>
-  <si>
-    <t>kebon mangga</t>
-  </si>
-  <si>
-    <t>kebon apel</t>
-  </si>
-  <si>
-    <t>02/19/2020</t>
-  </si>
-  <si>
-    <t>bandung</t>
-  </si>
-  <si>
     <t>Unexecuted</t>
   </si>
   <si>
-    <t>2839283748273823</t>
-  </si>
-  <si>
-    <t>fend</t>
-  </si>
-  <si>
-    <t>08123456789</t>
-  </si>
-  <si>
-    <t>fendy@gmail.com</t>
-  </si>
-  <si>
     <t>$tenantCode</t>
   </si>
   <si>
@@ -375,6 +327,15 @@
   </si>
   <si>
     <t>confins</t>
+  </si>
+  <si>
+    <t>7777777777777777</t>
+  </si>
+  <si>
+    <t>deny</t>
+  </si>
+  <si>
+    <t>08274827384972</t>
   </si>
 </sst>
 </file>
@@ -834,7 +795,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -848,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -921,7 +882,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -932,7 +893,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -942,9 +903,7 @@
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -953,9 +912,7 @@
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="B12" s="13"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -964,9 +921,7 @@
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -976,7 +931,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -986,9 +941,7 @@
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1006,9 +959,7 @@
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1017,9 +968,7 @@
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1028,9 +977,7 @@
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1039,9 +986,7 @@
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1050,9 +995,7 @@
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1061,9 +1004,7 @@
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1">
-        <v>11530</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1072,9 +1013,7 @@
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1092,9 +1031,7 @@
       <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1103,9 +1040,7 @@
       <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1114,9 +1049,7 @@
       <c r="A27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B27" s="5"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1130,15 +1063,15 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1147,11 +1080,8 @@
       <formula1>"M, F"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1159,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1176,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="14" customFormat="1">
@@ -1271,10 +1201,10 @@
     </row>
     <row r="9" spans="1:6" s="14" customFormat="1">
       <c r="A9" s="14" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1283,73 +1213,73 @@
     </row>
     <row r="10" spans="1:6" s="19" customFormat="1">
       <c r="A10" s="18" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1">
       <c r="A11" s="20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="14" customFormat="1">
       <c r="A12" s="20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="14" customFormat="1">
       <c r="A13" s="20" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="14" customFormat="1">
       <c r="A14" s="20" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C14" s="24">
         <v>44612</v>
@@ -1366,50 +1296,50 @@
     </row>
     <row r="15" spans="1:6" s="14" customFormat="1">
       <c r="A15" s="20" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="14" customFormat="1">
       <c r="A16" s="20" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="14" customFormat="1">
       <c r="A17" s="20" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -1418,10 +1348,10 @@
     </row>
     <row r="18" spans="1:6" s="14" customFormat="1">
       <c r="A18" s="20" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -1430,10 +1360,10 @@
     </row>
     <row r="19" spans="1:6" s="14" customFormat="1">
       <c r="A19" s="20" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -1442,10 +1372,10 @@
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1">
       <c r="A20" s="20" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -1454,7 +1384,7 @@
     </row>
     <row r="21" spans="1:6" s="14" customFormat="1">
       <c r="A21" s="20" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="25"/>
@@ -1464,7 +1394,7 @@
     </row>
     <row r="22" spans="1:6" s="14" customFormat="1">
       <c r="A22" s="20" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
@@ -1474,10 +1404,10 @@
     </row>
     <row r="23" spans="1:6" s="14" customFormat="1">
       <c r="A23" s="20" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -1486,10 +1416,10 @@
     </row>
     <row r="24" spans="1:6" s="14" customFormat="1">
       <c r="A24" s="20" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -1498,10 +1428,10 @@
     </row>
     <row r="25" spans="1:6" s="14" customFormat="1">
       <c r="A25" s="20" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -1510,53 +1440,53 @@
     </row>
     <row r="26" spans="1:6" s="18" customFormat="1">
       <c r="A26" s="18" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="14" customFormat="1">
       <c r="A27" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="14" customFormat="1">
       <c r="A28" s="14" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="14" customFormat="1">
       <c r="A29" s="14" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="14" customFormat="1">
       <c r="A30" s="14" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="14" customFormat="1">
       <c r="A31" s="14" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="14" customFormat="1">
@@ -1571,7 +1501,7 @@
     </row>
     <row r="34" spans="1:2" s="14" customFormat="1">
       <c r="A34" s="28" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="14" customFormat="1">
@@ -1581,23 +1511,23 @@
     </row>
     <row r="36" spans="1:2" s="14" customFormat="1">
       <c r="A36" s="28" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="14" customFormat="1">
       <c r="A37" s="28" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="14" customFormat="1">
       <c r="A38" s="28" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="14" customFormat="1">
@@ -1607,51 +1537,51 @@
     </row>
     <row r="40" spans="1:2" s="14" customFormat="1">
       <c r="A40" s="28" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="14" customFormat="1">
       <c r="A41" s="28" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="14" customFormat="1">
       <c r="A42" s="28" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="14" customFormat="1">
       <c r="A43" s="28" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="14" customFormat="1">
       <c r="A44" s="28" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="14" customFormat="1">
       <c r="A45" s="28" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="29" customFormat="1">
       <c r="A46" s="16" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="14" customFormat="1">
       <c r="A47" s="28" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="14" customFormat="1">

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
   <si>
     <t>Status</t>
   </si>
@@ -329,13 +329,64 @@
     <t>confins</t>
   </si>
   <si>
-    <t>7777777777777777</t>
-  </si>
-  <si>
-    <t>deny</t>
-  </si>
-  <si>
-    <t>08274827384972</t>
+    <t>2733849283748273</t>
+  </si>
+  <si>
+    <t>jakarta</t>
+  </si>
+  <si>
+    <t>02/20/2000</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>jl kemang</t>
+  </si>
+  <si>
+    <t>jakarta barat</t>
+  </si>
+  <si>
+    <t>kebon</t>
+  </si>
+  <si>
+    <t>jeruk</t>
+  </si>
+  <si>
+    <t>apel</t>
+  </si>
+  <si>
+    <t>Inquiry Invitation Action</t>
+  </si>
+  <si>
+    <t>fen@gmail.com</t>
+  </si>
+  <si>
+    <t>Daftar Akun</t>
+  </si>
+  <si>
+    <t>Edit Invitation Inquiry</t>
+  </si>
+  <si>
+    <t>Invite By</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>fen</t>
+  </si>
+  <si>
+    <t>Input with</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Resend</t>
+  </si>
+  <si>
+    <t>081220380088</t>
   </si>
 </sst>
 </file>
@@ -469,7 +520,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -509,6 +560,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -792,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,7 +860,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" t="s">
         <v>27</v>
       </c>
       <c r="C1" s="1"/>
@@ -819,7 +871,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
@@ -855,15 +907,23 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -893,7 +953,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -903,7 +963,9 @@
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -912,7 +974,9 @@
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -921,7 +985,9 @@
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -931,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -941,7 +1007,9 @@
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -959,7 +1027,9 @@
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -968,7 +1038,9 @@
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -977,7 +1049,9 @@
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -986,7 +1060,9 @@
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -995,7 +1071,9 @@
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1004,7 +1082,9 @@
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>12862</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1013,7 +1093,9 @@
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1055,7 +1137,9 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="11"/>
+      <c r="A28" s="31" t="s">
+        <v>100</v>
+      </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -1074,14 +1158,41 @@
         <v>26</v>
       </c>
     </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
       <formula1>"M, F"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+      <formula1>"Phone, Id no, Email"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Edit, Resend"</formula1>
+    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1089,16 +1200,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="25" style="30" customWidth="1"/>
-    <col min="3" max="6" width="21" style="30" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="24.42578125" style="30" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.140625" style="30" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="21" style="30" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9" style="30" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="14" customFormat="1">

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>Status</t>
   </si>
@@ -371,9 +371,6 @@
     <t>Invite By</t>
   </si>
   <si>
-    <t>SMS</t>
-  </si>
-  <si>
     <t>fen</t>
   </si>
   <si>
@@ -383,10 +380,16 @@
     <t>Phone</t>
   </si>
   <si>
+    <t>081220380088</t>
+  </si>
+  <si>
+    <t>Receiver Detail</t>
+  </si>
+  <si>
+    <t>fendytioxak112@gmail.com</t>
+  </si>
+  <si>
     <t>Resend</t>
-  </si>
-  <si>
-    <t>081220380088</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -534,8 +537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -560,7 +561,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -844,16 +844,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -911,7 +911,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -919,10 +919,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -953,7 +953,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -974,7 +974,7 @@
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C12" s="6"/>
@@ -997,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1137,46 +1137,67 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
       <formula1>"M, F"</formula1>
     </dataValidation>
@@ -1186,13 +1207,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"Edit, Resend"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>"SMS, Email"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId1"/>
+    <hyperlink ref="B33" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1206,501 +1231,501 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="30" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25" style="30" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.140625" style="30" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="21" style="30" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9" style="30" collapsed="1"/>
+    <col min="1" max="1" width="24.42578125" style="28" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25" style="28" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.140625" style="28" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="21" style="28" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9" style="28" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" s="12" customFormat="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="14" customFormat="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:6" s="12" customFormat="1">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="14" customFormat="1">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:6" s="12" customFormat="1">
+      <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="14" customFormat="1">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:6" s="12" customFormat="1">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <f>COUNTIFS($A11:$A47,"*$*",B11:B47,"")</f>
         <v>0</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <f>COUNTIFS($A11:$A31,"*$*",C11:C31,"")</f>
         <v>1</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <f>COUNTIFS($A11:$A31,"*$*",D11:D31,"")</f>
         <v>1</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <f>COUNTIFS($A11:$A31,"*$*",E11:E31,"")</f>
         <v>1</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <f>COUNTIFS($A11:$A31,"*$*",F11:F31,"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="14" customFormat="1">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" s="14" customFormat="1">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" s="14" customFormat="1">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" s="16" customFormat="1">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" s="14" customFormat="1">
-      <c r="A9" s="14" t="s">
+    <row r="5" spans="1:6" s="12" customFormat="1">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" s="12" customFormat="1">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" s="12" customFormat="1">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" s="14" customFormat="1">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" s="12" customFormat="1">
+      <c r="A9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" s="19" customFormat="1">
-      <c r="A10" s="18" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" s="17" customFormat="1">
+      <c r="A10" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="14" customFormat="1">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:6" s="12" customFormat="1">
+      <c r="A11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="14" customFormat="1">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:6" s="12" customFormat="1">
+      <c r="A12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="14" customFormat="1">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:6" s="12" customFormat="1">
+      <c r="A13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="14" customFormat="1">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:6" s="12" customFormat="1">
+      <c r="A14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <v>44612</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="22">
         <v>44612</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="22">
         <v>44612</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <v>44612</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="14" customFormat="1">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:6" s="12" customFormat="1">
+      <c r="A15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="14" customFormat="1">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:6" s="12" customFormat="1">
+      <c r="A16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="14" customFormat="1">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:6" s="12" customFormat="1">
+      <c r="A17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" s="14" customFormat="1">
-      <c r="A18" s="20" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" s="12" customFormat="1">
+      <c r="A18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" s="14" customFormat="1">
-      <c r="A19" s="20" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" s="12" customFormat="1">
+      <c r="A19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" s="14" customFormat="1">
-      <c r="A20" s="20" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" s="12" customFormat="1">
+      <c r="A20" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" s="14" customFormat="1">
-      <c r="A21" s="20" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" s="12" customFormat="1">
+      <c r="A21" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" s="14" customFormat="1">
-      <c r="A22" s="20" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="1:6" s="12" customFormat="1">
+      <c r="A22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:6" s="14" customFormat="1">
-      <c r="A23" s="20" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:6" s="12" customFormat="1">
+      <c r="A23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:6" s="14" customFormat="1">
-      <c r="A24" s="20" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="1:6" s="12" customFormat="1">
+      <c r="A24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" s="14" customFormat="1">
-      <c r="A25" s="20" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="1:6" s="12" customFormat="1">
+      <c r="A25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="1:6" s="18" customFormat="1">
-      <c r="A26" s="18" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" s="16" customFormat="1">
+      <c r="A26" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="14" customFormat="1">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:6" s="12" customFormat="1">
+      <c r="A27" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="14" customFormat="1">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:6" s="12" customFormat="1">
+      <c r="A28" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="14" customFormat="1">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:6" s="12" customFormat="1">
+      <c r="A29" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="14" customFormat="1">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:6" s="12" customFormat="1">
+      <c r="A30" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="14" customFormat="1">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:6" s="12" customFormat="1">
+      <c r="A31" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="14" customFormat="1">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:6" s="12" customFormat="1">
+      <c r="A32" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="14" customFormat="1">
-      <c r="A33" s="28" t="s">
+    <row r="33" spans="1:2" s="12" customFormat="1">
+      <c r="A33" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="14" customFormat="1">
-      <c r="A34" s="28" t="s">
+    <row r="34" spans="1:2" s="12" customFormat="1">
+      <c r="A34" s="26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="14" customFormat="1">
-      <c r="A35" s="28" t="s">
+    <row r="35" spans="1:2" s="12" customFormat="1">
+      <c r="A35" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="14" customFormat="1">
-      <c r="A36" s="28" t="s">
+    <row r="36" spans="1:2" s="12" customFormat="1">
+      <c r="A36" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="14" customFormat="1">
-      <c r="A37" s="28" t="s">
+    <row r="37" spans="1:2" s="12" customFormat="1">
+      <c r="A37" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="14" customFormat="1">
-      <c r="A38" s="28" t="s">
+    <row r="38" spans="1:2" s="12" customFormat="1">
+      <c r="A38" s="26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="14" customFormat="1">
-      <c r="A39" s="28" t="s">
+    <row r="39" spans="1:2" s="12" customFormat="1">
+      <c r="A39" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="14" customFormat="1">
-      <c r="A40" s="28" t="s">
+    <row r="40" spans="1:2" s="12" customFormat="1">
+      <c r="A40" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="14" customFormat="1">
-      <c r="A41" s="28" t="s">
+    <row r="41" spans="1:2" s="12" customFormat="1">
+      <c r="A41" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="14" customFormat="1">
-      <c r="A42" s="28" t="s">
+    <row r="42" spans="1:2" s="12" customFormat="1">
+      <c r="A42" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="14" customFormat="1">
-      <c r="A43" s="28" t="s">
+    <row r="43" spans="1:2" s="12" customFormat="1">
+      <c r="A43" s="26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="14" customFormat="1">
-      <c r="A44" s="28" t="s">
+    <row r="44" spans="1:2" s="12" customFormat="1">
+      <c r="A44" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="14" customFormat="1">
-      <c r="A45" s="28" t="s">
+    <row r="45" spans="1:2" s="12" customFormat="1">
+      <c r="A45" s="26" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="29" customFormat="1">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:2" s="27" customFormat="1">
+      <c r="A46" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="14" customFormat="1">
-      <c r="A47" s="28" t="s">
+    <row r="47" spans="1:2" s="12" customFormat="1">
+      <c r="A47" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="14" customFormat="1">
-      <c r="A48" s="28"/>
-    </row>
-    <row r="49" spans="1:1" s="14" customFormat="1">
-      <c r="A49" s="28"/>
+    <row r="48" spans="1:2" s="12" customFormat="1">
+      <c r="A48" s="26"/>
+    </row>
+    <row r="49" spans="1:1" s="12" customFormat="1">
+      <c r="A49" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BuatUndangan" sheetId="2" r:id="rId1"/>
-    <sheet name="API Send Document)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="API Send Document)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -846,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1223,10 +1224,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="191">
   <si>
     <t>Status</t>
   </si>
@@ -195,48 +195,6 @@
   </si>
   <si>
     <t>fendytioxak112@gmail.com</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>-;FailedStoreDB;FailedStoreDB</t>
-  </si>
-  <si>
-    <t>;1BM1CUST tidak tercatat di sistem</t>
-  </si>
-  <si>
-    <t>;Unknown System Error</t>
-  </si>
-  <si>
-    <t>;Data Tenant :  tidak ada.</t>
-  </si>
-  <si>
-    <t>;FID-ADINS tidak tercatat di sistem</t>
-  </si>
-  <si>
-    <t>;Mohon sediakan parameter wajib : Signer Type : MF</t>
-  </si>
-  <si>
-    <t>;Penandatangan dengan Tipe CUST dan No HP 087770006257 tidak di ijinkan</t>
-  </si>
-  <si>
-    <t>;Email terdaftar dengan nomor telepon 087770006257, berbeda dengan nomor telepon yang direquest yaitu 085811111122222</t>
-  </si>
-  <si>
-    <t>;NIK ini 3603282305960007 bukan milik user dengan email ini MARVIN.SUTANTO@DOCSOL.ID.</t>
-  </si>
-  <si>
-    <t>;Penandatangan dengan Tipe Employee dan Email MARVIN.SUTANTO@DOCSOL.ID belum melakukan registrasi</t>
-  </si>
-  <si>
-    <t>;Penandatangan dengan Tipe Employee dan NIK 3603282305960007 belum melakukan registrasi</t>
-  </si>
-  <si>
-    <t>;Penandatangan dengan Tipe Employee dan Email MARVIN.SUTANTO@AD-INS.COM belum melakukan registrasi</t>
-  </si>
-  <si>
-    <t>;Mohon sediakan parameter wajib : Signer Type : CUST</t>
   </si>
   <si>
     <t>deskripsi</t>
@@ -293,6 +251,9 @@
     <t>psre bukan DIGI. psre kurang lebih sama dengan tenant</t>
   </si>
   <si>
+    <t>semuanya benar, tapi 3 signer</t>
+  </si>
+  <si>
     <t>$tenantCode</t>
   </si>
   <si>
@@ -314,6 +275,48 @@
     <t>"202303108120300"</t>
   </si>
   <si>
+    <t>"145"</t>
+  </si>
+  <si>
+    <t>"146"</t>
+  </si>
+  <si>
+    <t>"147"</t>
+  </si>
+  <si>
+    <t>"148"</t>
+  </si>
+  <si>
+    <t>"149"</t>
+  </si>
+  <si>
+    <t>"150"</t>
+  </si>
+  <si>
+    <t>"151"</t>
+  </si>
+  <si>
+    <t>"152"</t>
+  </si>
+  <si>
+    <t>"153"</t>
+  </si>
+  <si>
+    <t>"154"</t>
+  </si>
+  <si>
+    <t>"155"</t>
+  </si>
+  <si>
+    <t>"156"</t>
+  </si>
+  <si>
+    <t>"157"</t>
+  </si>
+  <si>
+    <t>"158"</t>
+  </si>
+  <si>
     <t>documentId</t>
   </si>
   <si>
@@ -344,12 +347,18 @@
     <t>regionCode</t>
   </si>
   <si>
+    <t>"JKT"</t>
+  </si>
+  <si>
     <t>"JKRT"</t>
   </si>
   <si>
     <t>regionName</t>
   </si>
   <si>
+    <t>"BOGOR"</t>
+  </si>
+  <si>
     <t>"JAKARTA"</t>
   </si>
   <si>
@@ -362,7 +371,7 @@
     <t>businessLineName</t>
   </si>
   <si>
-    <t>"EISGNHUB"</t>
+    <t>"ESIGNHUB"</t>
   </si>
   <si>
     <t>branch</t>
@@ -410,6 +419,12 @@
     <t>"at";"mt"</t>
   </si>
   <si>
+    <t>"mt";"mt";"mt"</t>
+  </si>
+  <si>
+    <t>"mt";"mt";"st"</t>
+  </si>
+  <si>
     <t>$signerType</t>
   </si>
   <si>
@@ -422,16 +437,67 @@
     <t>"MF";"MF"</t>
   </si>
   <si>
+    <t>"MF";"CUST";"CUST"</t>
+  </si>
+  <si>
     <t>signSequence</t>
   </si>
   <si>
     <t>"0";"0"</t>
   </si>
   <si>
+    <t>"0";"0";"0"</t>
+  </si>
+  <si>
     <t>alamat</t>
   </si>
   <si>
-    <t>"Jalan Kebon Jeruk No 02"</t>
+    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 20"</t>
+  </si>
+  <si>
+    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 21"</t>
+  </si>
+  <si>
+    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 22"</t>
+  </si>
+  <si>
+    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 23"</t>
+  </si>
+  <si>
+    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 24"</t>
+  </si>
+  <si>
+    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 25"</t>
+  </si>
+  <si>
+    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 26"</t>
+  </si>
+  <si>
+    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 27"</t>
+  </si>
+  <si>
+    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 28"</t>
+  </si>
+  <si>
+    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 29"</t>
+  </si>
+  <si>
+    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 30"</t>
+  </si>
+  <si>
+    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 31"</t>
+  </si>
+  <si>
+    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 32"</t>
+  </si>
+  <si>
+    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 33"</t>
+  </si>
+  <si>
+    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 34"</t>
+  </si>
+  <si>
+    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 20";"Jalan Jeruk Kebon No 20"</t>
   </si>
   <si>
     <t>jenisKelamin</t>
@@ -440,18 +506,33 @@
     <t>"M";"F"</t>
   </si>
   <si>
+    <t>"M";"F";"F"</t>
+  </si>
+  <si>
     <t>"Kebon";"Kebon"</t>
   </si>
   <si>
+    <t>"Kebon";"Kebon";"Kebon"</t>
+  </si>
+  <si>
     <t>"Jeruk";"Jeruk"</t>
   </si>
   <si>
+    <t>"Jeruk";"Jeruk";"Jeruk"</t>
+  </si>
+  <si>
     <t>kodePos</t>
   </si>
   <si>
     <t>"123456";"123456"</t>
   </si>
   <si>
+    <t>"123456";"123456";"123456"</t>
+  </si>
+  <si>
+    <t>"Jakarta Barat";"Jakarta";"Jakarta"</t>
+  </si>
+  <si>
     <t>"Jakarta Barat";"Jakarta"</t>
   </si>
   <si>
@@ -461,36 +542,51 @@
     <t>"ANDY";"EDUARDUS AXEL TJAHJADI"</t>
   </si>
   <si>
+    <t>"ANDY";"EDUARDUS AXEL TJAHJADI";"EDUARDUS AXEL TJAHJADI"</t>
+  </si>
+  <si>
     <t>$tlp</t>
   </si>
   <si>
     <t>"087770006257";"08111128600"</t>
   </si>
   <si>
+    <t>"";""</t>
+  </si>
+  <si>
     <t>"085811111122222";"08111128600"</t>
   </si>
   <si>
+    <t>"087770006257";"08111128600";"08111128600"</t>
+  </si>
+  <si>
     <t>tglLahir</t>
   </si>
   <si>
     <t>"01/01/2001";"02/02/2002"</t>
   </si>
   <si>
+    <t>"01/01/2001";"02/02/2002";"02/02/2002"</t>
+  </si>
+  <si>
     <t>"DKI Jakarta";"Palembang"</t>
   </si>
   <si>
+    <t>"DKI Jakarta";"Palembang";"Palembang"</t>
+  </si>
+  <si>
     <t>$idKtp</t>
   </si>
   <si>
     <t>"3271011312910014";"3271032806000005"</t>
   </si>
   <si>
-    <t>"";""</t>
-  </si>
-  <si>
     <t>"3603282305960007";"3271032806000005"</t>
   </si>
   <si>
+    <t>"3271011312910014";"3271032806000005";"3271032806000005"</t>
+  </si>
+  <si>
     <t>tmpLahir</t>
   </si>
   <si>
@@ -506,10 +602,16 @@
     <t>"MARVIN.SUTANTO@AD-INS.COM";"EDUARDUS.AXEL@GMAIL.COM"</t>
   </si>
   <si>
+    <t>"ANDY@AD-INS.COM";"EDUARDUS.AXEL@GMAIL.COM";"EDUARDUS.AXEL@GMAIL.COM"</t>
+  </si>
+  <si>
     <t>npwp</t>
   </si>
   <si>
     <t>"12345678";"12345678"</t>
+  </si>
+  <si>
+    <t>"12345678";"12345678";"12345678"</t>
   </si>
   <si>
     <t>idPhoto</t>
@@ -532,9 +634,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -575,15 +677,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,14 +700,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,6 +709,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,19 +769,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -696,16 +798,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,7 +851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,25 +869,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,25 +899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,31 +911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,13 +929,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,49 +1019,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,23 +1076,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,22 +1141,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,7 +1173,7 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1090,28 +1192,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1120,98 +1222,98 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1248,7 +1350,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1937,14 +2041,14 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
+      <formula1>"M, F"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"Edit, Resend"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
       <formula1>"Phone, Id no, Email"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
-      <formula1>"M, F"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
       <formula1>"SMS, Email"</formula1>
@@ -1964,17 +2068,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="24.4272727272727" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.1363636363636" style="7" customWidth="1"/>
+    <col min="2" max="2" width="62.9818181818182" style="7" customWidth="1"/>
+    <col min="3" max="3" width="39.3454545454545" style="7" customWidth="1"/>
     <col min="4" max="6" width="21" style="7" customWidth="1"/>
     <col min="7" max="7" width="21.6818181818182" style="7" customWidth="1"/>
     <col min="8" max="8" width="20.7727272727273" style="7" customWidth="1"/>
@@ -1986,146 +2090,154 @@
     <col min="14" max="14" width="24.2818181818182" style="7" customWidth="1"/>
     <col min="15" max="15" width="17.1363636363636" style="7" customWidth="1"/>
     <col min="16" max="16" width="19.3454545454545" style="7" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="7"/>
+    <col min="17" max="17" width="18.3090909090909" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" s="1" customFormat="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="O1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="P1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:16">
+      <c r="C3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <f>COUNTIFS($A11:$A47,"*$*",B11:B47,"")</f>
+        <f>COUNTIFS($A9:$A47,"*$*",B9:B47,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f>COUNTIFS($A11:$A31,"*$*",C11:C31,"")</f>
+        <f t="shared" ref="C4:Q4" si="0">COUNTIFS($A9:$A47,"*$*",C9:C47,"")</f>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f>COUNTIFS($A11:$A31,"*$*",D11:D31,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f>COUNTIFS($A11:$A31,"*$*",E11:E31,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f>COUNTIFS($A11:$A31,"*$*",F11:F31,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:P4" si="0">COUNTIFS($A11:$A31,"*$*",G11:G31,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
@@ -2162,6 +2274,14 @@
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>COUNTIFS($A9:$A47,"*$*",Q9:Q47,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <f>COUNTIFS($A9:$A47,"*$*",R9:R47,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -2182,57 +2302,63 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="87" spans="1:16">
+    <row r="6" s="2" customFormat="1" ht="87" spans="1:18">
       <c r="A6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="Q6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:16">
+      <c r="R6" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:18">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2249,8 +2375,10 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:16">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:18">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -2267,60 +2395,68 @@
       <c r="N8" s="12"/>
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:16">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="13" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="1:16">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" spans="1:18">
       <c r="A10" s="14" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -2337,760 +2473,852 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:16">
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:18">
       <c r="A11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="O11" s="13" t="s">
         <v>85</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:16">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:18">
       <c r="A12" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:16">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:18">
       <c r="A13" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>88</v>
-      </c>
       <c r="E13" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:16">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="R13" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:18">
       <c r="A14" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N14" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:16">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:18">
       <c r="A15" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:18">
+      <c r="A16" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:18">
+      <c r="A17" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:18">
+      <c r="A18" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:18">
+      <c r="A19" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:18">
+      <c r="A20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:16">
-      <c r="A16" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="N16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="P16" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:16">
-      <c r="A17" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:16">
-      <c r="A18" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:16">
-      <c r="A19" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:16">
-      <c r="A20" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>92</v>
-      </c>
       <c r="C20" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:16">
+        <v>93</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:18">
       <c r="A21" s="13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:16">
+        <v>108</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:18">
       <c r="A22" s="13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:16">
+        <v>69</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:18">
       <c r="A23" s="13" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P23" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:16">
+        <v>112</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:18">
       <c r="A24" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:16">
+        <v>114</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:18">
       <c r="A25" s="13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O25" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P25" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" s="5" customFormat="1" spans="1:16">
+        <v>116</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="R25" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" s="5" customFormat="1" spans="1:18">
       <c r="A26" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -3107,960 +3335,1076 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:16">
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:18">
       <c r="A27" s="13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:16">
+        <v>119</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:18">
       <c r="A28" s="13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:16">
+        <v>124</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:18">
       <c r="A29" s="13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:16">
+        <v>129</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:18">
       <c r="A30" s="13" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:16">
+        <v>146</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:18">
       <c r="A31" s="13" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:16">
+        <v>149</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:18">
       <c r="A32" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:16">
+        <v>151</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:18">
       <c r="A33" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="P33" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:16">
+        <v>153</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:18">
       <c r="A34" s="13" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="P34" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:16">
+        <v>156</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:18">
       <c r="A35" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:16">
+        <v>159</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:18">
       <c r="A36" s="13" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:16">
+        <v>161</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:18">
       <c r="A37" s="13" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:16">
+        <v>164</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:18">
       <c r="A38" s="13" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:16">
+        <v>169</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="R38" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:18">
       <c r="A39" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:16">
+        <v>171</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:18">
       <c r="A40" s="13" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:16">
+        <v>174</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:18">
       <c r="A41" s="13" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="P41" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:16">
+        <v>171</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:18">
       <c r="A42" s="13" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="L42" s="20" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="N42" s="20" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="O42" s="20" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="P42" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:16">
+        <v>179</v>
+      </c>
+      <c r="Q42" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="R42" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:18">
       <c r="A43" s="13" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:16">
+        <v>184</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:18">
       <c r="A44" s="13" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:16">
+        <v>69</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="R44" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:18">
       <c r="A45" s="13" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="O45" s="13" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" s="6" customFormat="1" spans="1:16">
+        <v>69</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" s="6" customFormat="1" spans="1:18">
       <c r="A46" s="21" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -4077,63 +4421,71 @@
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:16">
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:18">
       <c r="A47" s="13" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="O47" s="13" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="P47" s="13" t="s">
-        <v>156</v>
+        <v>190</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:16">
       <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
+      <c r="E48" s="8"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
@@ -4146,8 +4498,14 @@
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:1">
-      <c r="A49" s="23"/>
+    <row r="49" s="1" customFormat="1" spans="2:8">
+      <c r="B49" s="8"/>
+      <c r="C49" s="2"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" ht="29" customHeight="1" spans="2:3">
+      <c r="B50" s="8"/>
+      <c r="C50" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4196,6 +4554,12 @@
     <hyperlink ref="P24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="P25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
     <hyperlink ref="P42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="Q24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="Q25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="Q42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="R24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="R25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="R42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="190">
   <si>
     <t>Status</t>
   </si>
@@ -420,9 +420,6 @@
   </si>
   <si>
     <t>"mt";"mt";"mt"</t>
-  </si>
-  <si>
-    <t>"mt";"mt";"st"</t>
   </si>
   <si>
     <t>$signerType</t>
@@ -634,10 +631,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -677,14 +674,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -699,8 +688,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,22 +713,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -739,7 +721,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,6 +766,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -777,14 +782,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,14 +805,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,7 +854,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,67 +884,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,7 +902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,7 +920,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,25 +1004,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,25 +1028,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,35 +1066,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,6 +1124,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1173,15 +1170,15 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,128 +1189,128 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2044,11 +2041,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
       <formula1>"M, F"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+      <formula1>"Phone, Id no, Email"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"Edit, Resend"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
-      <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
       <formula1>"SMS, Email"</formula1>
@@ -2070,8 +2067,8 @@
   <sheetPr/>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -2146,9 +2143,7 @@
       <c r="Q1" t="s">
         <v>1</v>
       </c>
-      <c r="R1" t="s">
-        <v>1</v>
-      </c>
+      <c r="R1"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:18">
       <c r="A2" s="1" t="s">
@@ -2202,9 +2197,7 @@
       <c r="Q2" t="s">
         <v>3</v>
       </c>
-      <c r="R2" t="s">
-        <v>3</v>
-      </c>
+      <c r="R2"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -2280,10 +2273,7 @@
         <f>COUNTIFS($A9:$A47,"*$*",Q9:Q47,"")</f>
         <v>0</v>
       </c>
-      <c r="R4" s="2">
-        <f>COUNTIFS($A9:$A47,"*$*",R9:R47,"")</f>
-        <v>0</v>
-      </c>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:16">
       <c r="B5" s="2"/>
@@ -2354,9 +2344,7 @@
       <c r="Q6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:18">
       <c r="A7" s="8"/>
@@ -2450,9 +2438,7 @@
       <c r="Q9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="R9" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="R9" s="13"/>
     </row>
     <row r="10" s="4" customFormat="1" spans="1:18">
       <c r="A10" s="14" t="s">
@@ -2528,9 +2514,7 @@
       <c r="Q11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="R11" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:18">
       <c r="A12" s="13" t="s">
@@ -2584,9 +2568,7 @@
       <c r="Q12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="R12" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:18">
       <c r="A13" s="13" t="s">
@@ -2640,9 +2622,7 @@
       <c r="Q13" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="R13" s="16" t="s">
-        <v>89</v>
-      </c>
+      <c r="R13" s="16"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:18">
       <c r="A14" s="13" t="s">
@@ -2696,9 +2676,7 @@
       <c r="Q14" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="R14" s="13" t="s">
-        <v>93</v>
-      </c>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:18">
       <c r="A15" s="13" t="s">
@@ -2752,9 +2730,7 @@
       <c r="Q15" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="R15" s="13" t="s">
-        <v>95</v>
-      </c>
+      <c r="R15" s="13"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:18">
       <c r="A16" s="13" t="s">
@@ -2808,9 +2784,7 @@
       <c r="Q16" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="R16" s="13" t="s">
-        <v>97</v>
-      </c>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:18">
       <c r="A17" s="13" t="s">
@@ -2864,9 +2838,7 @@
       <c r="Q17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="R17" s="13" t="s">
-        <v>100</v>
-      </c>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:18">
       <c r="A18" s="13" t="s">
@@ -2920,9 +2892,7 @@
       <c r="Q18" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="R18" s="13" t="s">
-        <v>103</v>
-      </c>
+      <c r="R18" s="13"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:18">
       <c r="A19" s="13" t="s">
@@ -2976,9 +2946,7 @@
       <c r="Q19" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="R19" s="13" t="s">
-        <v>105</v>
-      </c>
+      <c r="R19" s="13"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:18">
       <c r="A20" s="13" t="s">
@@ -3032,9 +3000,7 @@
       <c r="Q20" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="R20" s="13" t="s">
-        <v>93</v>
-      </c>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:18">
       <c r="A21" s="13" t="s">
@@ -3088,9 +3054,7 @@
       <c r="Q21" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="R21" s="13" t="s">
-        <v>108</v>
-      </c>
+      <c r="R21" s="13"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:18">
       <c r="A22" s="13" t="s">
@@ -3144,9 +3108,7 @@
       <c r="Q22" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="R22" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="R22" s="8"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:18">
       <c r="A23" s="13" t="s">
@@ -3200,9 +3162,7 @@
       <c r="Q23" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="R23" s="13" t="s">
-        <v>111</v>
-      </c>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:18">
       <c r="A24" s="13" t="s">
@@ -3256,9 +3216,7 @@
       <c r="Q24" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="R24" s="17" t="s">
-        <v>114</v>
-      </c>
+      <c r="R24" s="17"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:18">
       <c r="A25" s="13" t="s">
@@ -3312,9 +3270,7 @@
       <c r="Q25" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="R25" s="18" t="s">
-        <v>116</v>
-      </c>
+      <c r="R25" s="18"/>
     </row>
     <row r="26" s="5" customFormat="1" spans="1:18">
       <c r="A26" s="14" t="s">
@@ -3390,909 +3346,875 @@
       <c r="Q27" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="R27" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="R27" s="13"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:18">
       <c r="A28" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="C28" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="I28" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="J28" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="K28" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H28" s="13" t="s">
+      <c r="L28" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="O28" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="O28" s="13" t="s">
+      <c r="P28" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q28" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="P28" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q28" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>127</v>
-      </c>
+      <c r="R28" s="13"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:18">
       <c r="A29" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="C29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q29" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="O29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="P29" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q29" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="R29" s="13" t="s">
-        <v>130</v>
-      </c>
+      <c r="R29" s="13"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:18">
       <c r="A30" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="E30" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="F30" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="G30" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="H30" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="I30" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="J30" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="K30" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="L30" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="M30" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="N30" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="N30" s="13" t="s">
+      <c r="O30" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="O30" s="13" t="s">
+      <c r="P30" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="P30" s="13" t="s">
+      <c r="Q30" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="Q30" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="R30" s="13" t="s">
-        <v>147</v>
-      </c>
+      <c r="R30" s="13"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:18">
       <c r="A31" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="C31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q31" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="P31" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q31" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="R31" s="13" t="s">
-        <v>150</v>
-      </c>
+      <c r="R31" s="13"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:18">
       <c r="A32" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q32" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="N32" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="O32" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="P32" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q32" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="R32" s="13" t="s">
-        <v>152</v>
-      </c>
+      <c r="R32" s="13"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:18">
       <c r="A33" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q33" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="N33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="P33" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q33" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>154</v>
-      </c>
+      <c r="R33" s="13"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:18">
       <c r="A34" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="C34" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q34" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="M34" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="N34" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="O34" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="P34" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q34" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="R34" s="13" t="s">
-        <v>157</v>
-      </c>
+      <c r="R34" s="13"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:18">
       <c r="A35" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>159</v>
-      </c>
       <c r="D35" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q35" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="R35" s="13" t="s">
-        <v>158</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="R35" s="13"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:18">
       <c r="A36" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="C36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q36" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="M36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="O36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="P36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q36" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="R36" s="13" t="s">
-        <v>162</v>
-      </c>
+      <c r="R36" s="13"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:18">
       <c r="A37" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="C37" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G37" s="13" t="s">
+      <c r="H37" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J37" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="J37" s="13" t="s">
+      <c r="K37" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q37" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="K37" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="N37" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="O37" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="P37" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q37" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="R37" s="13" t="s">
-        <v>167</v>
-      </c>
+      <c r="R37" s="13"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:18">
       <c r="A38" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="C38" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q38" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="M38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="N38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="O38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="P38" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q38" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="R38" s="13" t="s">
-        <v>170</v>
-      </c>
+      <c r="R38" s="13"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:18">
       <c r="A39" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="P39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q39" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="M39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="N39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="O39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="P39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q39" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="R39" s="13" t="s">
-        <v>172</v>
-      </c>
+      <c r="R39" s="13"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:18">
       <c r="A40" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="C40" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="K40" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="L40" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="M40" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="N40" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="K40" s="13" t="s">
+      <c r="O40" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q40" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="L40" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="M40" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="N40" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="O40" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="P40" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q40" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="R40" s="13" t="s">
-        <v>176</v>
-      </c>
+      <c r="R40" s="13"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:18">
       <c r="A41" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q41" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="N41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="O41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="P41" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q41" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="R41" s="13" t="s">
-        <v>172</v>
-      </c>
+      <c r="R41" s="13"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:18">
       <c r="A42" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="C42" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K42" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="L42" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D42" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="J42" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="K42" s="20" t="s">
+      <c r="M42" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="N42" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="L42" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="M42" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="N42" s="20" t="s">
+      <c r="O42" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="P42" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q42" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="O42" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="P42" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q42" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="R42" s="19" t="s">
-        <v>182</v>
-      </c>
+      <c r="R42" s="19"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:18">
       <c r="A43" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="C43" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q43" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="M43" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="N43" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="O43" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="P43" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q43" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="R43" s="13" t="s">
-        <v>185</v>
-      </c>
+      <c r="R43" s="13"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:18">
       <c r="A44" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>69</v>
@@ -4342,13 +4264,11 @@
       <c r="Q44" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="R44" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="R44" s="13"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:18">
       <c r="A45" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>69</v>
@@ -4398,13 +4318,11 @@
       <c r="Q45" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="R45" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="R45" s="13"/>
     </row>
     <row r="46" s="6" customFormat="1" spans="1:18">
       <c r="A46" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -4426,59 +4344,57 @@
     </row>
     <row r="47" s="1" customFormat="1" spans="1:18">
       <c r="A47" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>190</v>
-      </c>
       <c r="C47" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O47" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P47" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q47" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="R47" s="13" t="s">
-        <v>190</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="R47" s="13"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:16">
       <c r="A48" s="13"/>
@@ -4557,9 +4473,6 @@
     <hyperlink ref="Q24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="Q25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
     <hyperlink ref="Q42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="R24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="R25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="R42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\Katalon Studio\ATeSign\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="7070" windowWidth="18530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="BuatUndangan" r:id="rId1" sheetId="2"/>
-    <sheet name="API Send Document" r:id="rId2" sheetId="4"/>
-    <sheet name="API Generate Inv Link" r:id="rId3" sheetId="6"/>
+    <sheet name="BuatUndangan" sheetId="2" r:id="rId1"/>
+    <sheet name="API Send Document" sheetId="4" r:id="rId2"/>
+    <sheet name="API Generate Inv Link" sheetId="6" r:id="rId3"/>
+    <sheet name="PencarianPengguna" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -21,7 +27,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A13">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +60,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A13">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="255">
   <si>
     <t>Status</t>
   </si>
@@ -838,19 +844,28 @@
   </si>
   <si>
     <t>"JL. SAWO NO.10 BANTAR KEMANG"</t>
+  </si>
+  <si>
+    <t>KRYSTI.TYFFANY@ESIGNHUB.MY.ID</t>
+  </si>
+  <si>
+    <t>Pencarian Pengguna Action</t>
+  </si>
+  <si>
+    <t>082146218764421</t>
+  </si>
+  <si>
+    <t>$Email</t>
+  </si>
+  <si>
+    <t>Edit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,142 +918,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
@@ -1049,8 +928,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1071,204 +957,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14996795556505"/>
+        <fgColor theme="1" tint="0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="1" tint="0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1304,366 +1004,84 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="15" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="20" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="23" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="10" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="10" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="36" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="35" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="58" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="7"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="7"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="32"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="32">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="32"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="32"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="32"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="32"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="32"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="58" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="7"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="7"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="7"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="7"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="32">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="58" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="58" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="51">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
-    <cellStyle builtinId="5" name="Percent" xfId="6"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="7"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="8"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="9"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="10"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="11"/>
-    <cellStyle builtinId="10" name="Note" xfId="12"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="15" name="Title" xfId="16"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
-    <cellStyle builtinId="20" name="Input" xfId="21"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
-    <cellStyle builtinId="26" name="Good" xfId="23"/>
-    <cellStyle builtinId="21" name="Output" xfId="24"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
-    <cellStyle builtinId="25" name="Total" xfId="28"/>
-    <cellStyle builtinId="27" name="Bad" xfId="29"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="33"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="34"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="35"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="36"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="37"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="38"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="39"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="40"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="41"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="42"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="43"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="44"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="45"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="46"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="47"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="48"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="49"/>
-    <cellStyle name="Hyperlink 2" xfId="50"/>
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1674,10 +1092,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1841,21 +1259,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1872,7 +1290,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1921,22 +1339,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.4272727272727" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.1363636363636" collapsed="true"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2283,61 +1701,59 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B32" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
       <formula1>"SMS, Email"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"Edit, Resend"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
       <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
       <formula1>"M, F"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink display="wikiy.hendraa@ad-ins.com" r:id="rId3" ref="B15" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
-    <hyperlink display="fendytioxak112@gmail.com" r:id="rId4" ref="B33"/>
+    <hyperlink ref="B15" r:id="rId1" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
+    <hyperlink ref="B33" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
-  <dimension ref="A1:S50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="19" width="24.4272727272727" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="19" width="62.9818181818182" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="19" width="39.3454545454545" collapsed="true"/>
-    <col min="4" max="6" customWidth="true" style="19" width="21.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="19" width="21.6818181818182" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="19" width="20.7727272727273" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="19" width="20.3909090909091" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="19" width="21.3" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="19" width="21.6818181818182" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="19" width="20.3818181818182" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="19" width="25.8363636363636" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="19" width="24.2818181818182" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="19" width="17.1363636363636" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="19" width="19.3454545454545" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="19" width="27.0363636363636" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="19" width="21.6636363636364" collapsed="true"/>
-    <col min="19" max="16384" style="19" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="24.42578125" style="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="63" style="19" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.28515625" style="19" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="21" style="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.7109375" style="19" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.7109375" style="19" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.42578125" style="19" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.28515625" style="19" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.7109375" style="19" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.42578125" style="19" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.85546875" style="19" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.28515625" style="19" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.140625" style="19" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.28515625" style="19" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27" style="19" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.7109375" style="19" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="9" style="19" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="13" spans="1:18">
+    <row r="1" spans="1:18" s="13" customFormat="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2393,7 +1809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="13" spans="1:18">
+    <row r="2" spans="1:18" s="13" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -2449,13 +1865,13 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="13" spans="1:3">
+    <row r="3" spans="1:18" s="13" customFormat="1">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C3"/>
     </row>
-    <row customFormat="1" r="4" s="13" spans="1:17">
+    <row r="4" spans="1:18" s="13" customFormat="1">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -2464,59 +1880,59 @@
         <v>0</v>
       </c>
       <c r="C4" s="14">
-        <f ref="C4:Q4" si="0" t="shared">COUNTIFS($A9:$A47,"*$*",C9:C47,"")</f>
+        <f t="shared" ref="C4:P4" si="0">COUNTIFS($A9:$A47,"*$*",C9:C47,"")</f>
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="14">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="14">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="14">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="14">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="14">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="14">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="14">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="14">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="14">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="14">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="14">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q4" s="14">
@@ -2524,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="13" spans="2:16">
+    <row r="5" spans="1:18" s="13" customFormat="1">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -2541,7 +1957,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
     </row>
-    <row customFormat="1" ht="87" r="6" s="14" spans="1:18">
+    <row r="6" spans="1:18" s="14" customFormat="1" ht="90">
       <c r="A6" s="20" t="s">
         <v>67</v>
       </c>
@@ -2597,7 +2013,7 @@
         <v>84</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="13" spans="1:18">
+    <row r="7" spans="1:18" s="13" customFormat="1">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -2617,7 +2033,7 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
     </row>
-    <row customFormat="1" r="8" s="15" spans="1:18">
+    <row r="8" spans="1:18" s="15" customFormat="1">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="24"/>
@@ -2637,7 +2053,7 @@
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
     </row>
-    <row customFormat="1" r="9" s="13" spans="1:18">
+    <row r="9" spans="1:18" s="13" customFormat="1">
       <c r="A9" s="25" t="s">
         <v>85</v>
       </c>
@@ -2693,7 +2109,7 @@
         <v>86</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="16" spans="1:18">
+    <row r="10" spans="1:18" s="16" customFormat="1">
       <c r="A10" s="26" t="s">
         <v>89</v>
       </c>
@@ -2715,7 +2131,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row customFormat="1" r="11" s="13" spans="1:18">
+    <row r="11" spans="1:18" s="13" customFormat="1">
       <c r="A11" s="25" t="s">
         <v>90</v>
       </c>
@@ -2771,7 +2187,7 @@
         <v>91</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="13" spans="1:18">
+    <row r="12" spans="1:18" s="13" customFormat="1">
       <c r="A12" s="25" t="s">
         <v>106</v>
       </c>
@@ -2827,7 +2243,7 @@
         <v>88</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="13" spans="1:18">
+    <row r="13" spans="1:18" s="13" customFormat="1">
       <c r="A13" s="25" t="s">
         <v>107</v>
       </c>
@@ -2883,7 +2299,7 @@
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="13" spans="1:18">
+    <row r="14" spans="1:18" s="13" customFormat="1">
       <c r="A14" s="25" t="s">
         <v>111</v>
       </c>
@@ -2939,7 +2355,7 @@
         <v>112</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="13" spans="1:18">
+    <row r="15" spans="1:18" s="13" customFormat="1">
       <c r="A15" s="25" t="s">
         <v>113</v>
       </c>
@@ -2995,7 +2411,7 @@
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="13" spans="1:18">
+    <row r="16" spans="1:18" s="13" customFormat="1">
       <c r="A16" s="25" t="s">
         <v>115</v>
       </c>
@@ -3051,7 +2467,7 @@
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" r="17" s="13" spans="1:18">
+    <row r="17" spans="1:18" s="13" customFormat="1">
       <c r="A17" s="25" t="s">
         <v>118</v>
       </c>
@@ -3107,7 +2523,7 @@
         <v>119</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="13" spans="1:18">
+    <row r="18" spans="1:18" s="13" customFormat="1">
       <c r="A18" s="25" t="s">
         <v>121</v>
       </c>
@@ -3163,7 +2579,7 @@
         <v>122</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="13" spans="1:18">
+    <row r="19" spans="1:18" s="13" customFormat="1">
       <c r="A19" s="25" t="s">
         <v>123</v>
       </c>
@@ -3219,7 +2635,7 @@
         <v>124</v>
       </c>
     </row>
-    <row customFormat="1" r="20" s="13" spans="1:18">
+    <row r="20" spans="1:18" s="13" customFormat="1">
       <c r="A20" s="25" t="s">
         <v>125</v>
       </c>
@@ -3275,7 +2691,7 @@
         <v>112</v>
       </c>
     </row>
-    <row customFormat="1" r="21" s="13" spans="1:18">
+    <row r="21" spans="1:18" s="13" customFormat="1">
       <c r="A21" s="25" t="s">
         <v>126</v>
       </c>
@@ -3331,7 +2747,7 @@
         <v>127</v>
       </c>
     </row>
-    <row customFormat="1" r="22" s="13" spans="1:18">
+    <row r="22" spans="1:18" s="13" customFormat="1">
       <c r="A22" s="25" t="s">
         <v>128</v>
       </c>
@@ -3387,7 +2803,7 @@
         <v>88</v>
       </c>
     </row>
-    <row customFormat="1" r="23" s="13" spans="1:18">
+    <row r="23" spans="1:18" s="13" customFormat="1">
       <c r="A23" s="25" t="s">
         <v>129</v>
       </c>
@@ -3443,7 +2859,7 @@
         <v>130</v>
       </c>
     </row>
-    <row customFormat="1" r="24" s="13" spans="1:18">
+    <row r="24" spans="1:18" s="13" customFormat="1">
       <c r="A24" s="25" t="s">
         <v>132</v>
       </c>
@@ -3499,7 +2915,7 @@
         <v>133</v>
       </c>
     </row>
-    <row customFormat="1" r="25" s="13" spans="1:18">
+    <row r="25" spans="1:18" s="13" customFormat="1">
       <c r="A25" s="25" t="s">
         <v>134</v>
       </c>
@@ -3555,7 +2971,7 @@
         <v>135</v>
       </c>
     </row>
-    <row customFormat="1" r="26" s="17" spans="1:18">
+    <row r="26" spans="1:18" s="17" customFormat="1">
       <c r="A26" s="26" t="s">
         <v>136</v>
       </c>
@@ -3577,7 +2993,7 @@
       <c r="Q26" s="26"/>
       <c r="R26" s="26"/>
     </row>
-    <row customFormat="1" r="27" s="13" spans="1:18">
+    <row r="27" spans="1:18" s="13" customFormat="1">
       <c r="A27" s="25" t="s">
         <v>137</v>
       </c>
@@ -3633,7 +3049,7 @@
         <v>141</v>
       </c>
     </row>
-    <row customFormat="1" r="28" s="13" spans="1:18">
+    <row r="28" spans="1:18" s="13" customFormat="1">
       <c r="A28" s="25" t="s">
         <v>142</v>
       </c>
@@ -3689,7 +3105,7 @@
         <v>147</v>
       </c>
     </row>
-    <row customFormat="1" r="29" s="13" spans="1:18">
+    <row r="29" spans="1:18" s="13" customFormat="1">
       <c r="A29" s="25" t="s">
         <v>148</v>
       </c>
@@ -3745,7 +3161,7 @@
         <v>151</v>
       </c>
     </row>
-    <row customFormat="1" r="30" s="13" spans="1:18">
+    <row r="30" spans="1:18" s="13" customFormat="1">
       <c r="A30" s="25" t="s">
         <v>152</v>
       </c>
@@ -3801,7 +3217,7 @@
         <v>169</v>
       </c>
     </row>
-    <row customFormat="1" r="31" s="13" spans="1:18">
+    <row r="31" spans="1:18" s="13" customFormat="1">
       <c r="A31" s="25" t="s">
         <v>170</v>
       </c>
@@ -3857,7 +3273,7 @@
         <v>173</v>
       </c>
     </row>
-    <row customFormat="1" r="32" s="13" spans="1:18">
+    <row r="32" spans="1:18" s="13" customFormat="1">
       <c r="A32" s="25" t="s">
         <v>31</v>
       </c>
@@ -3913,7 +3329,7 @@
         <v>176</v>
       </c>
     </row>
-    <row customFormat="1" r="33" s="13" spans="1:18">
+    <row r="33" spans="1:18" s="13" customFormat="1">
       <c r="A33" s="25" t="s">
         <v>33</v>
       </c>
@@ -3969,7 +3385,7 @@
         <v>179</v>
       </c>
     </row>
-    <row customFormat="1" r="34" s="13" spans="1:18">
+    <row r="34" spans="1:18" s="13" customFormat="1">
       <c r="A34" s="25" t="s">
         <v>180</v>
       </c>
@@ -4025,7 +3441,7 @@
         <v>183</v>
       </c>
     </row>
-    <row customFormat="1" r="35" s="13" spans="1:18">
+    <row r="35" spans="1:18" s="13" customFormat="1">
       <c r="A35" s="25" t="s">
         <v>29</v>
       </c>
@@ -4081,7 +3497,7 @@
         <v>186</v>
       </c>
     </row>
-    <row customFormat="1" r="36" s="13" spans="1:18">
+    <row r="36" spans="1:18" s="13" customFormat="1">
       <c r="A36" s="25" t="s">
         <v>187</v>
       </c>
@@ -4137,7 +3553,7 @@
         <v>190</v>
       </c>
     </row>
-    <row customFormat="1" r="37" s="13" spans="1:18">
+    <row r="37" spans="1:18" s="13" customFormat="1">
       <c r="A37" s="25" t="s">
         <v>191</v>
       </c>
@@ -4193,7 +3609,7 @@
         <v>196</v>
       </c>
     </row>
-    <row customFormat="1" r="38" s="13" spans="1:18">
+    <row r="38" spans="1:18" s="13" customFormat="1">
       <c r="A38" s="25" t="s">
         <v>197</v>
       </c>
@@ -4249,7 +3665,7 @@
         <v>200</v>
       </c>
     </row>
-    <row customFormat="1" r="39" s="13" spans="1:18">
+    <row r="39" spans="1:18" s="13" customFormat="1">
       <c r="A39" s="25" t="s">
         <v>27</v>
       </c>
@@ -4305,7 +3721,7 @@
         <v>203</v>
       </c>
     </row>
-    <row customFormat="1" r="40" s="13" spans="1:18">
+    <row r="40" spans="1:18" s="13" customFormat="1">
       <c r="A40" s="25" t="s">
         <v>204</v>
       </c>
@@ -4361,7 +3777,7 @@
         <v>208</v>
       </c>
     </row>
-    <row customFormat="1" r="41" s="13" spans="1:18">
+    <row r="41" spans="1:18" s="13" customFormat="1">
       <c r="A41" s="25" t="s">
         <v>209</v>
       </c>
@@ -4417,7 +3833,7 @@
         <v>203</v>
       </c>
     </row>
-    <row customFormat="1" r="42" s="13" spans="1:18">
+    <row r="42" spans="1:18" s="13" customFormat="1">
       <c r="A42" s="25" t="s">
         <v>210</v>
       </c>
@@ -4473,7 +3889,7 @@
         <v>215</v>
       </c>
     </row>
-    <row customFormat="1" r="43" s="13" spans="1:18">
+    <row r="43" spans="1:18" s="13" customFormat="1">
       <c r="A43" s="25" t="s">
         <v>216</v>
       </c>
@@ -4529,7 +3945,7 @@
         <v>219</v>
       </c>
     </row>
-    <row customFormat="1" r="44" s="13" spans="1:18">
+    <row r="44" spans="1:18" s="13" customFormat="1">
       <c r="A44" s="25" t="s">
         <v>220</v>
       </c>
@@ -4585,7 +4001,7 @@
         <v>88</v>
       </c>
     </row>
-    <row customFormat="1" r="45" s="13" spans="1:18">
+    <row r="45" spans="1:18" s="13" customFormat="1">
       <c r="A45" s="25" t="s">
         <v>221</v>
       </c>
@@ -4641,7 +4057,7 @@
         <v>88</v>
       </c>
     </row>
-    <row customFormat="1" r="46" s="18" spans="1:18">
+    <row r="46" spans="1:18" s="18" customFormat="1">
       <c r="A46" s="33" t="s">
         <v>222</v>
       </c>
@@ -4663,7 +4079,7 @@
       <c r="Q46" s="34"/>
       <c r="R46" s="34"/>
     </row>
-    <row customFormat="1" r="47" s="13" spans="1:18">
+    <row r="47" spans="1:18" s="13" customFormat="1">
       <c r="A47" s="25" t="s">
         <v>223</v>
       </c>
@@ -4719,7 +4135,7 @@
         <v>224</v>
       </c>
     </row>
-    <row customFormat="1" r="48" s="13" spans="1:16">
+    <row r="48" spans="1:18" s="13" customFormat="1">
       <c r="A48" s="25"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -4737,92 +4153,90 @@
       <c r="O48" s="25"/>
       <c r="P48" s="25"/>
     </row>
-    <row customFormat="1" r="49" s="13" spans="2:8">
+    <row r="49" spans="2:8" s="13" customFormat="1">
       <c r="B49" s="20"/>
       <c r="C49" s="14"/>
       <c r="H49" s="25"/>
     </row>
-    <row customHeight="1" ht="29" r="50" spans="2:3">
+    <row r="50" spans="2:8" ht="29.1" customHeight="1">
       <c r="B50" s="20"/>
       <c r="C50" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="B24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="B25"/>
-    <hyperlink display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="B42"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="C24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="C25"/>
-    <hyperlink display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="C42"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="D24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="D25"/>
-    <hyperlink display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="D42"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="E24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="E25"/>
-    <hyperlink display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="E42"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="F24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="F25"/>
-    <hyperlink display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="F42"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="I24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="I25"/>
-    <hyperlink display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="I42"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="J24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="J25"/>
-    <hyperlink display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="J42"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="K24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="K25"/>
-    <hyperlink display="&quot;MARVIN.SUTANTO@DOCSOL.ID&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="K42"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="L24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="L25"/>
-    <hyperlink display="&quot;MARVIN.SUTANTO@DOCSOL.ID&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="L42"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="M24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="M25"/>
-    <hyperlink display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="M42"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="G24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="G25"/>
-    <hyperlink display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="G42"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="H24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="H25"/>
-    <hyperlink display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="H42"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="N24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="N25"/>
-    <hyperlink display="&quot;MARVIN.SUTANTO@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="N42"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="O24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="O25"/>
-    <hyperlink display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="O42"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="P24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="P25"/>
-    <hyperlink display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="P42"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="Q24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="Q25"/>
-    <hyperlink display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="Q42"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;" r:id="rId1" ref="R24"/>
-    <hyperlink display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;" r:id="rId2" ref="R25"/>
-    <hyperlink display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;" r:id="rId3" ref="R42"/>
+    <hyperlink ref="B24" r:id="rId1"/>
+    <hyperlink ref="B25" r:id="rId2"/>
+    <hyperlink ref="B42" r:id="rId3"/>
+    <hyperlink ref="C24" r:id="rId4"/>
+    <hyperlink ref="C25" r:id="rId5"/>
+    <hyperlink ref="C42" r:id="rId6"/>
+    <hyperlink ref="D24" r:id="rId7"/>
+    <hyperlink ref="D25" r:id="rId8"/>
+    <hyperlink ref="D42" r:id="rId9"/>
+    <hyperlink ref="E24" r:id="rId10"/>
+    <hyperlink ref="E25" r:id="rId11"/>
+    <hyperlink ref="E42" r:id="rId12"/>
+    <hyperlink ref="F24" r:id="rId13"/>
+    <hyperlink ref="F25" r:id="rId14"/>
+    <hyperlink ref="F42" r:id="rId15"/>
+    <hyperlink ref="I24" r:id="rId16"/>
+    <hyperlink ref="I25" r:id="rId17"/>
+    <hyperlink ref="I42" r:id="rId18"/>
+    <hyperlink ref="J24" r:id="rId19"/>
+    <hyperlink ref="J25" r:id="rId20"/>
+    <hyperlink ref="J42" r:id="rId21"/>
+    <hyperlink ref="K24" r:id="rId22"/>
+    <hyperlink ref="K25" r:id="rId23"/>
+    <hyperlink ref="K42" r:id="rId24"/>
+    <hyperlink ref="L24" r:id="rId25"/>
+    <hyperlink ref="L25" r:id="rId26"/>
+    <hyperlink ref="L42" r:id="rId27"/>
+    <hyperlink ref="M24" r:id="rId28"/>
+    <hyperlink ref="M25" r:id="rId29"/>
+    <hyperlink ref="M42" r:id="rId30"/>
+    <hyperlink ref="G24" r:id="rId31"/>
+    <hyperlink ref="G25" r:id="rId32"/>
+    <hyperlink ref="G42" r:id="rId33"/>
+    <hyperlink ref="H24" r:id="rId34"/>
+    <hyperlink ref="H25" r:id="rId35"/>
+    <hyperlink ref="H42" r:id="rId36"/>
+    <hyperlink ref="N24" r:id="rId37"/>
+    <hyperlink ref="N25" r:id="rId38"/>
+    <hyperlink ref="N42" r:id="rId39"/>
+    <hyperlink ref="O24" r:id="rId40"/>
+    <hyperlink ref="O25" r:id="rId41"/>
+    <hyperlink ref="O42" r:id="rId42"/>
+    <hyperlink ref="P24" r:id="rId43"/>
+    <hyperlink ref="P25" r:id="rId44"/>
+    <hyperlink ref="P42" r:id="rId45"/>
+    <hyperlink ref="Q24" r:id="rId46"/>
+    <hyperlink ref="Q25" r:id="rId47"/>
+    <hyperlink ref="Q42" r:id="rId48"/>
+    <hyperlink ref="R24" r:id="rId49"/>
+    <hyperlink ref="R25" r:id="rId50"/>
+    <hyperlink ref="R42" r:id="rId51"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.4272727272727" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.1363636363636" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.0909090909091" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.5454545454545" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.5454545454545" collapsed="true"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4899,6 +4313,427 @@
         <f>COUNTIFS($A9:$A25,"*$*",F9:F25,"")</f>
         <v>2</v>
       </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="45">
+      <c r="A7" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1">
+      <c r="A8" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1">
+      <c r="A10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1">
+      <c r="A12" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="10"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="10"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="10"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="10"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>"SMS, Email"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Edit, Resend"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 C16">
+      <formula1>"""M"",""F"","""""</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <f>IF(B7="Email",COUNTIFS($A11,"*$*",B11,""),IF(B7="id no",COUNTIFS($A9,"*$*",B9,""),IF(B7="Phone",COUNTIFS($A10,"*$*",B10,""))))</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
@@ -4908,356 +4743,78 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row customFormat="1" ht="29" r="7" s="1" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row customFormat="1" r="8" s="2" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>232</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row customFormat="1" r="10" s="2" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row customFormat="1" r="12" s="2" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="10"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="10"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="10"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="10"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B38" type="list">
-      <formula1>"SMS, Email"</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+      <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"Edit, Resend"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16 C16" type="list">
-      <formula1>"""M"",""F"","""""</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\Katalon Studio\ATeSign\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="7065" windowWidth="18525" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BuatUndangan" sheetId="2" r:id="rId1"/>
-    <sheet name="API Send Document" sheetId="4" r:id="rId2"/>
-    <sheet name="API Generate Inv Link" sheetId="6" r:id="rId3"/>
-    <sheet name="PencarianPengguna" sheetId="7" r:id="rId4"/>
+    <sheet name="BuatUndangan" r:id="rId1" sheetId="2"/>
+    <sheet name="API Send Document" r:id="rId2" sheetId="4"/>
+    <sheet name="API Generate Inv Link" r:id="rId3" sheetId="6"/>
+    <sheet name="PencarianPengguna" r:id="rId4" sheetId="7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -27,7 +27,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A13" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A13" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="255">
   <si>
     <t>Status</t>
   </si>
@@ -858,13 +858,14 @@
     <t>$Email</t>
   </si>
   <si>
-    <t>Edit</t>
+    <t>Resend Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -1006,76 +1007,76 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1092,10 +1093,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1259,21 +1260,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1290,7 +1291,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1344,8 +1345,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -1353,8 +1354,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1701,32 +1702,32 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B32" type="list">
       <formula1>"SMS, Email"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
       <formula1>"Edit, Resend"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
       <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13" type="list">
       <formula1>"M, F"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
-    <hyperlink ref="B33" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="B15" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
+    <hyperlink r:id="rId2" ref="B33"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
@@ -1734,26 +1735,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="63" style="19" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.28515625" style="19" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="21" style="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.7109375" style="19" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.7109375" style="19" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.42578125" style="19" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.28515625" style="19" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.7109375" style="19" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.42578125" style="19" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.85546875" style="19" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.28515625" style="19" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.140625" style="19" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.28515625" style="19" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="27" style="19" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="21.7109375" style="19" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="9" style="19" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="19" width="63.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="19" width="39.28515625" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" style="19" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="19" width="21.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="19" width="20.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="19" width="21.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="19" width="21.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="19" width="25.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="19" width="24.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="19" width="17.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="19" width="19.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="19" width="27.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="19" width="21.7109375" collapsed="true"/>
+    <col min="19" max="16384" style="19" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="1" s="13" spans="1:18">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="2" s="13" spans="1:18">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -1865,13 +1866,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="3" s="13" spans="1:18">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="4" s="13" spans="1:18">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -1880,59 +1881,59 @@
         <v>0</v>
       </c>
       <c r="C4" s="14">
-        <f t="shared" ref="C4:P4" si="0">COUNTIFS($A9:$A47,"*$*",C9:C47,"")</f>
+        <f ref="C4:P4" si="0" t="shared">COUNTIFS($A9:$A47,"*$*",C9:C47,"")</f>
         <v>0</v>
       </c>
       <c r="D4" s="14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4" s="14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q4" s="14">
@@ -1940,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="5" s="13" spans="1:18">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -1957,7 +1958,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
     </row>
-    <row r="6" spans="1:18" s="14" customFormat="1" ht="90">
+    <row customFormat="1" ht="90" r="6" s="14" spans="1:18">
       <c r="A6" s="20" t="s">
         <v>67</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="7" s="13" spans="1:18">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -2033,7 +2034,7 @@
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
     </row>
-    <row r="8" spans="1:18" s="15" customFormat="1">
+    <row customFormat="1" r="8" s="15" spans="1:18">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="24"/>
@@ -2053,7 +2054,7 @@
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
     </row>
-    <row r="9" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="9" s="13" spans="1:18">
       <c r="A9" s="25" t="s">
         <v>85</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="16" customFormat="1">
+    <row customFormat="1" r="10" s="16" spans="1:18">
       <c r="A10" s="26" t="s">
         <v>89</v>
       </c>
@@ -2131,7 +2132,7 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
     </row>
-    <row r="11" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="11" s="13" spans="1:18">
       <c r="A11" s="25" t="s">
         <v>90</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="12" s="13" spans="1:18">
       <c r="A12" s="25" t="s">
         <v>106</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="13" s="13" spans="1:18">
       <c r="A13" s="25" t="s">
         <v>107</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="14" s="13" spans="1:18">
       <c r="A14" s="25" t="s">
         <v>111</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="15" s="13" spans="1:18">
       <c r="A15" s="25" t="s">
         <v>113</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="16" s="13" spans="1:18">
       <c r="A16" s="25" t="s">
         <v>115</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="17" s="13" spans="1:18">
       <c r="A17" s="25" t="s">
         <v>118</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="18" s="13" spans="1:18">
       <c r="A18" s="25" t="s">
         <v>121</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="19" s="13" spans="1:18">
       <c r="A19" s="25" t="s">
         <v>123</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="20" s="13" spans="1:18">
       <c r="A20" s="25" t="s">
         <v>125</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="21" s="13" spans="1:18">
       <c r="A21" s="25" t="s">
         <v>126</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="22" s="13" spans="1:18">
       <c r="A22" s="25" t="s">
         <v>128</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="23" s="13" spans="1:18">
       <c r="A23" s="25" t="s">
         <v>129</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="24" s="13" spans="1:18">
       <c r="A24" s="25" t="s">
         <v>132</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="25" s="13" spans="1:18">
       <c r="A25" s="25" t="s">
         <v>134</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="17" customFormat="1">
+    <row customFormat="1" r="26" s="17" spans="1:18">
       <c r="A26" s="26" t="s">
         <v>136</v>
       </c>
@@ -2993,7 +2994,7 @@
       <c r="Q26" s="26"/>
       <c r="R26" s="26"/>
     </row>
-    <row r="27" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="27" s="13" spans="1:18">
       <c r="A27" s="25" t="s">
         <v>137</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="28" s="13" spans="1:18">
       <c r="A28" s="25" t="s">
         <v>142</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="29" s="13" spans="1:18">
       <c r="A29" s="25" t="s">
         <v>148</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="30" s="13" spans="1:18">
       <c r="A30" s="25" t="s">
         <v>152</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="31" s="13" spans="1:18">
       <c r="A31" s="25" t="s">
         <v>170</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="32" s="13" spans="1:18">
       <c r="A32" s="25" t="s">
         <v>31</v>
       </c>
@@ -3329,7 +3330,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="33" s="13" spans="1:18">
       <c r="A33" s="25" t="s">
         <v>33</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="34" s="13" spans="1:18">
       <c r="A34" s="25" t="s">
         <v>180</v>
       </c>
@@ -3441,7 +3442,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="35" s="13" spans="1:18">
       <c r="A35" s="25" t="s">
         <v>29</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="36" s="13" spans="1:18">
       <c r="A36" s="25" t="s">
         <v>187</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="37" s="13" spans="1:18">
       <c r="A37" s="25" t="s">
         <v>191</v>
       </c>
@@ -3609,7 +3610,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="38" s="13" spans="1:18">
       <c r="A38" s="25" t="s">
         <v>197</v>
       </c>
@@ -3665,7 +3666,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="39" s="13" spans="1:18">
       <c r="A39" s="25" t="s">
         <v>27</v>
       </c>
@@ -3721,7 +3722,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="40" s="13" spans="1:18">
       <c r="A40" s="25" t="s">
         <v>204</v>
       </c>
@@ -3777,7 +3778,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="41" s="13" spans="1:18">
       <c r="A41" s="25" t="s">
         <v>209</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="42" s="13" spans="1:18">
       <c r="A42" s="25" t="s">
         <v>210</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="43" s="13" spans="1:18">
       <c r="A43" s="25" t="s">
         <v>216</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="44" s="13" spans="1:18">
       <c r="A44" s="25" t="s">
         <v>220</v>
       </c>
@@ -4001,7 +4002,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="45" s="13" spans="1:18">
       <c r="A45" s="25" t="s">
         <v>221</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="18" customFormat="1">
+    <row customFormat="1" r="46" s="18" spans="1:18">
       <c r="A46" s="33" t="s">
         <v>222</v>
       </c>
@@ -4079,7 +4080,7 @@
       <c r="Q46" s="34"/>
       <c r="R46" s="34"/>
     </row>
-    <row r="47" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="47" s="13" spans="1:18">
       <c r="A47" s="25" t="s">
         <v>223</v>
       </c>
@@ -4135,7 +4136,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="13" customFormat="1">
+    <row customFormat="1" r="48" s="13" spans="1:18">
       <c r="A48" s="25"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -4153,77 +4154,77 @@
       <c r="O48" s="25"/>
       <c r="P48" s="25"/>
     </row>
-    <row r="49" spans="2:8" s="13" customFormat="1">
+    <row customFormat="1" r="49" s="13" spans="2:8">
       <c r="B49" s="20"/>
       <c r="C49" s="14"/>
       <c r="H49" s="25"/>
     </row>
-    <row r="50" spans="2:8" ht="29.1" customHeight="1">
+    <row customHeight="1" ht="29.1" r="50" spans="2:8">
       <c r="B50" s="20"/>
       <c r="C50" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1"/>
-    <hyperlink ref="B25" r:id="rId2"/>
-    <hyperlink ref="B42" r:id="rId3"/>
-    <hyperlink ref="C24" r:id="rId4"/>
-    <hyperlink ref="C25" r:id="rId5"/>
-    <hyperlink ref="C42" r:id="rId6"/>
-    <hyperlink ref="D24" r:id="rId7"/>
-    <hyperlink ref="D25" r:id="rId8"/>
-    <hyperlink ref="D42" r:id="rId9"/>
-    <hyperlink ref="E24" r:id="rId10"/>
-    <hyperlink ref="E25" r:id="rId11"/>
-    <hyperlink ref="E42" r:id="rId12"/>
-    <hyperlink ref="F24" r:id="rId13"/>
-    <hyperlink ref="F25" r:id="rId14"/>
-    <hyperlink ref="F42" r:id="rId15"/>
-    <hyperlink ref="I24" r:id="rId16"/>
-    <hyperlink ref="I25" r:id="rId17"/>
-    <hyperlink ref="I42" r:id="rId18"/>
-    <hyperlink ref="J24" r:id="rId19"/>
-    <hyperlink ref="J25" r:id="rId20"/>
-    <hyperlink ref="J42" r:id="rId21"/>
-    <hyperlink ref="K24" r:id="rId22"/>
-    <hyperlink ref="K25" r:id="rId23"/>
-    <hyperlink ref="K42" r:id="rId24"/>
-    <hyperlink ref="L24" r:id="rId25"/>
-    <hyperlink ref="L25" r:id="rId26"/>
-    <hyperlink ref="L42" r:id="rId27"/>
-    <hyperlink ref="M24" r:id="rId28"/>
-    <hyperlink ref="M25" r:id="rId29"/>
-    <hyperlink ref="M42" r:id="rId30"/>
-    <hyperlink ref="G24" r:id="rId31"/>
-    <hyperlink ref="G25" r:id="rId32"/>
-    <hyperlink ref="G42" r:id="rId33"/>
-    <hyperlink ref="H24" r:id="rId34"/>
-    <hyperlink ref="H25" r:id="rId35"/>
-    <hyperlink ref="H42" r:id="rId36"/>
-    <hyperlink ref="N24" r:id="rId37"/>
-    <hyperlink ref="N25" r:id="rId38"/>
-    <hyperlink ref="N42" r:id="rId39"/>
-    <hyperlink ref="O24" r:id="rId40"/>
-    <hyperlink ref="O25" r:id="rId41"/>
-    <hyperlink ref="O42" r:id="rId42"/>
-    <hyperlink ref="P24" r:id="rId43"/>
-    <hyperlink ref="P25" r:id="rId44"/>
-    <hyperlink ref="P42" r:id="rId45"/>
-    <hyperlink ref="Q24" r:id="rId46"/>
-    <hyperlink ref="Q25" r:id="rId47"/>
-    <hyperlink ref="Q42" r:id="rId48"/>
-    <hyperlink ref="R24" r:id="rId49"/>
-    <hyperlink ref="R25" r:id="rId50"/>
-    <hyperlink ref="R42" r:id="rId51"/>
+    <hyperlink r:id="rId1" ref="B24"/>
+    <hyperlink r:id="rId2" ref="B25"/>
+    <hyperlink r:id="rId3" ref="B42"/>
+    <hyperlink r:id="rId4" ref="C24"/>
+    <hyperlink r:id="rId5" ref="C25"/>
+    <hyperlink r:id="rId6" ref="C42"/>
+    <hyperlink r:id="rId7" ref="D24"/>
+    <hyperlink r:id="rId8" ref="D25"/>
+    <hyperlink r:id="rId9" ref="D42"/>
+    <hyperlink r:id="rId10" ref="E24"/>
+    <hyperlink r:id="rId11" ref="E25"/>
+    <hyperlink r:id="rId12" ref="E42"/>
+    <hyperlink r:id="rId13" ref="F24"/>
+    <hyperlink r:id="rId14" ref="F25"/>
+    <hyperlink r:id="rId15" ref="F42"/>
+    <hyperlink r:id="rId16" ref="I24"/>
+    <hyperlink r:id="rId17" ref="I25"/>
+    <hyperlink r:id="rId18" ref="I42"/>
+    <hyperlink r:id="rId19" ref="J24"/>
+    <hyperlink r:id="rId20" ref="J25"/>
+    <hyperlink r:id="rId21" ref="J42"/>
+    <hyperlink r:id="rId22" ref="K24"/>
+    <hyperlink r:id="rId23" ref="K25"/>
+    <hyperlink r:id="rId24" ref="K42"/>
+    <hyperlink r:id="rId25" ref="L24"/>
+    <hyperlink r:id="rId26" ref="L25"/>
+    <hyperlink r:id="rId27" ref="L42"/>
+    <hyperlink r:id="rId28" ref="M24"/>
+    <hyperlink r:id="rId29" ref="M25"/>
+    <hyperlink r:id="rId30" ref="M42"/>
+    <hyperlink r:id="rId31" ref="G24"/>
+    <hyperlink r:id="rId32" ref="G25"/>
+    <hyperlink r:id="rId33" ref="G42"/>
+    <hyperlink r:id="rId34" ref="H24"/>
+    <hyperlink r:id="rId35" ref="H25"/>
+    <hyperlink r:id="rId36" ref="H42"/>
+    <hyperlink r:id="rId37" ref="N24"/>
+    <hyperlink r:id="rId38" ref="N25"/>
+    <hyperlink r:id="rId39" ref="N42"/>
+    <hyperlink r:id="rId40" ref="O24"/>
+    <hyperlink r:id="rId41" ref="O25"/>
+    <hyperlink r:id="rId42" ref="O42"/>
+    <hyperlink r:id="rId43" ref="P24"/>
+    <hyperlink r:id="rId44" ref="P25"/>
+    <hyperlink r:id="rId45" ref="P42"/>
+    <hyperlink r:id="rId46" ref="Q24"/>
+    <hyperlink r:id="rId47" ref="Q25"/>
+    <hyperlink r:id="rId48" ref="Q42"/>
+    <hyperlink r:id="rId49" ref="R24"/>
+    <hyperlink r:id="rId50" ref="R25"/>
+    <hyperlink r:id="rId51" ref="R42"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -4231,12 +4232,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4328,7 +4329,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="7" s="1" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>225</v>
       </c>
@@ -4348,7 +4349,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1">
+    <row customFormat="1" r="8" s="2" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>231</v>
       </c>
@@ -4370,7 +4371,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1">
+    <row customFormat="1" r="10" s="2" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>233</v>
       </c>
@@ -4392,7 +4393,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
+    <row customFormat="1" r="12" s="2" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>234</v>
       </c>
@@ -4658,34 +4659,34 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B38" type="list">
       <formula1>"SMS, Email"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
       <formula1>"Edit, Resend"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 C16">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16 C16" type="list">
       <formula1>"""M"",""F"","""""</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4693,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4806,15 +4807,15 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
       <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>"Edit, Resend"</formula1>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
+      <formula1>"Edit, Resend OTP, Resend Link"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\Katalon Studio\ATeSign\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="7065" windowWidth="18525" xWindow="0" yWindow="0"/>
+    <workbookView windowWidth="18530" windowHeight="7070" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="BuatUndangan" r:id="rId1" sheetId="2"/>
-    <sheet name="API Send Document" r:id="rId2" sheetId="4"/>
-    <sheet name="API Generate Inv Link" r:id="rId3" sheetId="6"/>
-    <sheet name="PencarianPengguna" r:id="rId4" sheetId="7"/>
+    <sheet name="BuatUndangan" sheetId="2" r:id="rId1"/>
+    <sheet name="API Send Document" sheetId="4" r:id="rId2"/>
+    <sheet name="API Generate Inv Link" sheetId="6" r:id="rId3"/>
+    <sheet name="PencarianPengguna" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -27,7 +22,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A13" shapeId="0">
+    <comment ref="A13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +55,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A13" shapeId="0">
+    <comment ref="A13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,159 +83,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="309">
   <si>
     <t>Status</t>
   </si>
   <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>Reason Failed</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Is Mandatory Complete</t>
+  </si>
+  <si>
+    <t>Inquiry Invitation Action</t>
+  </si>
+  <si>
+    <t>Resend</t>
+  </si>
+  <si>
+    <t>Input with</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Data Diri</t>
+  </si>
+  <si>
+    <t>$NIK</t>
+  </si>
+  <si>
+    <t>1616161616161618</t>
+  </si>
+  <si>
+    <t>$Nama</t>
+  </si>
+  <si>
+    <t>Wikiy Hendraa</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
+  </si>
+  <si>
+    <t>Palembang</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>01/01/2003</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>$No Handphone</t>
+  </si>
+  <si>
+    <t>088888888888881</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>wikiy.hendraa@ad-ins.com</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>jl kemang</t>
+  </si>
+  <si>
+    <t>provinsi</t>
+  </si>
+  <si>
+    <t>jakarta</t>
+  </si>
+  <si>
+    <t>kota</t>
+  </si>
+  <si>
+    <t>jakarta barat</t>
+  </si>
+  <si>
+    <t>kecamatan</t>
+  </si>
+  <si>
+    <t>kebon</t>
+  </si>
+  <si>
+    <t>kelurahan</t>
+  </si>
+  <si>
+    <t>jeruk</t>
+  </si>
+  <si>
+    <t>Kode Pos</t>
+  </si>
+  <si>
+    <t>Wilayah</t>
+  </si>
+  <si>
+    <t>apel</t>
+  </si>
+  <si>
+    <t>Data Perusahaan</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Lini Bisnis</t>
+  </si>
+  <si>
+    <t>Task No</t>
+  </si>
+  <si>
+    <t>Daftar Akun</t>
+  </si>
+  <si>
+    <t>Syarat dan Ketentuan Daftar Akun</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Foto KTP</t>
+  </si>
+  <si>
+    <t>Edit Invitation Inquiry</t>
+  </si>
+  <si>
+    <t>Invite By</t>
+  </si>
+  <si>
+    <t>Receiver Detail</t>
+  </si>
+  <si>
+    <t>fendytioxak112@gmail.com</t>
+  </si>
+  <si>
     <t>Unexecuted</t>
-  </si>
-  <si>
-    <t>Reason Failed</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Objective</t>
-  </si>
-  <si>
-    <t>Is Mandatory Complete</t>
-  </si>
-  <si>
-    <t>Inquiry Invitation Action</t>
-  </si>
-  <si>
-    <t>Resend</t>
-  </si>
-  <si>
-    <t>Input with</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Data Diri</t>
-  </si>
-  <si>
-    <t>$NIK</t>
-  </si>
-  <si>
-    <t>1616161616161618</t>
-  </si>
-  <si>
-    <t>$Nama</t>
-  </si>
-  <si>
-    <t>Wikiy Hendraa</t>
-  </si>
-  <si>
-    <t>Tempat Lahir</t>
-  </si>
-  <si>
-    <t>Palembang</t>
-  </si>
-  <si>
-    <t>Tanggal Lahir</t>
-  </si>
-  <si>
-    <t>01/01/2003</t>
-  </si>
-  <si>
-    <t>Jenis Kelamin</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>$No Handphone</t>
-  </si>
-  <si>
-    <t>088888888888881</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>wikiy.hendraa@ad-ins.com</t>
-  </si>
-  <si>
-    <t>Alamat</t>
-  </si>
-  <si>
-    <t>jl kemang</t>
-  </si>
-  <si>
-    <t>provinsi</t>
-  </si>
-  <si>
-    <t>jakarta</t>
-  </si>
-  <si>
-    <t>kota</t>
-  </si>
-  <si>
-    <t>jakarta barat</t>
-  </si>
-  <si>
-    <t>kecamatan</t>
-  </si>
-  <si>
-    <t>kebon</t>
-  </si>
-  <si>
-    <t>kelurahan</t>
-  </si>
-  <si>
-    <t>jeruk</t>
-  </si>
-  <si>
-    <t>Kode Pos</t>
-  </si>
-  <si>
-    <t>Wilayah</t>
-  </si>
-  <si>
-    <t>apel</t>
-  </si>
-  <si>
-    <t>Data Perusahaan</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t>Lini Bisnis</t>
-  </si>
-  <si>
-    <t>Task No</t>
-  </si>
-  <si>
-    <t>Daftar Akun</t>
-  </si>
-  <si>
-    <t>Syarat dan Ketentuan Daftar Akun</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Foto KTP</t>
-  </si>
-  <si>
-    <t>Edit Invitation Inquiry</t>
-  </si>
-  <si>
-    <t>Invite By</t>
-  </si>
-  <si>
-    <t>Receiver Detail</t>
-  </si>
-  <si>
-    <t>fendytioxak112@gmail.com</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
   </si>
   <si>
     <t>FAILED</t>
@@ -771,28 +766,102 @@
     <t>"confins"</t>
   </si>
   <si>
+    <t>Geenrate Link Success</t>
+  </si>
+  <si>
+    <t>Geenrate Link Success dengan tanpa email</t>
+  </si>
+  <si>
     <t>Deskripsi</t>
   </si>
   <si>
-    <t>Success, email sebagai filter  receiver_detail</t>
-  </si>
-  <si>
-    <t>Success, tlp sebagai filter di receiver_detail</t>
-  </si>
-  <si>
-    <t>Error, Tidak mengisi mandatory</t>
-  </si>
-  <si>
-    <t>Error, ktp sudah ada yang punya</t>
-  </si>
-  <si>
-    <t>Error, no telp sudah dipakai</t>
+    <t>nik ada email ada telp ada(success, dbnya beda di usr_crt, reverseDetail). Input email</t>
+  </si>
+  <si>
+    <t>email gaada telp ada (success). Input telp</t>
+  </si>
+  <si>
+    <t>email gaada nik ada telp ada (success). Input nik</t>
+  </si>
+  <si>
+    <t>Telp tidak valid</t>
+  </si>
+  <si>
+    <t>Telp sudah digunakan</t>
+  </si>
+  <si>
+    <t>Email tidak valid</t>
+  </si>
+  <si>
+    <t>Email sudah digunakan</t>
+  </si>
+  <si>
+    <t>Email ada, nomor telp gaada (success)</t>
+  </si>
+  <si>
+    <t>nik tidak valid</t>
+  </si>
+  <si>
+    <t>nik lebih dari 16 char</t>
+  </si>
+  <si>
+    <t>nik sudah digunakan</t>
+  </si>
+  <si>
+    <t>tenant Code kosong</t>
+  </si>
+  <si>
+    <t>datenya tidak sesuai dengan format
+yang benar : tahun-bulan-tanggal
+error : parsable date error</t>
+  </si>
+  <si>
+    <t>tenant Code berbeda dari user login</t>
+  </si>
+  <si>
+    <t>Id no</t>
   </si>
   <si>
     <t>Audit</t>
   </si>
   <si>
-    <t>"USER CEERTE"</t>
+    <t>"USER CEERTE 1"</t>
+  </si>
+  <si>
+    <t>"USER CEERTE 2"</t>
+  </si>
+  <si>
+    <t>"USER CEERTE 3"</t>
+  </si>
+  <si>
+    <t>"USER CEERTE 4"</t>
+  </si>
+  <si>
+    <t>"USER CEERTE 5"</t>
+  </si>
+  <si>
+    <t>"USER CEERTE 6"</t>
+  </si>
+  <si>
+    <t>"USER CEERTE 7"</t>
+  </si>
+  <si>
+    <t>"USER CEERTE 8"</t>
+  </si>
+  <si>
+    <t>"USER CEERTE 9"</t>
+  </si>
+  <si>
+    <t>"USER CEERTE 10"</t>
+  </si>
+  <si>
+    <t>"USER CEERTE 11"</t>
+  </si>
+  <si>
+    <t>"USER CEERTE 12"</t>
+  </si>
+  <si>
+    <t>"USER CEERTE 13"</t>
   </si>
   <si>
     <t>tenantCode</t>
@@ -804,6 +873,15 @@
     <t>email</t>
   </si>
   <si>
+    <t>"wiki@ad-ins.com"</t>
+  </si>
+  <si>
+    <t>"wiky.hendra"</t>
+  </si>
+  <si>
+    <t>"wiky.hendra@gemail.com"</t>
+  </si>
+  <si>
     <t>"wiky.hendra@gmail.com"</t>
   </si>
   <si>
@@ -813,12 +891,75 @@
     <t>"Wiky Hendra"</t>
   </si>
   <si>
-    <t>"008987654321"</t>
+    <t>tlp</t>
+  </si>
+  <si>
+    <t>"0811811811811"</t>
+  </si>
+  <si>
+    <t>"0822822822822"</t>
+  </si>
+  <si>
+    <t>"0833833833833"</t>
+  </si>
+  <si>
+    <t>"000087654321yes"</t>
+  </si>
+  <si>
+    <t>"0844844844844"</t>
+  </si>
+  <si>
+    <t>"000007654321"</t>
+  </si>
+  <si>
+    <t>"0866866866866"</t>
+  </si>
+  <si>
+    <t>"0888888888888"</t>
+  </si>
+  <si>
+    <t>"00007654321"</t>
   </si>
   <si>
     <t>"M"</t>
   </si>
   <si>
+    <t>"2003-02-02"</t>
+  </si>
+  <si>
+    <t>"2003-02-03"</t>
+  </si>
+  <si>
+    <t>"2003-02-04"</t>
+  </si>
+  <si>
+    <t>"2003-02-05"</t>
+  </si>
+  <si>
+    <t>"2003-02-06"</t>
+  </si>
+  <si>
+    <t>"2003-02-07"</t>
+  </si>
+  <si>
+    <t>"2003-02-08"</t>
+  </si>
+  <si>
+    <t>"2003-02-09"</t>
+  </si>
+  <si>
+    <t>"2003-02-10"</t>
+  </si>
+  <si>
+    <t>"2003-02-11"</t>
+  </si>
+  <si>
+    <t>"2003-02-12"</t>
+  </si>
+  <si>
+    <t>"2003-02-13"</t>
+  </si>
+  <si>
     <t>"01-02-2003"</t>
   </si>
   <si>
@@ -828,6 +969,24 @@
     <t>"6543210987654321"</t>
   </si>
   <si>
+    <t>"6543210987654311"</t>
+  </si>
+  <si>
+    <t>"6543210987654111"</t>
+  </si>
+  <si>
+    <t>"6543210981111111"</t>
+  </si>
+  <si>
+    <t>"6543210987651111"</t>
+  </si>
+  <si>
+    <t>"6543210987654yes"</t>
+  </si>
+  <si>
+    <t>"6543210987654111yes"</t>
+  </si>
+  <si>
     <t>"Jawa Barat"</t>
   </si>
   <si>
@@ -846,27 +1005,32 @@
     <t>"JL. SAWO NO.10 BANTAR KEMANG"</t>
   </si>
   <si>
+    <t>Pencarian Pengguna Action</t>
+  </si>
+  <si>
+    <t>Resend Link</t>
+  </si>
+  <si>
+    <t>082146218764421</t>
+  </si>
+  <si>
+    <t>$Email</t>
+  </si>
+  <si>
     <t>KRYSTI.TYFFANY@ESIGNHUB.MY.ID</t>
-  </si>
-  <si>
-    <t>Pencarian Pengguna Action</t>
-  </si>
-  <si>
-    <t>082146218764421</t>
-  </si>
-  <si>
-    <t>$Email</t>
-  </si>
-  <si>
-    <t>Resend Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -920,6 +1084,142 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="1"/>
@@ -929,20 +1229,19 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -958,18 +1257,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14993743705557422"/>
+        <fgColor theme="1" tint="0.149937437055574"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14996795556505021"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1005,84 +1484,367 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  <cellStyleXfs count="51">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="40">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="2"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="2"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="2"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="32" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+  <cellStyles count="51">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Hyperlink 2" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1093,10 +1855,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1260,21 +2022,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1291,7 +2053,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1340,426 +2102,428 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="1" max="1" width="31.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.1363636363636" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <f>COUNTIFS($A9:$A21,"*$*",B9:B21,"")</f>
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>12862</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B32" type="list">
-      <formula1>"SMS, Email"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
+      <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"Edit, Resend"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
-      <formula1>"Phone, Id no, Email"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
+      <formula1>"M, F"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13" type="list">
-      <formula1>"M, F"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
+      <formula1>"SMS, Email"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B15" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
-    <hyperlink r:id="rId2" ref="B33"/>
+    <hyperlink ref="B15" r:id="rId3" display="wikiy.hendraa@ad-ins.com" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
+    <hyperlink ref="B33" r:id="rId4" display="fendytioxak112@gmail.com"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="19" width="24.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="19" width="63.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="19" width="39.28515625" collapsed="true"/>
-    <col min="4" max="6" customWidth="true" style="19" width="21.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="19" width="21.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="19" width="20.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="19" width="21.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="19" width="21.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="19" width="20.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="19" width="25.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="19" width="24.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="19" width="17.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="19" width="19.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="19" width="27.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="19" width="21.7109375" collapsed="true"/>
-    <col min="19" max="16384" style="19" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="24.4272727272727" style="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="63" style="22" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.2818181818182" style="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="21" style="22" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.7090909090909" style="22" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.7090909090909" style="22" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.4272727272727" style="22" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.2818181818182" style="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.7090909090909" style="22" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.4272727272727" style="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.8545454545455" style="22" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.2818181818182" style="22" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.1363636363636" style="22" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.2818181818182" style="22" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="27" style="22" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.7090909090909" style="22" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="9" style="22" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="13" spans="1:18">
+    <row r="1" s="16" customFormat="1" spans="1:18">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>51</v>
@@ -1804,14 +2568,14 @@
         <v>51</v>
       </c>
       <c r="Q1" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="13" spans="1:18">
-      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" s="16" customFormat="1" spans="1:18">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1866,2402 +2630,2430 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="13" spans="1:18">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="16" customFormat="1" spans="1:3">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C3"/>
     </row>
-    <row customFormat="1" r="4" s="13" spans="1:18">
-      <c r="A4" s="13" t="s">
+    <row r="4" s="16" customFormat="1" spans="1:17">
+      <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="17">
         <f>COUNTIFS($A9:$A47,"*$*",B9:B47,"")</f>
         <v>0</v>
       </c>
-      <c r="C4" s="14">
-        <f ref="C4:P4" si="0" t="shared">COUNTIFS($A9:$A47,"*$*",C9:C47,"")</f>
+      <c r="C4" s="17">
+        <f t="shared" ref="C4:P4" si="0">COUNTIFS($A9:$A47,"*$*",C9:C47,"")</f>
         <v>0</v>
       </c>
-      <c r="D4" s="14">
-        <f si="0" t="shared"/>
+      <c r="D4" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="14">
-        <f si="0" t="shared"/>
+      <c r="E4" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="14">
-        <f si="0" t="shared"/>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="14">
-        <f si="0" t="shared"/>
+      <c r="G4" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="14">
-        <f si="0" t="shared"/>
+      <c r="H4" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="14">
-        <f si="0" t="shared"/>
+      <c r="I4" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="14">
-        <f si="0" t="shared"/>
+      <c r="J4" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="14">
-        <f si="0" t="shared"/>
+      <c r="K4" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="14">
-        <f si="0" t="shared"/>
+      <c r="L4" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="14">
-        <f si="0" t="shared"/>
+      <c r="M4" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="14">
-        <f si="0" t="shared"/>
+      <c r="N4" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="14">
-        <f si="0" t="shared"/>
+      <c r="O4" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="14">
-        <f si="0" t="shared"/>
+      <c r="P4" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="17">
         <f>COUNTIFS($A9:$A47,"*$*",Q9:Q47,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="13" spans="1:18">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-    </row>
-    <row customFormat="1" ht="90" r="6" s="14" spans="1:18">
-      <c r="A6" s="20" t="s">
+    <row r="5" s="16" customFormat="1" spans="2:16">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" s="17" customFormat="1" ht="87" spans="1:18">
+      <c r="A6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="13" spans="1:18">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-    </row>
-    <row customFormat="1" r="8" s="15" spans="1:18">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-    </row>
-    <row customFormat="1" r="9" s="13" spans="1:18">
-      <c r="A9" s="25" t="s">
+    <row r="7" s="16" customFormat="1" spans="1:18">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" s="18" customFormat="1" spans="1:18">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+    </row>
+    <row r="9" s="16" customFormat="1" spans="1:18">
+      <c r="A9" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="25" t="s">
+      <c r="F9" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="P9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="16" spans="1:18">
-      <c r="A10" s="26" t="s">
+    <row r="10" s="19" customFormat="1" spans="1:18">
+      <c r="A10" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-    </row>
-    <row customFormat="1" r="11" s="13" spans="1:18">
-      <c r="A11" s="25" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+    </row>
+    <row r="11" s="16" customFormat="1" spans="1:18">
+      <c r="A11" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="O11" s="25" t="s">
+      <c r="O11" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="P11" s="25" t="s">
+      <c r="P11" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="Q11" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="13" spans="1:18">
-      <c r="A12" s="25" t="s">
+    <row r="12" s="16" customFormat="1" spans="1:18">
+      <c r="A12" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="O12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="P12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="R12" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row customFormat="1" r="13" s="13" spans="1:18">
-      <c r="A13" s="25" t="s">
+      <c r="B12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" s="16" customFormat="1" spans="1:18">
+      <c r="A13" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="I13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="N13" s="28" t="s">
+      <c r="N13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="O13" s="28" t="s">
+      <c r="O13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="P13" s="28" t="s">
+      <c r="P13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="Q13" s="28" t="s">
+      <c r="Q13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="R13" s="28" t="s">
+      <c r="R13" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="13" spans="1:18">
-      <c r="A14" s="25" t="s">
+    <row r="14" s="16" customFormat="1" spans="1:18">
+      <c r="A14" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="M14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="25" t="s">
+      <c r="N14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="P14" s="25" t="s">
+      <c r="P14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="Q14" s="25" t="s">
+      <c r="Q14" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="R14" s="28" t="s">
         <v>112</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="13" spans="1:18">
-      <c r="A15" s="25" t="s">
+    <row r="15" s="16" customFormat="1" spans="1:18">
+      <c r="A15" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="N15" s="25" t="s">
+      <c r="N15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="P15" s="25" t="s">
+      <c r="P15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="13" spans="1:18">
-      <c r="A16" s="25" t="s">
+    <row r="16" s="16" customFormat="1" spans="1:18">
+      <c r="A16" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="M16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="N16" s="25" t="s">
+      <c r="N16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="O16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="P16" s="25" t="s">
+      <c r="P16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="Q16" s="25" t="s">
+      <c r="Q16" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="28" t="s">
         <v>116</v>
       </c>
     </row>
-    <row customFormat="1" r="17" s="13" spans="1:18">
-      <c r="A17" s="25" t="s">
+    <row r="17" s="16" customFormat="1" spans="1:18">
+      <c r="A17" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="25" t="s">
+      <c r="P17" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="Q17" s="25" t="s">
+      <c r="Q17" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="R17" s="28" t="s">
         <v>119</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="13" spans="1:18">
-      <c r="A18" s="25" t="s">
+    <row r="18" s="16" customFormat="1" spans="1:18">
+      <c r="A18" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="M18" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="N18" s="25" t="s">
+      <c r="N18" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="O18" s="25" t="s">
+      <c r="O18" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="25" t="s">
+      <c r="P18" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="Q18" s="25" t="s">
+      <c r="Q18" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="R18" s="25" t="s">
+      <c r="R18" s="28" t="s">
         <v>122</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="13" spans="1:18">
-      <c r="A19" s="25" t="s">
+    <row r="19" s="16" customFormat="1" spans="1:18">
+      <c r="A19" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="M19" s="25" t="s">
+      <c r="M19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="N19" s="25" t="s">
+      <c r="N19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="O19" s="25" t="s">
+      <c r="O19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="P19" s="25" t="s">
+      <c r="P19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="Q19" s="25" t="s">
+      <c r="Q19" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="R19" s="28" t="s">
         <v>124</v>
       </c>
     </row>
-    <row customFormat="1" r="20" s="13" spans="1:18">
-      <c r="A20" s="25" t="s">
+    <row r="20" s="16" customFormat="1" spans="1:18">
+      <c r="A20" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="M20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="N20" s="25" t="s">
+      <c r="N20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="O20" s="25" t="s">
+      <c r="O20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="25" t="s">
+      <c r="P20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="Q20" s="25" t="s">
+      <c r="Q20" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="R20" s="25" t="s">
+      <c r="R20" s="28" t="s">
         <v>112</v>
       </c>
     </row>
-    <row customFormat="1" r="21" s="13" spans="1:18">
-      <c r="A21" s="25" t="s">
+    <row r="21" s="16" customFormat="1" spans="1:18">
+      <c r="A21" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="M21" s="25" t="s">
+      <c r="M21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="N21" s="25" t="s">
+      <c r="N21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="O21" s="25" t="s">
+      <c r="O21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="P21" s="25" t="s">
+      <c r="P21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="Q21" s="25" t="s">
+      <c r="Q21" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row customFormat="1" r="22" s="13" spans="1:18">
-      <c r="A22" s="25" t="s">
+    <row r="22" s="16" customFormat="1" spans="1:18">
+      <c r="A22" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="N22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="O22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="P22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q22" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="R22" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row customFormat="1" r="23" s="13" spans="1:18">
-      <c r="A23" s="25" t="s">
+      <c r="B22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" s="16" customFormat="1" spans="1:18">
+      <c r="A23" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="M23" s="25" t="s">
+      <c r="M23" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="N23" s="25" t="s">
+      <c r="N23" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="O23" s="25" t="s">
+      <c r="O23" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="P23" s="25" t="s">
+      <c r="P23" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="R23" s="25" t="s">
+      <c r="R23" s="28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row customFormat="1" r="24" s="13" spans="1:18">
-      <c r="A24" s="25" t="s">
+    <row r="24" s="16" customFormat="1" spans="1:18">
+      <c r="A24" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="K24" s="29" t="s">
+      <c r="K24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="L24" s="29" t="s">
+      <c r="L24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="M24" s="29" t="s">
+      <c r="M24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="N24" s="29" t="s">
+      <c r="N24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="O24" s="29" t="s">
+      <c r="O24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="P24" s="29" t="s">
+      <c r="P24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="Q24" s="29" t="s">
+      <c r="Q24" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="R24" s="29" t="s">
+      <c r="R24" s="32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row customFormat="1" r="25" s="13" spans="1:18">
-      <c r="A25" s="25" t="s">
+    <row r="25" s="16" customFormat="1" spans="1:18">
+      <c r="A25" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="K25" s="30" t="s">
+      <c r="K25" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="L25" s="30" t="s">
+      <c r="L25" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="M25" s="30" t="s">
+      <c r="M25" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="N25" s="30" t="s">
+      <c r="N25" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="O25" s="30" t="s">
+      <c r="O25" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="P25" s="30" t="s">
+      <c r="P25" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="Q25" s="30" t="s">
+      <c r="Q25" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="R25" s="30" t="s">
+      <c r="R25" s="33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row customFormat="1" r="26" s="17" spans="1:18">
-      <c r="A26" s="26" t="s">
+    <row r="26" s="20" customFormat="1" spans="1:18">
+      <c r="A26" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-    </row>
-    <row customFormat="1" r="27" s="13" spans="1:18">
-      <c r="A27" s="25" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+    </row>
+    <row r="27" s="16" customFormat="1" spans="1:18">
+      <c r="A27" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="J27" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="L27" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="M27" s="25" t="s">
+      <c r="M27" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="N27" s="25" t="s">
+      <c r="N27" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="O27" s="25" t="s">
+      <c r="O27" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="P27" s="25" t="s">
+      <c r="P27" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="Q27" s="25" t="s">
+      <c r="Q27" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="R27" s="25" t="s">
+      <c r="R27" s="28" t="s">
         <v>141</v>
       </c>
     </row>
-    <row customFormat="1" r="28" s="13" spans="1:18">
-      <c r="A28" s="25" t="s">
+    <row r="28" s="16" customFormat="1" spans="1:18">
+      <c r="A28" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I28" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="M28" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="N28" s="25" t="s">
+      <c r="N28" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="O28" s="25" t="s">
+      <c r="O28" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="P28" s="25" t="s">
+      <c r="P28" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="Q28" s="25" t="s">
+      <c r="Q28" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="R28" s="25" t="s">
+      <c r="R28" s="28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row customFormat="1" r="29" s="13" spans="1:18">
-      <c r="A29" s="25" t="s">
+    <row r="29" s="16" customFormat="1" spans="1:18">
+      <c r="A29" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="I29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="K29" s="25" t="s">
+      <c r="K29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="L29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="M29" s="25" t="s">
+      <c r="M29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="N29" s="25" t="s">
+      <c r="N29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="O29" s="25" t="s">
+      <c r="O29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="P29" s="25" t="s">
+      <c r="P29" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="Q29" s="25" t="s">
+      <c r="Q29" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="R29" s="25" t="s">
+      <c r="R29" s="28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row customFormat="1" r="30" s="13" spans="1:18">
-      <c r="A30" s="25" t="s">
+    <row r="30" s="16" customFormat="1" spans="1:18">
+      <c r="A30" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="I30" s="25" t="s">
+      <c r="I30" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="L30" s="25" t="s">
+      <c r="L30" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="M30" s="25" t="s">
+      <c r="M30" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="N30" s="25" t="s">
+      <c r="N30" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="O30" s="25" t="s">
+      <c r="O30" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="P30" s="25" t="s">
+      <c r="P30" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="Q30" s="25" t="s">
+      <c r="Q30" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="R30" s="25" t="s">
+      <c r="R30" s="28" t="s">
         <v>169</v>
       </c>
     </row>
-    <row customFormat="1" r="31" s="13" spans="1:18">
-      <c r="A31" s="25" t="s">
+    <row r="31" s="16" customFormat="1" spans="1:18">
+      <c r="A31" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="K31" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="L31" s="25" t="s">
+      <c r="L31" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="M31" s="25" t="s">
+      <c r="M31" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="N31" s="25" t="s">
+      <c r="N31" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="O31" s="25" t="s">
+      <c r="O31" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="P31" s="25" t="s">
+      <c r="P31" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="Q31" s="25" t="s">
+      <c r="Q31" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="R31" s="25" t="s">
+      <c r="R31" s="28" t="s">
         <v>173</v>
       </c>
     </row>
-    <row customFormat="1" r="32" s="13" spans="1:18">
-      <c r="A32" s="25" t="s">
+    <row r="32" s="16" customFormat="1" spans="1:18">
+      <c r="A32" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="I32" s="25" t="s">
+      <c r="I32" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="J32" s="25" t="s">
+      <c r="J32" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K32" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="L32" s="25" t="s">
+      <c r="L32" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="M32" s="25" t="s">
+      <c r="M32" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="N32" s="25" t="s">
+      <c r="N32" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="O32" s="25" t="s">
+      <c r="O32" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="P32" s="25" t="s">
+      <c r="P32" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="Q32" s="25" t="s">
+      <c r="Q32" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="R32" s="25" t="s">
+      <c r="R32" s="28" t="s">
         <v>176</v>
       </c>
     </row>
-    <row customFormat="1" r="33" s="13" spans="1:18">
-      <c r="A33" s="25" t="s">
+    <row r="33" s="16" customFormat="1" spans="1:18">
+      <c r="A33" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="I33" s="25" t="s">
+      <c r="I33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="J33" s="25" t="s">
+      <c r="J33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="K33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="L33" s="25" t="s">
+      <c r="L33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="M33" s="25" t="s">
+      <c r="M33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="N33" s="25" t="s">
+      <c r="N33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="O33" s="25" t="s">
+      <c r="O33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="P33" s="25" t="s">
+      <c r="P33" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="Q33" s="25" t="s">
+      <c r="Q33" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="R33" s="25" t="s">
+      <c r="R33" s="28" t="s">
         <v>179</v>
       </c>
     </row>
-    <row customFormat="1" r="34" s="13" spans="1:18">
-      <c r="A34" s="25" t="s">
+    <row r="34" s="16" customFormat="1" spans="1:18">
+      <c r="A34" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="I34" s="25" t="s">
+      <c r="I34" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="J34" s="25" t="s">
+      <c r="J34" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="K34" s="25" t="s">
+      <c r="K34" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="L34" s="25" t="s">
+      <c r="L34" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="M34" s="25" t="s">
+      <c r="M34" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="N34" s="25" t="s">
+      <c r="N34" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="O34" s="25" t="s">
+      <c r="O34" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="P34" s="25" t="s">
+      <c r="P34" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="Q34" s="25" t="s">
+      <c r="Q34" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="R34" s="25" t="s">
+      <c r="R34" s="28" t="s">
         <v>183</v>
       </c>
     </row>
-    <row customFormat="1" r="35" s="13" spans="1:18">
-      <c r="A35" s="25" t="s">
+    <row r="35" s="16" customFormat="1" spans="1:18">
+      <c r="A35" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="I35" s="25" t="s">
+      <c r="I35" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="J35" s="25" t="s">
+      <c r="J35" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="K35" s="25" t="s">
+      <c r="K35" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="L35" s="25" t="s">
+      <c r="L35" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="M35" s="25" t="s">
+      <c r="M35" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="N35" s="25" t="s">
+      <c r="N35" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="O35" s="25" t="s">
+      <c r="O35" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="P35" s="25" t="s">
+      <c r="P35" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="Q35" s="25" t="s">
+      <c r="Q35" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="R35" s="25" t="s">
+      <c r="R35" s="28" t="s">
         <v>186</v>
       </c>
     </row>
-    <row customFormat="1" r="36" s="13" spans="1:18">
-      <c r="A36" s="25" t="s">
+    <row r="36" s="16" customFormat="1" spans="1:18">
+      <c r="A36" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I36" s="25" t="s">
+      <c r="I36" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="J36" s="25" t="s">
+      <c r="J36" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="K36" s="25" t="s">
+      <c r="K36" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="L36" s="25" t="s">
+      <c r="L36" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="M36" s="25" t="s">
+      <c r="M36" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="N36" s="25" t="s">
+      <c r="N36" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="O36" s="25" t="s">
+      <c r="O36" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="P36" s="25" t="s">
+      <c r="P36" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="Q36" s="25" t="s">
+      <c r="Q36" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="R36" s="25" t="s">
+      <c r="R36" s="28" t="s">
         <v>190</v>
       </c>
     </row>
-    <row customFormat="1" r="37" s="13" spans="1:18">
-      <c r="A37" s="25" t="s">
+    <row r="37" s="16" customFormat="1" spans="1:18">
+      <c r="A37" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="H37" s="25" t="s">
+      <c r="H37" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="I37" s="25" t="s">
+      <c r="I37" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="J37" s="25" t="s">
+      <c r="J37" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="K37" s="25" t="s">
+      <c r="K37" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="L37" s="25" t="s">
+      <c r="L37" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="M37" s="25" t="s">
+      <c r="M37" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="N37" s="25" t="s">
+      <c r="N37" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="O37" s="25" t="s">
+      <c r="O37" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="P37" s="25" t="s">
+      <c r="P37" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="Q37" s="25" t="s">
+      <c r="Q37" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="R37" s="25" t="s">
+      <c r="R37" s="28" t="s">
         <v>196</v>
       </c>
     </row>
-    <row customFormat="1" r="38" s="13" spans="1:18">
-      <c r="A38" s="25" t="s">
+    <row r="38" s="16" customFormat="1" spans="1:18">
+      <c r="A38" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="I38" s="25" t="s">
+      <c r="I38" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="J38" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="K38" s="25" t="s">
+      <c r="K38" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="L38" s="25" t="s">
+      <c r="L38" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="M38" s="25" t="s">
+      <c r="M38" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="N38" s="25" t="s">
+      <c r="N38" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="O38" s="25" t="s">
+      <c r="O38" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="P38" s="25" t="s">
+      <c r="P38" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="Q38" s="25" t="s">
+      <c r="Q38" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="R38" s="25" t="s">
+      <c r="R38" s="28" t="s">
         <v>200</v>
       </c>
     </row>
-    <row customFormat="1" r="39" s="13" spans="1:18">
-      <c r="A39" s="25" t="s">
+    <row r="39" s="16" customFormat="1" spans="1:18">
+      <c r="A39" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="I39" s="25" t="s">
+      <c r="I39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="J39" s="25" t="s">
+      <c r="J39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="K39" s="25" t="s">
+      <c r="K39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="L39" s="25" t="s">
+      <c r="L39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="M39" s="25" t="s">
+      <c r="M39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="N39" s="25" t="s">
+      <c r="N39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="O39" s="25" t="s">
+      <c r="O39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="P39" s="25" t="s">
+      <c r="P39" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="Q39" s="25" t="s">
+      <c r="Q39" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="R39" s="25" t="s">
+      <c r="R39" s="28" t="s">
         <v>203</v>
       </c>
     </row>
-    <row customFormat="1" r="40" s="13" spans="1:18">
-      <c r="A40" s="25" t="s">
+    <row r="40" s="16" customFormat="1" spans="1:18">
+      <c r="A40" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="I40" s="25" t="s">
+      <c r="I40" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="J40" s="25" t="s">
+      <c r="J40" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="K40" s="25" t="s">
+      <c r="K40" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L40" s="25" t="s">
+      <c r="L40" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="M40" s="25" t="s">
+      <c r="M40" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="N40" s="25" t="s">
+      <c r="N40" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="O40" s="25" t="s">
+      <c r="O40" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="P40" s="25" t="s">
+      <c r="P40" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="Q40" s="25" t="s">
+      <c r="Q40" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="R40" s="25" t="s">
+      <c r="R40" s="28" t="s">
         <v>208</v>
       </c>
     </row>
-    <row customFormat="1" r="41" s="13" spans="1:18">
-      <c r="A41" s="25" t="s">
+    <row r="41" s="16" customFormat="1" spans="1:18">
+      <c r="A41" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="H41" s="25" t="s">
+      <c r="H41" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="I41" s="25" t="s">
+      <c r="I41" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="J41" s="25" t="s">
+      <c r="J41" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="K41" s="25" t="s">
+      <c r="K41" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="L41" s="25" t="s">
+      <c r="L41" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="M41" s="25" t="s">
+      <c r="M41" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="N41" s="25" t="s">
+      <c r="N41" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="O41" s="25" t="s">
+      <c r="O41" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="P41" s="25" t="s">
+      <c r="P41" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="Q41" s="25" t="s">
+      <c r="Q41" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="R41" s="25" t="s">
+      <c r="R41" s="28" t="s">
         <v>203</v>
       </c>
     </row>
-    <row customFormat="1" r="42" s="13" spans="1:18">
-      <c r="A42" s="25" t="s">
+    <row r="42" s="16" customFormat="1" spans="1:18">
+      <c r="A42" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="F42" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="G42" s="32" t="s">
+      <c r="G42" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="H42" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="I42" s="32" t="s">
+      <c r="I42" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="J42" s="32" t="s">
+      <c r="J42" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="K42" s="32" t="s">
+      <c r="K42" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="L42" s="32" t="s">
+      <c r="L42" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="M42" s="32" t="s">
+      <c r="M42" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="N42" s="32" t="s">
+      <c r="N42" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="O42" s="32" t="s">
+      <c r="O42" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="P42" s="32" t="s">
+      <c r="P42" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="Q42" s="31" t="s">
+      <c r="Q42" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="R42" s="31" t="s">
+      <c r="R42" s="34" t="s">
         <v>215</v>
       </c>
     </row>
-    <row customFormat="1" r="43" s="13" spans="1:18">
-      <c r="A43" s="25" t="s">
+    <row r="43" s="16" customFormat="1" spans="1:18">
+      <c r="A43" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H43" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="I43" s="25" t="s">
+      <c r="I43" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="J43" s="25" t="s">
+      <c r="J43" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="K43" s="25" t="s">
+      <c r="K43" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="L43" s="25" t="s">
+      <c r="L43" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="M43" s="25" t="s">
+      <c r="M43" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="N43" s="25" t="s">
+      <c r="N43" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="O43" s="25" t="s">
+      <c r="O43" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="P43" s="25" t="s">
+      <c r="P43" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="Q43" s="25" t="s">
+      <c r="Q43" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="R43" s="25" t="s">
+      <c r="R43" s="28" t="s">
         <v>219</v>
       </c>
     </row>
-    <row customFormat="1" r="44" s="13" spans="1:18">
-      <c r="A44" s="25" t="s">
+    <row r="44" s="16" customFormat="1" spans="1:18">
+      <c r="A44" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="K44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="L44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="M44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="N44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="O44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="P44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q44" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="R44" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row customFormat="1" r="45" s="13" spans="1:18">
-      <c r="A45" s="25" t="s">
+      <c r="B44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="J44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="K44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="L44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="M44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="N44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="O44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="P44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q44" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="R44" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" s="16" customFormat="1" spans="1:18">
+      <c r="A45" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="I45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="J45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="K45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="L45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="M45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="N45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="O45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="P45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q45" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="R45" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row customFormat="1" r="46" s="18" spans="1:18">
-      <c r="A46" s="33" t="s">
+      <c r="B45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="J45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="K45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="L45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="M45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="N45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="O45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="P45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q45" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="R45" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" s="21" customFormat="1" spans="1:18">
+      <c r="A46" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="34"/>
-    </row>
-    <row customFormat="1" r="47" s="13" spans="1:18">
-      <c r="A47" s="25" t="s">
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+    </row>
+    <row r="47" s="16" customFormat="1" spans="1:18">
+      <c r="A47" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="H47" s="25" t="s">
+      <c r="H47" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="I47" s="25" t="s">
+      <c r="I47" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="J47" s="25" t="s">
+      <c r="J47" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="K47" s="25" t="s">
+      <c r="K47" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="L47" s="25" t="s">
+      <c r="L47" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="M47" s="25" t="s">
+      <c r="M47" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="N47" s="25" t="s">
+      <c r="N47" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="O47" s="25" t="s">
+      <c r="O47" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="P47" s="25" t="s">
+      <c r="P47" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="Q47" s="25" t="s">
+      <c r="Q47" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="R47" s="25" t="s">
+      <c r="R47" s="28" t="s">
         <v>224</v>
       </c>
     </row>
-    <row customFormat="1" r="48" s="13" spans="1:18">
-      <c r="A48" s="25"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-    </row>
-    <row customFormat="1" r="49" s="13" spans="2:8">
-      <c r="B49" s="20"/>
-      <c r="C49" s="14"/>
-      <c r="H49" s="25"/>
-    </row>
-    <row customHeight="1" ht="29.1" r="50" spans="2:8">
-      <c r="B50" s="20"/>
-      <c r="C50" s="35"/>
+    <row r="48" s="16" customFormat="1" spans="1:16">
+      <c r="A48" s="28"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+    </row>
+    <row r="49" s="16" customFormat="1" spans="2:8">
+      <c r="B49" s="23"/>
+      <c r="C49" s="17"/>
+      <c r="H49" s="28"/>
+    </row>
+    <row r="50" ht="29.1" customHeight="1" spans="2:3">
+      <c r="B50" s="23"/>
+      <c r="C50" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B24"/>
-    <hyperlink r:id="rId2" ref="B25"/>
-    <hyperlink r:id="rId3" ref="B42"/>
-    <hyperlink r:id="rId4" ref="C24"/>
-    <hyperlink r:id="rId5" ref="C25"/>
-    <hyperlink r:id="rId6" ref="C42"/>
-    <hyperlink r:id="rId7" ref="D24"/>
-    <hyperlink r:id="rId8" ref="D25"/>
-    <hyperlink r:id="rId9" ref="D42"/>
-    <hyperlink r:id="rId10" ref="E24"/>
-    <hyperlink r:id="rId11" ref="E25"/>
-    <hyperlink r:id="rId12" ref="E42"/>
-    <hyperlink r:id="rId13" ref="F24"/>
-    <hyperlink r:id="rId14" ref="F25"/>
-    <hyperlink r:id="rId15" ref="F42"/>
-    <hyperlink r:id="rId16" ref="I24"/>
-    <hyperlink r:id="rId17" ref="I25"/>
-    <hyperlink r:id="rId18" ref="I42"/>
-    <hyperlink r:id="rId19" ref="J24"/>
-    <hyperlink r:id="rId20" ref="J25"/>
-    <hyperlink r:id="rId21" ref="J42"/>
-    <hyperlink r:id="rId22" ref="K24"/>
-    <hyperlink r:id="rId23" ref="K25"/>
-    <hyperlink r:id="rId24" ref="K42"/>
-    <hyperlink r:id="rId25" ref="L24"/>
-    <hyperlink r:id="rId26" ref="L25"/>
-    <hyperlink r:id="rId27" ref="L42"/>
-    <hyperlink r:id="rId28" ref="M24"/>
-    <hyperlink r:id="rId29" ref="M25"/>
-    <hyperlink r:id="rId30" ref="M42"/>
-    <hyperlink r:id="rId31" ref="G24"/>
-    <hyperlink r:id="rId32" ref="G25"/>
-    <hyperlink r:id="rId33" ref="G42"/>
-    <hyperlink r:id="rId34" ref="H24"/>
-    <hyperlink r:id="rId35" ref="H25"/>
-    <hyperlink r:id="rId36" ref="H42"/>
-    <hyperlink r:id="rId37" ref="N24"/>
-    <hyperlink r:id="rId38" ref="N25"/>
-    <hyperlink r:id="rId39" ref="N42"/>
-    <hyperlink r:id="rId40" ref="O24"/>
-    <hyperlink r:id="rId41" ref="O25"/>
-    <hyperlink r:id="rId42" ref="O42"/>
-    <hyperlink r:id="rId43" ref="P24"/>
-    <hyperlink r:id="rId44" ref="P25"/>
-    <hyperlink r:id="rId45" ref="P42"/>
-    <hyperlink r:id="rId46" ref="Q24"/>
-    <hyperlink r:id="rId47" ref="Q25"/>
-    <hyperlink r:id="rId48" ref="Q42"/>
-    <hyperlink r:id="rId49" ref="R24"/>
-    <hyperlink r:id="rId50" ref="R25"/>
-    <hyperlink r:id="rId51" ref="R42"/>
+    <hyperlink ref="B24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="B25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="B42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="C24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="C25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="C42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="D24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="D25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="D42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="E24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="E25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="E42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="F24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="F25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="F42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="I24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="I25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="I42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="J24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="J25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="J42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="K24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="K25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="K42" r:id="rId3" display="&quot;MARVIN.SUTANTO@DOCSOL.ID&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="L24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="L25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="L42" r:id="rId3" display="&quot;MARVIN.SUTANTO@DOCSOL.ID&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="M24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="M25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="M42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="G24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="G25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="G42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="H24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="H25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="H42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="N24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="N25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="N42" r:id="rId3" display="&quot;MARVIN.SUTANTO@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="O24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="O25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="O42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="P24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="P25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="P42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="Q24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="Q25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="Q42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="R24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="R25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="R42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U1" sqref="S$1:S$1048576 T$1:T$1048576 U$1:U$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="1" max="1" width="31.4272727272727" customWidth="1"/>
+    <col min="2" max="2" width="26.1363636363636" customWidth="1"/>
+    <col min="3" max="3" width="27.1363636363636" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="16.5727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -4279,543 +5071,1309 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
-        <f>COUNTIFS($A9:$A25,"*$*",B9:B25,"")</f>
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
-        <f>COUNTIFS($A9:$A25,"*$*",C9:C25,"")</f>
+      <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
-        <f>COUNTIFS($A9:$A25,"*$*",D9:D25,"")</f>
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
-        <f>COUNTIFS($A9:$A25,"*$*",E9:E25,"")</f>
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
-        <f>COUNTIFS($A9:$A25,"*$*",F9:F25,"")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row customFormat="1" ht="45" r="7" s="1" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" ht="203" spans="1:15">
+      <c r="A6" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row customFormat="1" r="8" s="2" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" s="7" customFormat="1" spans="1:15">
+      <c r="A8" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row customFormat="1" r="10" s="2" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" s="7" customFormat="1" spans="1:15">
+      <c r="A10" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row customFormat="1" r="12" s="2" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
+      <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" s="7" customFormat="1" spans="1:15">
+      <c r="A12" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="D17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="10" t="s">
+      <c r="B22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="10" t="s">
+      <c r="B23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="10" t="s">
+      <c r="B24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="10"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="10"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="10"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="10"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="B25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="12"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="12"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="N33" s="14"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="N34" s="13"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B38" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Edit, Resend"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 C16">
+      <formula1>"""M"",""F"","""""</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
       <formula1>"SMS, Email"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
-      <formula1>"Edit, Resend"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B16 C16" type="list">
-      <formula1>"""M"",""F"","""""</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="1" max="1" width="31.4272727272727" customWidth="1"/>
+    <col min="2" max="2" width="26.1363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <f>IF(B7="Email",COUNTIFS($A11,"*$*",B11,""),IF(B7="id no",COUNTIFS($A9,"*$*",B9,""),IF(B7="Phone",COUNTIFS($A10,"*$*",B10,""))))</f>
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Edit, Resend OTP, Resend Link"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
       <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
-      <formula1>"Edit, Resend OTP, Resend Link"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\Katalon Studio\ATeSign\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BuatUndangan" sheetId="2" r:id="rId1"/>
     <sheet name="API Send Document" sheetId="4" r:id="rId2"/>
     <sheet name="API Generate Inv Link" sheetId="6" r:id="rId3"/>
-    <sheet name="PencarianPengguna" sheetId="7" r:id="rId4"/>
-    <sheet name="API Agreement Canceled" sheetId="8" r:id="rId5"/>
-    <sheet name="API Bulk Sign Document" sheetId="9" r:id="rId6"/>
-    <sheet name="API Sign Document" sheetId="10" r:id="rId7"/>
+    <sheet name="PencarianPengguna-Inveditor" sheetId="7" r:id="rId4"/>
+    <sheet name="PencarianPengguna-Karyawan" sheetId="13" r:id="rId5"/>
+    <sheet name="PencarianPengguna-Pelanggan" sheetId="11" r:id="rId6"/>
+    <sheet name="API Agreement Canceled" sheetId="8" r:id="rId7"/>
+    <sheet name="API Bulk Sign Document" sheetId="9" r:id="rId8"/>
+    <sheet name="API Sign Document" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -25,7 +32,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +65,40 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fendy Tio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+M = Pria / Male
+F = Wanita / Female</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Fendy Tio</author>
+  </authors>
+  <commentList>
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="388">
   <si>
     <t>Status</t>
   </si>
@@ -1237,24 +1277,46 @@
   </si>
   <si>
     <t>msg</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>2738183746273847</t>
+  </si>
+  <si>
+    <t>Hendra</t>
+  </si>
+  <si>
+    <t>0817236471249</t>
+  </si>
+  <si>
+    <t>MARVIN.SUTANTO05051991_1@ANDYRESEARCH.MY.ID</t>
+  </si>
+  <si>
+    <t>089662845600223</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1302,142 +1364,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="1"/>
@@ -1448,8 +1374,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1464,7 +1397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.149937437055574"/>
+        <fgColor theme="1" tint="0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,204 +1409,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.149906918546098"/>
+        <fgColor theme="1" tint="0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="1" tint="0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1709,253 +1456,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1968,133 +1476,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="58" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="32" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
-    <cellStyle name="Hyperlink 2" xfId="50"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2352,28 +1820,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="33" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.2818181818182" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.7090909090909" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.8545454545455" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="17.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="17.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2563,25 +2031,25 @@
         <v>20</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="I9" s="51" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2645,28 +2113,28 @@
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G12" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="53" t="s">
+      <c r="I12" s="52" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2704,25 +2172,25 @@
         <v>34</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="51" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="4">
         <v>99999</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="51" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3095,24 +2563,12 @@
       <c r="A32" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
         <v>17</v>
       </c>
@@ -3124,35 +2580,17 @@
       <c r="A33" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="20" t="str">
-        <f t="shared" ref="B33:I33" si="1">IF(B32="Email",B15,IF(B32="SMS",B14,0))</f>
-        <v>wikiy.hendraa@ad-ins.com</v>
-      </c>
-      <c r="C33" s="20" t="str">
-        <f t="shared" si="1"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20" t="str">
+        <f t="shared" ref="H33:I33" si="1">IF(H32="Email",H15,IF(H32="SMS",H14,0))</f>
         <v>Fend@gmail.com</v>
       </c>
-      <c r="D33" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>Dicky@gmail.com</v>
-      </c>
-      <c r="E33" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>Fend@gmail.com</v>
-      </c>
-      <c r="F33" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>Fendgmail.com</v>
-      </c>
-      <c r="G33" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>Fend@gmail.com</v>
-      </c>
-      <c r="H33" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>Fend@gmail.com</v>
-      </c>
-      <c r="I33" s="54" t="str">
+      <c r="I33" s="53" t="str">
         <f t="shared" si="1"/>
         <v>0821672169562</v>
       </c>
@@ -3173,54 +2611,52 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId3" display="wikiy.hendraa@ad-ins.com" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
-    <hyperlink ref="C15" r:id="rId4" display="Fend@gmail.com"/>
-    <hyperlink ref="D15" r:id="rId5" display="Dicky@gmail.com"/>
-    <hyperlink ref="E15" r:id="rId4" display="Fend@gmail.com"/>
-    <hyperlink ref="F15" r:id="rId4" display="Fendgmail.com"/>
-    <hyperlink ref="G15" r:id="rId4" display="Fend@gmail.com" tooltip="mailto:Fend@gmail.com"/>
-    <hyperlink ref="H15" r:id="rId4" display="Fend@gmail.com"/>
-    <hyperlink ref="I15" r:id="rId4" display="Fend@gmail.com"/>
+    <hyperlink ref="B15" r:id="rId1" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
+    <hyperlink ref="C15" r:id="rId2"/>
+    <hyperlink ref="D15" r:id="rId3"/>
+    <hyperlink ref="E15" r:id="rId4"/>
+    <hyperlink ref="F15" r:id="rId5"/>
+    <hyperlink ref="G15" r:id="rId6" tooltip="mailto:Fend@gmail.com"/>
+    <hyperlink ref="H15" r:id="rId7"/>
+    <hyperlink ref="I15" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.4272727272727" style="32" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.42578125" style="32" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="63" style="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.2818181818182" style="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.28515625" style="32" customWidth="1" collapsed="1"/>
     <col min="4" max="6" width="21" style="32" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.7090909090909" style="32" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.7090909090909" style="32" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.4272727272727" style="32" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.2818181818182" style="32" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.7090909090909" style="32" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.4272727272727" style="32" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.8545454545455" style="32" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.2818181818182" style="32" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.1363636363636" style="32" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.2818181818182" style="32" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.42578125" style="32" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.28515625" style="32" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.7109375" style="32" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.42578125" style="32" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="25.85546875" style="32" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.28515625" style="32" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.140625" style="32" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.28515625" style="32" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="27" style="32" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="21.7090909090909" style="32" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.7109375" style="32" customWidth="1" collapsed="1"/>
     <col min="19" max="21" width="63" style="32" customWidth="1" collapsed="1"/>
     <col min="22" max="16384" width="9" style="32" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" spans="1:21">
+    <row r="1" spans="1:21" s="26" customFormat="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3285,7 +2721,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" s="26" customFormat="1" spans="1:21">
+    <row r="2" spans="1:21" s="26" customFormat="1">
       <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
@@ -3350,7 +2786,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" s="27" customFormat="1" ht="87" spans="1:21">
+    <row r="3" spans="1:21" s="27" customFormat="1" ht="90">
       <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
@@ -3415,7 +2851,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" s="26" customFormat="1" spans="1:21">
+    <row r="4" spans="1:21" s="26" customFormat="1">
       <c r="A4" s="26" t="s">
         <v>13</v>
       </c>
@@ -3500,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="26" customFormat="1" spans="2:21">
+    <row r="5" spans="1:21" s="26" customFormat="1">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -3520,7 +2956,7 @@
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
     </row>
-    <row r="6" s="27" customFormat="1" spans="1:21">
+    <row r="6" spans="1:21" s="27" customFormat="1">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -3543,7 +2979,7 @@
       <c r="T6" s="33"/>
       <c r="U6" s="33"/>
     </row>
-    <row r="7" s="26" customFormat="1" spans="1:21">
+    <row r="7" spans="1:21" s="26" customFormat="1">
       <c r="A7" s="33"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -3566,7 +3002,7 @@
       <c r="T7" s="34"/>
       <c r="U7" s="34"/>
     </row>
-    <row r="8" s="28" customFormat="1" spans="1:21">
+    <row r="8" spans="1:21" s="28" customFormat="1">
       <c r="A8" s="35"/>
       <c r="B8" s="36"/>
       <c r="C8" s="37"/>
@@ -3589,7 +3025,7 @@
       <c r="T8" s="36"/>
       <c r="U8" s="36"/>
     </row>
-    <row r="9" s="26" customFormat="1" spans="1:21">
+    <row r="9" spans="1:21" s="26" customFormat="1">
       <c r="A9" s="38" t="s">
         <v>96</v>
       </c>
@@ -3654,7 +3090,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" s="29" customFormat="1" spans="1:21">
+    <row r="10" spans="1:21" s="29" customFormat="1">
       <c r="A10" s="39" t="s">
         <v>100</v>
       </c>
@@ -3679,7 +3115,7 @@
       <c r="T10" s="40"/>
       <c r="U10" s="40"/>
     </row>
-    <row r="11" s="26" customFormat="1" spans="1:21">
+    <row r="11" spans="1:21" s="26" customFormat="1">
       <c r="A11" s="38" t="s">
         <v>101</v>
       </c>
@@ -3744,7 +3180,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" s="26" customFormat="1" spans="1:21">
+    <row r="12" spans="1:21" s="26" customFormat="1">
       <c r="A12" s="38" t="s">
         <v>122</v>
       </c>
@@ -3809,7 +3245,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" s="26" customFormat="1" spans="1:21">
+    <row r="13" spans="1:21" s="26" customFormat="1">
       <c r="A13" s="38" t="s">
         <v>123</v>
       </c>
@@ -3874,7 +3310,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" s="26" customFormat="1" spans="1:21">
+    <row r="14" spans="1:21" s="26" customFormat="1">
       <c r="A14" s="38" t="s">
         <v>127</v>
       </c>
@@ -3939,7 +3375,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" s="26" customFormat="1" spans="1:21">
+    <row r="15" spans="1:21" s="26" customFormat="1">
       <c r="A15" s="38" t="s">
         <v>129</v>
       </c>
@@ -4004,7 +3440,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" s="26" customFormat="1" spans="1:21">
+    <row r="16" spans="1:21" s="26" customFormat="1">
       <c r="A16" s="38" t="s">
         <v>131</v>
       </c>
@@ -4069,7 +3505,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" s="26" customFormat="1" spans="1:21">
+    <row r="17" spans="1:21" s="26" customFormat="1">
       <c r="A17" s="38" t="s">
         <v>134</v>
       </c>
@@ -4134,7 +3570,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" s="26" customFormat="1" spans="1:21">
+    <row r="18" spans="1:21" s="26" customFormat="1">
       <c r="A18" s="38" t="s">
         <v>137</v>
       </c>
@@ -4199,7 +3635,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" s="26" customFormat="1" spans="1:21">
+    <row r="19" spans="1:21" s="26" customFormat="1">
       <c r="A19" s="38" t="s">
         <v>139</v>
       </c>
@@ -4264,7 +3700,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" s="26" customFormat="1" spans="1:21">
+    <row r="20" spans="1:21" s="26" customFormat="1">
       <c r="A20" s="38" t="s">
         <v>141</v>
       </c>
@@ -4329,7 +3765,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" s="26" customFormat="1" spans="1:21">
+    <row r="21" spans="1:21" s="26" customFormat="1">
       <c r="A21" s="38" t="s">
         <v>142</v>
       </c>
@@ -4394,7 +3830,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" s="26" customFormat="1" spans="1:21">
+    <row r="22" spans="1:21" s="26" customFormat="1">
       <c r="A22" s="38" t="s">
         <v>144</v>
       </c>
@@ -4459,7 +3895,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" s="26" customFormat="1" spans="1:21">
+    <row r="23" spans="1:21" s="26" customFormat="1">
       <c r="A23" s="38" t="s">
         <v>145</v>
       </c>
@@ -4524,7 +3960,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" s="26" customFormat="1" spans="1:21">
+    <row r="24" spans="1:21" s="26" customFormat="1">
       <c r="A24" s="38" t="s">
         <v>148</v>
       </c>
@@ -4589,7 +4025,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" s="26" customFormat="1" spans="1:21">
+    <row r="25" spans="1:21" s="26" customFormat="1">
       <c r="A25" s="38" t="s">
         <v>150</v>
       </c>
@@ -4654,7 +4090,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" s="30" customFormat="1" spans="1:21">
+    <row r="26" spans="1:21" s="30" customFormat="1">
       <c r="A26" s="39" t="s">
         <v>152</v>
       </c>
@@ -4679,7 +4115,7 @@
       <c r="T26" s="39"/>
       <c r="U26" s="39"/>
     </row>
-    <row r="27" s="26" customFormat="1" spans="1:21">
+    <row r="27" spans="1:21" s="26" customFormat="1">
       <c r="A27" s="38" t="s">
         <v>153</v>
       </c>
@@ -4744,7 +4180,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" s="26" customFormat="1" spans="1:21">
+    <row r="28" spans="1:21" s="26" customFormat="1">
       <c r="A28" s="38" t="s">
         <v>158</v>
       </c>
@@ -4809,7 +4245,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="29" s="26" customFormat="1" spans="1:21">
+    <row r="29" spans="1:21" s="26" customFormat="1">
       <c r="A29" s="38" t="s">
         <v>164</v>
       </c>
@@ -4874,7 +4310,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" s="26" customFormat="1" spans="1:21">
+    <row r="30" spans="1:21" s="26" customFormat="1">
       <c r="A30" s="38" t="s">
         <v>168</v>
       </c>
@@ -4939,7 +4375,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" s="26" customFormat="1" spans="1:21">
+    <row r="31" spans="1:21" s="26" customFormat="1">
       <c r="A31" s="38" t="s">
         <v>186</v>
       </c>
@@ -5004,7 +4440,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" s="26" customFormat="1" spans="1:21">
+    <row r="32" spans="1:21" s="26" customFormat="1">
       <c r="A32" s="38" t="s">
         <v>49</v>
       </c>
@@ -5069,7 +4505,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" s="26" customFormat="1" spans="1:21">
+    <row r="33" spans="1:21" s="26" customFormat="1">
       <c r="A33" s="38" t="s">
         <v>51</v>
       </c>
@@ -5134,7 +4570,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" s="26" customFormat="1" spans="1:21">
+    <row r="34" spans="1:21" s="26" customFormat="1">
       <c r="A34" s="38" t="s">
         <v>196</v>
       </c>
@@ -5199,7 +4635,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" s="26" customFormat="1" spans="1:21">
+    <row r="35" spans="1:21" s="26" customFormat="1">
       <c r="A35" s="38" t="s">
         <v>47</v>
       </c>
@@ -5264,7 +4700,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" s="26" customFormat="1" spans="1:21">
+    <row r="36" spans="1:21" s="26" customFormat="1">
       <c r="A36" s="38" t="s">
         <v>203</v>
       </c>
@@ -5329,7 +4765,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="37" s="26" customFormat="1" spans="1:21">
+    <row r="37" spans="1:21" s="26" customFormat="1">
       <c r="A37" s="38" t="s">
         <v>208</v>
       </c>
@@ -5394,7 +4830,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" s="26" customFormat="1" spans="1:21">
+    <row r="38" spans="1:21" s="26" customFormat="1">
       <c r="A38" s="38" t="s">
         <v>216</v>
       </c>
@@ -5459,7 +4895,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" s="26" customFormat="1" spans="1:21">
+    <row r="39" spans="1:21" s="26" customFormat="1">
       <c r="A39" s="38" t="s">
         <v>45</v>
       </c>
@@ -5524,7 +4960,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" s="26" customFormat="1" spans="1:21">
+    <row r="40" spans="1:21" s="26" customFormat="1">
       <c r="A40" s="38" t="s">
         <v>223</v>
       </c>
@@ -5589,7 +5025,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" s="26" customFormat="1" spans="1:21">
+    <row r="41" spans="1:21" s="26" customFormat="1">
       <c r="A41" s="38" t="s">
         <v>229</v>
       </c>
@@ -5654,7 +5090,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" s="26" customFormat="1" spans="1:21">
+    <row r="42" spans="1:21" s="26" customFormat="1">
       <c r="A42" s="38" t="s">
         <v>230</v>
       </c>
@@ -5719,7 +5155,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43" s="26" customFormat="1" spans="1:21">
+    <row r="43" spans="1:21" s="26" customFormat="1">
       <c r="A43" s="38" t="s">
         <v>238</v>
       </c>
@@ -5784,7 +5220,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" s="26" customFormat="1" spans="1:21">
+    <row r="44" spans="1:21" s="26" customFormat="1">
       <c r="A44" s="38" t="s">
         <v>242</v>
       </c>
@@ -5849,7 +5285,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" s="26" customFormat="1" spans="1:21">
+    <row r="45" spans="1:21" s="26" customFormat="1">
       <c r="A45" s="38" t="s">
         <v>243</v>
       </c>
@@ -5914,7 +5350,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" s="31" customFormat="1" spans="1:21">
+    <row r="46" spans="1:21" s="31" customFormat="1">
       <c r="A46" s="46" t="s">
         <v>244</v>
       </c>
@@ -5939,7 +5375,7 @@
       <c r="T46" s="47"/>
       <c r="U46" s="47"/>
     </row>
-    <row r="47" s="26" customFormat="1" spans="1:21">
+    <row r="47" spans="1:21" s="26" customFormat="1">
       <c r="A47" s="38" t="s">
         <v>245</v>
       </c>
@@ -6004,7 +5440,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" s="26" customFormat="1" spans="1:21">
+    <row r="48" spans="1:21" s="26" customFormat="1">
       <c r="A48" s="38"/>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -6025,7 +5461,7 @@
       <c r="T48" s="33"/>
       <c r="U48" s="33"/>
     </row>
-    <row r="49" s="26" customFormat="1" spans="2:21">
+    <row r="49" spans="2:21" s="26" customFormat="1">
       <c r="B49" s="33"/>
       <c r="C49" s="27"/>
       <c r="H49" s="38"/>
@@ -6033,7 +5469,7 @@
       <c r="T49" s="33"/>
       <c r="U49" s="33"/>
     </row>
-    <row r="50" ht="29.1" customHeight="1" spans="2:21">
+    <row r="50" spans="2:21" ht="29.1" customHeight="1">
       <c r="B50" s="33"/>
       <c r="C50" s="48"/>
       <c r="S50" s="33"/>
@@ -6042,98 +5478,96 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="B25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="B42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="C24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="C25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="C42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="D24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="D25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="D42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="E24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="E25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="E42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="F24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="F25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="F42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="I24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="I25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="I42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="J24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="J25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="J42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="K24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="K25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="K42" r:id="rId3" display="&quot;MARVIN.SUTANTO@DOCSOL.ID&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="L24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="L25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="L42" r:id="rId3" display="&quot;MARVIN.SUTANTO@DOCSOL.ID&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="M24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="M25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="M42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="G24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="G25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="G42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="H24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="H25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="H42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="N24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="N25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="N42" r:id="rId3" display="&quot;MARVIN.SUTANTO@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="O24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="O25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="O42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="P24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="P25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="P42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="Q24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="Q25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="Q42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="R24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="R25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="R42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="S24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="S25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="S42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="T24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="T25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="T42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;&quot;"/>
-    <hyperlink ref="U24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="U25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="U42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;HELMI.AA@AD-INS.COM&quot;"/>
+    <hyperlink ref="B24" r:id="rId1"/>
+    <hyperlink ref="B25" r:id="rId2"/>
+    <hyperlink ref="B42" r:id="rId3"/>
+    <hyperlink ref="C24" r:id="rId4"/>
+    <hyperlink ref="C25" r:id="rId5"/>
+    <hyperlink ref="C42" r:id="rId6"/>
+    <hyperlink ref="D24" r:id="rId7"/>
+    <hyperlink ref="D25" r:id="rId8"/>
+    <hyperlink ref="D42" r:id="rId9"/>
+    <hyperlink ref="E24" r:id="rId10"/>
+    <hyperlink ref="E25" r:id="rId11"/>
+    <hyperlink ref="E42" r:id="rId12"/>
+    <hyperlink ref="F24" r:id="rId13"/>
+    <hyperlink ref="F25" r:id="rId14"/>
+    <hyperlink ref="F42" r:id="rId15"/>
+    <hyperlink ref="I24" r:id="rId16"/>
+    <hyperlink ref="I25" r:id="rId17"/>
+    <hyperlink ref="I42" r:id="rId18"/>
+    <hyperlink ref="J24" r:id="rId19"/>
+    <hyperlink ref="J25" r:id="rId20"/>
+    <hyperlink ref="J42" r:id="rId21"/>
+    <hyperlink ref="K24" r:id="rId22"/>
+    <hyperlink ref="K25" r:id="rId23"/>
+    <hyperlink ref="K42" r:id="rId24"/>
+    <hyperlink ref="L24" r:id="rId25"/>
+    <hyperlink ref="L25" r:id="rId26"/>
+    <hyperlink ref="L42" r:id="rId27"/>
+    <hyperlink ref="M24" r:id="rId28"/>
+    <hyperlink ref="M25" r:id="rId29"/>
+    <hyperlink ref="M42" r:id="rId30"/>
+    <hyperlink ref="G24" r:id="rId31"/>
+    <hyperlink ref="G25" r:id="rId32"/>
+    <hyperlink ref="G42" r:id="rId33"/>
+    <hyperlink ref="H24" r:id="rId34"/>
+    <hyperlink ref="H25" r:id="rId35"/>
+    <hyperlink ref="H42" r:id="rId36"/>
+    <hyperlink ref="N24" r:id="rId37"/>
+    <hyperlink ref="N25" r:id="rId38"/>
+    <hyperlink ref="N42" r:id="rId39"/>
+    <hyperlink ref="O24" r:id="rId40"/>
+    <hyperlink ref="O25" r:id="rId41"/>
+    <hyperlink ref="O42" r:id="rId42"/>
+    <hyperlink ref="P24" r:id="rId43"/>
+    <hyperlink ref="P25" r:id="rId44"/>
+    <hyperlink ref="P42" r:id="rId45"/>
+    <hyperlink ref="Q24" r:id="rId46"/>
+    <hyperlink ref="Q25" r:id="rId47"/>
+    <hyperlink ref="Q42" r:id="rId48"/>
+    <hyperlink ref="R24" r:id="rId49"/>
+    <hyperlink ref="R25" r:id="rId50"/>
+    <hyperlink ref="R42" r:id="rId51"/>
+    <hyperlink ref="S24" r:id="rId52"/>
+    <hyperlink ref="S25" r:id="rId53"/>
+    <hyperlink ref="S42" r:id="rId54"/>
+    <hyperlink ref="T24" r:id="rId55"/>
+    <hyperlink ref="T25" r:id="rId56"/>
+    <hyperlink ref="T42" r:id="rId57"/>
+    <hyperlink ref="U24" r:id="rId58"/>
+    <hyperlink ref="U25" r:id="rId59"/>
+    <hyperlink ref="U42" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.8545454545455" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="14" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -6237,7 +5671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="58" spans="1:16">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="75">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -6370,7 +5804,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:16">
+    <row r="6" spans="1:16" s="1" customFormat="1">
       <c r="A6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -6387,7 +5821,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:16">
+    <row r="7" spans="1:16" s="1" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -6437,7 +5871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" spans="1:16">
+    <row r="8" spans="1:16" s="9" customFormat="1">
       <c r="A8" s="18" t="s">
         <v>263</v>
       </c>
@@ -6507,7 +5941,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" spans="1:16">
+    <row r="10" spans="1:16" s="9" customFormat="1">
       <c r="A10" s="18" t="s">
         <v>277</v>
       </c>
@@ -6577,7 +6011,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" s="9" customFormat="1" spans="1:16">
+    <row r="12" spans="1:16" s="9" customFormat="1">
       <c r="A12" s="18" t="s">
         <v>278</v>
       </c>
@@ -7391,7 +6825,7 @@
       <c r="F34" s="23"/>
       <c r="O34" s="23"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:15">
       <c r="A35" s="23"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -7399,7 +6833,7 @@
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:15">
       <c r="A36" s="23"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -7407,7 +6841,7 @@
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:15">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -7415,7 +6849,7 @@
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:15">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -7423,7 +6857,7 @@
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:15">
       <c r="A39" s="23"/>
       <c r="B39" s="25"/>
       <c r="C39" s="23"/>
@@ -7448,26 +6882,23 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7090909090909" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="25.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7514,15 +6945,15 @@
         <v>13</v>
       </c>
       <c r="B4" s="5">
-        <f>IF(B7="Email",COUNTIFS($A11,"*$*",B11,""),IF(B7="id no",COUNTIFS($A9,"*$*",B9,""),IF(B7="Phone",COUNTIFS($A10,"*$*",B10,""))))</f>
+        <f t="shared" ref="B4:D4" si="0">COUNTIFS($A9:$A21,"*$*",B9:B21,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <f>IF(C7="Email",COUNTIFS($A11,"*$*",C11,""),IF(C7="id no",COUNTIFS($A9,"*$*",C9,""),IF(C7="Phone",COUNTIFS($A10,"*$*",C10,""))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <f>IF(D7="Email",COUNTIFS($A11,"*$*",D11,""),IF(D7="id no",COUNTIFS($A9,"*$*",D9,""),IF(D7="Phone",COUNTIFS($A10,"*$*",D10,""))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="5"/>
@@ -7534,18 +6965,378 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="21" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="21" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>382</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="52"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>386</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="4">
+        <v>12862</v>
+      </c>
+      <c r="C22" s="4">
+        <v>12862</v>
+      </c>
+      <c r="D22" s="4">
+        <v>12862</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
+      <formula1>"Phone, Id no, Email"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:E13">
+      <formula1>"M, F"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6">
+      <formula1>"Edit, Reset OTP, Resend Link"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
+    <hyperlink ref="D15" r:id="rId2" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
+        <f>IF(B7="Email",COUNTIFS($A11,"*$*",B11,""),IF(B7="id no",COUNTIFS($A9,"*$*",B9,""),IF(B7="Phone",COUNTIFS($A10,"*$*",B10,""))))</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <f>IF(C7="Email",COUNTIFS($A11,"*$*",C11,""),IF(C7="id no",COUNTIFS($A9,"*$*",C9,""),IF(C7="Phone",COUNTIFS($A10,"*$*",C10,""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <f>IF(D7="Email",COUNTIFS($A11,"*$*",D11,""),IF(D7="id no",COUNTIFS($A9,"*$*",D9,""),IF(D7="Phone",COUNTIFS($A10,"*$*",D10,""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>324</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>381</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>325</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -7579,7 +7370,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="51" t="s">
         <v>327</v>
       </c>
       <c r="E9" s="4"/>
@@ -7589,7 +7380,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="51" t="s">
         <v>328</v>
       </c>
       <c r="D10" s="4"/>
@@ -7609,38 +7400,205 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6">
-      <formula1>"Edit, Reset OTP, Resend Link"</formula1>
+      <formula1>"View, Reset OTP"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
       <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="VIVIANAYU30@GMAIL.COM"/>
+    <hyperlink ref="B11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
+        <f>IF(B7="Email",COUNTIFS($A11,"*$*",B11,""),IF(B7="id no",COUNTIFS($A9,"*$*",B9,""),IF(B7="Phone",COUNTIFS($A10,"*$*",B10,""))))</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <f>IF(C7="Email",COUNTIFS($A11,"*$*",C11,""),IF(C7="id no",COUNTIFS($A9,"*$*",C9,""),IF(C7="Phone",COUNTIFS($A10,"*$*",C10,""))))</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <f>IF(D7="Email",COUNTIFS($A11,"*$*",D11,""),IF(D7="id no",COUNTIFS($A9,"*$*",D9,""),IF(D7="Phone",COUNTIFS($A10,"*$*",D10,""))))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
+      <formula1>"Phone, Id no, Email"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6">
+      <formula1>"View, Reset OTP"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C14"/>
+      <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.8545454545455" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.8545454545455" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.8545454545455" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7683,7 +7641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="43.5" spans="1:6">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="45">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -7760,7 +7718,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" ht="29" spans="1:6">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="4" t="s">
         <v>336</v>
       </c>
@@ -7778,7 +7736,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" ht="58" spans="1:6">
+    <row r="10" spans="1:6" ht="60">
       <c r="A10" s="4" t="s">
         <v>340</v>
       </c>
@@ -7858,30 +7816,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="45.0909090909091" customWidth="1"/>
-    <col min="3" max="5" width="25.6363636363636" customWidth="1"/>
-    <col min="6" max="7" width="32.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="20.8181818181818" customWidth="1"/>
-    <col min="9" max="9" width="30.1818181818182" customWidth="1"/>
-    <col min="10" max="10" width="21.4545454545455" customWidth="1"/>
-    <col min="11" max="11" width="21.6363636363636" customWidth="1"/>
-    <col min="12" max="12" width="27.2636363636364" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="3" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="7" width="32.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7960,7 +7916,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="3" ht="101.5" spans="1:12">
+    <row r="3" spans="1:12" ht="120">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -8003,51 +7959,51 @@
         <v>13</v>
       </c>
       <c r="B4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
+        <f t="shared" ref="B4:L4" si="0">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",C9:C12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",D9:D12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",E9:E12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",F9:F12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",G9:G12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",H9:H12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",I9:I12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",J9:J12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",K9:K12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",L9:L12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:12">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8057,7 +8013,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:12">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
@@ -8067,7 +8023,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:12">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
@@ -8077,7 +8033,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
         <v>244</v>
       </c>
@@ -8129,7 +8085,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:10">
+    <row r="10" spans="1:12" s="2" customFormat="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -8141,7 +8097,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" ht="29" spans="1:12">
+    <row r="11" spans="1:12" ht="30">
       <c r="A11" s="4" t="s">
         <v>360</v>
       </c>
@@ -8179,7 +8135,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="87" spans="1:12">
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="90">
       <c r="A12" s="17" t="s">
         <v>363</v>
       </c>
@@ -8219,42 +8175,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="ANDY@AD-INS.COM"/>
-    <hyperlink ref="C11" r:id="rId1" display="ANDY@AD-INS.COM" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="E11" r:id="rId1" display="ANDY@AD-INS.COM" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="F11" r:id="rId1" display="ANDY@AD-INS.COM" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="G11" r:id="rId2" display="HELMI.AA@AD-INS.COM" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
-    <hyperlink ref="H11" r:id="rId2" display="HELMI.AA@AD-INS.COM" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
-    <hyperlink ref="I11" r:id="rId1" display="ANDY@AD-INS.COM"/>
-    <hyperlink ref="J11" r:id="rId1" display="ANDY@AD-INS.COM"/>
-    <hyperlink ref="K11" r:id="rId1" display="ANDY@AD-INS.COM"/>
-    <hyperlink ref="D11" r:id="rId1" display="ANDY@AD-INS.COM" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="L11" r:id="rId1" display="ANDY@AD-INS.COM"/>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId2" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink ref="E11" r:id="rId3" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink ref="F11" r:id="rId4" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink ref="G11" r:id="rId5" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
+    <hyperlink ref="H11" r:id="rId6" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
+    <hyperlink ref="I11" r:id="rId7"/>
+    <hyperlink ref="J11" r:id="rId8"/>
+    <hyperlink ref="K11" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink ref="L11" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7272727272727" customWidth="1"/>
-    <col min="2" max="3" width="45.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="25.6363636363636" customWidth="1"/>
-    <col min="5" max="6" width="32.6363636363636" customWidth="1"/>
-    <col min="7" max="7" width="20.8181818181818" customWidth="1"/>
-    <col min="8" max="8" width="21.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="21.6363636363636" customWidth="1"/>
-    <col min="10" max="10" width="30.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="3" width="45.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="6" width="32.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -8321,7 +8275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="43.5" spans="1:10">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="60">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -8358,43 +8312,43 @@
         <v>13</v>
       </c>
       <c r="B4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
+        <f t="shared" ref="B4:J4" si="0">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",C9:C12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",D9:D12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",E9:E12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",F9:F12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",G9:G12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",H9:H12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",I9:I12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <f>COUNTIFS($A9:$A12,"*$*",J9:J12,"")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8403,7 +8357,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -8412,7 +8366,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -8467,7 +8421,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:10">
+    <row r="10" spans="1:10" s="2" customFormat="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -8479,7 +8433,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" ht="29" spans="1:10">
+    <row r="11" spans="1:10" ht="30">
       <c r="A11" s="4" t="s">
         <v>230</v>
       </c>
@@ -8511,7 +8465,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="29" spans="1:10">
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="30">
       <c r="A12" s="15" t="s">
         <v>336</v>
       </c>
@@ -8543,25 +8497,24 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>380</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="ANDY@AD-INS.COM"/>
-    <hyperlink ref="D11" r:id="rId1" display="ANDY@AD-INS.COM" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="E11" r:id="rId1" display="ANDY@AD-INS.COM" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="F11" r:id="rId2" display="HELMI.AA@AD-INS.COM" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
-    <hyperlink ref="G11" r:id="rId2" display="HELMI.AA@AD-INS.COM" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
-    <hyperlink ref="H11" r:id="rId1" display="ANDY@AD-INS.COM" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="I11" r:id="rId1" display="ANDY@AD-INS.COM"/>
-    <hyperlink ref="C11" r:id="rId1" display="ANDY@AD-INS.COM"/>
-    <hyperlink ref="J11" r:id="rId1" display="ANDY@AD-INS.COM"/>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="D11" r:id="rId2" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink ref="E11" r:id="rId3" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink ref="F11" r:id="rId4" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
+    <hyperlink ref="G11" r:id="rId5" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
+    <hyperlink ref="H11" r:id="rId6" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink ref="I11" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="J11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="6" activeTab="8"/>
+    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BuatUndangan" sheetId="2" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="421">
   <si>
     <t>Status</t>
   </si>
@@ -333,10 +333,7 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t>;Unknown System Error;Failed Verify Data Match &amp; Equal;Unknown System Error;Failed Verify Data Match &amp; Equal</t>
-  </si>
-  <si>
-    <t>-;FailedStoreDB;FailedStoreDB</t>
+    <t>-;FailedStoreDB</t>
   </si>
   <si>
     <t>Testing signer hanya 1 dengan tipe CUST</t>
@@ -893,10 +890,40 @@
     <t>"confins"</t>
   </si>
   <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>;Nomor telp. ini 0869485587491 sudah digunakan di link undangan dengan NIK berbeda</t>
+  </si>
+  <si>
+    <t>;Unknown System Error</t>
+  </si>
+  <si>
+    <t>;Failed Verify Data Match &amp; Equal</t>
+  </si>
+  <si>
+    <t>;Nomor telepon 000087654321yes tidak valid. Pastikan sudah memasukkan nomor telepon yang benar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;Nomor id 6543210987654111  sudah digunakan oleh link undangan lain </t>
+  </si>
+  <si>
+    <t>;E-mail wiky.hendra tidak valid. Pastikan sudah memasukkan e-mail yang benar.</t>
+  </si>
+  <si>
+    <t>;Vendor Code tidak boleh kosong</t>
+  </si>
+  <si>
+    <t>;Unparseable date: "01-02-2003"</t>
+  </si>
+  <si>
+    <t>;Tidak bisa mengakses user milik tenant lain;Failed Verify Data Match &amp; Equal</t>
+  </si>
+  <si>
     <t>Geenrate Link Success</t>
   </si>
   <si>
-    <t>Geenrate Link Success dengan tanpa email</t>
+    <t>Geenrate Link Success dengan tanpa email (Tidak dapat Link di response API jika emailnya tidak diisi)</t>
   </si>
   <si>
     <t>Generate Link Success dengan tanpa email dan no telp</t>
@@ -944,43 +971,49 @@
     <t>Audit</t>
   </si>
   <si>
-    <t>"USER CEERTE 1"</t>
-  </si>
-  <si>
-    <t>"USER CEERTE 2"</t>
-  </si>
-  <si>
-    <t>"USER CEERTE 3"</t>
-  </si>
-  <si>
-    <t>"USER CEERTE 4"</t>
-  </si>
-  <si>
-    <t>"USER CEERTE 5"</t>
-  </si>
-  <si>
-    <t>"USER CEERTE 6"</t>
-  </si>
-  <si>
-    <t>"USER CEERTE 7"</t>
-  </si>
-  <si>
-    <t>"USER CEERTE 8"</t>
-  </si>
-  <si>
-    <t>"USER CEERTE 9"</t>
-  </si>
-  <si>
-    <t>"USER CEERTE 10"</t>
-  </si>
-  <si>
-    <t>"USER CEERTE 11"</t>
-  </si>
-  <si>
-    <t>"USER CEERTE 12"</t>
-  </si>
-  <si>
-    <t>"USER CEERTE 13"</t>
+    <t>"USER CRTE 1"</t>
+  </si>
+  <si>
+    <t>"USER CRTE 2"</t>
+  </si>
+  <si>
+    <t>"USER CRTE 3"</t>
+  </si>
+  <si>
+    <t>"USER CRTE 4"</t>
+  </si>
+  <si>
+    <t>"USER CRTE 5"</t>
+  </si>
+  <si>
+    <t>"USER CRTE 6"</t>
+  </si>
+  <si>
+    <t>"USER CRTE 7"</t>
+  </si>
+  <si>
+    <t>"USER CRTE 8"</t>
+  </si>
+  <si>
+    <t>"USER CRTE 9"</t>
+  </si>
+  <si>
+    <t>"USER CRTE 10"</t>
+  </si>
+  <si>
+    <t>"USER CRTE 11"</t>
+  </si>
+  <si>
+    <t>"USER CRTE 12"</t>
+  </si>
+  <si>
+    <t>"USER CRTE 13"</t>
+  </si>
+  <si>
+    <t>"USER CRTE 14"</t>
+  </si>
+  <si>
+    <t>"USER CRTE 15"</t>
   </si>
   <si>
     <t>tenantCode</t>
@@ -992,34 +1025,52 @@
     <t>email</t>
   </si>
   <si>
+    <t>"wowada@gmail.com"</t>
+  </si>
+  <si>
+    <t>"wiky.hendra"</t>
+  </si>
+  <si>
     <t>"wiki@ad-ins.com"</t>
   </si>
   <si>
-    <t>"wiky.hendra"</t>
-  </si>
-  <si>
-    <t>"wiky.hendra@gemail.com"</t>
+    <t>"wiky.hendra@geemail.com"</t>
   </si>
   <si>
     <t>"wiky.hendra@gmail.com"</t>
   </si>
   <si>
+    <t>"wiky.hendr@gmail.com"</t>
+  </si>
+  <si>
     <t>nama</t>
   </si>
   <si>
+    <t>"Hendra W"</t>
+  </si>
+  <si>
+    <t>"Hendra Ww"</t>
+  </si>
+  <si>
+    <t>"Hendra"</t>
+  </si>
+  <si>
+    <t>"Hendra Wx"</t>
+  </si>
+  <si>
     <t>"Wiky Hendra"</t>
   </si>
   <si>
     <t>tlp</t>
   </si>
   <si>
-    <t>"0811811811811"</t>
-  </si>
-  <si>
-    <t>"0822822822822"</t>
-  </si>
-  <si>
-    <t>"0833833833833"</t>
+    <t>"0859375619234"</t>
+  </si>
+  <si>
+    <t>"0869485587491"</t>
+  </si>
+  <si>
+    <t>"0886847362847"</t>
   </si>
   <si>
     <t>"000087654321yes"</t>
@@ -1040,6 +1091,9 @@
     <t>"00007654321"</t>
   </si>
   <si>
+    <t>"08989867483712"</t>
+  </si>
+  <si>
     <t>"M"</t>
   </si>
   <si>
@@ -1085,25 +1139,37 @@
     <t>idKtp</t>
   </si>
   <si>
+    <t>"6579583987654321"</t>
+  </si>
+  <si>
+    <t>"6566666687654311"</t>
+  </si>
+  <si>
+    <t>"6543330987654111"</t>
+  </si>
+  <si>
+    <t>"6543210987654111"</t>
+  </si>
+  <si>
+    <t>"6543210981111111"</t>
+  </si>
+  <si>
+    <t>"1231231231277711"</t>
+  </si>
+  <si>
+    <t>"6543210987654yes"</t>
+  </si>
+  <si>
+    <t>"6543210987654111yes"</t>
+  </si>
+  <si>
     <t>"6543210987654321"</t>
   </si>
   <si>
-    <t>"6543210987654311"</t>
-  </si>
-  <si>
-    <t>"6543210987654111"</t>
-  </si>
-  <si>
-    <t>"6543210981111111"</t>
-  </si>
-  <si>
-    <t>"6543210987651111"</t>
-  </si>
-  <si>
-    <t>"6543210987654yes"</t>
-  </si>
-  <si>
-    <t>"6543210987654111yes"</t>
+    <t>"6543255555654311"</t>
+  </si>
+  <si>
+    <t>"6509090987654321"</t>
   </si>
   <si>
     <t>"Jawa Barat"</t>
@@ -1208,16 +1274,10 @@
     <t>null</t>
   </si>
   <si>
-    <t>SUCCESS</t>
-  </si>
-  <si>
     <t>;Unknown System Error;Unknown System Error</t>
   </si>
   <si>
     <t>;[dokumen tidak ditemukan] : [00155D0B-7502-B7EB-11ED-9D45900FC410]</t>
-  </si>
-  <si>
-    <t>-;FailedStoreDB</t>
   </si>
   <si>
     <t>Success dengan 2 document id yang belum ditandatangani.
@@ -1298,9 +1358,6 @@
   </si>
   <si>
     <t>00155D0B-7502-9AC7-11ED-C78DBFC24710;00155D0B-7502-88E9-11ED-9B03D333ADE0;00155D0B-7502-9AC7-11ED-C78DBFC24710</t>
-  </si>
-  <si>
-    <t>;Unknown System Error</t>
   </si>
   <si>
     <t>dokumen is_active 1</t>
@@ -1344,8 +1401,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1401,7 +1458,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1409,22 +1480,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,16 +1493,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1464,22 +1536,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1507,10 +1563,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1523,7 +1580,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1586,7 +1643,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,7 +1697,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,163 +1823,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,30 +1880,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1858,26 +1891,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1900,6 +1913,50 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1908,7 +1965,7 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1927,28 +1984,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1957,31 +2014,31 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1990,70 +2047,70 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2064,9 +2121,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2654,42 +2708,42 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="54" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2753,28 +2807,28 @@
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="55" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2812,25 +2866,25 @@
         <v>34</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="54" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="4">
         <v>99999</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="54" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2838,43 +2892,43 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
@@ -3051,7 +3105,7 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -3080,20 +3134,20 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="4"/>
@@ -3106,7 +3160,7 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="26" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="4"/>
@@ -3119,7 +3173,7 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="4"/>
@@ -3132,20 +3186,20 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3174,7 +3228,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="26" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="4"/>
@@ -3187,20 +3241,20 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="26" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="4"/>
@@ -3217,20 +3271,20 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21" t="str">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20" t="str">
         <f t="shared" ref="H33:I33" si="1">IF(H32="Email",H15,IF(H32="SMS",H14,0))</f>
         <v>Fend@gmail.com</v>
       </c>
-      <c r="I33" s="57" t="str">
+      <c r="I33" s="56" t="str">
         <f t="shared" si="1"/>
         <v>0821672169562</v>
       </c>
@@ -3272,41 +3326,41 @@
   <sheetPr/>
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="24.4272727272727" style="38" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="63" style="38" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.2818181818182" style="38" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="21" style="38" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.7090909090909" style="38" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.7090909090909" style="38" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.4272727272727" style="38" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.2818181818182" style="38" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.7090909090909" style="38" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.4272727272727" style="38" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.8545454545455" style="38" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="24.2818181818182" style="38" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.1363636363636" style="38" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.2818181818182" style="38" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="27" style="38" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.7090909090909" style="38" customWidth="1" collapsed="1"/>
-    <col min="21" max="23" width="63" style="38" customWidth="1" collapsed="1"/>
-    <col min="24" max="16384" width="9" style="38" collapsed="1"/>
+    <col min="1" max="3" width="24.4272727272727" style="37" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="63" style="37" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.2818181818182" style="37" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="21" style="37" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.7090909090909" style="37" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.7090909090909" style="37" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.4272727272727" style="37" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.2818181818182" style="37" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.7090909090909" style="37" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.4272727272727" style="37" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.8545454545455" style="37" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="24.2818181818182" style="37" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="17.1363636363636" style="37" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.2818181818182" style="37" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="27" style="37" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.7090909090909" style="37" customWidth="1" collapsed="1"/>
+    <col min="21" max="23" width="63" style="37" customWidth="1" collapsed="1"/>
+    <col min="24" max="16384" width="9" style="37" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="32" customFormat="1" spans="1:23">
+    <row r="1" s="31" customFormat="1" spans="1:23">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -3327,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
@@ -3369,15 +3423,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="32" customFormat="1" spans="1:23">
-      <c r="A2" s="32" t="s">
+    <row r="2" s="31" customFormat="1" spans="1:23">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3398,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
         <v>3</v>
@@ -3440,2939 +3494,2939 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="33" customFormat="1" ht="87" spans="1:23">
-      <c r="A3" s="33" t="s">
+    <row r="3" s="32" customFormat="1" ht="87" spans="1:23">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="H3" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="I3" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="J3" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="K3" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="L3" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="M3" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="N3" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="O3" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="P3" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="Q3" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="R3" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="S3" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="T3" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="U3" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="U3" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="V3" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="W3" s="33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" s="32" customFormat="1" spans="1:23">
-      <c r="A4" s="32" t="s">
+      <c r="V3" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="W3" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" s="31" customFormat="1" spans="1:23">
+      <c r="A4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <f>COUNTIFS($A9:$A47,"*$*",B9:B47,"")</f>
         <v>0</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="32">
         <f>COUNTIFS($A9:$A47,"*$*",C9:C47,"")</f>
         <v>0</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="32">
         <f>COUNTIFS($A9:$A47,"*$*",D9:D47,"")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <f t="shared" ref="E4:R4" si="0">COUNTIFS($A9:$A47,"*$*",E9:E47,"")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="32">
         <f>COUNTIFS($A9:$A47,"*$*",P9:P47,"")</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R4" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="32">
         <f>COUNTIFS($A9:$A47,"*$*",S9:S47,"")</f>
         <v>0</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="32">
         <f>COUNTIFS($A9:$A47,"*$*",T9:T47,"")</f>
         <v>0</v>
       </c>
-      <c r="U4" s="33">
+      <c r="U4" s="32">
         <f>COUNTIFS($A9:$A47,"*$*",U9:U47,"")</f>
         <v>0</v>
       </c>
-      <c r="V4" s="33">
+      <c r="V4" s="32">
         <f>COUNTIFS($A9:$A47,"*$*",V9:V47,"")</f>
         <v>0</v>
       </c>
-      <c r="W4" s="33">
+      <c r="W4" s="32">
         <f>COUNTIFS($A9:$A47,"*$*",W9:W47,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="32" customFormat="1" spans="4:23">
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-    </row>
-    <row r="6" s="33" customFormat="1" spans="1:23">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-    </row>
-    <row r="7" s="32" customFormat="1" spans="1:23">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-    </row>
-    <row r="8" s="34" customFormat="1" spans="1:23">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-    </row>
-    <row r="9" s="32" customFormat="1" spans="1:23">
-      <c r="A9" s="44" t="s">
+    <row r="5" s="31" customFormat="1" spans="4:23">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+    </row>
+    <row r="6" s="32" customFormat="1" spans="1:23">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+    </row>
+    <row r="7" s="31" customFormat="1" spans="1:23">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+    </row>
+    <row r="8" s="33" customFormat="1" spans="1:23">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+    </row>
+    <row r="9" s="31" customFormat="1" spans="1:23">
+      <c r="A9" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="C9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="G9" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="T9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="U9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="V9" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="W9" s="43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" s="34" customFormat="1" spans="1:23">
+      <c r="A10" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="N9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="O9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="P9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="R9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="S9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="T9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="U9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="V9" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="W9" s="44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" s="35" customFormat="1" spans="1:23">
-      <c r="A10" s="45" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+    </row>
+    <row r="11" s="31" customFormat="1" spans="1:23">
+      <c r="A11" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-    </row>
-    <row r="11" s="32" customFormat="1" spans="1:23">
-      <c r="A11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="C11" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="E11" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="F11" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="G11" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="H11" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="I11" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="J11" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="K11" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="K11" s="44" t="s">
+      <c r="L11" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="M11" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="M11" s="44" t="s">
+      <c r="N11" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="N11" s="44" t="s">
+      <c r="O11" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="O11" s="44" t="s">
+      <c r="P11" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="44" t="s">
+      <c r="Q11" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="Q11" s="44" t="s">
+      <c r="R11" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="R11" s="44" t="s">
+      <c r="S11" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="S11" s="44" t="s">
+      <c r="T11" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="44" t="s">
+      <c r="U11" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="U11" s="44" t="s">
+      <c r="V11" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="V11" s="44" t="s">
+      <c r="W11" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="W11" s="44" t="s">
+    </row>
+    <row r="12" s="31" customFormat="1" spans="1:23">
+      <c r="A12" s="43" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" s="32" customFormat="1" spans="1:23">
-      <c r="A12" s="44" t="s">
+      <c r="B12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="S12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="T12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="U12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="V12" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="W12" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" s="31" customFormat="1" spans="1:23">
+      <c r="A13" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="K12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="N12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="O12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="P12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="R12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="S12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="T12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="U12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="V12" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="W12" s="44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" s="32" customFormat="1" spans="1:23">
-      <c r="A13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="C13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="E13" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="47" t="s">
+      <c r="G13" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="47" t="s">
+      <c r="H13" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="R13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="S13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="T13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="U13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="V13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="W13" s="46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" s="31" customFormat="1" spans="1:23">
+      <c r="A14" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="J13" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="L13" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="M13" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="N13" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="O13" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="P13" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q13" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="R13" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="S13" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="T13" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="U13" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="V13" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="W13" s="47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" s="32" customFormat="1" spans="1:23">
-      <c r="A14" s="44" t="s">
+      <c r="B14" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="44" t="s">
+      <c r="E14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="P14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="S14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="T14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="U14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="V14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="W14" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" s="31" customFormat="1" spans="1:23">
+      <c r="A15" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="L14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="M14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="N14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="P14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="R14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="S14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="T14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="U14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="V14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="W14" s="44" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" s="32" customFormat="1" spans="1:23">
-      <c r="A15" s="44" t="s">
+      <c r="B15" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="44" t="s">
+      <c r="E15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="M15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="R15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="S15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="T15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="U15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="V15" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="W15" s="43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" s="31" customFormat="1" spans="1:23">
+      <c r="A16" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="J15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="K15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="L15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="M15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="N15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="O15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="P15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="R15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="S15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="T15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="U15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="V15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="W15" s="44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" s="32" customFormat="1" spans="1:23">
-      <c r="A16" s="44" t="s">
+      <c r="B16" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="44" t="s">
+      <c r="E16" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="F16" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="P16" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="S16" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="T16" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="U16" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="V16" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="W16" s="43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" s="31" customFormat="1" spans="1:23">
+      <c r="A17" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="F16" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="J16" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="L16" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="M16" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="N16" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="O16" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="P16" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q16" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="R16" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="S16" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="T16" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="U16" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="V16" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="W16" s="44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" s="32" customFormat="1" spans="1:23">
-      <c r="A17" s="44" t="s">
+      <c r="B17" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="44" t="s">
+      <c r="E17" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="F17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="N17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="R17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="S17" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="T17" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="U17" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="V17" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="W17" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" s="31" customFormat="1" spans="1:23">
+      <c r="A18" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="H17" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="J17" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="K17" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="L17" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="M17" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="N17" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="O17" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="P17" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q17" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="R17" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="S17" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="T17" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="U17" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="V17" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="W17" s="44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" s="32" customFormat="1" spans="1:23">
-      <c r="A18" s="44" t="s">
+      <c r="B18" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="44" t="s">
+      <c r="E18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="M18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="N18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="P18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="S18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="T18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="U18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="V18" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="W18" s="43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" s="31" customFormat="1" spans="1:23">
+      <c r="A19" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="H18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="I18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="K18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="L18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="M18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="N18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="O18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="P18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="R18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="S18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="T18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="U18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="V18" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="W18" s="44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" s="32" customFormat="1" spans="1:23">
-      <c r="A19" s="44" t="s">
+      <c r="B19" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="44" t="s">
+      <c r="E19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="N19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="O19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="R19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="S19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="T19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="U19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="V19" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="W19" s="43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" s="31" customFormat="1" spans="1:23">
+      <c r="A20" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="J19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="K19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="M19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="N19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="O19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="P19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="R19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="S19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="T19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="U19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="V19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="W19" s="44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" s="32" customFormat="1" spans="1:23">
-      <c r="A20" s="44" t="s">
+      <c r="B20" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="O20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="R20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="S20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="T20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="U20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="V20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="W20" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" s="31" customFormat="1" spans="1:23">
+      <c r="A21" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="M20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="N20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="P20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="R20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="S20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="T20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="U20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="V20" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="W20" s="44" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" s="32" customFormat="1" spans="1:23">
-      <c r="A21" s="44" t="s">
+      <c r="B21" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="44" t="s">
+      <c r="E21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="M21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="N21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="O21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="R21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="S21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="T21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="U21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="V21" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="W21" s="43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" s="31" customFormat="1" spans="1:23">
+      <c r="A22" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="E21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="J21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="K21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="L21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="M21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="N21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="O21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="P21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="R21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="S21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="T21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="U21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="V21" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="W21" s="44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" s="32" customFormat="1" spans="1:23">
-      <c r="A22" s="44" t="s">
+      <c r="B22" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="N22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="O22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="R22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="S22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="T22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="U22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="V22" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="W22" s="38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" s="31" customFormat="1" spans="1:23">
+      <c r="A23" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="M22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="N22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="O22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="P22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="R22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="S22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="T22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="U22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="V22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="W22" s="39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" s="32" customFormat="1" spans="1:23">
-      <c r="A23" s="44" t="s">
+      <c r="B23" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="D23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="M23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="N23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="O23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="P23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="R23" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="G23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="J23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="K23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="L23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="M23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="N23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="O23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="P23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="R23" s="44" t="s">
+      <c r="S23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="T23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="U23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="V23" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="W23" s="43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" s="31" customFormat="1" spans="1:23">
+      <c r="A24" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="S23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="T23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="U23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="V23" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="W23" s="44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" s="32" customFormat="1" spans="1:23">
-      <c r="A24" s="44" t="s">
+      <c r="B24" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="48" t="s">
+      <c r="E24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="L24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="M24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="N24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="O24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="P24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="R24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="S24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="T24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="U24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="V24" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="W24" s="47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" s="31" customFormat="1" spans="1:23">
+      <c r="A25" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="I24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="J24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="K24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="L24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="M24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="N24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="O24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="P24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="R24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="S24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="T24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="U24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="V24" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="W24" s="48" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" s="32" customFormat="1" spans="1:23">
-      <c r="A25" s="44" t="s">
+      <c r="B25" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="B25" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="49" t="s">
+      <c r="E25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="L25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="N25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="O25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="R25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="S25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="T25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="U25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="V25" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="W25" s="48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" s="35" customFormat="1" spans="1:23">
+      <c r="A26" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="I25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="J25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="L25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="M25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="N25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="O25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="P25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="R25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="S25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="T25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="U25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="V25" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="W25" s="49" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" s="36" customFormat="1" spans="1:23">
-      <c r="A26" s="45" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+    </row>
+    <row r="27" s="31" customFormat="1" spans="1:23">
+      <c r="A27" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-    </row>
-    <row r="27" s="32" customFormat="1" spans="1:23">
-      <c r="A27" s="44" t="s">
+      <c r="B27" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="C27" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="D27" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="E27" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="I27" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="K27" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="44" t="s">
+      <c r="L27" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="M27" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="N27" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="H27" s="44" t="s">
+      <c r="O27" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="P27" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="J27" s="44" t="s">
+      <c r="Q27" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="K27" s="44" t="s">
+      <c r="R27" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="S27" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="L27" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="M27" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="N27" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="O27" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="P27" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q27" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="R27" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="S27" s="44" t="s">
+      <c r="T27" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="T27" s="44" t="s">
+      <c r="U27" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="V27" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="W27" s="43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" s="31" customFormat="1" spans="1:23">
+      <c r="A28" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="U27" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="V27" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="W27" s="44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" s="32" customFormat="1" spans="1:23">
-      <c r="A28" s="44" t="s">
+      <c r="B28" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="C28" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="D28" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="E28" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="I28" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="K28" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="L28" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="44" t="s">
+      <c r="M28" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="I28" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="J28" s="44" t="s">
+      <c r="N28" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="O28" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="P28" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q28" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="K28" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="L28" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="M28" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="N28" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="O28" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="P28" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q28" s="44" t="s">
+      <c r="R28" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="S28" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="R28" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="S28" s="44" t="s">
+      <c r="T28" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="T28" s="44" t="s">
+      <c r="U28" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="V28" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="W28" s="43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" s="31" customFormat="1" spans="1:23">
+      <c r="A29" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="U28" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="V28" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="W28" s="44" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" s="32" customFormat="1" spans="1:23">
-      <c r="A29" s="44" t="s">
+      <c r="B29" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="B29" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="44" t="s">
+      <c r="E29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="M29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="N29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="O29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="P29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="R29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="S29" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="G29" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="H29" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="I29" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="J29" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="K29" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="L29" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="M29" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="N29" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="O29" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="P29" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q29" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="R29" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="S29" s="44" t="s">
+      <c r="T29" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="T29" s="44" t="s">
+      <c r="U29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="V29" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="W29" s="43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" s="31" customFormat="1" spans="1:23">
+      <c r="A30" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="U29" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="V29" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="W29" s="44" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" s="32" customFormat="1" spans="1:23">
-      <c r="A30" s="44" t="s">
+      <c r="B30" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="44" t="s">
+      <c r="E30" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="F30" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="G30" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="H30" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="I30" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="I30" s="44" t="s">
+      <c r="J30" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="J30" s="44" t="s">
+      <c r="K30" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="K30" s="44" t="s">
+      <c r="L30" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="L30" s="44" t="s">
+      <c r="M30" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="M30" s="44" t="s">
+      <c r="N30" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="N30" s="44" t="s">
+      <c r="O30" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="O30" s="44" t="s">
+      <c r="P30" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="P30" s="44" t="s">
+      <c r="Q30" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="Q30" s="44" t="s">
+      <c r="R30" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="R30" s="44" t="s">
+      <c r="S30" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="S30" s="44" t="s">
+      <c r="T30" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="T30" s="44" t="s">
+      <c r="U30" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="V30" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="W30" s="43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" s="31" customFormat="1" spans="1:23">
+      <c r="A31" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="U30" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="V30" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="W30" s="44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" s="32" customFormat="1" spans="1:23">
-      <c r="A31" s="44" t="s">
+      <c r="B31" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="B31" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="44" t="s">
+      <c r="E31" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="K31" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="L31" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="M31" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="N31" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="O31" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="P31" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q31" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="R31" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="S31" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="G31" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="H31" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="I31" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="J31" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="K31" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="L31" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="M31" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="N31" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="O31" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="P31" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q31" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="R31" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="S31" s="44" t="s">
+      <c r="T31" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="T31" s="44" t="s">
+      <c r="U31" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="V31" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="W31" s="43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" s="31" customFormat="1" spans="1:23">
+      <c r="A32" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="U31" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="V31" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="W31" s="44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" s="32" customFormat="1" spans="1:23">
-      <c r="A32" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="44" t="s">
+      <c r="E32" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="I32" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="J32" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="K32" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="L32" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="M32" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="N32" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="O32" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="P32" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q32" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="R32" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="S32" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="H32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="I32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="J32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="K32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="L32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="M32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="N32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="O32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="P32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="R32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="S32" s="44" t="s">
+      <c r="T32" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="T32" s="44" t="s">
+      <c r="U32" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="V32" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="W32" s="43" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" s="31" customFormat="1" spans="1:23">
+      <c r="A33" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="U32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="V32" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="W32" s="44" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" s="32" customFormat="1" spans="1:23">
-      <c r="A33" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="44" t="s">
+      <c r="E33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="L33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="M33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="N33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="O33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="P33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="R33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="S33" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="E33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="G33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="I33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="J33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="K33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="L33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="M33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="N33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="O33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="P33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="R33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="S33" s="44" t="s">
+      <c r="T33" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="T33" s="44" t="s">
+      <c r="U33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="V33" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="W33" s="43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" s="31" customFormat="1" spans="1:23">
+      <c r="A34" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="U33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="V33" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="W33" s="44" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" s="32" customFormat="1" spans="1:23">
-      <c r="A34" s="44" t="s">
+      <c r="B34" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="B34" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="44" t="s">
+      <c r="E34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="I34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="K34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="L34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="M34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="N34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="O34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="P34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="R34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="S34" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="E34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="F34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="G34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="H34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="I34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="J34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="K34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="L34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="M34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="N34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="O34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="P34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="R34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="S34" s="44" t="s">
+      <c r="T34" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="T34" s="44" t="s">
+      <c r="U34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="V34" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="W34" s="43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" s="31" customFormat="1" spans="1:23">
+      <c r="A35" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="U34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="V34" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="W34" s="44" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="35" s="32" customFormat="1" spans="1:23">
-      <c r="A35" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="44" t="s">
+      <c r="E35" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="F35" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="J35" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="K35" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="L35" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="M35" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="N35" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="O35" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="P35" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q35" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="R35" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="S35" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="T35" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="F35" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="G35" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="I35" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="J35" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="K35" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="L35" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="M35" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="N35" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="O35" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="P35" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q35" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="R35" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="S35" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="T35" s="44" t="s">
+      <c r="U35" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="V35" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="W35" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" s="31" customFormat="1" spans="1:23">
+      <c r="A36" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="U35" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="V35" s="44" t="s">
-        <v>204</v>
-      </c>
-      <c r="W35" s="44" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" s="32" customFormat="1" spans="1:23">
-      <c r="A36" s="44" t="s">
+      <c r="B36" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="C36" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="D36" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="E36" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="J36" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="K36" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="L36" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="M36" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="N36" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="O36" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="P36" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q36" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="R36" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="S36" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="E36" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="G36" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="J36" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="K36" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="L36" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="M36" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="N36" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="O36" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="P36" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q36" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="R36" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="S36" s="44" t="s">
+      <c r="T36" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="T36" s="44" t="s">
+      <c r="U36" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="U36" s="44" t="s">
+      <c r="V36" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="W36" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" s="31" customFormat="1" spans="1:23">
+      <c r="A37" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="V36" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="W36" s="44" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" s="32" customFormat="1" spans="1:23">
-      <c r="A37" s="44" t="s">
+      <c r="B37" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="C37" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="C37" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="D37" s="44" t="s">
+      <c r="E37" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="F37" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="I37" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="J37" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="K37" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="L37" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="M37" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="N37" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="O37" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="P37" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q37" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="R37" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="S37" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="T37" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="U37" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="V37" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="W37" s="43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" s="31" customFormat="1" spans="1:23">
+      <c r="A38" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="K38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="L38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="M38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="N38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="O38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="P38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="R38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="S38" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="T38" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="U38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="V38" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="W38" s="43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" s="31" customFormat="1" spans="1:23">
+      <c r="A39" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="K39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="L39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="M39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="N39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="O39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="P39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="R39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="S39" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="T39" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="U39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="V39" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="W39" s="43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" s="31" customFormat="1" spans="1:23">
+      <c r="A40" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="I40" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="G37" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="H37" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="I37" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="J37" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="K37" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="L37" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="M37" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="N37" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="O37" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="P37" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q37" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="R37" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="S37" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="T37" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="U37" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="V37" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="W37" s="44" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="38" s="32" customFormat="1" spans="1:23">
-      <c r="A38" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="B38" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="E38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="G38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="H38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="I38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="J38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="K38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="L38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="M38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="N38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="O38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="P38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="R38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="S38" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="T38" s="44" t="s">
+      <c r="J40" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="K40" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="L40" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="M40" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="N40" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="O40" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="P40" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q40" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="R40" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="S40" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="T40" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="U40" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="V40" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="W40" s="43" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" s="31" customFormat="1" spans="1:23">
+      <c r="A41" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="U38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="V38" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="W38" s="44" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="39" s="32" customFormat="1" spans="1:23">
-      <c r="A39" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="44" t="s">
+      <c r="E41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="I41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="K41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="L41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="M41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="N41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="O41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="P41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="R41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="S41" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="E39" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="F39" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="H39" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="I39" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="J39" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="K39" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="L39" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="M39" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="N39" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="O39" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="P39" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q39" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="R39" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="S39" s="44" t="s">
+      <c r="T41" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="T39" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="U39" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="V39" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="W39" s="44" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" s="32" customFormat="1" spans="1:23">
-      <c r="A40" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="E40" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="G40" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="H40" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="I40" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="J40" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="K40" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="L40" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="M40" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="N40" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="O40" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="P40" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q40" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="R40" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="S40" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="T40" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="U40" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="V40" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="W40" s="44" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" s="32" customFormat="1" spans="1:23">
-      <c r="A41" s="44" t="s">
+      <c r="U41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="V41" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="W41" s="43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" s="31" customFormat="1" spans="1:23">
+      <c r="A42" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="B41" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="G41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="H41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="I41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="J41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="K41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="L41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="M41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="N41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="O41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="P41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="R41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="S41" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="T41" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="U41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="V41" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="W41" s="44" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" s="32" customFormat="1" spans="1:23">
-      <c r="A42" s="44" t="s">
+      <c r="B42" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="C42" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="E42" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="D42" s="50" t="s">
+      <c r="F42" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="G42" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="H42" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="I42" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="J42" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="K42" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="L42" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="M42" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="N42" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="F42" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="G42" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="H42" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="I42" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="J42" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="K42" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="L42" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="M42" s="51" t="s">
+      <c r="O42" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="P42" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="N42" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="O42" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="P42" s="51" t="s">
+      <c r="Q42" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="R42" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="S42" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="Q42" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="R42" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="S42" s="50" t="s">
+      <c r="T42" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="T42" s="50" t="s">
+      <c r="U42" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="V42" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="U42" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="V42" s="50" t="s">
+      <c r="W42" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="W42" s="50" t="s">
+    </row>
+    <row r="43" s="31" customFormat="1" spans="1:23">
+      <c r="A43" s="43" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="43" s="32" customFormat="1" spans="1:23">
-      <c r="A43" s="44" t="s">
+      <c r="B43" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="B43" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="44" t="s">
+      <c r="E43" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="K43" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="L43" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="M43" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="N43" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="O43" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="P43" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q43" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="R43" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="S43" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="E43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="F43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="G43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="I43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="J43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="K43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="L43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="M43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="N43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="O43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="P43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="R43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="S43" s="44" t="s">
+      <c r="T43" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="T43" s="44" t="s">
+      <c r="U43" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="V43" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="W43" s="43" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" s="31" customFormat="1" spans="1:23">
+      <c r="A44" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="U43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="V43" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="W43" s="44" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="44" s="32" customFormat="1" spans="1:23">
-      <c r="A44" s="44" t="s">
+      <c r="B44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="J44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="L44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="M44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="N44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="O44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="P44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="R44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="S44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="T44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="U44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="V44" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="W44" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" s="31" customFormat="1" spans="1:23">
+      <c r="A45" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="B44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="H44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="I44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="J44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="K44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="L44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="M44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="N44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="O44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="P44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="R44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="S44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="T44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="U44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="V44" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="W44" s="44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" s="32" customFormat="1" spans="1:23">
-      <c r="A45" s="44" t="s">
+      <c r="B45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="J45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="K45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="L45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="M45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="N45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="O45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="P45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="R45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="S45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="T45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="U45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="V45" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="W45" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" s="36" customFormat="1" spans="1:23">
+      <c r="A46" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="B45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="H45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="I45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="J45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="K45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="L45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="M45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="N45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="O45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="P45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="R45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="S45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="T45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="U45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="V45" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="W45" s="44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" s="37" customFormat="1" spans="1:23">
-      <c r="A46" s="52" t="s">
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
+      <c r="R46" s="52"/>
+      <c r="S46" s="52"/>
+      <c r="T46" s="52"/>
+      <c r="U46" s="52"/>
+      <c r="V46" s="52"/>
+      <c r="W46" s="52"/>
+    </row>
+    <row r="47" s="31" customFormat="1" spans="1:23">
+      <c r="A47" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-    </row>
-    <row r="47" s="32" customFormat="1" spans="1:23">
-      <c r="A47" s="44" t="s">
+      <c r="B47" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="B47" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="E47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="G47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="H47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="I47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="J47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="K47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="L47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="M47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="N47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="O47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="P47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="R47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="S47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="T47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="U47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="V47" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="W47" s="44" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" s="32" customFormat="1" spans="1:23">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="U48" s="39"/>
-      <c r="V48" s="39"/>
-      <c r="W48" s="39"/>
-    </row>
-    <row r="49" s="32" customFormat="1" spans="4:23">
-      <c r="D49" s="39"/>
-      <c r="E49" s="33"/>
-      <c r="J49" s="44"/>
-      <c r="U49" s="39"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
+      <c r="E47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="I47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="K47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="L47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="M47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="N47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="O47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="P47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="R47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="S47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="T47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="U47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="V47" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="W47" s="43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" s="31" customFormat="1" spans="1:23">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+    </row>
+    <row r="49" s="31" customFormat="1" spans="4:23">
+      <c r="D49" s="38"/>
+      <c r="E49" s="32"/>
+      <c r="J49" s="43"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
     </row>
     <row r="50" ht="29.1" customHeight="1" spans="4:23">
-      <c r="D50" s="39"/>
-      <c r="E50" s="54"/>
-      <c r="U50" s="39"/>
-      <c r="V50" s="39"/>
-      <c r="W50" s="39"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="53"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6448,27 +6502,27 @@
   <sheetPr/>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.8545454545455" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7090909090909" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.7090909090909" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.4272727272727" customWidth="1"/>
+    <col min="2" max="2" width="26.1363636363636" customWidth="1"/>
+    <col min="3" max="3" width="27.1363636363636" customWidth="1"/>
+    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="16.5727272727273" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
+    <col min="9" max="9" width="15.7090909090909" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="17.4272727272727" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="16.4272727272727" customWidth="1"/>
+    <col min="14" max="14" width="18.5727272727273" customWidth="1"/>
+    <col min="15" max="15" width="17.7090909090909" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -6476,49 +6530,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="H1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="K1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="M1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="N1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="O1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="P1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -6529,46 +6583,46 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>256</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>260</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>257</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>257</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>257</v>
       </c>
       <c r="M2" t="s">
-        <v>3</v>
+        <v>257</v>
       </c>
       <c r="N2" t="s">
-        <v>3</v>
+        <v>262</v>
       </c>
       <c r="O2" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="P2" t="s">
-        <v>3</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="58" spans="1:16">
@@ -6576,49 +6630,49 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -6732,7 +6786,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>18</v>
@@ -6753,10 +6807,10 @@
         <v>17</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>18</v>
@@ -6771,514 +6825,514 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="1" spans="1:16">
-      <c r="A8" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="11"/>
+    <row r="8" s="9" customFormat="1" spans="1:16">
+      <c r="A8" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" s="10" customFormat="1" spans="1:16">
-      <c r="A10" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" s="9" customFormat="1" spans="1:16">
+      <c r="A10" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" s="10" customFormat="1" spans="1:16">
-      <c r="A12" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
+    </row>
+    <row r="12" s="9" customFormat="1" spans="1:16">
+      <c r="A12" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="4" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="4" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -7286,49 +7340,49 @@
         <v>45</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -7336,49 +7390,49 @@
         <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -7386,203 +7440,203 @@
         <v>49</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="27" t="s">
-        <v>200</v>
+      <c r="A24" s="26" t="s">
+        <v>199</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="27" t="s">
-        <v>172</v>
+      <c r="A25" s="26" t="s">
+        <v>171</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="27"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -7600,7 +7654,7 @@
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="27"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -7618,7 +7672,7 @@
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="27"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -7636,7 +7690,7 @@
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="27"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -7654,12 +7708,12 @@
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -7668,16 +7722,16 @@
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
-      <c r="O30" s="29"/>
+      <c r="O30" s="28"/>
       <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -7686,16 +7740,16 @@
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
-      <c r="O31" s="29"/>
+      <c r="O31" s="28"/>
       <c r="P31" s="4"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -7704,66 +7758,66 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
-      <c r="O32" s="29"/>
+      <c r="O32" s="28"/>
       <c r="P32" s="4"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="O33" s="30"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="O33" s="29"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="O34" s="29"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="O34" s="28"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="29"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -7875,10 +7929,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -7893,31 +7947,31 @@
         <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>335</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>335</v>
+      <c r="B9" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>357</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -7926,13 +7980,13 @@
         <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>336</v>
+        <v>359</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>358</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -7955,16 +8009,16 @@
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
@@ -7985,14 +8039,14 @@
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>338</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>339</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>336</v>
+      <c r="B14" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>358</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -8000,25 +8054,25 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
@@ -8111,7 +8165,7 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -8127,11 +8181,11 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
+      <formula1>"Phone, Id no, Email"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6">
       <formula1>"Edit, Reset OTP, Resend Link"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
-      <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:E13">
       <formula1>"M, F"</formula1>
@@ -8231,16 +8285,16 @@
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -8255,18 +8309,18 @@
         <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
@@ -8274,8 +8328,8 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="55" t="s">
-        <v>343</v>
+      <c r="D9" s="54" t="s">
+        <v>365</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -8284,22 +8338,22 @@
         <v>34</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="55" t="s">
-        <v>344</v>
+      <c r="C10" s="54" t="s">
+        <v>366</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+        <v>367</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -8402,16 +8456,16 @@
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -8426,18 +8480,18 @@
         <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
@@ -8445,8 +8499,8 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="55" t="s">
-        <v>343</v>
+      <c r="D9" s="54" t="s">
+        <v>365</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -8455,22 +8509,22 @@
         <v>34</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="55" t="s">
-        <v>344</v>
+      <c r="C10" s="54" t="s">
+        <v>366</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+        <v>367</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -8554,19 +8608,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8619,107 +8673,107 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" ht="29" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" ht="58" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -8755,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
         <v>69</v>
@@ -8767,16 +8821,16 @@
         <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="G1" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="H1" t="s">
         <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="J1" t="s">
         <v>69</v>
@@ -8785,7 +8839,7 @@
         <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -8796,13 +8850,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="D2" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="E2" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -8811,19 +8865,19 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="K2" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="L2" t="s">
-        <v>364</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" ht="101.5" spans="1:12">
@@ -8831,37 +8885,37 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="I3" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="J3" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8944,143 +8998,143 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="A8" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" ht="29" spans="1:12">
       <c r="A11" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>377</v>
+        <v>396</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="87" spans="1:12">
-      <c r="A12" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>383</v>
+      <c r="A12" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>403</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -9107,20 +9161,20 @@
   <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.7090909090909" customWidth="1"/>
-    <col min="2" max="3" width="45.1363636363636" customWidth="1"/>
-    <col min="4" max="4" width="25.5727272727273" customWidth="1"/>
-    <col min="5" max="6" width="32.5727272727273" customWidth="1"/>
-    <col min="7" max="7" width="20.8545454545455" customWidth="1"/>
-    <col min="8" max="8" width="21.4272727272727" customWidth="1"/>
-    <col min="9" max="9" width="21.5727272727273" customWidth="1"/>
-    <col min="10" max="10" width="30.1363636363636" customWidth="1"/>
+    <col min="1" max="1" width="22.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="45.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="32.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.8545454545455" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.1363636363636" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -9128,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
         <v>69</v>
@@ -9137,10 +9191,10 @@
         <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="F1" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="G1" t="s">
         <v>69</v>
@@ -9163,10 +9217,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>257</v>
       </c>
       <c r="D2" t="s">
-        <v>390</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -9175,13 +9229,13 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>390</v>
+        <v>257</v>
       </c>
       <c r="H2" t="s">
-        <v>390</v>
+        <v>257</v>
       </c>
       <c r="I2" t="s">
-        <v>390</v>
+        <v>257</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
@@ -9192,31 +9246,31 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9262,18 +9316,18 @@
     </row>
     <row r="5" ht="130.5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>396</v>
+        <v>414</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>398</v>
+      <c r="E5" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -9296,130 +9350,130 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="A8" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" ht="29" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>377</v>
+        <v>237</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="29" spans="1:10">
-      <c r="A12" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>400</v>
+      <c r="A12" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>419</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="452">
   <si>
     <t>Status</t>
   </si>
@@ -417,9 +417,42 @@
     <t>Unexecuted</t>
   </si>
   <si>
+    <t>;Unknown System Error;Failed Verify Data Match &amp; Equal</t>
+  </si>
+  <si>
+    <t>;Unknown System Error</t>
+  </si>
+  <si>
+    <t>;Tenant code tidak boleh kosong</t>
+  </si>
+  <si>
+    <t>;1BM1CUST tidak tercatat di sistem</t>
+  </si>
+  <si>
+    <t>;Mohon sediakan parameter wajib : tlp</t>
+  </si>
+  <si>
+    <t>;No HP 08111128600 digunakan oleh 2 pengguna berbeda</t>
+  </si>
+  <si>
+    <t>;Email terdaftar dengan nomor telepon 087770006256, berbeda dengan nomor telepon yang direquest yaitu 085811111122222</t>
+  </si>
+  <si>
+    <t>;NIK ini 3603282305960007 bukan milik user dengan email ini MARVIN.SUTANTO@DOCSOL.ID.</t>
+  </si>
+  <si>
+    <t>;Nomor telepon tidak valid : '081246378888</t>
+  </si>
+  <si>
+    <t>;NIK 3175072510010004 dan email EDUARDUS.AXEL@GMAIL.COM ini sudah digunakan oleh 2 user berbeda. Harap periksa kembali data yang dikirimkan.</t>
+  </si>
+  <si>
     <t>-;FailedStoreDB</t>
   </si>
   <si>
+    <t>;NIK 3271032806000005 dan email HELMI.AA@AD-INS.COM ini sudah digunakan oleh 2 user berbeda. Harap periksa kembali data yang dikirimkan.</t>
+  </si>
+  <si>
     <t>Testing signer hanya 1 dengan tipe CUST</t>
   </si>
   <si>
@@ -453,7 +486,7 @@
     <t>Signer 1 dan Signer 2 yaitu Cust</t>
   </si>
   <si>
-    <t>Signer 1 Cust dengan nomor telepon tidak diizinkan.</t>
+    <t>Signer 1 Cust dengan nomor telepon tidak diizinkan. (Tidak bisa ditemukan lagi)</t>
   </si>
   <si>
     <t>Signer 1 Cust dimana email yang terdaftar dengan nomor telepon yang berbeda.</t>
@@ -476,16 +509,28 @@
     <t>Signer 2 dan Signer 1 MF</t>
   </si>
   <si>
-    <t>PsRE selain DIGI</t>
-  </si>
-  <si>
-    <t>Success dengan 3 signer</t>
-  </si>
-  <si>
-    <t>Success dengan 5 signer</t>
-  </si>
-  <si>
-    <t>Email tdak bisa menggunakan email pribadi untuk NIK dirinya.</t>
+    <t>PsRE selain DIGI. (PsRE yang tidak diprioritaskan, yaitu TKNAJ)</t>
+  </si>
+  <si>
+    <t>Success dengan 5 signer (email ke-2,3,4,5 sama)</t>
+  </si>
+  <si>
+    <t>Email tdak bisa menggunakan email pribadi untuk NIK dirinya. (emailnya tidak sesuai dengan idKTP dan tlp</t>
+  </si>
+  <si>
+    <t>Email tdak bisa menggunakan email pribadi untuk NIK dirinya. (Emailnya kosong)</t>
+  </si>
+  <si>
+    <t>Email tdak bisa menggunakan email pribadi untuk NIK dirinya. (Email ada)</t>
+  </si>
+  <si>
+    <t>Checking panjang character pada API</t>
+  </si>
+  <si>
+    <t>officeCode yang tidak memiliki region (serta tidak hit)</t>
+  </si>
+  <si>
+    <t>officeCode yang tidak memiliki region (hit dengan data yang berbeda dengan yang sebenarnya)</t>
   </si>
   <si>
     <t>$tenantCode</t>
@@ -506,70 +551,79 @@
     <t>$referenceNo</t>
   </si>
   <si>
-    <t>"199"</t>
-  </si>
-  <si>
-    <t>"201"</t>
-  </si>
-  <si>
-    <t>"202303108120300"</t>
-  </si>
-  <si>
-    <t>"145"</t>
-  </si>
-  <si>
-    <t>"146"</t>
-  </si>
-  <si>
-    <t>"147"</t>
-  </si>
-  <si>
-    <t>"148"</t>
-  </si>
-  <si>
-    <t>"149"</t>
-  </si>
-  <si>
-    <t>"150"</t>
-  </si>
-  <si>
-    <t>"151"</t>
-  </si>
-  <si>
-    <t>"152"</t>
-  </si>
-  <si>
-    <t>"153"</t>
-  </si>
-  <si>
-    <t>"154"</t>
-  </si>
-  <si>
-    <t>"155"</t>
-  </si>
-  <si>
-    <t>"156"</t>
-  </si>
-  <si>
-    <t>"157"</t>
-  </si>
-  <si>
-    <t>"158"</t>
-  </si>
-  <si>
-    <t>"159"</t>
-  </si>
-  <si>
-    <t>"160"</t>
-  </si>
-  <si>
-    <t>"161"</t>
-  </si>
-  <si>
-    <t>"162"</t>
-  </si>
-  <si>
-    <t>"163"</t>
+    <t>"666"</t>
+  </si>
+  <si>
+    <t>"667"</t>
+  </si>
+  <si>
+    <t>"668"</t>
+  </si>
+  <si>
+    <t>"669"</t>
+  </si>
+  <si>
+    <t>"670"</t>
+  </si>
+  <si>
+    <t>"671"</t>
+  </si>
+  <si>
+    <t>"672"</t>
+  </si>
+  <si>
+    <t>"673"</t>
+  </si>
+  <si>
+    <t>"674"</t>
+  </si>
+  <si>
+    <t>"675"</t>
+  </si>
+  <si>
+    <t>"676"</t>
+  </si>
+  <si>
+    <t>"677"</t>
+  </si>
+  <si>
+    <t>"678"</t>
+  </si>
+  <si>
+    <t>"679"</t>
+  </si>
+  <si>
+    <t>"680"</t>
+  </si>
+  <si>
+    <t>"681"</t>
+  </si>
+  <si>
+    <t>"682"</t>
+  </si>
+  <si>
+    <t>"683"</t>
+  </si>
+  <si>
+    <t>"684"</t>
+  </si>
+  <si>
+    <t>"685"</t>
+  </si>
+  <si>
+    <t>"686"</t>
+  </si>
+  <si>
+    <t>"687"</t>
+  </si>
+  <si>
+    <t>"688"</t>
+  </si>
+  <si>
+    <t>"689"</t>
+  </si>
+  <si>
+    <t>"690"</t>
   </si>
   <si>
     <t>documentId</t>
@@ -593,6 +647,12 @@
     <t>"GA1"</t>
   </si>
   <si>
+    <t>"SU"</t>
+  </si>
+  <si>
+    <t>"ICU"</t>
+  </si>
+  <si>
     <t>officeName</t>
   </si>
   <si>
@@ -644,10 +704,7 @@
     <t>$psreCode</t>
   </si>
   <si>
-    <t>"DIGI"</t>
-  </si>
-  <si>
-    <t>"TKNAJ"</t>
+    <t>"VIDA"</t>
   </si>
   <si>
     <t>successURL</t>
@@ -668,9 +725,6 @@
     <t>$signAction</t>
   </si>
   <si>
-    <t>"at"</t>
-  </si>
-  <si>
     <t>"mt"</t>
   </si>
   <si>
@@ -680,9 +734,6 @@
     <t>"at";"mt"</t>
   </si>
   <si>
-    <t>"mt";"mt";"mt"</t>
-  </si>
-  <si>
     <t>"mt";"mt";"mt";"mt";"mt"</t>
   </si>
   <si>
@@ -704,9 +755,6 @@
     <t>"MF";"MF"</t>
   </si>
   <si>
-    <t>"MF";"CUST";"CUST"</t>
-  </si>
-  <si>
     <t>"MF";"CUST";"CUST";"CUST";"CUST"</t>
   </si>
   <si>
@@ -716,9 +764,6 @@
     <t>"0";"0"</t>
   </si>
   <si>
-    <t>"0";"0";"0"</t>
-  </si>
-  <si>
     <t>"0";"0";"0";"0";"0"</t>
   </si>
   <si>
@@ -728,24 +773,6 @@
     <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 20"</t>
   </si>
   <si>
-    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 21"</t>
-  </si>
-  <si>
-    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 22"</t>
-  </si>
-  <si>
-    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 23"</t>
-  </si>
-  <si>
-    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 24"</t>
-  </si>
-  <si>
-    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 25"</t>
-  </si>
-  <si>
-    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 26"</t>
-  </si>
-  <si>
     <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 27"</t>
   </si>
   <si>
@@ -770,9 +797,6 @@
     <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 34"</t>
   </si>
   <si>
-    <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 20";"Jalan Jeruk Kebon No 20"</t>
-  </si>
-  <si>
     <t>"Jalan Kebon Jeruk No 02";"Jalan Jeruk Kebon No 20";"Jalan Jeruk Kebon No 20";"Jalan Jeruk Kebon No 20";"Jalan Jeruk Kebon No 20"</t>
   </si>
   <si>
@@ -782,27 +806,18 @@
     <t>"M";"F"</t>
   </si>
   <si>
-    <t>"M";"F";"F"</t>
-  </si>
-  <si>
     <t>"M";"F";"F";"F";"F"</t>
   </si>
   <si>
     <t>"Kebon";"Kebon"</t>
   </si>
   <si>
-    <t>"Kebon";"Kebon";"Kebon"</t>
-  </si>
-  <si>
     <t>"Kebon";"Kebon";"Kebon";"Kebon";"Kebon"</t>
   </si>
   <si>
     <t>"Jeruk";"Jeruk"</t>
   </si>
   <si>
-    <t>"Jeruk";"Jeruk";"Jeruk"</t>
-  </si>
-  <si>
     <t>"Jeruk";"Jeruk";"Jeruk";"Jeruk";"Jeruk"</t>
   </si>
   <si>
@@ -812,9 +827,6 @@
     <t>"123456";"123456"</t>
   </si>
   <si>
-    <t>"123456";"123456";"123456"</t>
-  </si>
-  <si>
     <t>"123456";"123456";"123456";"123456";"123456"</t>
   </si>
   <si>
@@ -830,13 +842,10 @@
     <t>$nama</t>
   </si>
   <si>
-    <t>"ANDY"</t>
-  </si>
-  <si>
-    <t>"a"</t>
-  </si>
-  <si>
-    <t>"b"</t>
+    <t>"USERCIAF"</t>
+  </si>
+  <si>
+    <t>"U"</t>
   </si>
   <si>
     <t>"ANDY";"USERAACA"</t>
@@ -845,7 +854,7 @@
     <t>"ANDY";"EDUARDUS AXEL TJAHJADI"</t>
   </si>
   <si>
-    <t>"ANDY";"EDUARDUS AXEL TJAHJADI";"EDUARDUS AXEL TJAHJADI"</t>
+    <t>"ANDY";"USERCIAF"</t>
   </si>
   <si>
     <t>"ANDY";"EDUARDUS AXEL TJAHJADI";"EDUARDUS AXEL TJAHJADI";"EDUARDUS AXEL TJAHJADI";"EDUARDUS AXEL TJAHJADI"</t>
@@ -857,22 +866,25 @@
     <t>$tlp</t>
   </si>
   <si>
-    <t>"087770006257"</t>
-  </si>
-  <si>
-    <t>"087770006257";"081000990020"</t>
+    <t>"081246378888"</t>
+  </si>
+  <si>
+    <t>"087770006257";"081246378888"</t>
+  </si>
+  <si>
+    <t>"";""</t>
   </si>
   <si>
     <t>"087770006257";"08111128600"</t>
   </si>
   <si>
-    <t>"";""</t>
-  </si>
-  <si>
-    <t>"085811111122222";"08111128600"</t>
-  </si>
-  <si>
-    <t>"087770006257";"08111128600";"08111128600"</t>
+    <t>"085811111122222";"08124637888811"</t>
+  </si>
+  <si>
+    <t>"085811111122222";"'081246378888"</t>
+  </si>
+  <si>
+    <t>"085811111122222";"081246378888"</t>
   </si>
   <si>
     <t>"087770006257";"08111128600";"08111128600";"08111128600";"08111128600"</t>
@@ -887,37 +899,31 @@
     <t>"01/01/2001";"02/02/2002"</t>
   </si>
   <si>
-    <t>"01/01/2001";"02/02/2002";"02/02/2002"</t>
-  </si>
-  <si>
     <t>"01/01/2001";"02/02/2002";"02/02/2002";"02/02/2002";"02/02/2002"</t>
   </si>
   <si>
     <t>"DKI Jakarta";"Palembang"</t>
   </si>
   <si>
-    <t>"DKI Jakarta";"Palembang";"Palembang"</t>
-  </si>
-  <si>
     <t>"DKI Jakarta";"Palembang";"Palembang";"Palembang";"Palembang"</t>
   </si>
   <si>
     <t>$idKtp</t>
   </si>
   <si>
-    <t>"3271011312910014"</t>
-  </si>
-  <si>
-    <t>"3271011312910014";"3511000101800020"</t>
+    <t>"3511000101802805"</t>
+  </si>
+  <si>
+    <t>"3271011312910014";"3511000101802805"</t>
   </si>
   <si>
     <t>"3271011312910014";"3271032806000005"</t>
   </si>
   <si>
-    <t>"3603282305960007";"3271032806000005"</t>
-  </si>
-  <si>
-    <t>"3271011312910014";"3271032806000005";"3271032806000005"</t>
+    <t>"3603282305960007";"'3511000101802805"</t>
+  </si>
+  <si>
+    <t>"3603282305960007";"3511000101802805"</t>
   </si>
   <si>
     <t>"3271011312910014";"3271032806000005";"3271032806000005";"3271032806000005";"3271032806000005"</t>
@@ -932,22 +938,19 @@
     <t>$email</t>
   </si>
   <si>
-    <t>"ANDY@AD-INS.COM"</t>
-  </si>
-  <si>
-    <t>"ANDY@AD-INS.COM";"VIDA.AACA@ESIGNHUB.MY.ID"</t>
+    <t>"USERCIAF@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"ANDY@AD-INS.COM";"USERCIAF@GMAIL.COM"</t>
   </si>
   <si>
     <t>"ANDY@AD-INS.COM";"EDUARDUS.AXEL@GMAIL.COM"</t>
   </si>
   <si>
-    <t>"MARVIN.SUTANTO@DOCSOL.ID";"EDUARDUS.AXEL@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"MARVIN.SUTANTO@AD-INS.COM";"EDUARDUS.AXEL@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"ANDY@AD-INS.COM";"EDUARDUS.AXEL@GMAIL.COM";"EDUARDUS.AXEL@GMAIL.COM"</t>
+    <t>"MARVIN.SUTANTO@DOCSOL.ID";"USERCIAF@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"MARVIN.SUTANTO@AD-INS.COM";"USERCIAF@GMAIL.COM"</t>
   </si>
   <si>
     <t>"ANDY@AD-INS.COM";"EDUARDUS.AXEL@GMAIL.COM";"EDUARDUS.AXEL@GMAIL.COM";"EDUARDUS.AXEL@GMAIL.COM";"EDUARDUS.AXEL@GMAIL.COM"</t>
@@ -965,9 +968,6 @@
     <t>"12345678";"12345678"</t>
   </si>
   <si>
-    <t>"12345678";"12345678";"12345678"</t>
-  </si>
-  <si>
     <t>"12345678";"12345678";"12345678";"12345678";"12345678"</t>
   </si>
   <si>
@@ -986,10 +986,19 @@
     <t>"confins"</t>
   </si>
   <si>
+    <t>3511000101802805</t>
+  </si>
+  <si>
+    <t>USERCIAF@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>081246378888</t>
+  </si>
+  <si>
+    <t>USERCIAF</t>
+  </si>
+  <si>
     <t>;Nomor telp. ini 0869485587491 sudah digunakan di link undangan dengan NIK berbeda</t>
-  </si>
-  <si>
-    <t>;Unknown System Error</t>
   </si>
   <si>
     <t>;Failed Verify Data Match &amp; Equal</t>
@@ -1486,10 +1495,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1566,14 +1575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1604,16 +1605,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1627,6 +1629,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1635,8 +1644,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1644,6 +1661,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1658,23 +1683,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1691,7 +1700,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1730,37 +1739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.149906918546098"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,13 +1751,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1802,91 +1805,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1898,13 +1817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,6 +1836,90 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2013,32 +2016,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2060,6 +2039,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2071,7 +2074,7 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2090,133 +2093,133 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2294,22 +2297,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2642,15 +2647,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.4272727272727" customWidth="1"/>
-    <col min="2" max="2" width="25.7090909090909" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="20.2818181818182" customWidth="1"/>
-    <col min="5" max="5" width="25.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="23.5727272727273" customWidth="1"/>
-    <col min="7" max="7" width="20.8545454545455" customWidth="1"/>
-    <col min="8" max="8" width="17.2818181818182" customWidth="1"/>
-    <col min="9" max="9" width="18.7090909090909" customWidth="1"/>
+    <col min="1" max="1" width="31.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.8545454545455" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.7090909090909" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2842,25 +2847,25 @@
         <v>26</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="59" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2924,28 +2929,28 @@
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="60" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2983,25 +2988,25 @@
         <v>47</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="58" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="4">
         <v>99999</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="58" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3399,10 +3404,10 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="57" t="s">
+      <c r="H32" s="58" t="s">
         <v>86</v>
       </c>
       <c r="I32" s="4"/>
@@ -3509,10 +3514,10 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="57" t="s">
+      <c r="G38" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="57" t="s">
+      <c r="H38" s="58" t="s">
         <v>91</v>
       </c>
       <c r="I38" s="4"/>
@@ -3578,16 +3583,13 @@
         <f>IF(H41="Email",H15,IF(H41="SMS",H14,0))</f>
         <v>userCICC@gmail.com</v>
       </c>
-      <c r="I42" s="60" t="str">
+      <c r="I42" s="61" t="str">
         <f>IF(I41="Email",I15,IF(I41="SMS",I14,0))</f>
         <v>0821472164742</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:I41">
-      <formula1>"SMS, Email"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:I6">
       <formula1>"Edit, Resend"</formula1>
     </dataValidation>
@@ -3599,6 +3601,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:I29 B31:I31 B37:I37">
       <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:I41">
+      <formula1>"SMS, Email"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -3625,268 +3630,289 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y50"/>
+  <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="3" width="24.4272727272727" style="39" customWidth="1"/>
-    <col min="4" max="4" width="63" style="39" customWidth="1"/>
+    <col min="4" max="4" width="31.8181818181818" style="39" customWidth="1"/>
     <col min="5" max="5" width="39.2818181818182" style="39" customWidth="1"/>
-    <col min="6" max="8" width="21" style="39" customWidth="1"/>
-    <col min="9" max="9" width="21.7090909090909" style="39" customWidth="1"/>
-    <col min="10" max="10" width="20.7090909090909" style="39" customWidth="1"/>
-    <col min="11" max="11" width="20.4272727272727" style="39" customWidth="1"/>
-    <col min="12" max="12" width="21.2818181818182" style="39" customWidth="1"/>
-    <col min="13" max="13" width="21.7090909090909" style="39" customWidth="1"/>
-    <col min="14" max="14" width="20.4272727272727" style="39" customWidth="1"/>
-    <col min="15" max="15" width="25.8545454545455" style="39" customWidth="1"/>
-    <col min="16" max="16" width="24.2818181818182" style="39" customWidth="1"/>
-    <col min="17" max="17" width="17.1363636363636" style="39" customWidth="1"/>
-    <col min="18" max="18" width="28.5636363636364" style="39" customWidth="1"/>
-    <col min="19" max="19" width="27" style="39" customWidth="1"/>
-    <col min="20" max="20" width="21.7090909090909" style="39" customWidth="1"/>
-    <col min="21" max="23" width="63" style="39" customWidth="1"/>
-    <col min="24" max="24" width="32.9818181818182" style="39" customWidth="1"/>
-    <col min="25" max="25" width="39.6090909090909" style="39" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="39"/>
+    <col min="6" max="6" width="45.3181818181818" style="39" customWidth="1"/>
+    <col min="7" max="7" width="32.5909090909091" style="39" customWidth="1"/>
+    <col min="8" max="8" width="28.7" style="39" customWidth="1"/>
+    <col min="9" max="9" width="30.7727272727273" style="39" customWidth="1"/>
+    <col min="10" max="10" width="30.9" style="39" customWidth="1"/>
+    <col min="11" max="11" width="30.5090909090909" style="39" customWidth="1"/>
+    <col min="12" max="12" width="29.3454545454545" style="39" customWidth="1"/>
+    <col min="13" max="13" width="37.9090909090909" style="39" customWidth="1"/>
+    <col min="14" max="14" width="42.2" style="39" customWidth="1"/>
+    <col min="15" max="15" width="40.7727272727273" style="39" customWidth="1"/>
+    <col min="16" max="16" width="37.5272727272727" style="39" customWidth="1"/>
+    <col min="17" max="17" width="35.7090909090909" style="39" customWidth="1"/>
+    <col min="18" max="18" width="36.6181818181818" style="39" customWidth="1"/>
+    <col min="19" max="19" width="35.9727272727273" style="39" customWidth="1"/>
+    <col min="20" max="20" width="43.2454545454545" style="39" customWidth="1"/>
+    <col min="21" max="22" width="63" style="39" customWidth="1"/>
+    <col min="23" max="23" width="45.5727272727273" style="39" customWidth="1"/>
+    <col min="24" max="24" width="39.6090909090909" style="39" customWidth="1"/>
+    <col min="25" max="27" width="45.3181818181818" style="39" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" s="33" customFormat="1" spans="1:25">
+    <row r="1" s="33" customFormat="1" spans="1:27">
       <c r="A1" t="s">
         <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="L1" t="s">
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="O1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="P1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="R1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="S1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="T1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="U1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="V1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="W1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="X1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="Y1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" s="33" customFormat="1" spans="1:25">
+        <v>1</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" s="33" customFormat="1" spans="1:27">
       <c r="A2" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="L2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="N2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="O2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="P2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="Q2" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="R2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="S2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="T2" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="U2" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="V2" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="W2" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="X2" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="Y2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="34" customFormat="1" ht="72.5" spans="1:25">
+        <v>98</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" s="34" customFormat="1" ht="43.5" spans="1:27">
       <c r="A3" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="U3" s="34" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="W3" s="34" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="X3" s="34" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="Y3" s="34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" s="33" customFormat="1" spans="1:25">
+        <v>132</v>
+      </c>
+      <c r="Z3" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA3" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" s="33" customFormat="1" spans="1:27">
       <c r="A4" s="33" t="s">
         <v>19</v>
       </c>
@@ -3986,8 +4012,16 @@
         <f>COUNTIFS($A9:$A47,"*$*",Y9:Y47,"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" s="33" customFormat="1" spans="6:25">
+      <c r="Z4" s="34">
+        <f>COUNTIFS($A9:$A47,"*$*",Z9:Z47,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="34">
+        <f>COUNTIFS($A9:$A47,"*$*",AA9:AA47,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="33" customFormat="1" spans="6:27">
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -4003,13 +4037,14 @@
       <c r="R5" s="34"/>
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
+      <c r="V5" s="34"/>
       <c r="W5" s="34"/>
       <c r="X5" s="34"/>
       <c r="Y5" s="34"/>
-    </row>
-    <row r="6" s="34" customFormat="1" spans="1:25">
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+    </row>
+    <row r="6" s="34" customFormat="1" spans="1:27">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -4035,8 +4070,10 @@
       <c r="W6" s="40"/>
       <c r="X6" s="40"/>
       <c r="Y6" s="40"/>
-    </row>
-    <row r="7" s="33" customFormat="1" spans="1:25">
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+    </row>
+    <row r="7" s="33" customFormat="1" spans="1:27">
       <c r="A7" s="40"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -4062,8 +4099,10 @@
       <c r="W7" s="41"/>
       <c r="X7" s="41"/>
       <c r="Y7" s="41"/>
-    </row>
-    <row r="8" s="35" customFormat="1" spans="1:25">
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+    </row>
+    <row r="8" s="35" customFormat="1" spans="1:27">
       <c r="A8" s="42"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
@@ -4089,87 +4128,95 @@
       <c r="W8" s="43"/>
       <c r="X8" s="43"/>
       <c r="Y8" s="43"/>
-    </row>
-    <row r="9" s="33" customFormat="1" spans="1:25">
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+    </row>
+    <row r="9" s="33" customFormat="1" spans="1:27">
       <c r="A9" s="45" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="N9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="O9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="P9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="Q9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="R9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="S9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="T9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="U9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="V9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="W9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="X9" s="45" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="Y9" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" s="36" customFormat="1" spans="1:25">
+        <v>136</v>
+      </c>
+      <c r="Z9" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA9" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" s="36" customFormat="1" spans="1:27">
       <c r="A10" s="46" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -4195,1165 +4242,1257 @@
       <c r="W10" s="48"/>
       <c r="X10" s="48"/>
       <c r="Y10" s="48"/>
-    </row>
-    <row r="11" s="33" customFormat="1" spans="1:25">
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+    </row>
+    <row r="11" s="33" customFormat="1" spans="1:27">
       <c r="A11" s="45" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="K11" s="45" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L11" s="45" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M11" s="45" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="N11" s="45" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P11" s="45" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="45" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="R11" s="45" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="S11" s="45" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="T11" s="45" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="U11" s="45" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="V11" s="45" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="W11" s="45" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="X11" s="45" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="Y11" s="45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" s="33" customFormat="1" spans="1:25">
+        <v>163</v>
+      </c>
+      <c r="Z11" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA11" s="45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" s="33" customFormat="1" spans="1:27">
       <c r="A12" s="45" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="L12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="M12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="O12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="P12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="Q12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="R12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="S12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="T12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="U12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="V12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="W12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="X12" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="Y12" s="45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" s="33" customFormat="1" spans="1:25">
+        <v>137</v>
+      </c>
+      <c r="Z12" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA12" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" s="33" customFormat="1" spans="1:27">
       <c r="A13" s="45" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="K13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="L13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="M13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="O13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="R13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="S13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="T13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="U13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="V13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="W13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="X13" s="49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Y13" s="49" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" s="33" customFormat="1" spans="1:25">
+        <v>168</v>
+      </c>
+      <c r="Z13" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA13" s="49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" s="33" customFormat="1" spans="1:27">
       <c r="A14" s="45" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="J14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="K14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="M14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="N14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="O14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="P14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="R14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="S14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="T14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="U14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="V14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="W14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="X14" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="Y14" s="45" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" s="33" customFormat="1" spans="1:25">
+        <v>172</v>
+      </c>
+      <c r="Z14" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA14" s="45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" s="33" customFormat="1" spans="1:27">
       <c r="A15" s="45" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="K15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="M15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="N15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="O15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="P15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="Q15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="R15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="S15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="T15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="U15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="V15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="W15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="X15" s="45" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="Y15" s="45" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" s="33" customFormat="1" spans="1:25">
+        <v>176</v>
+      </c>
+      <c r="Z15" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA15" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" s="33" customFormat="1" spans="1:27">
       <c r="A16" s="45" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="K16" s="45" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="L16" s="45" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="M16" s="45" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="N16" s="45" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="O16" s="45" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="P16" s="45" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="45" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="R16" s="45" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="S16" s="45" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="T16" s="45" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="U16" s="45" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="V16" s="45" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="W16" s="45" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="X16" s="45" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="Y16" s="45" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" s="33" customFormat="1" spans="1:25">
+        <v>178</v>
+      </c>
+      <c r="Z16" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA16" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" s="33" customFormat="1" spans="1:27">
       <c r="A17" s="45" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="K17" s="45" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="L17" s="45" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="M17" s="45" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="N17" s="45" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="O17" s="45" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="P17" s="45" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="45" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="R17" s="45" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="S17" s="45" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="T17" s="45" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="U17" s="45" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="V17" s="45" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="W17" s="45" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="X17" s="45" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="Y17" s="45" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" s="33" customFormat="1" spans="1:25">
+        <v>181</v>
+      </c>
+      <c r="Z17" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA17" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" s="33" customFormat="1" spans="1:27">
       <c r="A18" s="45" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="L18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="M18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="N18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="O18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="P18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="Q18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="R18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="S18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="T18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="U18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="V18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="W18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="X18" s="45" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="Y18" s="45" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" s="33" customFormat="1" spans="1:25">
+        <v>184</v>
+      </c>
+      <c r="Z18" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA18" s="45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" s="33" customFormat="1" spans="1:27">
       <c r="A19" s="45" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="L19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="M19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="N19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="O19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="P19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="Q19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="R19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="S19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="T19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="U19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="V19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="W19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="X19" s="45" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="Y19" s="45" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" s="33" customFormat="1" spans="1:25">
+        <v>186</v>
+      </c>
+      <c r="Z19" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA19" s="45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" s="33" customFormat="1" spans="1:27">
       <c r="A20" s="45" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="J20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="M20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="N20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="O20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="P20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="R20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="S20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="T20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="U20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="V20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="W20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="X20" s="45" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="Y20" s="45" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" s="33" customFormat="1" spans="1:25">
+        <v>172</v>
+      </c>
+      <c r="Z20" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA20" s="45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" s="33" customFormat="1" spans="1:27">
       <c r="A21" s="45" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="I21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="L21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="M21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="N21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="O21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="P21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="Q21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="R21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="S21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="T21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="U21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="V21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="W21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="X21" s="45" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="Y21" s="45" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" s="33" customFormat="1" spans="1:25">
+        <v>189</v>
+      </c>
+      <c r="Z21" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA21" s="45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" s="33" customFormat="1" spans="1:27">
       <c r="A22" s="45" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="J22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="K22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="L22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="M22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="N22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="O22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="P22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="R22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="S22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="T22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="U22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="V22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="W22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="X22" s="40" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="Y22" s="40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" s="33" customFormat="1" spans="1:25">
+        <v>137</v>
+      </c>
+      <c r="Z22" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA22" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" s="33" customFormat="1" spans="1:27">
       <c r="A23" s="45" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="J23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="L23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="N23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="O23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="P23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="Q23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="R23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="S23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="T23" s="45" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="U23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="V23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="W23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="X23" s="45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="Y23" s="45" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" s="33" customFormat="1" spans="1:25">
+        <v>192</v>
+      </c>
+      <c r="Z23" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA23" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" s="33" customFormat="1" spans="1:27">
       <c r="A24" s="45" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E24" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="G24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="I24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="N24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="P24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Q24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="R24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="S24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="T24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="U24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="V24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="W24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="X24" s="50" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Y24" s="50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" s="33" customFormat="1" spans="1:25">
+        <v>194</v>
+      </c>
+      <c r="Z24" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA24" s="50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" s="33" customFormat="1" spans="1:27">
       <c r="A25" s="45" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="H25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="I25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="J25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="K25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="N25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Q25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="R25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="S25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="T25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="U25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="V25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="W25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="X25" s="51" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Y25" s="51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" s="37" customFormat="1" spans="1:25">
+        <v>196</v>
+      </c>
+      <c r="Z25" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA25" s="51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" s="37" customFormat="1" spans="1:27">
       <c r="A26" s="46" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B26" s="47"/>
       <c r="C26" s="47"/>
@@ -5379,1514 +5518,1632 @@
       <c r="W26" s="47"/>
       <c r="X26" s="47"/>
       <c r="Y26" s="47"/>
-    </row>
-    <row r="27" s="33" customFormat="1" spans="1:25">
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+    </row>
+    <row r="27" s="33" customFormat="1" spans="1:27">
       <c r="A27" s="45" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="J27" s="45" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="K27" s="45" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="L27" s="45" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="M27" s="45" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="N27" s="45" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="O27" s="45" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="P27" s="45" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="Q27" s="45" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="R27" s="45" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="S27" s="45" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="T27" s="45" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="U27" s="45" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="V27" s="45" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="W27" s="45" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="X27" s="45" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="Y27" s="45" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" s="33" customFormat="1" spans="1:25">
+        <v>200</v>
+      </c>
+      <c r="Z27" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA27" s="45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" s="33" customFormat="1" spans="1:27">
       <c r="A28" s="45" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F28" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="I28" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="N28" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="O28" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="P28" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q28" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="R28" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="S28" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="T28" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="U28" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="V28" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="W28" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="X28" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y28" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z28" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA28" s="45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" s="33" customFormat="1" spans="1:27">
+      <c r="A29" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="C29" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="D29" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="I28" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="J28" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="K28" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="L28" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="M28" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="N28" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="O28" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="P28" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q28" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="R28" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="S28" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="T28" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="U28" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="V28" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="W28" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="X28" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y28" s="45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" s="33" customFormat="1" spans="1:25">
-      <c r="A29" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>169</v>
-      </c>
       <c r="F29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="I29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="J29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="L29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="M29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="N29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="O29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="P29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="R29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="S29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="U29" s="45" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="V29" s="45" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="W29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="X29" s="45" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="Y29" s="45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" s="33" customFormat="1" spans="1:25">
+        <v>211</v>
+      </c>
+      <c r="Z29" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA29" s="45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" s="33" customFormat="1" spans="1:27">
       <c r="A30" s="45" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="I30" s="45" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="L30" s="45" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M30" s="45" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="N30" s="45" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="O30" s="45" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="P30" s="45" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="45" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="R30" s="45" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="S30" s="45" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="T30" s="45" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="U30" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="V30" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="V30" s="45" t="s">
-        <v>215</v>
-      </c>
       <c r="W30" s="45" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="X30" s="45" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="Y30" s="45" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" s="33" customFormat="1" spans="1:25">
+        <v>214</v>
+      </c>
+      <c r="Z30" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA30" s="45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" s="33" customFormat="1" spans="1:27">
       <c r="A31" s="45" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="L31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="N31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="O31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="P31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="R31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="S31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="T31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="U31" s="45" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="V31" s="45" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="W31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="X31" s="45" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Y31" s="45" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" s="33" customFormat="1" spans="1:25">
+        <v>225</v>
+      </c>
+      <c r="Z31" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA31" s="45" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" s="33" customFormat="1" spans="1:27">
       <c r="A32" s="45" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="I32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="J32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="L32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="N32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="O32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="P32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="R32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="S32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="T32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="U32" s="45" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="V32" s="45" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="W32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="X32" s="45" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Y32" s="45" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" s="33" customFormat="1" spans="1:25">
+        <v>227</v>
+      </c>
+      <c r="Z32" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA32" s="45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" s="33" customFormat="1" spans="1:27">
       <c r="A33" s="45" t="s">
         <v>69</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="I33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="J33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="N33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="O33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="R33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="S33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="T33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="U33" s="45" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="V33" s="45" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="W33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="X33" s="45" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Y33" s="45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" s="33" customFormat="1" spans="1:25">
+        <v>229</v>
+      </c>
+      <c r="Z33" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA33" s="45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" s="33" customFormat="1" spans="1:27">
       <c r="A34" s="45" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="I34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="J34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="N34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="O34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="R34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="S34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="T34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="U34" s="45" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="V34" s="45" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="W34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="X34" s="45" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Y34" s="45" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" s="33" customFormat="1" spans="1:25">
+        <v>232</v>
+      </c>
+      <c r="Z34" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA34" s="45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" s="33" customFormat="1" spans="1:27">
       <c r="A35" s="45" t="s">
         <v>65</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G35" s="45" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J35" s="45" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K35" s="45" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L35" s="45" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M35" s="45" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N35" s="45" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O35" s="45" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P35" s="45" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q35" s="45" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="R35" s="45" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="S35" s="45" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="T35" s="45" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="U35" s="45" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="V35" s="45" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="W35" s="45" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="X35" s="45" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y35" s="45" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="36" s="33" customFormat="1" spans="1:25">
+        <v>234</v>
+      </c>
+      <c r="Z35" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA35" s="45" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" s="33" customFormat="1" spans="1:27">
       <c r="A36" s="45" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G36" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I36" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J36" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K36" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L36" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M36" s="45" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N36" s="45" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="O36" s="45" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P36" s="45" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q36" s="45" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="R36" s="45" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="S36" s="45" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="T36" s="45" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="U36" s="45" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="V36" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="W36" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="X36" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y36" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="W36" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="X36" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y36" s="45" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="37" s="33" customFormat="1" spans="1:25">
+      <c r="Z36" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA36" s="45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" s="33" customFormat="1" spans="1:27">
       <c r="A37" s="45" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G37" s="45" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I37" s="45" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J37" s="45" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K37" s="45" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L37" s="45" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M37" s="45" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N37" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="O37" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="P37" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q37" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="R37" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="S37" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="O37" s="45" t="s">
+      <c r="T37" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="P37" s="45" t="s">
+      <c r="U37" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="V37" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="W37" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="X37" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y37" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="Q37" s="45" t="s">
+      <c r="Z37" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="R37" s="45" t="s">
+      <c r="AA37" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="S37" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="T37" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="U37" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="V37" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="W37" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="X37" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y37" s="45" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" s="33" customFormat="1" spans="1:25">
+    </row>
+    <row r="38" s="33" customFormat="1" spans="1:27">
       <c r="A38" s="45" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="R38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="S38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="T38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="U38" s="45" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="V38" s="45" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="W38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="X38" s="45" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Y38" s="45" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" s="33" customFormat="1" spans="1:25">
+        <v>256</v>
+      </c>
+      <c r="Z38" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA38" s="45" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" s="33" customFormat="1" spans="1:27">
       <c r="A39" s="45" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="J39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="R39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="S39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="T39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="U39" s="45" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="V39" s="45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="X39" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Y39" s="45" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" s="33" customFormat="1" spans="1:25">
+        <v>258</v>
+      </c>
+      <c r="Z39" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA39" s="45" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" s="33" customFormat="1" spans="1:27">
       <c r="A40" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="I40" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="J40" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="K40" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="L40" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="M40" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="N40" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="O40" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="P40" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q40" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="R40" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="S40" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="T40" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="U40" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="V40" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="W40" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="X40" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y40" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z40" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA40" s="45" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" s="33" customFormat="1" spans="1:27">
+      <c r="A41" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="G41" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="I41" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="J41" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="K41" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="L41" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="M41" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="N41" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="O41" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="P41" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q41" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="R41" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="S41" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="T41" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="U41" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="C40" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="F40" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="G40" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="H40" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="I40" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="J40" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="K40" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="L40" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="M40" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="N40" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="O40" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="P40" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q40" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="R40" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="S40" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="T40" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="U40" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="V40" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="W40" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="X40" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y40" s="45" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" s="33" customFormat="1" spans="1:25">
-      <c r="A41" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="G41" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="H41" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="I41" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="J41" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="K41" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="L41" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="M41" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="N41" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="O41" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="P41" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q41" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="R41" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="S41" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="T41" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="U41" s="45" t="s">
-        <v>256</v>
-      </c>
       <c r="V41" s="45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W41" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="X41" s="45" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Y41" s="45" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="42" s="33" customFormat="1" spans="1:25">
+        <v>258</v>
+      </c>
+      <c r="Z41" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA41" s="45" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" s="33" customFormat="1" spans="1:27">
       <c r="A42" s="45" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F42" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="G42" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="H42" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="I42" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="J42" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="K42" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="L42" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="M42" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="N42" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="O42" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="P42" s="53" t="s">
+      <c r="G42" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="Q42" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="R42" s="53" t="s">
+      <c r="H42" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="I42" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="J42" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="K42" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="L42" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="M42" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="S42" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="T42" s="53" t="s">
-        <v>270</v>
+      <c r="N42" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="O42" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="P42" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q42" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="R42" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="S42" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="T42" s="56" t="s">
+        <v>271</v>
       </c>
       <c r="U42" s="52" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="V42" s="52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="W42" s="52" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="X42" s="52" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Y42" s="52" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="43" s="33" customFormat="1" spans="1:25">
+        <v>271</v>
+      </c>
+      <c r="Z42" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA42" s="52" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" s="33" customFormat="1" spans="1:27">
       <c r="A43" s="45" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="U43" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="V43" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="V43" s="45" t="s">
-        <v>280</v>
-      </c>
       <c r="W43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="X43" s="45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y43" s="45" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="44" s="33" customFormat="1" spans="1:25">
+        <v>279</v>
+      </c>
+      <c r="Z43" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA43" s="45" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" s="33" customFormat="1" spans="1:27">
       <c r="A44" s="45" t="s">
         <v>281</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="I44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="J44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="K44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="L44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="M44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="N44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="O44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="P44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="Q44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="R44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="S44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="T44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="U44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="V44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="W44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="X44" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="Y44" s="45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" s="33" customFormat="1" spans="1:25">
+        <v>137</v>
+      </c>
+      <c r="Z44" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA44" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" s="33" customFormat="1" spans="1:27">
       <c r="A45" s="45" t="s">
         <v>282</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="I45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="J45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="K45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="L45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="M45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="N45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="O45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="P45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="Q45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="R45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="S45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="T45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="U45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="V45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="W45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="X45" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="Y45" s="45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" s="38" customFormat="1" spans="1:25">
-      <c r="A46" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z45" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA45" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" s="38" customFormat="1" spans="1:27">
+      <c r="A46" s="53" t="s">
         <v>283</v>
       </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="55"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="55"/>
-      <c r="W46" s="55"/>
-      <c r="X46" s="55"/>
-      <c r="Y46" s="55"/>
-    </row>
-    <row r="47" s="33" customFormat="1" spans="1:25">
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="54"/>
+      <c r="W46" s="54"/>
+      <c r="X46" s="54"/>
+      <c r="Y46" s="54"/>
+      <c r="Z46" s="54"/>
+      <c r="AA46" s="54"/>
+    </row>
+    <row r="47" s="33" customFormat="1" spans="1:27">
       <c r="A47" s="45" t="s">
         <v>284</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F47" s="45" t="s">
         <v>285</v>
@@ -6948,8 +7205,14 @@
       <c r="Y47" s="45" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="48" s="33" customFormat="1" spans="1:23">
+      <c r="Z47" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA47" s="45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" s="33" customFormat="1" spans="1:27">
       <c r="A48" s="45"/>
       <c r="B48" s="45"/>
       <c r="C48" s="45"/>
@@ -6970,85 +7233,112 @@
       <c r="R48" s="45"/>
       <c r="U48" s="40"/>
       <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
-    </row>
-    <row r="49" s="33" customFormat="1" spans="4:23">
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+    </row>
+    <row r="49" s="33" customFormat="1" spans="4:22">
       <c r="D49" s="40"/>
       <c r="E49" s="34"/>
       <c r="J49" s="45"/>
       <c r="U49" s="40"/>
       <c r="V49" s="40"/>
-      <c r="W49" s="40"/>
-    </row>
-    <row r="50" ht="29.1" customHeight="1" spans="4:23">
+    </row>
+    <row r="50" s="39" customFormat="1" ht="29.1" customHeight="1" spans="4:22">
       <c r="D50" s="40"/>
-      <c r="E50" s="56"/>
+      <c r="E50" s="55"/>
       <c r="U50" s="40"/>
       <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
+    </row>
+    <row r="51" s="39" customFormat="1" spans="20:20">
+      <c r="T51" s="62" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="52" s="39" customFormat="1" spans="20:20">
+      <c r="T52" s="57" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" s="39" customFormat="1" spans="20:20">
+      <c r="T53" s="62" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" s="39" customFormat="1" spans="20:20">
+      <c r="T54" s="39" t="s">
+        <v>289</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="F25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="F42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;VIDA.AACA@ESIGNHUB.MY.ID&quot;"/>
+    <hyperlink ref="F42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
     <hyperlink ref="G24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="G25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="G42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
     <hyperlink ref="H24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="H25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="H42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
     <hyperlink ref="I24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="I25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="I42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
     <hyperlink ref="J24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="J25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="J42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
     <hyperlink ref="M24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="M25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
     <hyperlink ref="M42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
     <hyperlink ref="N24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="N25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="N42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="N42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
     <hyperlink ref="O24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="O25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="O42" r:id="rId3" display="&quot;MARVIN.SUTANTO@DOCSOL.ID&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="O42" r:id="rId3" display="&quot;MARVIN.SUTANTO@DOCSOL.ID&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
     <hyperlink ref="P24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="P25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="P42" r:id="rId3" display="&quot;MARVIN.SUTANTO@DOCSOL.ID&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="P42" r:id="rId3" display="&quot;MARVIN.SUTANTO@DOCSOL.ID&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
     <hyperlink ref="Q24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="Q25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="Q42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="Q42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
     <hyperlink ref="K24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="K25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="K42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
     <hyperlink ref="L24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="L25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="L42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
     <hyperlink ref="R24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="R25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="R42" r:id="rId3" display="&quot;MARVIN.SUTANTO@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="R42" r:id="rId3" display="&quot;MARVIN.SUTANTO@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
     <hyperlink ref="S24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="S25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="S42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="S42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
     <hyperlink ref="T24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="T25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="T42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="T42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
     <hyperlink ref="U24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="U25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="U42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="U42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
     <hyperlink ref="V24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="V25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="V42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="V42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
     <hyperlink ref="W24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="W25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="W42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
+    <hyperlink ref="W42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;&quot;"/>
     <hyperlink ref="X24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="X25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="X42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;&quot;"/>
+    <hyperlink ref="X42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;HELMI.AA@AD-INS.COM&quot;"/>
+    <hyperlink ref="T52" r:id="rId4" display="USERCIAF@GMAIL.COM" tooltip="mailto:USERCIAF@GMAIL.COM"/>
+    <hyperlink ref="G42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="H42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="I42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="J42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="K42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="L42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
     <hyperlink ref="Y24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="Y25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="Y42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;HELMI.AA@AD-INS.COM&quot;"/>
+    <hyperlink ref="Y42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="Z24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="Z25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="Z42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="AA24" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
+    <hyperlink ref="AA25" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="AA42" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7062,26 +7352,26 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.4272727272727" customWidth="1"/>
-    <col min="2" max="2" width="26.1363636363636" customWidth="1"/>
-    <col min="3" max="3" width="27.1363636363636" customWidth="1"/>
-    <col min="4" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="16.5727272727273" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="17.8545454545455" customWidth="1"/>
-    <col min="9" max="9" width="15.7090909090909" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="17.4272727272727" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="16.4272727272727" customWidth="1"/>
-    <col min="14" max="14" width="18.5727272727273" customWidth="1"/>
-    <col min="15" max="15" width="17.7090909090909" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="1" max="1" width="31.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="18" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.8545454545455" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7142,46 +7432,46 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I2" t="s">
-        <v>287</v>
+        <v>98</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>287</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
-        <v>287</v>
+        <v>98</v>
       </c>
       <c r="M2" t="s">
-        <v>287</v>
+        <v>98</v>
       </c>
       <c r="N2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="58" spans="1:16">
@@ -7189,49 +7479,49 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -7342,22 +7632,22 @@
         <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>23</v>
@@ -7372,21 +7662,21 @@
         <v>24</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" s="17" customFormat="1" spans="1:16">
       <c r="A8" s="21" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -7409,54 +7699,54 @@
         <v>284</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" s="17" customFormat="1" spans="1:16">
       <c r="A10" s="21" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7476,57 +7766,57 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" s="17" customFormat="1" spans="1:16">
       <c r="A12" s="21" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -7546,352 +7836,352 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -7899,49 +8189,49 @@
         <v>63</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -7949,49 +8239,49 @@
         <v>65</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -7999,49 +8289,49 @@
         <v>67</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -8049,149 +8339,149 @@
         <v>69</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="28" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="28" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -8380,8 +8670,8 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>"SMS, Email"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 C16">
+      <formula1>"""M"",""F"","""""</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"Edit, Resend"</formula1>
@@ -8389,8 +8679,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 C7 D7 E7">
       <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 C16">
-      <formula1>"""M"",""F"","""""</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>"SMS, Email"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8488,10 +8778,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -8503,7 +8793,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>24</v>
@@ -8523,14 +8813,14 @@
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>387</v>
+      <c r="B9" s="58" t="s">
+        <v>390</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>387</v>
+        <v>391</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>390</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -8539,13 +8829,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -8568,13 +8858,13 @@
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="60" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="26"/>
@@ -8598,14 +8888,14 @@
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>390</v>
-      </c>
-      <c r="C14" s="61" t="s">
+      <c r="B14" s="58" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>394</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>391</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>388</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -8614,7 +8904,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>54</v>
@@ -8740,11 +9030,11 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6">
+      <formula1>"Edit, Reset OTP, Resend Link"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
       <formula1>"Phone, Id no, Email"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6">
-      <formula1>"Edit, Reset OTP, Resend Link"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:E13">
       <formula1>"M, F"</formula1>
@@ -8845,16 +9135,16 @@
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -8866,7 +9156,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>24</v>
@@ -8888,8 +9178,8 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="57" t="s">
-        <v>395</v>
+      <c r="D9" s="58" t="s">
+        <v>398</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -8898,18 +9188,18 @@
         <v>47</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="57" t="s">
-        <v>396</v>
+      <c r="C10" s="58" t="s">
+        <v>399</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -9016,16 +9306,16 @@
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -9037,7 +9327,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>24</v>
@@ -9059,8 +9349,8 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="57" t="s">
-        <v>395</v>
+      <c r="D9" s="58" t="s">
+        <v>398</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -9069,18 +9359,18 @@
         <v>47</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="57" t="s">
-        <v>396</v>
+      <c r="C10" s="58" t="s">
+        <v>399</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -9168,19 +9458,19 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9242,40 +9532,40 @@
     </row>
     <row r="9" ht="29" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" ht="58" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -9293,19 +9583,19 @@
         <v>284</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -9318,22 +9608,22 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -9445,37 +9735,37 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="I3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="J3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9576,37 +9866,37 @@
         <v>284</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:10">
@@ -9623,78 +9913,78 @@
     </row>
     <row r="11" ht="29" spans="1:12">
       <c r="A11" s="4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="87" spans="1:12">
       <c r="A12" s="20" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -9777,10 +10067,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>98</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
@@ -9789,16 +10079,16 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>287</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>287</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>287</v>
+        <v>98</v>
       </c>
       <c r="J2" t="s">
-        <v>287</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="43.5" spans="1:9">
@@ -9806,28 +10096,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9870,18 +10160,18 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F5" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
@@ -9928,28 +10218,28 @@
         <v>284</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="J9" s="16"/>
     </row>
@@ -9967,66 +10257,66 @@
     </row>
     <row r="11" ht="29" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="J11" s="18"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="29" spans="1:9">
       <c r="A12" s="13" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070"/>
+    <workbookView windowWidth="18530" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BuatUndangan" sheetId="2" r:id="rId1"/>
@@ -504,19 +504,19 @@
     <t>;Tenant code tidak boleh kosong</t>
   </si>
   <si>
-    <t>;1BM1CUST tidak tercatat di sistem</t>
+    <t>;Default vendor untuk tenant ADINS tidak ditemukan</t>
+  </si>
+  <si>
+    <t>;Mohon sediakan parameter wajib : tlp;Failed Verify Data Match &amp; Equal</t>
+  </si>
+  <si>
+    <t>;No HP 08111128600 digunakan oleh 2 pengguna berbeda</t>
+  </si>
+  <si>
+    <t>;Email terdaftar dengan nomor telepon 085156436879, berbeda dengan nomor telepon yang direquest yaitu 085811111122222</t>
   </si>
   <si>
     <t>;Unknown System Error</t>
-  </si>
-  <si>
-    <t>;Mohon sediakan parameter wajib : tlp</t>
-  </si>
-  <si>
-    <t>;No HP 08111128600 digunakan oleh 2 pengguna berbeda</t>
-  </si>
-  <si>
-    <t>;Email terdaftar dengan nomor telepon 085156436879, berbeda dengan nomor telepon yang direquest yaitu 085811111122222</t>
   </si>
   <si>
     <t>;Penandatangan dengan Tipe Employee dan Email MARVIN.SUTANTO@DOCSOL.ID belum melakukan registrasi</t>
@@ -902,12 +902,12 @@
     <t>"123456";"123456";"123456";"123456";"123456"</t>
   </si>
   <si>
+    <t>"Jakarta Barat";"Jakarta"</t>
+  </si>
+  <si>
     <t>"Jakarta Barat";"Jakarta";"Jakarta"</t>
   </si>
   <si>
-    <t>"Jakarta Barat";"Jakarta"</t>
-  </si>
-  <si>
     <t>"Jakarta Barat";"Jakarta";"Jakarta";"Jakarta";"Jakarta"</t>
   </si>
   <si>
@@ -920,19 +920,19 @@
     <t>"U"</t>
   </si>
   <si>
-    <t>"ANDY";"USERAACA"</t>
+    <t>"ANDY";"USERCIAF"</t>
   </si>
   <si>
     <t>"ANDY";"EDUARDUS AXEL TJAHJADI"</t>
   </si>
   <si>
-    <t>"ANDY";"USERCIAF"</t>
-  </si>
-  <si>
     <t>"ANDY";"EDUARDUS AXEL TJAHJADI";"EDUARDUS AXEL TJAHJADI";"EDUARDUS AXEL TJAHJADI";"EDUARDUS AXEL TJAHJADI"</t>
   </si>
   <si>
     <t>"ANDY";"HELMI ANDHIKA ARDIS"</t>
+  </si>
+  <si>
+    <t>"ANDYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA";"USERAACA"</t>
   </si>
   <si>
     <t>$tlp</t>
@@ -1597,10 +1597,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1655,6 +1655,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1662,16 +1670,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1685,9 +1693,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1710,14 +1718,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1731,45 +1762,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1778,7 +1770,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1786,6 +1778,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1802,7 +1802,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1841,37 +1841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.149876400036622"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1889,7 +1865,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1901,7 +1877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1913,19 +1889,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1943,7 +1931,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1955,13 +1961,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,61 +1997,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2099,29 +2093,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2156,15 +2130,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2179,10 +2144,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2201,133 +2195,133 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2414,8 +2408,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
@@ -2746,21 +2738,21 @@
   <sheetPr/>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.4272727272727" customWidth="1"/>
-    <col min="2" max="2" width="25.7090909090909" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="20.2818181818182" customWidth="1"/>
-    <col min="5" max="5" width="25.7090909090909" customWidth="1"/>
-    <col min="6" max="6" width="23.5727272727273" customWidth="1"/>
-    <col min="7" max="7" width="20.8545454545455" customWidth="1"/>
-    <col min="8" max="8" width="17.2818181818182" customWidth="1"/>
-    <col min="9" max="9" width="18.7090909090909" customWidth="1"/>
+    <col min="1" max="1" width="31.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.5727272727273" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.8545454545455" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.7090909090909" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2999,58 +2991,58 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="J9" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="59" t="s">
+      <c r="L9" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="59" t="s">
+      <c r="M9" s="57" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3138,40 +3130,40 @@
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="60" t="s">
+      <c r="J12" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="60" t="s">
+      <c r="K12" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="60" t="s">
+      <c r="L12" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="M12" s="60" t="s">
+      <c r="M12" s="58" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3221,37 +3213,37 @@
         <v>64</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="56" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="4">
         <v>99999</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="58" t="s">
+      <c r="J14" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="58" t="s">
+      <c r="K14" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="L14" s="58" t="s">
+      <c r="L14" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="58" t="s">
+      <c r="M14" s="56" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3297,21 +3289,21 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
@@ -3807,25 +3799,25 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="58" t="s">
+      <c r="G32" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="H32" s="58" t="s">
+      <c r="H32" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="I32" s="58" t="s">
+      <c r="I32" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="J32" s="58" t="s">
+      <c r="J32" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="K32" s="58" t="s">
+      <c r="K32" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="L32" s="58" t="s">
+      <c r="L32" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="M32" s="58" t="s">
+      <c r="M32" s="56" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3989,25 +3981,25 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="58" t="s">
+      <c r="G38" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="58" t="s">
+      <c r="H38" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="I38" s="58" t="s">
+      <c r="I38" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="J38" s="58" t="s">
+      <c r="J38" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="K38" s="58" t="s">
+      <c r="K38" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="L38" s="58" t="s">
+      <c r="L38" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="M38" s="58" t="s">
+      <c r="M38" s="56" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4098,18 +4090,18 @@
         <f>IF(L41="Email",L15,IF(L41="SMS",L14,0))</f>
         <v>userCICC@gmail.com</v>
       </c>
-      <c r="M42" s="61" t="str">
+      <c r="M42" s="59" t="str">
         <f>IF(M41="Email",M15,IF(M41="SMS",M14,0))</f>
         <v>082277885547</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:M6">
+      <formula1>"Edit, Resend"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:M7">
       <formula1>"Phone, Id no, Email"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:M6">
-      <formula1>"Edit, Resend"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:M13">
       <formula1>"M, F"</formula1>
@@ -4161,8 +4153,8 @@
   <sheetPr/>
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -4209,7 +4201,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -4266,13 +4258,13 @@
         <v>1</v>
       </c>
       <c r="Y1" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="Z1" t="s">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="AA1" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" s="33" customFormat="1" spans="1:27">
@@ -4292,7 +4284,7 @@
         <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>124</v>
@@ -4301,25 +4293,25 @@
         <v>126</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J2" t="s">
         <v>125</v>
       </c>
       <c r="K2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L2" t="s">
         <v>124</v>
       </c>
       <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" t="s">
         <v>129</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>130</v>
-      </c>
-      <c r="O2" t="s">
-        <v>127</v>
       </c>
       <c r="P2" t="s">
         <v>131</v>
@@ -4337,22 +4329,22 @@
         <v>124</v>
       </c>
       <c r="U2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="W2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="X2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y2" t="s">
         <v>10</v>
       </c>
       <c r="Z2" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="AA2" t="s">
         <v>10</v>
@@ -6568,61 +6560,61 @@
         <v>258</v>
       </c>
       <c r="G33" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="I33" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="J33" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="K33" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="L33" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="M33" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="H33" s="45" t="s">
+      <c r="N33" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="I33" s="45" t="s">
+      <c r="O33" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="P33" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="K33" s="45" t="s">
+      <c r="Q33" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="L33" s="45" t="s">
+      <c r="R33" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="M33" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="N33" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="O33" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="P33" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q33" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="R33" s="45" t="s">
-        <v>259</v>
-      </c>
       <c r="S33" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T33" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U33" s="45" t="s">
         <v>260</v>
       </c>
       <c r="V33" s="45" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="W33" s="45" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="X33" s="45" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y33" s="45" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z33" s="45" t="s">
         <v>258</v>
@@ -6672,40 +6664,40 @@
         <v>265</v>
       </c>
       <c r="N34" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="O34" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="P34" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q34" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="R34" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="S34" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="T34" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="U34" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="O34" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="P34" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q34" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="R34" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="S34" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="T34" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="U34" s="45" t="s">
+      <c r="V34" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="V34" s="45" t="s">
+      <c r="W34" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="X34" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y34" s="45" t="s">
         <v>268</v>
-      </c>
-      <c r="W34" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="X34" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y34" s="45" t="s">
-        <v>264</v>
       </c>
       <c r="Z34" s="45" t="s">
         <v>264</v>
@@ -7639,9 +7631,9 @@
     <hyperlink ref="Y40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
     <hyperlink ref="Z22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="Z23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="Z40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
     <hyperlink ref="AA22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="AA23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
+    <hyperlink ref="Z40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
     <hyperlink ref="AA40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7742,7 +7734,7 @@
         <v>310</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>311</v>
@@ -7757,19 +7749,19 @@
         <v>314</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N2" t="s">
         <v>315</v>
@@ -9047,14 +9039,14 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 C7 D7 E7">
-      <formula1>"Phone, Id no, Email"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 C16">
+      <formula1>"""M"",""F"","""""</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6">
       <formula1>"Edit, Resend"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 C16">
-      <formula1>"""M"",""F"","""""</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 C7 D7 E7">
+      <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
       <formula1>"SMS, Email"</formula1>
@@ -9190,13 +9182,13 @@
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="56" t="s">
         <v>424</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>425</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="56" t="s">
         <v>424</v>
       </c>
       <c r="E9" s="4"/>
@@ -9235,13 +9227,13 @@
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="58" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="26"/>
@@ -9265,10 +9257,10 @@
       <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="56" t="s">
         <v>427</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="60" t="s">
         <v>428</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -9555,7 +9547,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="56" t="s">
         <v>432</v>
       </c>
       <c r="E9" s="4"/>
@@ -9565,7 +9557,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="56" t="s">
         <v>433</v>
       </c>
       <c r="D10" s="4"/>
@@ -9584,11 +9576,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
+      <formula1>"Phone, Id no, Email"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6">
       <formula1>"View, Reset OTP"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
-      <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -9726,7 +9718,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="56" t="s">
         <v>432</v>
       </c>
       <c r="E9" s="4"/>
@@ -9736,7 +9728,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="56" t="s">
         <v>433</v>
       </c>
       <c r="D10" s="4"/>
@@ -9755,11 +9747,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
+      <formula1>"Phone, Id no, Email"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6">
       <formula1>"View, Reset OTP"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
-      <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -10444,10 +10436,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -10456,16 +10448,16 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="43.5" spans="1:9">

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="488">
   <si>
     <t>Status</t>
   </si>
@@ -498,10 +498,16 @@
     <t>Unexecuted</t>
   </si>
   <si>
+    <t>;FailedStoreDB;Unknown System Error;Failed Verify Data Match &amp; Equal</t>
+  </si>
+  <si>
+    <t>;FailedStoreDB;Unknown System Error</t>
+  </si>
+  <si>
+    <t>;Tenant code tidak boleh kosong</t>
+  </si>
+  <si>
     <t>-;FailedStoreDB</t>
-  </si>
-  <si>
-    <t>;Tenant code tidak boleh kosong</t>
   </si>
   <si>
     <t>;Default vendor untuk tenant ADINS tidak ditemukan</t>
@@ -914,13 +920,13 @@
     <t>$nama</t>
   </si>
   <si>
-    <t>"USERCIAF"</t>
+    <t>"USERCJAH"</t>
   </si>
   <si>
     <t>"U"</t>
   </si>
   <si>
-    <t>"ANDY";"USERCIAF"</t>
+    <t>"ANDY";"USERCJAH"</t>
   </si>
   <si>
     <t>"ANDY";"EDUARDUS AXEL TJAHJADI"</t>
@@ -938,10 +944,10 @@
     <t>$tlp</t>
   </si>
   <si>
-    <t>"081246378888"</t>
-  </si>
-  <si>
-    <t>"087770006257";"081246378888"</t>
+    <t>"082283949900"</t>
+  </si>
+  <si>
+    <t>"087770006257";"082283949900"</t>
   </si>
   <si>
     <t>"";""</t>
@@ -950,13 +956,13 @@
     <t>"087770006257";"08111128600"</t>
   </si>
   <si>
-    <t>"085811111122222";"08124637888811"</t>
-  </si>
-  <si>
-    <t>"085811111122222";"'081246378888"</t>
-  </si>
-  <si>
-    <t>"085811111122222";"081246378888"</t>
+    <t>"085811111122222";"08228394990011"</t>
+  </si>
+  <si>
+    <t>"085811111122222";"'082283949900"</t>
+  </si>
+  <si>
+    <t>"085811111122222";"082283949900"</t>
   </si>
   <si>
     <t>"087770006257";"08111128600";"08111128600";"08111128600";"08111128600"</t>
@@ -983,19 +989,19 @@
     <t>$idKtp</t>
   </si>
   <si>
-    <t>"3511000101802805"</t>
-  </si>
-  <si>
-    <t>"3271011312910014";"3511000101802805"</t>
+    <t>"3511000101802907"</t>
+  </si>
+  <si>
+    <t>"3271011312910014";"3511000101802907"</t>
   </si>
   <si>
     <t>"3271011312910014";"3271032806000005"</t>
   </si>
   <si>
-    <t>"3603282305960007";"'3511000101802805"</t>
-  </si>
-  <si>
-    <t>"3603282305960007";"3511000101802805"</t>
+    <t>"3603282305960007";"'3511000101802907"</t>
+  </si>
+  <si>
+    <t>"3603282305960007";"3511000101802907"</t>
   </si>
   <si>
     <t>"3271011312910014";"3271032806000005";"3271032806000005";"3271032806000005";"3271032806000005"</t>
@@ -1010,19 +1016,19 @@
     <t>$email</t>
   </si>
   <si>
-    <t>"USERCIAF@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"ANDY@AD-INS.COM";"USERCIAF@GMAIL.COM"</t>
+    <t>"USERCJAH@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"ANDY@AD-INS.COM";"USERCJAH@GMAIL.COM"</t>
   </si>
   <si>
     <t>"ANDY@AD-INS.COM";"EDUARDUS.AXEL@GMAIL.COM"</t>
   </si>
   <si>
-    <t>"MARVIN.SUTANTO@DOCSOL.ID";"USERCIAF@GMAIL.COM"</t>
-  </si>
-  <si>
-    <t>"MARVIN.SUTANTO@AD-INS.COM";"USERCIAF@GMAIL.COM"</t>
+    <t>"MARVIN.SUTANTO@DOCSOL.ID";"USERCJAH@GMAIL.COM"</t>
+  </si>
+  <si>
+    <t>"MARVIN.SUTANTO@AD-INS.COM";"USERCJAH@GMAIL.COM"</t>
   </si>
   <si>
     <t>"ANDY@AD-INS.COM";"EDUARDUS.AXEL@GMAIL.COM";"EDUARDUS.AXEL@GMAIL.COM";"EDUARDUS.AXEL@GMAIL.COM";"EDUARDUS.AXEL@GMAIL.COM"</t>
@@ -1597,10 +1603,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1655,11 +1661,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1670,24 +1682,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1696,29 +1692,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1741,14 +1714,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1763,12 +1760,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1785,18 +1783,26 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="1"/>
@@ -1841,108 +1847,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1955,7 +1859,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1967,7 +1889,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1979,7 +1919,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1991,31 +1985,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2076,60 +2082,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2154,11 +2106,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2176,13 +2182,13 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2195,128 +2201,128 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4106,11 +4112,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:M13">
       <formula1>"M, F"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:M41">
+      <formula1>"SMS, Email"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:M29 B31:M31 B37:M37">
       <formula1>"Yes, No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:M41">
-      <formula1>"SMS, Email"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -4153,8 +4159,8 @@
   <sheetPr/>
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -4275,76 +4281,76 @@
         <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" t="s">
         <v>126</v>
       </c>
-      <c r="I2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" t="s">
-        <v>125</v>
-      </c>
       <c r="K2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" t="s">
         <v>127</v>
       </c>
-      <c r="L2" t="s">
-        <v>124</v>
-      </c>
       <c r="M2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T2" t="s">
+        <v>127</v>
+      </c>
+      <c r="U2" t="s">
         <v>130</v>
       </c>
-      <c r="P2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>132</v>
       </c>
-      <c r="R2" t="s">
-        <v>133</v>
-      </c>
-      <c r="S2" t="s">
-        <v>134</v>
-      </c>
-      <c r="T2" t="s">
-        <v>124</v>
-      </c>
-      <c r="U2" t="s">
-        <v>128</v>
-      </c>
-      <c r="V2" t="s">
-        <v>130</v>
-      </c>
       <c r="W2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="X2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Y2" t="s">
         <v>10</v>
       </c>
       <c r="Z2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="AA2" t="s">
         <v>10</v>
@@ -4355,82 +4361,82 @@
         <v>15</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="U3" s="34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="V3" s="34" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="W3" s="34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="X3" s="34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Y3" s="34" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Z3" s="34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AA3" s="34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" s="33" customFormat="1" spans="1:27">
@@ -4654,90 +4660,90 @@
     </row>
     <row r="9" s="33" customFormat="1" spans="1:27">
       <c r="A9" s="45" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="L9" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="J9" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="L9" s="45" t="s">
-        <v>162</v>
-      </c>
       <c r="M9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="T9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="U9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="W9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="X9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Y9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Z9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AA9" s="45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" s="36" customFormat="1" spans="1:27">
       <c r="A10" s="46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
@@ -4768,1086 +4774,1086 @@
     </row>
     <row r="11" s="33" customFormat="1" spans="1:27">
       <c r="A11" s="45" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E11" s="45" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H11" s="45" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K11" s="45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L11" s="45" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M11" s="45" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N11" s="45" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O11" s="45" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P11" s="45" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="45" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="R11" s="45" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S11" s="45" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="T11" s="45" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="U11" s="45" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="V11" s="45" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="W11" s="45" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="X11" s="45" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Y11" s="45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Z11" s="45" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AA11" s="45" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" s="33" customFormat="1" spans="1:27">
       <c r="A12" s="45" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G12" s="49" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I12" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="L12" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="K12" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="L12" s="49" t="s">
-        <v>193</v>
-      </c>
       <c r="M12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="R12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="S12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="T12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="V12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="W12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="X12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Y12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Z12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AA12" s="49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" s="33" customFormat="1" spans="1:27">
       <c r="A13" s="45" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="R13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="S13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="T13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="U13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="V13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="W13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="X13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Y13" s="45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Z13" s="45" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AA13" s="45" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" s="33" customFormat="1" spans="1:27">
       <c r="A14" s="45" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="R14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="S14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="T14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="U14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="V14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="W14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="X14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Y14" s="45" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Z14" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AA14" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" s="33" customFormat="1" spans="1:27">
       <c r="A15" s="45" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J15" s="45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K15" s="45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M15" s="45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N15" s="45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O15" s="45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P15" s="45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q15" s="45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="R15" s="45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="S15" s="45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="T15" s="45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="U15" s="45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="V15" s="45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="W15" s="45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="X15" s="45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Y15" s="45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Z15" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AA15" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" s="33" customFormat="1" spans="1:27">
       <c r="A16" s="45" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J16" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K16" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L16" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M16" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N16" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O16" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P16" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="R16" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="S16" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="T16" s="45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="U16" s="45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="V16" s="45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="W16" s="45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="X16" s="45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y16" s="45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Z16" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AA16" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" s="33" customFormat="1" spans="1:27">
       <c r="A17" s="45" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E17" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="S17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="T17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="U17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="V17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="W17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="X17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Y17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Z17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AA17" s="45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" s="33" customFormat="1" spans="1:27">
       <c r="A18" s="45" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="R18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="S18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="T18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="U18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="V18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="W18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="X18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Y18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Z18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AA18" s="45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" s="33" customFormat="1" spans="1:27">
       <c r="A19" s="45" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="R19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="T19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="U19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="V19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="W19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="X19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Y19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Z19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AA19" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" s="33" customFormat="1" spans="1:27">
       <c r="A20" s="45" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="T20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="U20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="V20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="X20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Y20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Z20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AA20" s="40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" s="33" customFormat="1" spans="1:27">
       <c r="A21" s="45" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="S21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="T21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="U21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="V21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="W21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="X21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Y21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Z21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AA21" s="45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" s="33" customFormat="1" spans="1:27">
       <c r="A22" s="45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="J22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="S22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="T22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="U22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="V22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="W22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="X22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Y22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Z22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AA22" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" s="33" customFormat="1" spans="1:27">
       <c r="A23" s="45" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="S23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="T23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="U23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="V23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="W23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="X23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Z23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AA23" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" s="37" customFormat="1" spans="1:27">
       <c r="A24" s="46" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
@@ -5878,417 +5884,417 @@
     </row>
     <row r="25" s="33" customFormat="1" spans="1:27">
       <c r="A25" s="45" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I25" s="45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J25" s="45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K25" s="45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L25" s="45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M25" s="45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N25" s="45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O25" s="45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P25" s="45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q25" s="45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="R25" s="45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S25" s="45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="T25" s="45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="U25" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="V25" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="V25" s="45" t="s">
-        <v>224</v>
-      </c>
       <c r="W25" s="45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="X25" s="45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Y25" s="45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Z25" s="45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AA25" s="45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" s="33" customFormat="1" spans="1:27">
       <c r="A26" s="45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G26" s="45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I26" s="45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="J26" s="45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K26" s="45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L26" s="45" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M26" s="45" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N26" s="45" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O26" s="45" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P26" s="45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q26" s="45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R26" s="45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="S26" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="T26" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="T26" s="45" t="s">
-        <v>230</v>
-      </c>
       <c r="U26" s="45" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V26" s="45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="W26" s="45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="X26" s="45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Y26" s="45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Z26" s="45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AA26" s="45" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" s="33" customFormat="1" spans="1:27">
       <c r="A27" s="45" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E27" s="45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="S27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="T27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="U27" s="45" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="V27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="W27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="X27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Y27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Z27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AA27" s="45" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" s="33" customFormat="1" spans="1:27">
       <c r="A28" s="45" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G28" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I28" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J28" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K28" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L28" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M28" s="45" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N28" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="O28" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="P28" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q28" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="R28" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="S28" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="T28" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="U28" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="V28" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="O28" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="P28" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q28" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="R28" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="S28" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="T28" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="U28" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="V28" s="45" t="s">
-        <v>238</v>
-      </c>
       <c r="W28" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="X28" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y28" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z28" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AA28" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" s="33" customFormat="1" spans="1:27">
       <c r="A29" s="45" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="O29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="R29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="S29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="U29" s="45" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="W29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="X29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Y29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Z29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AA29" s="45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" s="33" customFormat="1" spans="1:27">
@@ -6296,82 +6302,82 @@
         <v>92</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="R30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="S30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="U30" s="45" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="V30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="W30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="X30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Y30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Z30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AA30" s="45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" s="33" customFormat="1" spans="1:27">
@@ -6379,165 +6385,165 @@
         <v>94</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="R31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="T31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="U31" s="45" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="V31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="W31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="X31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Z31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AA31" s="45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" s="33" customFormat="1" spans="1:27">
       <c r="A32" s="45" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="R32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="S32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="T32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="U32" s="45" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="V32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="W32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="X32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Y32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Z32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AA32" s="45" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" s="33" customFormat="1" spans="1:27">
@@ -6545,331 +6551,331 @@
         <v>90</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I33" s="45" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J33" s="45" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K33" s="45" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L33" s="45" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M33" s="45" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N33" s="45" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O33" s="45" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P33" s="45" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q33" s="45" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="R33" s="45" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="S33" s="45" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="T33" s="45" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="U33" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="V33" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="W33" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="X33" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y33" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z33" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="V33" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="W33" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="X33" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y33" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z33" s="45" t="s">
-        <v>258</v>
-      </c>
       <c r="AA33" s="45" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" s="33" customFormat="1" spans="1:27">
       <c r="A34" s="45" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G34" s="45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H34" s="45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I34" s="45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J34" s="45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K34" s="45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L34" s="45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M34" s="45" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N34" s="45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O34" s="45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P34" s="45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q34" s="45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="R34" s="45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="S34" s="45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="T34" s="45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="U34" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="V34" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="W34" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="X34" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y34" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z34" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="V34" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="W34" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="X34" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y34" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z34" s="45" t="s">
-        <v>264</v>
-      </c>
       <c r="AA34" s="45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" s="33" customFormat="1" spans="1:27">
       <c r="A35" s="45" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G35" s="45" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J35" s="45" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K35" s="45" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L35" s="45" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M35" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="N35" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="O35" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="P35" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q35" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="R35" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="S35" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="N35" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="O35" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="P35" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q35" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="R35" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="S35" s="45" t="s">
-        <v>271</v>
-      </c>
       <c r="T35" s="45" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="U35" s="45" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="V35" s="45" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="W35" s="45" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="X35" s="45" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Y35" s="45" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Z35" s="45" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AA35" s="45" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" s="33" customFormat="1" spans="1:27">
       <c r="A36" s="45" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="R36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="S36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="T36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="U36" s="45" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="V36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="W36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="X36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Y36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Z36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AA36" s="45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" s="33" customFormat="1" spans="1:27">
@@ -6877,585 +6883,585 @@
         <v>88</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="T37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="U37" s="45" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="V37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="W37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="X37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Y37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Z37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AA37" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" s="33" customFormat="1" spans="1:27">
       <c r="A38" s="45" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G38" s="45" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I38" s="45" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J38" s="45" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K38" s="45" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L38" s="45" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M38" s="45" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N38" s="45" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O38" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="P38" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q38" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="R38" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="S38" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="P38" s="45" t="s">
+      <c r="T38" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="U38" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="V38" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="W38" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="X38" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="Q38" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="R38" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="S38" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="T38" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="U38" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="V38" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="W38" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="X38" s="45" t="s">
-        <v>287</v>
-      </c>
       <c r="Y38" s="45" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z38" s="45" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AA38" s="45" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" s="33" customFormat="1" spans="1:27">
       <c r="A39" s="45" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="O39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="T39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="U39" s="45" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="V39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="W39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="X39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Y39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Z39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AA39" s="45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" s="33" customFormat="1" spans="1:27">
       <c r="A40" s="45" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F40" s="52" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G40" s="52" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H40" s="52" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I40" s="52" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J40" s="52" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K40" s="52" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L40" s="52" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M40" s="55" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N40" s="55" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O40" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="P40" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q40" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="P40" s="55" t="s">
+      <c r="R40" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="S40" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="Q40" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="R40" s="55" t="s">
+      <c r="T40" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="U40" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="V40" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="S40" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="T40" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="U40" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="V40" s="52" t="s">
-        <v>296</v>
-      </c>
       <c r="W40" s="52" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="X40" s="52" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Y40" s="52" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Z40" s="52" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AA40" s="52" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" s="33" customFormat="1" spans="1:27">
       <c r="A41" s="45" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="R41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="S41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="T41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="U41" s="45" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="V41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="W41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="X41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Y41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Z41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AA41" s="45" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" s="33" customFormat="1" spans="1:27">
       <c r="A42" s="45" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="T42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="U42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="V42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="X42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Y42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Z42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AA42" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" s="33" customFormat="1" spans="1:27">
       <c r="A43" s="45" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="S43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="T43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="U43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="V43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="W43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="X43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Y43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Z43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AA43" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" s="38" customFormat="1" spans="1:27">
       <c r="A44" s="53" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -7486,92 +7492,92 @@
     </row>
     <row r="45" s="33" customFormat="1" spans="1:27">
       <c r="A45" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="R45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="S45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="T45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="U45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="V45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="W45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="X45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Y45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Z45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AA45" s="45" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="F23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="F40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="F40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="G22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="G23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
     <hyperlink ref="H22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
@@ -7585,29 +7591,29 @@
     <hyperlink ref="M40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
     <hyperlink ref="N22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="N23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="N40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="N40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="O22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="O23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="O40" r:id="rId3" display="&quot;MARVIN.SUTANTO@DOCSOL.ID&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="O40" r:id="rId3" display="&quot;MARVIN.SUTANTO@DOCSOL.ID&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="P22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="P23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="P40" r:id="rId3" display="&quot;MARVIN.SUTANTO@DOCSOL.ID&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="P40" r:id="rId3" display="&quot;MARVIN.SUTANTO@DOCSOL.ID&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="Q22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="Q23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="Q40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="Q40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="K22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="K23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
     <hyperlink ref="L22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="L23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
     <hyperlink ref="R22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="R23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="R40" r:id="rId3" display="&quot;MARVIN.SUTANTO@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="R40" r:id="rId3" display="&quot;MARVIN.SUTANTO@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="S22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="S23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="S40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="S40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="T22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="T23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="T40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="T40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="U22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="U23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
     <hyperlink ref="U40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
@@ -7620,21 +7626,21 @@
     <hyperlink ref="X22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="X23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
     <hyperlink ref="X40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;HELMI.AA@AD-INS.COM&quot;"/>
-    <hyperlink ref="G40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
-    <hyperlink ref="H40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
-    <hyperlink ref="I40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
-    <hyperlink ref="J40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
-    <hyperlink ref="K40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
-    <hyperlink ref="L40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="G40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="H40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="I40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="J40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="K40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="L40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="Y22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="Y23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="Y40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="Y40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
     <hyperlink ref="Z22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="Z23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
     <hyperlink ref="AA22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
     <hyperlink ref="AA23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="Z40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
-    <hyperlink ref="AA40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCIAF@GMAIL.COM&quot;"/>
+    <hyperlink ref="Z40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
+    <hyperlink ref="AA40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7731,46 +7737,46 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q2" t="s">
         <v>10</v>
@@ -7781,52 +7787,52 @@
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -7943,22 +7949,22 @@
         <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>32</v>
@@ -7973,24 +7979,24 @@
         <v>33</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" s="17" customFormat="1" spans="1:17">
       <c r="A8" s="21" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -8011,60 +8017,60 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" s="17" customFormat="1" spans="1:17">
       <c r="A10" s="21" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -8085,60 +8091,60 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P11" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" s="17" customFormat="1" spans="1:17">
       <c r="A12" s="21" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -8159,373 +8165,373 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -8533,52 +8539,52 @@
         <v>88</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -8586,52 +8592,52 @@
         <v>90</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -8639,52 +8645,52 @@
         <v>92</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -8692,158 +8698,158 @@
         <v>94</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="28" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="28" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -9147,10 +9153,10 @@
         <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -9162,7 +9168,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>33</v>
@@ -9183,13 +9189,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -9198,13 +9204,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -9258,13 +9264,13 @@
         <v>64</v>
       </c>
       <c r="B14" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>427</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>428</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>425</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -9273,7 +9279,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>75</v>
@@ -9399,11 +9405,11 @@
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
+      <formula1>"Phone, Id no, Email"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6">
       <formula1>"Edit, Reset OTP, Resend Link"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
-      <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:E13">
       <formula1>"M, F"</formula1>
@@ -9504,16 +9510,16 @@
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -9525,7 +9531,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>33</v>
@@ -9548,7 +9554,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="56" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -9558,17 +9564,17 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="56" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -9576,11 +9582,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6">
+      <formula1>"View, Reset OTP"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
       <formula1>"Phone, Id no, Email"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6">
-      <formula1>"View, Reset OTP"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -9675,16 +9681,16 @@
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -9696,7 +9702,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>33</v>
@@ -9719,7 +9725,7 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="56" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -9729,17 +9735,17 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="56" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -9747,11 +9753,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6">
+      <formula1>"View, Reset OTP"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
       <formula1>"Phone, Id no, Email"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6">
-      <formula1>"View, Reset OTP"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -9827,19 +9833,19 @@
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9901,45 +9907,45 @@
     </row>
     <row r="9" ht="29" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>444</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="10" ht="58" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -9949,22 +9955,22 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -9977,22 +9983,22 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -10104,37 +10110,37 @@
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="I3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -10218,7 +10224,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -10232,40 +10238,40 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:10">
@@ -10282,78 +10288,78 @@
     </row>
     <row r="11" ht="29" spans="1:12">
       <c r="A11" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="87" spans="1:12">
       <c r="A12" s="20" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -10436,10 +10442,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -10448,16 +10454,16 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="43.5" spans="1:9">
@@ -10465,28 +10471,28 @@
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10529,18 +10535,18 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F5" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
@@ -10570,7 +10576,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -10584,31 +10590,31 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="J9" s="16"/>
     </row>
@@ -10626,66 +10632,66 @@
     </row>
     <row r="11" ht="29" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J11" s="18"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="29" spans="1:9">
       <c r="A12" s="13" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -417,9 +417,6 @@
     <t>Foto KTP</t>
   </si>
   <si>
-    <t>C:\Users\fendy.tio\Downloads\e-ktp-guohui-chen.jpg</t>
-  </si>
-  <si>
     <t>Autofill OTP</t>
   </si>
   <si>
@@ -1655,9 +1652,6 @@
     <t>3511000101802874</t>
   </si>
   <si>
-    <t>3511000101802875</t>
-  </si>
-  <si>
     <t>3511000101802876</t>
   </si>
   <si>
@@ -1682,9 +1676,6 @@
     <t>userCIHE</t>
   </si>
   <si>
-    <t>userCIHF</t>
-  </si>
-  <si>
     <t>userCIHG</t>
   </si>
   <si>
@@ -1709,9 +1700,6 @@
     <t>082277885585</t>
   </si>
   <si>
-    <t>082277885586</t>
-  </si>
-  <si>
     <t>082277885587</t>
   </si>
   <si>
@@ -1736,9 +1724,6 @@
     <t>userCIHE@gmail.com</t>
   </si>
   <si>
-    <t>userCIHF@gmail.com</t>
-  </si>
-  <si>
     <t>userCIHG@gmail.com</t>
   </si>
   <si>
@@ -1779,6 +1764,21 @@
   </si>
   <si>
     <t>"3511000101802887"</t>
+  </si>
+  <si>
+    <t>\Upload\E-KTP.jpg</t>
+  </si>
+  <si>
+    <t>3511000101802890</t>
+  </si>
+  <si>
+    <t>userCIJA</t>
+  </si>
+  <si>
+    <t>082277885590</t>
+  </si>
+  <si>
+    <t>userCIJA@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2358,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>1</v>
@@ -2458,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>13</v>
@@ -2496,13 +2496,13 @@
         <v>23</v>
       </c>
       <c r="K3" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>480</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>24</v>
@@ -2576,7 +2576,7 @@
       <c r="A5" s="11"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2676,31 +2676,31 @@
         <v>36</v>
       </c>
       <c r="G9" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="H9" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="I9" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="J9" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="K9" s="58" t="s">
         <v>485</v>
       </c>
-      <c r="K9" s="58" t="s">
+      <c r="L9" s="58" t="s">
         <v>486</v>
       </c>
-      <c r="L9" s="58" t="s">
+      <c r="M9" s="58" t="s">
         <v>487</v>
       </c>
-      <c r="M9" s="58" t="s">
+      <c r="N9" s="58" t="s">
+        <v>527</v>
+      </c>
+      <c r="O9" s="66" t="s">
         <v>488</v>
-      </c>
-      <c r="N9" s="58" t="s">
-        <v>489</v>
-      </c>
-      <c r="O9" s="66" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2721,31 +2721,31 @@
         <v>38</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="N10" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="O10" s="64" t="s">
         <v>496</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="O10" s="64" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2907,31 +2907,31 @@
         <v>51</v>
       </c>
       <c r="G14" s="58" t="s">
+        <v>497</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>498</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>499</v>
+      </c>
+      <c r="J14" s="58" t="s">
         <v>500</v>
       </c>
-      <c r="H14" s="58" t="s">
+      <c r="K14" s="58" t="s">
         <v>501</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="L14" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="J14" s="58" t="s">
+      <c r="M14" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="K14" s="58" t="s">
+      <c r="N14" s="58" t="s">
+        <v>529</v>
+      </c>
+      <c r="O14" s="58" t="s">
         <v>504</v>
-      </c>
-      <c r="L14" s="58" t="s">
-        <v>505</v>
-      </c>
-      <c r="M14" s="58" t="s">
-        <v>506</v>
-      </c>
-      <c r="N14" s="58" t="s">
-        <v>507</v>
-      </c>
-      <c r="O14" s="58" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2954,31 +2954,31 @@
         <v>55</v>
       </c>
       <c r="G15" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="K15" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="L15" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="M15" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="N15" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="O15" s="18" t="s">
         <v>512</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>516</v>
-      </c>
-      <c r="O15" s="18" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -3386,7 +3386,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="O26" s="11"/>
     </row>
@@ -3407,7 +3407,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="58" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="O27" s="11"/>
     </row>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="63" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>76</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="63" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -3581,36 +3581,36 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>76</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -3665,31 +3665,31 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H34" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J34" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K34" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L34" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M34" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N34" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O34" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -3731,7 +3731,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="29" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="29" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
@@ -4035,7 +4035,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -4062,36 +4062,36 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J53" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H53" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>86</v>
-      </c>
       <c r="K53" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M53" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N53" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O53" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -4099,36 +4099,36 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J54" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J54" s="18" t="s">
-        <v>86</v>
-      </c>
       <c r="K54" s="18" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="L54" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M54" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N54" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O54" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>76</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -4183,31 +4183,31 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H56" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I56" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J56" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K56" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L56" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M56" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N56" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O56" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -4249,7 +4249,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -4286,12 +4286,12 @@
         <v>30</v>
       </c>
       <c r="O59" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -4307,7 +4307,7 @@
       <c r="M60" s="18"/>
       <c r="N60" s="18" t="str">
         <f>IF(N59="Email",N15,IF(N59="SMS",N14,0))</f>
-        <v>userCIHF@gmail.com</v>
+        <v>userCIJA@gmail.com</v>
       </c>
       <c r="O60" s="60" t="str">
         <f>IF(O59="Email",O15,IF(O59="SMS",O14,0))</f>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>77</v>
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4461,10 +4461,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4497,62 +4497,62 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>473</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -4597,7 +4597,7 @@
   <sheetData>
     <row customFormat="1" r="1" s="35" spans="1:27">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -4683,79 +4683,79 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
         <v>95</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>96</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>97</v>
-      </c>
-      <c r="E2" t="s">
-        <v>98</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s">
         <v>99</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
         <v>100</v>
       </c>
-      <c r="I2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>101</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" t="s">
         <v>102</v>
       </c>
-      <c r="L2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>103</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>104</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>105</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>107</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>108</v>
       </c>
-      <c r="S2" t="s">
-        <v>109</v>
-      </c>
       <c r="T2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y2" t="s">
         <v>10</v>
       </c>
       <c r="Z2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA2" t="s">
         <v>10</v>
@@ -4766,82 +4766,82 @@
         <v>14</v>
       </c>
       <c r="B3" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="E3" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="F3" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="G3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="I3" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="J3" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="K3" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="L3" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="M3" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="O3" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="P3" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="Q3" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="R3" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="S3" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="T3" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="T3" s="36" t="s">
+      <c r="U3" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="U3" s="36" t="s">
+      <c r="V3" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="V3" s="36" t="s">
+      <c r="W3" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="W3" s="36" t="s">
+      <c r="X3" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="X3" s="36" t="s">
+      <c r="Y3" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="Y3" s="36" t="s">
+      <c r="Z3" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="Z3" s="36" t="s">
+      <c r="AA3" s="36" t="s">
         <v>134</v>
-      </c>
-      <c r="AA3" s="36" t="s">
-        <v>135</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="35" spans="1:27">
@@ -5065,90 +5065,90 @@
     </row>
     <row customFormat="1" r="9" s="35" spans="1:27">
       <c r="A9" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="47" t="s">
-        <v>137</v>
-      </c>
       <c r="C9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>139</v>
-      </c>
       <c r="I9" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA9" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="38" spans="1:27">
       <c r="A10" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -5179,1086 +5179,1086 @@
     </row>
     <row customFormat="1" r="11" s="35" spans="1:27">
       <c r="A11" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="C11" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="D11" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="47" t="s">
+      <c r="F11" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="G11" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="H11" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="I11" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="J11" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="J11" s="47" t="s">
+      <c r="K11" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="L11" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="L11" s="47" t="s">
+      <c r="M11" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M11" s="47" t="s">
+      <c r="N11" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="N11" s="47" t="s">
+      <c r="O11" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="O11" s="47" t="s">
+      <c r="P11" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="P11" s="47" t="s">
+      <c r="Q11" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="Q11" s="47" t="s">
+      <c r="R11" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="R11" s="47" t="s">
+      <c r="S11" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="S11" s="47" t="s">
+      <c r="T11" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="T11" s="47" t="s">
+      <c r="U11" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="U11" s="47" t="s">
+      <c r="V11" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="V11" s="47" t="s">
+      <c r="W11" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="W11" s="47" t="s">
+      <c r="X11" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="X11" s="47" t="s">
+      <c r="Y11" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="Y11" s="47" t="s">
+      <c r="Z11" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="Z11" s="47" t="s">
+      <c r="AA11" s="47" t="s">
         <v>165</v>
-      </c>
-      <c r="AA11" s="47" t="s">
-        <v>166</v>
       </c>
     </row>
     <row customFormat="1" r="12" s="35" spans="1:27">
       <c r="A12" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="C12" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="G12" s="51" t="s">
+      <c r="H12" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="H12" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>170</v>
-      </c>
       <c r="J12" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="R12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA12" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="35" spans="1:27">
       <c r="A13" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="C13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="L13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="M13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="N13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="O13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="P13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="R13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="S13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="T13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="U13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="V13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="W13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="X13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y13" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z13" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="J13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="K13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="L13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="M13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="N13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="O13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="P13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="R13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="S13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="T13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="U13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="V13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="W13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="X13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y13" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z13" s="47" t="s">
+      <c r="AA13" s="47" t="s">
         <v>173</v>
-      </c>
-      <c r="AA13" s="47" t="s">
-        <v>174</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="35" spans="1:27">
       <c r="A14" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>176</v>
-      </c>
       <c r="G14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y14" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z14" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA14" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="35" spans="1:27">
       <c r="A15" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="47" t="s">
+      <c r="G15" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="G15" s="47" t="s">
-        <v>179</v>
-      </c>
       <c r="H15" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J15" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K15" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L15" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M15" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N15" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O15" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P15" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q15" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R15" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S15" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T15" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U15" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V15" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W15" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X15" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y15" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z15" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA15" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row customFormat="1" r="16" s="35" spans="1:27">
       <c r="A16" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="47" t="s">
+      <c r="G16" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="47" t="s">
-        <v>182</v>
-      </c>
       <c r="H16" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I16" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K16" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L16" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M16" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N16" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O16" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P16" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R16" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S16" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T16" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U16" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V16" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W16" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X16" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y16" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z16" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA16" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row customFormat="1" r="17" s="35" spans="1:27">
       <c r="A17" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>184</v>
-      </c>
       <c r="G17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA17" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="35" spans="1:27">
       <c r="A18" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>186</v>
-      </c>
       <c r="G18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row customFormat="1" r="19" s="35" spans="1:27">
       <c r="A19" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>188</v>
-      </c>
       <c r="G19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA19" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row customFormat="1" r="20" s="35" spans="1:27">
       <c r="A20" s="47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row customFormat="1" r="21" s="35" spans="1:27">
       <c r="A21" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>191</v>
-      </c>
       <c r="C21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Y21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AA21" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row customFormat="1" r="22" s="35" spans="1:27">
       <c r="A22" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="52" t="s">
-        <v>193</v>
-      </c>
       <c r="G22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA22" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row customFormat="1" r="23" s="35" spans="1:27">
       <c r="A23" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>195</v>
-      </c>
       <c r="G23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA23" s="53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row customFormat="1" r="24" s="39" spans="1:27">
       <c r="A24" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
@@ -6289,417 +6289,417 @@
     </row>
     <row customFormat="1" r="25" s="35" spans="1:27">
       <c r="A25" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="C25" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="G25" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="D25" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="47" t="s">
+      <c r="H25" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="I25" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="K25" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="G25" s="47" t="s">
+      <c r="N25" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="H25" s="47" t="s">
+      <c r="O25" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="I25" s="47" t="s">
+      <c r="P25" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="J25" s="47" t="s">
+      <c r="Q25" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="K25" s="47" t="s">
+      <c r="R25" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="L25" s="47" t="s">
+      <c r="S25" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="M25" s="47" t="s">
+      <c r="T25" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="U25" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="N25" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="O25" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="P25" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q25" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="R25" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="S25" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="T25" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="U25" s="47" t="s">
-        <v>201</v>
-      </c>
       <c r="V25" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W25" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X25" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Y25" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z25" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AA25" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row customFormat="1" r="26" s="35" spans="1:27">
       <c r="A26" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="C26" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="C26" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="47" t="s">
+      <c r="F26" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="G26" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="M26" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="H26" s="47" t="s">
+      <c r="N26" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="O26" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="J26" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="K26" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="L26" s="47" t="s">
+      <c r="P26" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q26" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="R26" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="S26" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="M26" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="N26" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="O26" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="P26" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q26" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="R26" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="S26" s="47" t="s">
+      <c r="T26" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="U26" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="T26" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="U26" s="47" t="s">
-        <v>208</v>
-      </c>
       <c r="V26" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W26" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X26" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y26" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z26" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AA26" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row customFormat="1" r="27" s="35" spans="1:27">
       <c r="A27" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="B27" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" s="47" t="s">
+      <c r="G27" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="I27" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="N27" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="O27" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="P27" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q27" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="R27" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="S27" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="T27" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="U27" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="H27" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="I27" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="J27" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="K27" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="L27" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="M27" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="N27" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="O27" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="P27" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q27" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="R27" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="S27" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="T27" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="U27" s="47" t="s">
-        <v>211</v>
-      </c>
       <c r="V27" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W27" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="X27" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y27" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z27" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA27" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row customFormat="1" r="28" s="35" spans="1:27">
       <c r="A28" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="B28" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F28" s="47" t="s">
+      <c r="G28" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="I28" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="M28" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="G28" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="I28" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="J28" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="K28" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="L28" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="M28" s="47" t="s">
+      <c r="N28" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="N28" s="47" t="s">
+      <c r="O28" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="O28" s="47" t="s">
+      <c r="P28" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="P28" s="47" t="s">
+      <c r="Q28" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="Q28" s="47" t="s">
+      <c r="R28" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="R28" s="47" t="s">
+      <c r="S28" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="S28" s="47" t="s">
+      <c r="T28" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="T28" s="47" t="s">
+      <c r="U28" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="U28" s="47" t="s">
-        <v>222</v>
-      </c>
       <c r="V28" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W28" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="X28" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y28" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z28" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA28" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row customFormat="1" r="29" s="35" spans="1:27">
       <c r="A29" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="B29" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F29" s="47" t="s">
+      <c r="G29" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="I29" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="M29" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="N29" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="P29" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q29" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="R29" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="S29" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="T29" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="U29" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="G29" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="I29" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="J29" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="K29" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="L29" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="M29" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="N29" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="O29" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="P29" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q29" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="R29" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="S29" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="T29" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="U29" s="47" t="s">
-        <v>225</v>
-      </c>
       <c r="V29" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="W29" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X29" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Y29" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Z29" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AA29" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row customFormat="1" r="30" s="35" spans="1:27">
@@ -6707,82 +6707,82 @@
         <v>62</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F30" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="I30" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="J30" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="M30" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="N30" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="O30" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="P30" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q30" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="R30" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="S30" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="T30" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="U30" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="G30" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="I30" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="J30" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="K30" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="L30" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="M30" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="N30" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="O30" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="P30" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q30" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="R30" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="S30" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="T30" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="U30" s="47" t="s">
-        <v>227</v>
-      </c>
       <c r="V30" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W30" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X30" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Y30" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Z30" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AA30" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row customFormat="1" r="31" s="35" spans="1:27">
@@ -6790,165 +6790,165 @@
         <v>64</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F31" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="I31" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="L31" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="M31" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="N31" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="O31" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="P31" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q31" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="R31" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="S31" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="T31" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="U31" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="G31" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="H31" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="I31" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="J31" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="K31" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="L31" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="M31" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="N31" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="O31" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="P31" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q31" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="R31" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="S31" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="T31" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="U31" s="47" t="s">
-        <v>229</v>
-      </c>
       <c r="V31" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W31" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X31" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y31" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Z31" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AA31" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row customFormat="1" r="32" s="35" spans="1:27">
       <c r="A32" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" s="47" t="s">
+      <c r="G32" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="I32" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="L32" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="N32" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="O32" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="P32" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q32" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="R32" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="S32" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="T32" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="U32" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="G32" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="H32" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="I32" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="J32" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="K32" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="L32" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="M32" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="N32" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="O32" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="P32" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q32" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="R32" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="S32" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="T32" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="U32" s="47" t="s">
-        <v>232</v>
-      </c>
       <c r="V32" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W32" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X32" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Y32" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Z32" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA32" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row customFormat="1" r="33" s="35" spans="1:27">
@@ -6956,331 +6956,331 @@
         <v>60</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F33" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="H33" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="I33" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="J33" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="L33" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="M33" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="N33" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="O33" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="P33" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q33" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="R33" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="S33" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="T33" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="U33" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="H33" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="I33" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="J33" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="K33" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="L33" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="M33" s="47" t="s">
+      <c r="V33" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="N33" s="47" t="s">
+      <c r="W33" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="O33" s="47" t="s">
+      <c r="X33" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="P33" s="47" t="s">
+      <c r="Y33" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="Q33" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="R33" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="S33" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="T33" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="U33" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="V33" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="W33" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="X33" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y33" s="47" t="s">
-        <v>234</v>
-      </c>
       <c r="Z33" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AA33" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row customFormat="1" r="34" s="35" spans="1:27">
       <c r="A34" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="C34" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="D34" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="D34" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="F34" s="47" t="s">
+      <c r="G34" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="H34" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="I34" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="J34" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="K34" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="L34" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="M34" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="G34" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="H34" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="I34" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="J34" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="K34" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="L34" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="M34" s="47" t="s">
+      <c r="N34" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="O34" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="P34" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q34" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="R34" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="S34" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="T34" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="U34" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="N34" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="O34" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="P34" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q34" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="R34" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="S34" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="T34" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="U34" s="47" t="s">
+      <c r="V34" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="V34" s="47" t="s">
+      <c r="W34" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="X34" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y34" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="W34" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="X34" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y34" s="47" t="s">
-        <v>243</v>
-      </c>
       <c r="Z34" s="47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA34" s="47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row customFormat="1" r="35" s="35" spans="1:27">
       <c r="A35" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B35" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="C35" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="G35" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="D35" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="47" t="s">
+      <c r="H35" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="F35" s="47" t="s">
+      <c r="I35" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="J35" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="G35" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="H35" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="I35" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="J35" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="K35" s="47" t="s">
+      <c r="L35" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="M35" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="L35" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="M35" s="47" t="s">
+      <c r="N35" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="N35" s="47" t="s">
+      <c r="O35" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="O35" s="47" t="s">
+      <c r="P35" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="P35" s="47" t="s">
+      <c r="Q35" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="R35" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="S35" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="T35" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="U35" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="Q35" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="R35" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="S35" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="T35" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="U35" s="47" t="s">
+      <c r="V35" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="V35" s="47" t="s">
-        <v>253</v>
-      </c>
       <c r="W35" s="47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="X35" s="47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Y35" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Z35" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA35" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row customFormat="1" r="36" s="35" spans="1:27">
       <c r="A36" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="B36" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" s="47" t="s">
+      <c r="G36" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="I36" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="J36" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="M36" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="N36" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="O36" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="P36" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q36" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="R36" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="S36" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="T36" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="U36" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="G36" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="H36" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="I36" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="J36" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="K36" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="L36" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="M36" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="N36" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="O36" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="P36" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q36" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="R36" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="S36" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="T36" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="U36" s="47" t="s">
-        <v>256</v>
-      </c>
       <c r="V36" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="W36" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X36" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y36" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z36" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA36" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row customFormat="1" r="37" s="35" spans="1:27">
@@ -7288,585 +7288,585 @@
         <v>58</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F37" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="H37" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="I37" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="J37" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="K37" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="L37" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="M37" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="N37" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="O37" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="P37" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q37" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="R37" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="S37" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="T37" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="U37" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="G37" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="I37" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="J37" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="K37" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="L37" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="M37" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="N37" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="O37" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="P37" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q37" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="R37" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="S37" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="T37" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="U37" s="47" t="s">
-        <v>258</v>
-      </c>
       <c r="V37" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W37" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X37" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y37" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z37" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AA37" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row customFormat="1" r="38" s="35" spans="1:27">
       <c r="A38" s="47" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="C38" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="F38" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="G38" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="47" t="s">
+      <c r="H38" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="I38" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="J38" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="K38" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="L38" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="M38" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="G38" s="47" t="s">
+      <c r="N38" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="O38" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="P38" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q38" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="R38" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="S38" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="T38" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="U38" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="V38" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="W38" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="X38" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="H38" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="I38" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="J38" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="K38" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="L38" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="M38" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="N38" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="O38" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="P38" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q38" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="R38" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="S38" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="T38" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="U38" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="V38" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="W38" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="X38" s="47" t="s">
-        <v>262</v>
-      </c>
       <c r="Y38" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z38" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AA38" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row customFormat="1" r="39" s="35" spans="1:27">
       <c r="A39" s="47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="I39" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="J39" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="K39" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="L39" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="M39" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="N39" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="O39" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="P39" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q39" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="R39" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="S39" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="T39" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="U39" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="G39" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="H39" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="I39" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="J39" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="K39" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="L39" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="M39" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="N39" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="O39" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="P39" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q39" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="R39" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="S39" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="T39" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="U39" s="47" t="s">
-        <v>258</v>
-      </c>
       <c r="V39" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="W39" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="X39" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y39" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z39" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AA39" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row customFormat="1" r="40" s="35" spans="1:27">
       <c r="A40" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B40" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="C40" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F40" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="G40" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="D40" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="47" t="s">
+      <c r="H40" s="54" t="s">
         <v>269</v>
       </c>
-      <c r="F40" s="54" t="s">
+      <c r="I40" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="J40" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="K40" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="L40" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="M40" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="G40" s="54" t="s">
+      <c r="N40" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="O40" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="P40" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q40" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="R40" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="S40" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="T40" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="U40" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="V40" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="H40" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="I40" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="J40" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="K40" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="L40" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="M40" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="N40" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="O40" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="P40" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q40" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="R40" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="S40" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="T40" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="U40" s="54" t="s">
+      <c r="W40" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="V40" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="W40" s="54" t="s">
+      <c r="X40" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="X40" s="54" t="s">
-        <v>276</v>
-      </c>
       <c r="Y40" s="54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Z40" s="54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AA40" s="54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row customFormat="1" r="41" s="35" spans="1:27">
       <c r="A41" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="B41" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F41" s="47" t="s">
+      <c r="G41" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="H41" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="I41" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="J41" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="K41" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="L41" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="M41" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="N41" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="O41" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="P41" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q41" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="R41" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="S41" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="T41" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="U41" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="G41" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="H41" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="I41" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="J41" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="K41" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="L41" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="M41" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="N41" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="O41" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="P41" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q41" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="R41" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="S41" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="T41" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="U41" s="47" t="s">
-        <v>279</v>
-      </c>
       <c r="V41" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W41" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X41" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y41" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z41" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AA41" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row customFormat="1" r="42" s="35" spans="1:27">
       <c r="A42" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA42" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row customFormat="1" r="43" s="35" spans="1:27">
       <c r="A43" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA43" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row customFormat="1" r="44" s="40" spans="1:27">
       <c r="A44" s="55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B44" s="55"/>
       <c r="C44" s="55"/>
@@ -7897,85 +7897,85 @@
     </row>
     <row customFormat="1" r="45" s="35" spans="1:27">
       <c r="A45" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="B45" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="47" t="s">
-        <v>284</v>
-      </c>
       <c r="G45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA45" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -8056,8 +8056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView topLeftCell="L7" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R30" sqref="G30:R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8129,46 +8129,46 @@
         <v>10</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>289</v>
-      </c>
       <c r="I2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N2" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>292</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>10</v>
@@ -8182,55 +8182,55 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="R3" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -8354,22 +8354,22 @@
         <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>30</v>
@@ -8384,27 +8384,27 @@
         <v>31</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -8426,63 +8426,63 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="P9" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="Q9" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="R9" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -8504,63 +8504,63 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>137</v>
-      </c>
       <c r="C11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N11" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="O11" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>139</v>
-      </c>
       <c r="Q11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -8582,394 +8582,394 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="L13" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="P13" s="11" t="s">
+      <c r="Q13" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="Q13" s="11" t="s">
-        <v>336</v>
-      </c>
       <c r="R13" s="60" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q14" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>343</v>
-      </c>
       <c r="R14" s="65" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="K15" s="11" t="s">
+      <c r="L15" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="M15" s="11" t="s">
+      <c r="N15" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="O15" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="P15" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q15" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="P15" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>355</v>
-      </c>
       <c r="R15" s="65" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="K18" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="L18" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="M18" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="N18" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="O18" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="P18" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q18" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="P18" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>371</v>
-      </c>
       <c r="R18" s="64" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="E19" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="I19" s="11" t="s">
+      <c r="J19" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="L19" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="M19" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="N19" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="O19" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="N19" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="O19" s="11" t="s">
+      <c r="P19" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="Q19" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="Q19" s="11" t="s">
-        <v>384</v>
-      </c>
       <c r="R19" s="65" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -8977,55 +8977,55 @@
         <v>58</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q20" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="R20" s="11" t="s">
         <v>385</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -9033,55 +9033,55 @@
         <v>60</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q21" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="R21" s="11" t="s">
         <v>387</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -9089,55 +9089,55 @@
         <v>62</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q22" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="R22" s="11" t="s">
         <v>389</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="P22" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q22" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="R22" s="11" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -9145,167 +9145,167 @@
         <v>64</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q23" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="R23" s="11" t="s">
         <v>391</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q24" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="R24" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q24" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="P25" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q25" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="R25" s="11" t="s">
         <v>395</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -9388,7 +9388,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="63" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>76</v>
@@ -9500,7 +9500,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="63" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -9508,45 +9508,45 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>79</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>76</v>
@@ -9602,7 +9602,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -9610,40 +9610,40 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K32" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L32" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M32" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N32" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O32" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P32" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R32" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -9694,7 +9694,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="62" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -9716,7 +9716,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -9738,7 +9738,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -9760,7 +9760,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -9782,7 +9782,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -9804,7 +9804,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -9826,7 +9826,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -9848,7 +9848,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -9958,7 +9958,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -9980,7 +9980,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -10002,7 +10002,7 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -10032,45 +10032,45 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J49" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H49" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>86</v>
-      </c>
       <c r="K49" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O49" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P49" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R49" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -10078,45 +10078,45 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J50" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H50" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J50" s="18" t="s">
-        <v>86</v>
-      </c>
       <c r="K50" s="18" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N50" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O50" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P50" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q50" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R50" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>76</v>
@@ -10172,7 +10172,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -10180,40 +10180,40 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H52" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I52" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J52" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K52" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L52" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M52" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N52" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O52" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P52" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q52" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R52" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -10291,13 +10291,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="11"/>
     </row>
@@ -10358,10 +10358,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -10373,7 +10373,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>31</v>
@@ -10394,13 +10394,13 @@
         <v>33</v>
       </c>
       <c r="B9" s="58" t="s">
+        <v>398</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>400</v>
-      </c>
       <c r="D9" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E9" s="11"/>
     </row>
@@ -10409,13 +10409,13 @@
         <v>37</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E10" s="11"/>
     </row>
@@ -10469,13 +10469,13 @@
         <v>48</v>
       </c>
       <c r="B14" s="58" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="61" t="s">
         <v>402</v>
       </c>
-      <c r="C14" s="61" t="s">
-        <v>403</v>
-      </c>
       <c r="D14" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E14" s="11"/>
     </row>
@@ -10484,7 +10484,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>52</v>
@@ -10652,13 +10652,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="11"/>
     </row>
@@ -10713,16 +10713,16 @@
     </row>
     <row customHeight="1" ht="21" r="6" spans="1:5">
       <c r="A6" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>406</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -10734,7 +10734,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>31</v>
@@ -10757,7 +10757,7 @@
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E9" s="11"/>
     </row>
@@ -10767,17 +10767,17 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="58" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>409</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>410</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -10821,13 +10821,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="11"/>
     </row>
@@ -10882,16 +10882,16 @@
     </row>
     <row customHeight="1" ht="21" r="6" spans="1:5">
       <c r="A6" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>406</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -10903,7 +10903,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>31</v>
@@ -10926,7 +10926,7 @@
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="58" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E9" s="11"/>
     </row>
@@ -10936,17 +10936,17 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="58" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>409</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>410</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -10992,19 +10992,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11032,19 +11032,19 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11106,45 +11106,45 @@
     </row>
     <row ht="30" r="9" spans="1:6">
       <c r="A9" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>416</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>417</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>419</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row ht="60" r="10" spans="1:6">
       <c r="A10" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -11154,22 +11154,22 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -11182,22 +11182,22 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -11231,37 +11231,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -11307,37 +11307,37 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" t="s">
         <v>430</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>431</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11421,7 +11421,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
@@ -11435,40 +11435,40 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="9" spans="1:12">
@@ -11485,78 +11485,78 @@
     </row>
     <row ht="30" r="11" spans="1:12">
       <c r="A11" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="H11" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>438</v>
-      </c>
       <c r="I11" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row customFormat="1" ht="90" r="12" s="9" spans="1:12">
       <c r="A12" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="E12" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G12" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="L12" s="10" t="s">
         <v>448</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -11637,10 +11637,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>10</v>
@@ -11649,16 +11649,16 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row customFormat="1" ht="60" r="3" s="3" spans="1:10">
@@ -11666,28 +11666,28 @@
         <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>453</v>
-      </c>
       <c r="F3" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>430</v>
-      </c>
       <c r="H3" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11730,18 +11730,18 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B5" t="s">
         <v>454</v>
-      </c>
-      <c r="B5" t="s">
-        <v>455</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F5" t="s">
         <v>456</v>
-      </c>
-      <c r="F5" t="s">
-        <v>457</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="11"/>
@@ -11771,7 +11771,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -11785,31 +11785,31 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J9" s="22"/>
     </row>
@@ -11827,66 +11827,66 @@
     </row>
     <row ht="30" r="11" spans="1:10">
       <c r="A11" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>438</v>
-      </c>
       <c r="H11" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J11" s="24"/>
     </row>
     <row customFormat="1" ht="30" r="12" s="10" spans="1:10">
       <c r="A12" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>445</v>
-      </c>
       <c r="H12" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>447</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\Katalon Studio\ATeSign\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065"/>
+    <workbookView activeTab="10" firstSheet="7" windowHeight="7065" windowWidth="18525" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BuatUndangan" sheetId="2" r:id="rId1"/>
-    <sheet name="API Send Document" sheetId="4" r:id="rId2"/>
-    <sheet name="API Generate Inv Link" sheetId="6" r:id="rId3"/>
-    <sheet name="PencarianPengguna-Inveditor" sheetId="7" r:id="rId4"/>
-    <sheet name="PencarianPengguna-Karyawan" sheetId="13" r:id="rId5"/>
-    <sheet name="PencarianPengguna-Pelanggan" sheetId="11" r:id="rId6"/>
-    <sheet name="API Agreement Canceled" sheetId="8" r:id="rId7"/>
-    <sheet name="API Bulk Sign Document" sheetId="9" r:id="rId8"/>
-    <sheet name="API Sign Document" sheetId="10" r:id="rId9"/>
-    <sheet name="PengaturanDokumen" sheetId="14" r:id="rId10"/>
+    <sheet name="BuatUndangan" r:id="rId1" sheetId="2"/>
+    <sheet name="API Send Document" r:id="rId2" sheetId="4"/>
+    <sheet name="API Generate Inv Link" r:id="rId3" sheetId="6"/>
+    <sheet name="PencarianPengguna-Inveditor" r:id="rId4" sheetId="7"/>
+    <sheet name="PencarianPengguna-Karyawan" r:id="rId5" sheetId="13"/>
+    <sheet name="PencarianPengguna-Pelanggan" r:id="rId6" sheetId="11"/>
+    <sheet name="API Agreement Canceled" r:id="rId7" sheetId="8"/>
+    <sheet name="API Bulk Sign Document" r:id="rId8" sheetId="9"/>
+    <sheet name="API Sign Document" r:id="rId9" sheetId="10"/>
+    <sheet name="PengaturanDokumen" r:id="rId10" sheetId="14"/>
+    <sheet name="Masukan" r:id="rId11" sheetId="15"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -33,7 +34,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A13" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A32" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A41" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +114,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A30" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A30" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +148,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A13" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +181,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A11" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A12" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="554">
   <si>
     <t>Status</t>
   </si>
@@ -1881,12 +1882,40 @@
   </si>
   <si>
     <t>Tanggal Aktivasi Sampai</t>
+  </si>
+  <si>
+    <t>Masukan</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>$Rating</t>
+  </si>
+  <si>
+    <t>mandatory incomplete</t>
+  </si>
+  <si>
+    <t>input masukan tanpa comment success</t>
+  </si>
+  <si>
+    <t>input masukan dengan comment success</t>
+  </si>
+  <si>
+    <t>ini cerita masukan comment sukses</t>
+  </si>
+  <si>
+    <t>ini masukan mandatory tidak lengkap</t>
+  </si>
+  <si>
+    <t>;Mandatory is incomplete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -2094,130 +2123,133 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="72">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="4" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="6" numFmtId="0" quotePrefix="1" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="14" numFmtId="0" quotePrefix="1" xfId="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2234,10 +2266,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2401,21 +2433,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2432,7 +2464,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2486,19 +2518,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L25" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="13" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="2" max="13" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2548,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="92.25" customHeight="1">
+    <row customHeight="1" ht="92.25" r="2" spans="1:15">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -2647,59 +2679,59 @@
         <v>26</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:O4" si="0">COUNTIFS($A9:$A21,"*$*",B9:B21,"")</f>
+        <f ref="B4:O4" si="0" t="shared">COUNTIFS($A9:$A21,"*$*",B9:B21,"")</f>
         <v>3</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4494,76 +4526,76 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59:O59">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B59:O59" type="list">
       <formula1>"SMS, Email"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:O6">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:O6" type="list">
       <formula1>"Edit, Resend"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:O7">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:O7" type="list">
       <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:O13 B41:O41">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:O13 B41:O41" type="list">
       <formula1>"M, F"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33:O33 B55:O55 B61:O61 B29:O31">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B33:O33 B55:O55 B61:O61 B29:O31" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
-    <hyperlink ref="C15" r:id="rId2"/>
-    <hyperlink ref="D15" r:id="rId3"/>
-    <hyperlink ref="E15" r:id="rId4"/>
-    <hyperlink ref="F15" r:id="rId5"/>
-    <hyperlink ref="M15" r:id="rId6"/>
-    <hyperlink ref="O15" r:id="rId7"/>
-    <hyperlink ref="M53" r:id="rId8"/>
-    <hyperlink ref="M54" r:id="rId9"/>
-    <hyperlink ref="N53" r:id="rId10"/>
-    <hyperlink ref="N54" r:id="rId11"/>
-    <hyperlink ref="J15" r:id="rId12"/>
-    <hyperlink ref="J53" r:id="rId13"/>
-    <hyperlink ref="J54" r:id="rId14"/>
-    <hyperlink ref="G53" r:id="rId15"/>
-    <hyperlink ref="G54" r:id="rId16"/>
-    <hyperlink ref="H53" r:id="rId17"/>
-    <hyperlink ref="H54" r:id="rId18"/>
-    <hyperlink ref="I53" r:id="rId19"/>
-    <hyperlink ref="I54" r:id="rId20"/>
-    <hyperlink ref="O53" r:id="rId21"/>
-    <hyperlink ref="O54" r:id="rId22"/>
-    <hyperlink ref="N15" r:id="rId23"/>
-    <hyperlink ref="K15" r:id="rId24"/>
-    <hyperlink ref="K54" r:id="rId25"/>
-    <hyperlink ref="K53" r:id="rId26"/>
-    <hyperlink ref="L15" r:id="rId27"/>
-    <hyperlink ref="L53" r:id="rId28"/>
-    <hyperlink ref="L54" r:id="rId29"/>
-    <hyperlink ref="G15" r:id="rId30"/>
-    <hyperlink ref="H15" r:id="rId31"/>
-    <hyperlink ref="I15" r:id="rId32"/>
-    <hyperlink ref="N5" r:id="rId33"/>
+    <hyperlink r:id="rId1" ref="B15" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
+    <hyperlink r:id="rId2" ref="C15"/>
+    <hyperlink r:id="rId3" ref="D15"/>
+    <hyperlink r:id="rId4" ref="E15"/>
+    <hyperlink r:id="rId5" ref="F15"/>
+    <hyperlink r:id="rId6" ref="M15"/>
+    <hyperlink r:id="rId7" ref="O15"/>
+    <hyperlink r:id="rId8" ref="M53"/>
+    <hyperlink r:id="rId9" ref="M54"/>
+    <hyperlink r:id="rId10" ref="N53"/>
+    <hyperlink r:id="rId11" ref="N54"/>
+    <hyperlink r:id="rId12" ref="J15"/>
+    <hyperlink r:id="rId13" ref="J53"/>
+    <hyperlink r:id="rId14" ref="J54"/>
+    <hyperlink r:id="rId15" ref="G53"/>
+    <hyperlink r:id="rId16" ref="G54"/>
+    <hyperlink r:id="rId17" ref="H53"/>
+    <hyperlink r:id="rId18" ref="H54"/>
+    <hyperlink r:id="rId19" ref="I53"/>
+    <hyperlink r:id="rId20" ref="I54"/>
+    <hyperlink r:id="rId21" ref="O53"/>
+    <hyperlink r:id="rId22" ref="O54"/>
+    <hyperlink r:id="rId23" ref="N15"/>
+    <hyperlink r:id="rId24" ref="K15"/>
+    <hyperlink r:id="rId25" ref="K54"/>
+    <hyperlink r:id="rId26" ref="K53"/>
+    <hyperlink r:id="rId27" ref="L15"/>
+    <hyperlink r:id="rId28" ref="L53"/>
+    <hyperlink r:id="rId29" ref="L54"/>
+    <hyperlink r:id="rId30" ref="G15"/>
+    <hyperlink r:id="rId31" ref="H15"/>
+    <hyperlink r:id="rId32" ref="I15"/>
+    <hyperlink r:id="rId33" ref="N5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <legacyDrawing r:id="rId34"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="44.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4688,46 +4720,196 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="B1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="70" width="25.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="70" width="33.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="70" width="33.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="34.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>549</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>550</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="69">
+        <f>COUNTIFS($A$9:$A$10,"*$*",B9:B10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="69">
+        <f>COUNTIFS($A$9:$A$10,"*$*",C9:C10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="69">
+        <f>COUNTIFS($A$9:$A$10,"*$*",D9:D10,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="48" t="s">
+        <v>545</v>
+      </c>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>5</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B9:D9" type="list">
+      <formula1>"1, 2, 3, 4 ,5"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="B1" sqref="B1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="24.42578125" style="41" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.85546875" style="41" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.28515625" style="41" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.28515625" style="41" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.5703125" style="41" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" style="41" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.7109375" style="41" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.85546875" style="41" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.5703125" style="41" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="29.28515625" style="41" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="37.85546875" style="41" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="42.140625" style="41" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="40.7109375" style="41" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="37.5703125" style="41" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="35.7109375" style="41" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="36.5703125" style="41" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="36" style="41" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="43.28515625" style="41" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="63" style="41" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="45.5703125" style="41" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="39.5703125" style="41" customWidth="1" collapsed="1"/>
-    <col min="25" max="27" width="45.28515625" style="41" customWidth="1" collapsed="1"/>
-    <col min="28" max="16384" width="9" style="41" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="41" width="24.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="41" width="31.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="41" width="39.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="41" width="45.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="41" width="32.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="41" width="28.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="41" width="30.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="41" width="30.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="41" width="30.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="41" width="29.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="41" width="37.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="41" width="42.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="41" width="40.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="41" width="37.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="41" width="35.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="41" width="36.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="41" width="36.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="41" width="43.28515625" collapsed="true"/>
+    <col min="21" max="22" customWidth="true" style="41" width="63.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="41" width="45.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="41" width="39.5703125" collapsed="true"/>
+    <col min="25" max="27" customWidth="true" style="41" width="45.28515625" collapsed="true"/>
+    <col min="28" max="16384" style="41" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="1" s="35" spans="1:27">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -4810,7 +4992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="2" s="35" spans="1:27">
       <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
@@ -4893,7 +5075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="36" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="3" s="36" spans="1:27">
       <c r="A3" s="36" t="s">
         <v>14</v>
       </c>
@@ -4976,116 +5158,116 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="4" s="35" spans="1:27">
       <c r="A4" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="36">
-        <f t="shared" ref="B4:AA4" si="0">COUNTIFS($A9:$A45,"*$*",B9:B45,"")</f>
+        <f ref="B4:AA4" si="0" t="shared">COUNTIFS($A9:$A45,"*$*",B9:B45,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="R4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="S4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="T4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="U4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="V4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="W4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="X4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Y4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Z4" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA4" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="35" customFormat="1">
+        <f si="0" t="shared"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" s="35" spans="1:27">
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
@@ -5108,7 +5290,7 @@
       <c r="Z5" s="36"/>
       <c r="AA5" s="36"/>
     </row>
-    <row r="6" spans="1:27" s="36" customFormat="1">
+    <row customFormat="1" r="6" s="36" spans="1:27">
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -5137,7 +5319,7 @@
       <c r="Z6" s="42"/>
       <c r="AA6" s="42"/>
     </row>
-    <row r="7" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="7" s="35" spans="1:27">
       <c r="A7" s="42"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
@@ -5166,7 +5348,7 @@
       <c r="Z7" s="43"/>
       <c r="AA7" s="43"/>
     </row>
-    <row r="8" spans="1:27" s="37" customFormat="1">
+    <row customFormat="1" r="8" s="37" spans="1:27">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -5195,7 +5377,7 @@
       <c r="Z8" s="45"/>
       <c r="AA8" s="45"/>
     </row>
-    <row r="9" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="9" s="35" spans="1:27">
       <c r="A9" s="47" t="s">
         <v>135</v>
       </c>
@@ -5278,7 +5460,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="38" customFormat="1">
+    <row customFormat="1" r="10" s="38" spans="1:27">
       <c r="A10" s="48" t="s">
         <v>139</v>
       </c>
@@ -5309,7 +5491,7 @@
       <c r="Z10" s="50"/>
       <c r="AA10" s="50"/>
     </row>
-    <row r="11" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="11" s="35" spans="1:27">
       <c r="A11" s="47" t="s">
         <v>140</v>
       </c>
@@ -5392,7 +5574,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="12" s="35" spans="1:27">
       <c r="A12" s="47" t="s">
         <v>166</v>
       </c>
@@ -5475,7 +5657,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="13" s="35" spans="1:27">
       <c r="A13" s="47" t="s">
         <v>170</v>
       </c>
@@ -5558,7 +5740,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="14" s="35" spans="1:27">
       <c r="A14" s="47" t="s">
         <v>174</v>
       </c>
@@ -5641,7 +5823,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="15" s="35" spans="1:27">
       <c r="A15" s="47" t="s">
         <v>176</v>
       </c>
@@ -5724,7 +5906,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="16" s="35" spans="1:27">
       <c r="A16" s="47" t="s">
         <v>179</v>
       </c>
@@ -5807,7 +5989,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="17" s="35" spans="1:27">
       <c r="A17" s="47" t="s">
         <v>182</v>
       </c>
@@ -5890,7 +6072,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="18" s="35" spans="1:27">
       <c r="A18" s="47" t="s">
         <v>184</v>
       </c>
@@ -5973,7 +6155,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="19" s="35" spans="1:27">
       <c r="A19" s="47" t="s">
         <v>186</v>
       </c>
@@ -6056,7 +6238,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="20" s="35" spans="1:27">
       <c r="A20" s="47" t="s">
         <v>188</v>
       </c>
@@ -6139,7 +6321,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="21" s="35" spans="1:27">
       <c r="A21" s="47" t="s">
         <v>189</v>
       </c>
@@ -6222,7 +6404,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="22" s="35" spans="1:27">
       <c r="A22" s="47" t="s">
         <v>191</v>
       </c>
@@ -6305,7 +6487,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="23" s="35" spans="1:27">
       <c r="A23" s="47" t="s">
         <v>193</v>
       </c>
@@ -6388,7 +6570,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="39" customFormat="1">
+    <row customFormat="1" r="24" s="39" spans="1:27">
       <c r="A24" s="48" t="s">
         <v>195</v>
       </c>
@@ -6419,7 +6601,7 @@
       <c r="Z24" s="49"/>
       <c r="AA24" s="49"/>
     </row>
-    <row r="25" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="25" s="35" spans="1:27">
       <c r="A25" s="47" t="s">
         <v>196</v>
       </c>
@@ -6502,7 +6684,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="26" s="35" spans="1:27">
       <c r="A26" s="47" t="s">
         <v>201</v>
       </c>
@@ -6585,7 +6767,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="27" s="35" spans="1:27">
       <c r="A27" s="47" t="s">
         <v>208</v>
       </c>
@@ -6668,7 +6850,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="28" s="35" spans="1:27">
       <c r="A28" s="47" t="s">
         <v>211</v>
       </c>
@@ -6751,7 +6933,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="29" s="35" spans="1:27">
       <c r="A29" s="47" t="s">
         <v>222</v>
       </c>
@@ -6834,7 +7016,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="30" s="35" spans="1:27">
       <c r="A30" s="47" t="s">
         <v>62</v>
       </c>
@@ -6917,7 +7099,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="31" s="35" spans="1:27">
       <c r="A31" s="47" t="s">
         <v>64</v>
       </c>
@@ -7000,7 +7182,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="32" s="35" spans="1:27">
       <c r="A32" s="47" t="s">
         <v>229</v>
       </c>
@@ -7083,7 +7265,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="33" s="35" spans="1:27">
       <c r="A33" s="47" t="s">
         <v>60</v>
       </c>
@@ -7166,7 +7348,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="34" s="35" spans="1:27">
       <c r="A34" s="47" t="s">
         <v>235</v>
       </c>
@@ -7249,7 +7431,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="35" s="35" spans="1:27">
       <c r="A35" s="47" t="s">
         <v>243</v>
       </c>
@@ -7332,7 +7514,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="36" s="35" spans="1:27">
       <c r="A36" s="47" t="s">
         <v>253</v>
       </c>
@@ -7415,7 +7597,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="37" s="35" spans="1:27">
       <c r="A37" s="47" t="s">
         <v>58</v>
       </c>
@@ -7498,7 +7680,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="38" s="35" spans="1:27">
       <c r="A38" s="47" t="s">
         <v>258</v>
       </c>
@@ -7581,7 +7763,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="39" s="35" spans="1:27">
       <c r="A39" s="47" t="s">
         <v>266</v>
       </c>
@@ -7664,7 +7846,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="40" s="35" spans="1:27">
       <c r="A40" s="47" t="s">
         <v>267</v>
       </c>
@@ -7747,7 +7929,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="41" s="35" spans="1:27">
       <c r="A41" s="47" t="s">
         <v>276</v>
       </c>
@@ -7830,7 +8012,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="42" s="35" spans="1:27">
       <c r="A42" s="47" t="s">
         <v>279</v>
       </c>
@@ -7913,7 +8095,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="43" s="35" spans="1:27">
       <c r="A43" s="47" t="s">
         <v>280</v>
       </c>
@@ -7996,7 +8178,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="40" customFormat="1">
+    <row customFormat="1" r="44" s="40" spans="1:27">
       <c r="A44" s="55" t="s">
         <v>281</v>
       </c>
@@ -8027,7 +8209,7 @@
       <c r="Z44" s="56"/>
       <c r="AA44" s="56"/>
     </row>
-    <row r="45" spans="1:27" s="35" customFormat="1">
+    <row customFormat="1" r="45" s="35" spans="1:27">
       <c r="A45" s="47" t="s">
         <v>282</v>
       </c>
@@ -8112,81 +8294,81 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F22" r:id="rId1"/>
-    <hyperlink ref="F23" r:id="rId2"/>
-    <hyperlink ref="F40" r:id="rId3"/>
-    <hyperlink ref="G22" r:id="rId4"/>
-    <hyperlink ref="G23" r:id="rId5"/>
-    <hyperlink ref="H22" r:id="rId6"/>
-    <hyperlink ref="H23" r:id="rId7"/>
-    <hyperlink ref="I22" r:id="rId8"/>
-    <hyperlink ref="I23" r:id="rId9"/>
-    <hyperlink ref="J22" r:id="rId10"/>
-    <hyperlink ref="J23" r:id="rId11"/>
-    <hyperlink ref="M22" r:id="rId12"/>
-    <hyperlink ref="M23" r:id="rId13"/>
-    <hyperlink ref="M40" r:id="rId14"/>
-    <hyperlink ref="N22" r:id="rId15"/>
-    <hyperlink ref="N23" r:id="rId16"/>
-    <hyperlink ref="N40" r:id="rId17"/>
-    <hyperlink ref="O22" r:id="rId18"/>
-    <hyperlink ref="O23" r:id="rId19"/>
-    <hyperlink ref="O40" r:id="rId20"/>
-    <hyperlink ref="P22" r:id="rId21"/>
-    <hyperlink ref="P23" r:id="rId22"/>
-    <hyperlink ref="P40" r:id="rId23"/>
-    <hyperlink ref="Q22" r:id="rId24"/>
-    <hyperlink ref="Q23" r:id="rId25"/>
-    <hyperlink ref="Q40" r:id="rId26"/>
-    <hyperlink ref="K22" r:id="rId27"/>
-    <hyperlink ref="K23" r:id="rId28"/>
-    <hyperlink ref="L22" r:id="rId29"/>
-    <hyperlink ref="L23" r:id="rId30"/>
-    <hyperlink ref="R22" r:id="rId31"/>
-    <hyperlink ref="R23" r:id="rId32"/>
-    <hyperlink ref="R40" r:id="rId33"/>
-    <hyperlink ref="S22" r:id="rId34"/>
-    <hyperlink ref="S23" r:id="rId35"/>
-    <hyperlink ref="S40" r:id="rId36"/>
-    <hyperlink ref="T22" r:id="rId37"/>
-    <hyperlink ref="T23" r:id="rId38"/>
-    <hyperlink ref="T40" r:id="rId39"/>
-    <hyperlink ref="U22" r:id="rId40"/>
-    <hyperlink ref="U23" r:id="rId41"/>
-    <hyperlink ref="U40" r:id="rId42"/>
-    <hyperlink ref="V22" r:id="rId43"/>
-    <hyperlink ref="V23" r:id="rId44"/>
-    <hyperlink ref="V40" r:id="rId45"/>
-    <hyperlink ref="W22" r:id="rId46"/>
-    <hyperlink ref="W23" r:id="rId47"/>
-    <hyperlink ref="W40" r:id="rId48"/>
-    <hyperlink ref="X22" r:id="rId49"/>
-    <hyperlink ref="X23" r:id="rId50"/>
-    <hyperlink ref="X40" r:id="rId51"/>
-    <hyperlink ref="G40" r:id="rId52"/>
-    <hyperlink ref="H40" r:id="rId53"/>
-    <hyperlink ref="I40" r:id="rId54"/>
-    <hyperlink ref="J40" r:id="rId55"/>
-    <hyperlink ref="K40" r:id="rId56"/>
-    <hyperlink ref="L40" r:id="rId57"/>
-    <hyperlink ref="Y22" r:id="rId58"/>
-    <hyperlink ref="Y23" r:id="rId59"/>
-    <hyperlink ref="Y40" r:id="rId60"/>
-    <hyperlink ref="Z22" r:id="rId61"/>
-    <hyperlink ref="Z23" r:id="rId62"/>
-    <hyperlink ref="AA22" r:id="rId63"/>
-    <hyperlink ref="AA23" r:id="rId64"/>
-    <hyperlink ref="Z40" r:id="rId65"/>
-    <hyperlink ref="AA40" r:id="rId66"/>
+    <hyperlink r:id="rId1" ref="F22"/>
+    <hyperlink r:id="rId2" ref="F23"/>
+    <hyperlink r:id="rId3" ref="F40"/>
+    <hyperlink r:id="rId4" ref="G22"/>
+    <hyperlink r:id="rId5" ref="G23"/>
+    <hyperlink r:id="rId6" ref="H22"/>
+    <hyperlink r:id="rId7" ref="H23"/>
+    <hyperlink r:id="rId8" ref="I22"/>
+    <hyperlink r:id="rId9" ref="I23"/>
+    <hyperlink r:id="rId10" ref="J22"/>
+    <hyperlink r:id="rId11" ref="J23"/>
+    <hyperlink r:id="rId12" ref="M22"/>
+    <hyperlink r:id="rId13" ref="M23"/>
+    <hyperlink r:id="rId14" ref="M40"/>
+    <hyperlink r:id="rId15" ref="N22"/>
+    <hyperlink r:id="rId16" ref="N23"/>
+    <hyperlink r:id="rId17" ref="N40"/>
+    <hyperlink r:id="rId18" ref="O22"/>
+    <hyperlink r:id="rId19" ref="O23"/>
+    <hyperlink r:id="rId20" ref="O40"/>
+    <hyperlink r:id="rId21" ref="P22"/>
+    <hyperlink r:id="rId22" ref="P23"/>
+    <hyperlink r:id="rId23" ref="P40"/>
+    <hyperlink r:id="rId24" ref="Q22"/>
+    <hyperlink r:id="rId25" ref="Q23"/>
+    <hyperlink r:id="rId26" ref="Q40"/>
+    <hyperlink r:id="rId27" ref="K22"/>
+    <hyperlink r:id="rId28" ref="K23"/>
+    <hyperlink r:id="rId29" ref="L22"/>
+    <hyperlink r:id="rId30" ref="L23"/>
+    <hyperlink r:id="rId31" ref="R22"/>
+    <hyperlink r:id="rId32" ref="R23"/>
+    <hyperlink r:id="rId33" ref="R40"/>
+    <hyperlink r:id="rId34" ref="S22"/>
+    <hyperlink r:id="rId35" ref="S23"/>
+    <hyperlink r:id="rId36" ref="S40"/>
+    <hyperlink r:id="rId37" ref="T22"/>
+    <hyperlink r:id="rId38" ref="T23"/>
+    <hyperlink r:id="rId39" ref="T40"/>
+    <hyperlink r:id="rId40" ref="U22"/>
+    <hyperlink r:id="rId41" ref="U23"/>
+    <hyperlink r:id="rId42" ref="U40"/>
+    <hyperlink r:id="rId43" ref="V22"/>
+    <hyperlink r:id="rId44" ref="V23"/>
+    <hyperlink r:id="rId45" ref="V40"/>
+    <hyperlink r:id="rId46" ref="W22"/>
+    <hyperlink r:id="rId47" ref="W23"/>
+    <hyperlink r:id="rId48" ref="W40"/>
+    <hyperlink r:id="rId49" ref="X22"/>
+    <hyperlink r:id="rId50" ref="X23"/>
+    <hyperlink r:id="rId51" ref="X40"/>
+    <hyperlink r:id="rId52" ref="G40"/>
+    <hyperlink r:id="rId53" ref="H40"/>
+    <hyperlink r:id="rId54" ref="I40"/>
+    <hyperlink r:id="rId55" ref="J40"/>
+    <hyperlink r:id="rId56" ref="K40"/>
+    <hyperlink r:id="rId57" ref="L40"/>
+    <hyperlink r:id="rId58" ref="Y22"/>
+    <hyperlink r:id="rId59" ref="Y23"/>
+    <hyperlink r:id="rId60" ref="Y40"/>
+    <hyperlink r:id="rId61" ref="Z22"/>
+    <hyperlink r:id="rId62" ref="Z23"/>
+    <hyperlink r:id="rId63" ref="AA22"/>
+    <hyperlink r:id="rId64" ref="AA23"/>
+    <hyperlink r:id="rId65" ref="Z40"/>
+    <hyperlink r:id="rId66" ref="AA40"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="R1" sqref="R1:R53"/>
@@ -8194,7 +8376,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="18" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -8309,7 +8491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="50.25" customHeight="1">
+    <row customHeight="1" ht="50.25" r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -8370,71 +8552,71 @@
         <v>26</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:Q4" si="0">COUNTIFS($A9:$A25,"*$*",B9:B25,"")</f>
+        <f ref="B4:Q4" si="0" t="shared">COUNTIFS($A9:$A25,"*$*",B9:B25,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="R4" s="4">
-        <f t="shared" ref="R4" si="1">COUNTIFS($A9:$A25,"*$*",R9:R25,"")</f>
+        <f ref="R4" si="1" t="shared">COUNTIFS($A9:$A25,"*$*",R9:R25,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -10396,16 +10578,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R13" r:id="rId1" display="userCIHI@AD-INS.COM"/>
+    <hyperlink display="userCIHI@AD-INS.COM" r:id="rId1" ref="R13"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -10413,9 +10595,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="25.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10462,15 +10644,15 @@
         <v>26</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:D4" si="0">COUNTIFS($A9:$A21,"*$*",B9:B21,"")</f>
+        <f ref="B4:D4" si="0" t="shared">COUNTIFS($A9:$A21,"*$*",B9:B21,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="4"/>
@@ -10482,7 +10664,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1">
+    <row customHeight="1" ht="21" r="6" spans="1:5">
       <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
@@ -10742,30 +10924,30 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:D6" type="list">
       <formula1>"Edit, Reset OTP, Resend Link"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:D7" type="list">
       <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:E13">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:E13" type="list">
       <formula1>"M, F"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
-    <hyperlink ref="D15" r:id="rId2" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
-    <hyperlink ref="B15" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="C15" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
+    <hyperlink r:id="rId2" ref="D15" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
+    <hyperlink r:id="rId3" ref="B15"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -10773,10 +10955,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10833,11 +11015,11 @@
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" ref="C4:D4" si="0">COUNTIFS($A9:$A13,"*$*",C9:C13,"")</f>
+        <f ref="C4:D4" si="0" t="shared">COUNTIFS($A9:$A13,"*$*",C9:C13,"")</f>
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="4"/>
@@ -10849,7 +11031,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1">
+    <row customHeight="1" ht="21" r="6" spans="1:5">
       <c r="A6" s="11"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -10939,25 +11121,25 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D7">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:D7" type="list">
       <formula1>"View, Reset OTP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:D13">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:D13" type="list">
       <formula1>"Active, Not Registered"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="D9"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -10965,10 +11147,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11035,7 +11217,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1">
+    <row customHeight="1" ht="21" r="6" spans="1:5">
       <c r="A6" s="11" t="s">
         <v>404</v>
       </c>
@@ -11109,24 +11291,24 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:D7" type="list">
       <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:D6">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:D6" type="list">
       <formula1>"View, Reset OTP"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B11"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
@@ -11134,12 +11316,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -11182,7 +11364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="45">
+    <row customFormat="1" ht="45" r="3" s="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -11259,7 +11441,7 @@
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row ht="30" r="9" spans="1:6">
       <c r="A9" s="11" t="s">
         <v>415</v>
       </c>
@@ -11277,7 +11459,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60">
+    <row ht="60" r="10" spans="1:6">
       <c r="A10" s="11" t="s">
         <v>419</v>
       </c>
@@ -11356,29 +11538,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="L2" sqref="B1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="3" max="5" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="27.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -11457,7 +11639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="120">
+    <row ht="120" r="3" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -11500,47 +11682,47 @@
         <v>26</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:L4" si="0">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
+        <f ref="B4:L4" si="0" t="shared">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -11626,7 +11808,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="9" customFormat="1">
+    <row customFormat="1" r="10" s="9" spans="1:12">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11638,7 +11820,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:12" ht="30">
+    <row ht="30" r="11" spans="1:12">
       <c r="A11" s="11" t="s">
         <v>435</v>
       </c>
@@ -11676,7 +11858,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="90">
+    <row customFormat="1" ht="90" r="12" s="9" spans="1:12">
       <c r="A12" s="26" t="s">
         <v>438</v>
       </c>
@@ -11716,40 +11898,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="C11" r:id="rId2" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="E11" r:id="rId3" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="F11" r:id="rId4" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="G11" r:id="rId5" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
-    <hyperlink ref="H11" r:id="rId6" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
-    <hyperlink ref="I11" r:id="rId7"/>
-    <hyperlink ref="J11" r:id="rId8"/>
-    <hyperlink ref="K11" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="L11" r:id="rId11"/>
+    <hyperlink r:id="rId1" ref="B11"/>
+    <hyperlink r:id="rId2" ref="C11" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink r:id="rId3" ref="E11" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink r:id="rId4" ref="F11" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink r:id="rId5" ref="G11" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
+    <hyperlink r:id="rId6" ref="H11" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
+    <hyperlink r:id="rId7" ref="I11"/>
+    <hyperlink r:id="rId8" ref="J11"/>
+    <hyperlink r:id="rId9" ref="K11"/>
+    <hyperlink r:id="rId10" ref="D11" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink r:id="rId11" ref="L11"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="30.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11816,7 +11998,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="3" s="3" spans="1:10">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -11850,35 +12032,35 @@
         <v>26</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:I4" si="0">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
+        <f ref="B4:I4" si="0" t="shared">COUNTIFS($A9:$A12,"*$*",B9:B12,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="22"/>
@@ -11968,7 +12150,7 @@
       </c>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1">
+    <row customFormat="1" r="10" s="9" spans="1:10">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11980,7 +12162,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" ht="30">
+    <row ht="30" r="11" spans="1:10">
       <c r="A11" s="11" t="s">
         <v>267</v>
       </c>
@@ -12010,7 +12192,7 @@
       </c>
       <c r="J11" s="24"/>
     </row>
-    <row r="12" spans="1:10" s="10" customFormat="1" ht="30">
+    <row customFormat="1" ht="30" r="12" s="10" spans="1:10">
       <c r="A12" s="19" t="s">
         <v>415</v>
       </c>
@@ -12054,16 +12236,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="D11" r:id="rId2"/>
-    <hyperlink ref="E11" r:id="rId3"/>
-    <hyperlink ref="F11" r:id="rId4" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
-    <hyperlink ref="G11" r:id="rId5" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
-    <hyperlink ref="H11" r:id="rId6" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="I11" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink r:id="rId1" ref="B11"/>
+    <hyperlink r:id="rId2" ref="D11"/>
+    <hyperlink r:id="rId3" ref="E11"/>
+    <hyperlink r:id="rId4" ref="F11" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
+    <hyperlink r:id="rId5" ref="G11" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
+    <hyperlink r:id="rId6" ref="H11" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink r:id="rId7" ref="I11"/>
+    <hyperlink r:id="rId8" ref="C11"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\ATeSign\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="BuatUndangan" sheetId="2" r:id="rId1"/>
@@ -16,10 +21,11 @@
     <sheet name="API Agreement Canceled" sheetId="8" r:id="rId7"/>
     <sheet name="API Bulk Sign Document" sheetId="9" r:id="rId8"/>
     <sheet name="API Sign Document" sheetId="10" r:id="rId9"/>
-    <sheet name="PengaturanDokumen" sheetId="14" r:id="rId10"/>
-    <sheet name="Masukan" sheetId="15" r:id="rId11"/>
+    <sheet name="Masukan" sheetId="15" r:id="rId10"/>
+    <sheet name="PengaturanDokumen" sheetId="14" r:id="rId11"/>
+    <sheet name="PencarianDokumen" sheetId="16" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -29,7 +35,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0">
+    <comment ref="A32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0">
+    <comment ref="A41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +113,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A30" authorId="0">
+    <comment ref="A30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +145,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0">
+    <comment ref="A13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +178,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,8 +228,138 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Fendy Tio</author>
+  </authors>
+  <commentList>
+    <comment ref="A11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fendy Tio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Format 'yyyy-MM-dd'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fendy Tio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Format 'yyyy-MM-dd'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fendy Tio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Format 'yyyy-MM-dd'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fendy Tio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Format 'yyyy-MM-dd'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fendy Tio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+flag untuk delete file setelah download</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="600">
   <si>
     <t>Status</t>
   </si>
@@ -1980,24 +2116,93 @@
   </si>
   <si>
     <t>ini masukan mandatory tidak lengkap</t>
+  </si>
+  <si>
+    <t>$Nama Pelanggan</t>
+  </si>
+  <si>
+    <t>$Nomor Kontrak</t>
+  </si>
+  <si>
+    <t>Pencarian Dokumen Action</t>
+  </si>
+  <si>
+    <t>View Dokumen</t>
+  </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>View Signer</t>
+  </si>
+  <si>
+    <t>S-QA-VIDA-A-00230</t>
+  </si>
+  <si>
+    <t>USERCIAB</t>
+  </si>
+  <si>
+    <t>2023-04-10</t>
+  </si>
+  <si>
+    <t>Dokumen Kontrak</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>$Delete File</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Tanggal Permintaan Dari</t>
+  </si>
+  <si>
+    <t>Tanggal Permintaan Sampai</t>
+  </si>
+  <si>
+    <t>Tanggal Selesai Dari</t>
+  </si>
+  <si>
+    <t>Tanggal Selesai Sampai</t>
+  </si>
+  <si>
+    <t>Tipe Dokumen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2052,142 +2257,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
@@ -2209,8 +2278,41 @@
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2219,13 +2321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14981536301767"/>
+        <fgColor theme="1" tint="0.14978484450819421"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14981536301767"/>
+        <fgColor theme="1" tint="0.14978484450819421"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2243,210 +2345,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.149845881527146"/>
+        <fgColor theme="1" tint="0.14981536301767021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.149784844508194"/>
+        <fgColor theme="1" tint="0.14975432599871821"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.149845881527146"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="1" tint="0.14981536301767021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2495,258 +2411,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2754,34 +2431,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2791,124 +2468,84 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="32" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="32" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="32"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
-    <cellStyle name="Hyperlink 2" xfId="50"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3166,24 +2803,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView topLeftCell="L25" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="2" max="13" width="21.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="13" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3233,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="92.25" customHeight="1" spans="1:15">
+    <row r="2" spans="1:15" ht="92.25" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -3456,66 +3093,66 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="65" t="s">
+      <c r="K9" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="65" t="s">
+      <c r="L9" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="65" t="s">
+      <c r="M9" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="65" t="s">
+      <c r="N9" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="66" t="s">
+      <c r="O9" s="64" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3615,46 +3252,46 @@
       <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="67" t="s">
+      <c r="J12" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="67" t="s">
+      <c r="K12" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="67" t="s">
+      <c r="L12" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="67" t="s">
+      <c r="M12" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="67" t="s">
+      <c r="N12" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="O12" s="67" t="s">
+      <c r="O12" s="65" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3710,43 +3347,43 @@
         <v>71</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="63" t="s">
         <v>73</v>
       </c>
       <c r="E14" s="5">
         <v>99999</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="H14" s="65" t="s">
+      <c r="H14" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="65" t="s">
+      <c r="I14" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="65" t="s">
+      <c r="K14" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="L14" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="65" t="s">
+      <c r="M14" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="65" t="s">
+      <c r="N14" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="O14" s="65" t="s">
+      <c r="O14" s="63" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3798,23 +3435,23 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="5" t="s">
@@ -4099,7 +3736,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>109</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -4165,7 +3802,7 @@
       <c r="O24" s="16"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>112</v>
       </c>
       <c r="B25" s="5"/>
@@ -4186,7 +3823,7 @@
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>113</v>
       </c>
       <c r="B26" s="5"/>
@@ -4207,7 +3844,7 @@
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>115</v>
       </c>
       <c r="B27" s="5"/>
@@ -4222,7 +3859,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="65" t="s">
+      <c r="N27" s="63" t="s">
         <v>116</v>
       </c>
       <c r="O27" s="5"/>
@@ -4247,7 +3884,7 @@
       <c r="O28" s="16"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>118</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -4294,7 +3931,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="37" t="s">
         <v>121</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -4341,7 +3978,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
         <v>122</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -4388,7 +4025,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="37" t="s">
         <v>123</v>
       </c>
       <c r="B32" s="5"/>
@@ -4425,7 +4062,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="31" t="s">
         <v>125</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -4472,7 +4109,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="31" t="s">
         <v>126</v>
       </c>
       <c r="B34" s="5"/>
@@ -4480,36 +4117,36 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="65" t="s">
+      <c r="G34" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="H34" s="65" t="s">
+      <c r="H34" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="I34" s="65" t="s">
+      <c r="I34" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="J34" s="65" t="s">
+      <c r="J34" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="K34" s="65" t="s">
+      <c r="K34" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="L34" s="65" t="s">
+      <c r="L34" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="M34" s="65" t="s">
+      <c r="M34" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="N34" s="65" t="s">
+      <c r="N34" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="O34" s="65" t="s">
+      <c r="O34" s="63" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="5"/>
@@ -4546,23 +4183,23 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="5" t="s">
@@ -4625,20 +4262,20 @@
       <c r="A40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="5" t="s">
@@ -4698,23 +4335,23 @@
       <c r="O43" s="19"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="5" t="s">
@@ -4831,7 +4468,7 @@
       <c r="O50" s="5"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="31" t="s">
         <v>109</v>
       </c>
       <c r="B51" s="5"/>
@@ -4869,7 +4506,7 @@
       <c r="O52" s="16"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="31" t="s">
         <v>131</v>
       </c>
       <c r="B53" s="5"/>
@@ -4906,7 +4543,7 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="31" t="s">
         <v>134</v>
       </c>
       <c r="B54" s="5"/>
@@ -4943,7 +4580,7 @@
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="31" t="s">
         <v>125</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -4990,7 +4627,7 @@
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="31" t="s">
         <v>126</v>
       </c>
       <c r="B56" s="5"/>
@@ -4998,36 +4635,36 @@
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="65" t="s">
+      <c r="G56" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="H56" s="65" t="s">
+      <c r="H56" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="I56" s="65" t="s">
+      <c r="I56" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="J56" s="65" t="s">
+      <c r="J56" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="K56" s="65" t="s">
+      <c r="K56" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="L56" s="65" t="s">
+      <c r="L56" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="M56" s="65" t="s">
+      <c r="M56" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="N56" s="65" t="s">
+      <c r="N56" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="O56" s="65" t="s">
+      <c r="O56" s="63" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B57" s="5"/>
@@ -5083,7 +4720,7 @@
       <c r="O58" s="16"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="31" t="s">
         <v>138</v>
       </c>
       <c r="B59" s="5"/>
@@ -5106,7 +4743,7 @@
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="31" t="s">
         <v>140</v>
       </c>
       <c r="B60" s="19"/>
@@ -5125,13 +4762,13 @@
         <f>IF(N59="Email",N15,IF(N59="SMS",N14,0))</f>
         <v>userCIJC@gmail.com</v>
       </c>
-      <c r="O60" s="68" t="str">
+      <c r="O60" s="66" t="str">
         <f>IF(O59="Email",O15,IF(O59="SMS",O14,0))</f>
         <v>082277885587</v>
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="31" t="s">
         <v>141</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -5196,277 +4833,60 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId3" display="wikiy.hendraa@ad-ins.com" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
-    <hyperlink ref="C15" r:id="rId4" display="Fend@gmail.com"/>
-    <hyperlink ref="D15" r:id="rId5" display="Dicky@gmail.com"/>
-    <hyperlink ref="E15" r:id="rId4" display="Fend@gmail.com"/>
-    <hyperlink ref="F15" r:id="rId4" display="Fendgmail.com"/>
-    <hyperlink ref="M15" r:id="rId6" display="userCIHE@gmail.com"/>
-    <hyperlink ref="O15" r:id="rId7" display="userCIHG@gmail.com"/>
-    <hyperlink ref="M53" r:id="rId8" display="P@ssw0rd"/>
-    <hyperlink ref="M54" r:id="rId8" display="P@ssw0rd"/>
-    <hyperlink ref="N53" r:id="rId8" display="P@ssw0rd"/>
-    <hyperlink ref="N54" r:id="rId8" display="P@ssw0rd"/>
-    <hyperlink ref="J15" r:id="rId9" display="userCIHB@gmail.com"/>
-    <hyperlink ref="J53" r:id="rId8" display="password"/>
-    <hyperlink ref="J54" r:id="rId8" display="password"/>
-    <hyperlink ref="G53" r:id="rId8" display="P@ssw0rd"/>
-    <hyperlink ref="G54" r:id="rId8" display="P@ssw0rd"/>
-    <hyperlink ref="H53" r:id="rId8" display="P@ssw0rd"/>
-    <hyperlink ref="H54" r:id="rId8" display="P@ssw0rd"/>
-    <hyperlink ref="I53" r:id="rId8" display="P@ssw0rd"/>
-    <hyperlink ref="I54" r:id="rId8" display="P@ssw0rd"/>
-    <hyperlink ref="O53" r:id="rId8" display="P@ssw0rd"/>
-    <hyperlink ref="O54" r:id="rId8" display="P@ssw0rd"/>
-    <hyperlink ref="N15" r:id="rId10" display="userCIJC@gmail.com"/>
-    <hyperlink ref="K15" r:id="rId11" display="userCIHC@gmail.com"/>
-    <hyperlink ref="K54" r:id="rId12" display="P@ssw0rd123"/>
-    <hyperlink ref="K53" r:id="rId8" display="P@ssw0rd"/>
-    <hyperlink ref="L15" r:id="rId13" display="userCIHD@gmail.com"/>
-    <hyperlink ref="L53" r:id="rId8" display="P@ssw0rd"/>
-    <hyperlink ref="L54" r:id="rId8" display="P@ssw0rd"/>
-    <hyperlink ref="G15" r:id="rId14" display="userCIGH@gmail.com"/>
-    <hyperlink ref="H15" r:id="rId15" display="userCIGJ@gmail.com"/>
-    <hyperlink ref="I15" r:id="rId16" display="userCIHA@gmail.com"/>
-    <hyperlink ref="N5" r:id="rId17" display="https://gdkwebsvr:8080/i/reg?code=vhRhM2ZaGp5tAgbx1YXNYA%3D%3D"/>
+    <hyperlink ref="B15" r:id="rId1" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
+    <hyperlink ref="C15" r:id="rId2"/>
+    <hyperlink ref="D15" r:id="rId3"/>
+    <hyperlink ref="E15" r:id="rId4"/>
+    <hyperlink ref="F15" r:id="rId5"/>
+    <hyperlink ref="M15" r:id="rId6"/>
+    <hyperlink ref="O15" r:id="rId7"/>
+    <hyperlink ref="M53" r:id="rId8"/>
+    <hyperlink ref="M54" r:id="rId9"/>
+    <hyperlink ref="N53" r:id="rId10"/>
+    <hyperlink ref="N54" r:id="rId11"/>
+    <hyperlink ref="J15" r:id="rId12"/>
+    <hyperlink ref="J53" r:id="rId13"/>
+    <hyperlink ref="J54" r:id="rId14"/>
+    <hyperlink ref="G53" r:id="rId15"/>
+    <hyperlink ref="G54" r:id="rId16"/>
+    <hyperlink ref="H53" r:id="rId17"/>
+    <hyperlink ref="H54" r:id="rId18"/>
+    <hyperlink ref="I53" r:id="rId19"/>
+    <hyperlink ref="I54" r:id="rId20"/>
+    <hyperlink ref="O53" r:id="rId21"/>
+    <hyperlink ref="O54" r:id="rId22"/>
+    <hyperlink ref="N15" r:id="rId23"/>
+    <hyperlink ref="K15" r:id="rId24"/>
+    <hyperlink ref="K54" r:id="rId25"/>
+    <hyperlink ref="K53" r:id="rId26"/>
+    <hyperlink ref="L15" r:id="rId27"/>
+    <hyperlink ref="L53" r:id="rId28"/>
+    <hyperlink ref="L54" r:id="rId29"/>
+    <hyperlink ref="G15" r:id="rId30"/>
+    <hyperlink ref="H15" r:id="rId31"/>
+    <hyperlink ref="I15" r:id="rId32"/>
+    <hyperlink ref="N5" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId34"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="40.8545454545455" customWidth="1"/>
-    <col min="2" max="2" width="38.1363636363636" customWidth="1"/>
-    <col min="3" max="3" width="44.8545454545455" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6">
-        <f>COUNTIFS($A9:$A14,"*$*",B9:B14,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <f>COUNTIFS($A9:$A14,"*$*",C9:C14,"")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="13" ht="43.5" spans="1:3">
-      <c r="A13" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>566</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>567</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>568</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>569</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>570</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>571</v>
-      </c>
-      <c r="B20" t="s">
-        <v>572</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.1363636363636" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1363636363636" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7090909090909" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5578,17 +4998,17 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -5600,47 +5020,510 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6">
+        <f>COUNTIFS($A9:$A14,"*$*",B9:B14,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <f>COUNTIFS($A9:$A14,"*$*",C9:C14,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45">
+      <c r="A13" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>566</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>567</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>568</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>569</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>570</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>571</v>
+      </c>
+      <c r="B20" t="s">
+        <v>572</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2">
+        <f>COUNTIFS($A$9:$A$16,"*$*",B9:B16,"")+IF(B7="Download",COUNTIFS($A$18,"*$*",B18,""),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:D4" si="0">COUNTIFS($A$9:$A$16,"*$*",C9:C16,"")+IF(C7="Download",COUNTIFS($A$18,"*$*",C18,""),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="75" t="s">
+        <v>595</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="75" t="s">
+        <v>597</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="75" t="s">
+        <v>598</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="75" t="s">
+        <v>599</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>592</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>592</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="74" t="s">
+        <v>594</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="71" t="s">
+        <v>593</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
+      <formula1>"View Dokumen, Download, View Signer"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:D18">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB$1:AB$1048576"/>
+    <sheetView topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="24.4272727272727" style="47" customWidth="1"/>
-    <col min="4" max="4" width="31.8545454545455" style="47" customWidth="1"/>
-    <col min="5" max="5" width="39.2818181818182" style="47" customWidth="1"/>
-    <col min="6" max="6" width="45.2818181818182" style="47" customWidth="1"/>
-    <col min="7" max="7" width="32.5727272727273" style="47" customWidth="1"/>
-    <col min="8" max="8" width="28.7090909090909" style="47" customWidth="1"/>
-    <col min="9" max="9" width="30.7090909090909" style="47" customWidth="1"/>
-    <col min="10" max="10" width="30.8545454545455" style="47" customWidth="1"/>
-    <col min="11" max="11" width="30.5727272727273" style="47" customWidth="1"/>
-    <col min="12" max="12" width="29.2818181818182" style="47" customWidth="1"/>
-    <col min="13" max="13" width="37.8545454545455" style="47" customWidth="1"/>
-    <col min="14" max="14" width="42.1363636363636" style="47" customWidth="1"/>
-    <col min="15" max="15" width="40.7090909090909" style="47" customWidth="1"/>
-    <col min="16" max="16" width="37.5727272727273" style="47" customWidth="1"/>
-    <col min="17" max="17" width="35.7090909090909" style="47" customWidth="1"/>
-    <col min="18" max="18" width="36.5727272727273" style="47" customWidth="1"/>
-    <col min="19" max="19" width="36" style="47" customWidth="1"/>
-    <col min="20" max="20" width="43.2818181818182" style="47" customWidth="1"/>
-    <col min="21" max="22" width="63" style="47" customWidth="1"/>
-    <col min="23" max="23" width="45.5727272727273" style="47" customWidth="1"/>
-    <col min="24" max="24" width="39.5727272727273" style="47" customWidth="1"/>
-    <col min="25" max="28" width="45.2818181818182" style="47" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="47"/>
+    <col min="1" max="3" width="24.42578125" style="45" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.85546875" style="45" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.28515625" style="45" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.28515625" style="45" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.5703125" style="45" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7109375" style="45" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.7109375" style="45" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.85546875" style="45" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.5703125" style="45" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="29.28515625" style="45" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="37.85546875" style="45" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="42.140625" style="45" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="40.7109375" style="45" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="37.5703125" style="45" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="35.7109375" style="45" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="36.5703125" style="45" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="36" style="45" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="43.28515625" style="45" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="63" style="45" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="45.5703125" style="45" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="39.5703125" style="45" customWidth="1" collapsed="1"/>
+    <col min="25" max="28" width="45.28515625" style="45" customWidth="1" collapsed="1"/>
+    <col min="29" max="16384" width="9" style="45" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="1" spans="1:28">
+    <row r="1" spans="1:28" s="39" customFormat="1">
       <c r="A1" t="s">
         <v>142</v>
       </c>
@@ -5726,8 +5609,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" s="41" customFormat="1" spans="1:28">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:28" s="39" customFormat="1">
+      <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -5812,3427 +5695,3425 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="42" customFormat="1" ht="43.5" spans="1:28">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:28" s="40" customFormat="1" ht="60">
+      <c r="A3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="40" t="s">
         <v>163</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O3" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="Q3" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="R3" s="42" t="s">
+      <c r="R3" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="S3" s="42" t="s">
+      <c r="S3" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="T3" s="42" t="s">
+      <c r="T3" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="U3" s="42" t="s">
+      <c r="U3" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="V3" s="42" t="s">
+      <c r="V3" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="W3" s="42" t="s">
+      <c r="W3" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="X3" s="42" t="s">
+      <c r="X3" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="Y3" s="42" t="s">
+      <c r="Y3" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="Z3" s="42" t="s">
+      <c r="Z3" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="AA3" s="42" t="s">
+      <c r="AA3" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="AB3" s="42" t="s">
+      <c r="AB3" s="40" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" s="41" customFormat="1" spans="1:28">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:28" s="39" customFormat="1">
+      <c r="A4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="40">
         <f t="shared" ref="B4:AA4" si="0">COUNTIFS($A9:$A45,"*$*",B9:B45,"")</f>
         <v>0</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="42">
+      <c r="L4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="42">
+      <c r="N4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="42">
+      <c r="O4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="42">
+      <c r="P4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="42">
+      <c r="Q4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="42">
+      <c r="R4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S4" s="42">
+      <c r="S4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T4" s="42">
+      <c r="T4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U4" s="42">
+      <c r="U4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V4" s="42">
+      <c r="V4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W4" s="42">
+      <c r="W4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X4" s="42">
+      <c r="X4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="42">
+      <c r="Y4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="42">
+      <c r="Z4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="42">
+      <c r="AA4" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="42">
+      <c r="AB4" s="40">
         <f>COUNTIFS($A9:$A45,"*$*",AB9:AB45,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="41" customFormat="1" spans="6:28">
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-    </row>
-    <row r="6" s="42" customFormat="1" spans="1:28">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
-    </row>
-    <row r="7" s="41" customFormat="1" spans="1:28">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-    </row>
-    <row r="8" s="43" customFormat="1" spans="1:28">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-    </row>
-    <row r="9" s="41" customFormat="1" spans="1:28">
-      <c r="A9" s="53" t="s">
+    <row r="5" spans="1:28" s="39" customFormat="1">
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+    </row>
+    <row r="6" spans="1:28" s="40" customFormat="1">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+    </row>
+    <row r="7" spans="1:28" s="39" customFormat="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+    </row>
+    <row r="8" spans="1:28" s="41" customFormat="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+    </row>
+    <row r="9" spans="1:28" s="39" customFormat="1">
+      <c r="A9" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="53" t="s">
+      <c r="D9" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="J9" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="K9" s="53" t="s">
+      <c r="J9" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="L9" s="53" t="s">
+      <c r="L9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="M9" s="53" t="s">
+      <c r="M9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="N9" s="53" t="s">
+      <c r="N9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="O9" s="53" t="s">
+      <c r="O9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="P9" s="53" t="s">
+      <c r="P9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="Q9" s="53" t="s">
+      <c r="Q9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="R9" s="53" t="s">
+      <c r="R9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="S9" s="53" t="s">
+      <c r="S9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="T9" s="53" t="s">
+      <c r="T9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="U9" s="53" t="s">
+      <c r="U9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="V9" s="53" t="s">
+      <c r="V9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="W9" s="53" t="s">
+      <c r="W9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="X9" s="53" t="s">
+      <c r="X9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="Y9" s="53" t="s">
+      <c r="Y9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="Z9" s="53" t="s">
+      <c r="Z9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="AA9" s="53" t="s">
+      <c r="AA9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="AB9" s="53" t="s">
+      <c r="AB9" s="51" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" s="44" customFormat="1" spans="1:28">
+    <row r="10" spans="1:28" s="42" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="63"/>
-    </row>
-    <row r="11" s="41" customFormat="1" spans="1:28">
-      <c r="A11" s="53" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="61"/>
+    </row>
+    <row r="11" spans="1:28" s="39" customFormat="1">
+      <c r="A11" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="53" t="s">
+      <c r="D11" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="H11" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="K11" s="53" t="s">
+      <c r="K11" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="L11" s="53" t="s">
+      <c r="L11" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="M11" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="N11" s="53" t="s">
+      <c r="N11" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="O11" s="53" t="s">
+      <c r="O11" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="P11" s="53" t="s">
+      <c r="P11" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="Q11" s="53" t="s">
+      <c r="Q11" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="R11" s="53" t="s">
+      <c r="R11" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="S11" s="53" t="s">
+      <c r="S11" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="T11" s="53" t="s">
+      <c r="T11" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="U11" s="53" t="s">
+      <c r="U11" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="V11" s="53" t="s">
+      <c r="V11" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="W11" s="53" t="s">
+      <c r="W11" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="X11" s="53" t="s">
+      <c r="X11" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="Y11" s="53" t="s">
+      <c r="Y11" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="Z11" s="53" t="s">
+      <c r="Z11" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="AA11" s="53" t="s">
+      <c r="AA11" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="AB11" s="53" t="s">
+      <c r="AB11" s="51" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" s="41" customFormat="1" spans="1:28">
-      <c r="A12" s="53" t="s">
+    <row r="12" spans="1:28" s="39" customFormat="1">
+      <c r="A12" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="56" t="s">
+      <c r="D12" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="K12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="L12" s="56" t="s">
+      <c r="L12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="M12" s="56" t="s">
+      <c r="M12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="N12" s="56" t="s">
+      <c r="N12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="O12" s="56" t="s">
+      <c r="O12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="P12" s="56" t="s">
+      <c r="P12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="Q12" s="56" t="s">
+      <c r="Q12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="R12" s="56" t="s">
+      <c r="R12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="S12" s="56" t="s">
+      <c r="S12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="T12" s="56" t="s">
+      <c r="T12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="U12" s="56" t="s">
+      <c r="U12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="V12" s="56" t="s">
+      <c r="V12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="W12" s="56" t="s">
+      <c r="W12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="X12" s="56" t="s">
+      <c r="X12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="Y12" s="56" t="s">
+      <c r="Y12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="Z12" s="56" t="s">
+      <c r="Z12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="AA12" s="56" t="s">
+      <c r="AA12" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="AB12" s="56" t="s">
+      <c r="AB12" s="54" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="13" s="41" customFormat="1" spans="1:28">
-      <c r="A13" s="53" t="s">
+    <row r="13" spans="1:28" s="39" customFormat="1">
+      <c r="A13" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" s="53" t="s">
+      <c r="D13" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="J13" s="53" t="s">
+      <c r="J13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="K13" s="53" t="s">
+      <c r="K13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="L13" s="53" t="s">
+      <c r="L13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="M13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="N13" s="53" t="s">
+      <c r="N13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="O13" s="53" t="s">
+      <c r="O13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="P13" s="53" t="s">
+      <c r="P13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="Q13" s="53" t="s">
+      <c r="Q13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="R13" s="53" t="s">
+      <c r="R13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="S13" s="53" t="s">
+      <c r="S13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="T13" s="53" t="s">
+      <c r="T13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="U13" s="53" t="s">
+      <c r="U13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="V13" s="53" t="s">
+      <c r="V13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="W13" s="53" t="s">
+      <c r="W13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="X13" s="53" t="s">
+      <c r="X13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="Y13" s="53" t="s">
+      <c r="Y13" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="Z13" s="53" t="s">
+      <c r="Z13" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="AA13" s="53" t="s">
+      <c r="AA13" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="AB13" s="53" t="s">
+      <c r="AB13" s="51" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" s="41" customFormat="1" spans="1:28">
-      <c r="A14" s="53" t="s">
+    <row r="14" spans="1:28" s="39" customFormat="1">
+      <c r="A14" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="53" t="s">
+      <c r="B14" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="I14" s="53" t="s">
+      <c r="I14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="J14" s="53" t="s">
+      <c r="J14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="K14" s="53" t="s">
+      <c r="K14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="L14" s="53" t="s">
+      <c r="L14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="M14" s="53" t="s">
+      <c r="M14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="N14" s="53" t="s">
+      <c r="N14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="O14" s="53" t="s">
+      <c r="O14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="P14" s="53" t="s">
+      <c r="P14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="Q14" s="53" t="s">
+      <c r="Q14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="R14" s="53" t="s">
+      <c r="R14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="S14" s="53" t="s">
+      <c r="S14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="T14" s="53" t="s">
+      <c r="T14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="U14" s="53" t="s">
+      <c r="U14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="V14" s="53" t="s">
+      <c r="V14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="W14" s="53" t="s">
+      <c r="W14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="X14" s="53" t="s">
+      <c r="X14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="Y14" s="53" t="s">
+      <c r="Y14" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="Z14" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA14" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB14" s="53" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" s="41" customFormat="1" spans="1:28">
-      <c r="A15" s="53" t="s">
+      <c r="Z14" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA14" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB14" s="51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="39" customFormat="1">
+      <c r="A15" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="53" t="s">
+      <c r="B15" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="G15" s="53" t="s">
+      <c r="G15" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="K15" s="53" t="s">
+      <c r="K15" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="L15" s="53" t="s">
+      <c r="L15" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="M15" s="53" t="s">
+      <c r="M15" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="N15" s="53" t="s">
+      <c r="N15" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="O15" s="53" t="s">
+      <c r="O15" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="P15" s="53" t="s">
+      <c r="P15" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="Q15" s="53" t="s">
+      <c r="Q15" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="R15" s="53" t="s">
+      <c r="R15" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="S15" s="53" t="s">
+      <c r="S15" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="T15" s="53" t="s">
+      <c r="T15" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="U15" s="53" t="s">
+      <c r="U15" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="V15" s="53" t="s">
+      <c r="V15" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="W15" s="53" t="s">
+      <c r="W15" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="X15" s="53" t="s">
+      <c r="X15" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Y15" s="53" t="s">
+      <c r="Y15" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="Z15" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA15" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB15" s="53" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" s="41" customFormat="1" spans="1:28">
-      <c r="A16" s="53" t="s">
+      <c r="Z15" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA15" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB15" s="51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="39" customFormat="1">
+      <c r="A16" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F16" s="53" t="s">
+      <c r="B16" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="J16" s="53" t="s">
+      <c r="J16" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="K16" s="53" t="s">
+      <c r="K16" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="L16" s="53" t="s">
+      <c r="L16" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="M16" s="53" t="s">
+      <c r="M16" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="N16" s="53" t="s">
+      <c r="N16" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="O16" s="53" t="s">
+      <c r="O16" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="P16" s="53" t="s">
+      <c r="P16" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="Q16" s="53" t="s">
+      <c r="Q16" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="R16" s="53" t="s">
+      <c r="R16" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="S16" s="53" t="s">
+      <c r="S16" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="T16" s="53" t="s">
+      <c r="T16" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="U16" s="53" t="s">
+      <c r="U16" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="V16" s="53" t="s">
+      <c r="V16" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="W16" s="53" t="s">
+      <c r="W16" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="X16" s="53" t="s">
+      <c r="X16" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="Y16" s="53" t="s">
+      <c r="Y16" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="Z16" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA16" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB16" s="53" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" s="41" customFormat="1" spans="1:28">
-      <c r="A17" s="53" t="s">
+      <c r="Z16" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA16" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB16" s="51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="39" customFormat="1">
+      <c r="A17" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="B17" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="53" t="s">
+      <c r="B17" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="G17" s="53" t="s">
+      <c r="G17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="I17" s="53" t="s">
+      <c r="I17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="J17" s="53" t="s">
+      <c r="J17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="L17" s="53" t="s">
+      <c r="L17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="M17" s="53" t="s">
+      <c r="M17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="O17" s="53" t="s">
+      <c r="O17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="P17" s="53" t="s">
+      <c r="P17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="Q17" s="53" t="s">
+      <c r="Q17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="R17" s="53" t="s">
+      <c r="R17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="S17" s="53" t="s">
+      <c r="S17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="T17" s="53" t="s">
+      <c r="T17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="U17" s="53" t="s">
+      <c r="U17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="V17" s="53" t="s">
+      <c r="V17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="W17" s="53" t="s">
+      <c r="W17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="X17" s="53" t="s">
+      <c r="X17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="Y17" s="53" t="s">
+      <c r="Y17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="Z17" s="53" t="s">
+      <c r="Z17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="AA17" s="53" t="s">
+      <c r="AA17" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="AB17" s="53" t="s">
+      <c r="AB17" s="51" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="18" s="41" customFormat="1" spans="1:28">
-      <c r="A18" s="53" t="s">
+    <row r="18" spans="1:28" s="39" customFormat="1">
+      <c r="A18" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F18" s="53" t="s">
+      <c r="B18" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="J18" s="53" t="s">
+      <c r="J18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="K18" s="53" t="s">
+      <c r="K18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="L18" s="53" t="s">
+      <c r="L18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="M18" s="53" t="s">
+      <c r="M18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="N18" s="53" t="s">
+      <c r="N18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="O18" s="53" t="s">
+      <c r="O18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="P18" s="53" t="s">
+      <c r="P18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="Q18" s="53" t="s">
+      <c r="Q18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="R18" s="53" t="s">
+      <c r="R18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="S18" s="53" t="s">
+      <c r="S18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="T18" s="53" t="s">
+      <c r="T18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="U18" s="53" t="s">
+      <c r="U18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="V18" s="53" t="s">
+      <c r="V18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="W18" s="53" t="s">
+      <c r="W18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="X18" s="53" t="s">
+      <c r="X18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="Y18" s="53" t="s">
+      <c r="Y18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="Z18" s="53" t="s">
+      <c r="Z18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="AA18" s="53" t="s">
+      <c r="AA18" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="AB18" s="53" t="s">
+      <c r="AB18" s="51" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="19" s="41" customFormat="1" spans="1:28">
-      <c r="A19" s="53" t="s">
+    <row r="19" spans="1:28" s="39" customFormat="1">
+      <c r="A19" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="B19" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F19" s="53" t="s">
+      <c r="B19" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="H19" s="53" t="s">
+      <c r="H19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="I19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="K19" s="53" t="s">
+      <c r="K19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="L19" s="53" t="s">
+      <c r="L19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="M19" s="53" t="s">
+      <c r="M19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="N19" s="53" t="s">
+      <c r="N19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="O19" s="53" t="s">
+      <c r="O19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="P19" s="53" t="s">
+      <c r="P19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="Q19" s="53" t="s">
+      <c r="Q19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="R19" s="53" t="s">
+      <c r="R19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="S19" s="53" t="s">
+      <c r="S19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="T19" s="53" t="s">
+      <c r="T19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="U19" s="53" t="s">
+      <c r="U19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="V19" s="53" t="s">
+      <c r="V19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="W19" s="53" t="s">
+      <c r="W19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="X19" s="53" t="s">
+      <c r="X19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="Y19" s="53" t="s">
+      <c r="Y19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="Z19" s="53" t="s">
+      <c r="Z19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="AA19" s="53" t="s">
+      <c r="AA19" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="AB19" s="53" t="s">
+      <c r="AB19" s="51" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="20" s="41" customFormat="1" spans="1:28">
-      <c r="A20" s="53" t="s">
+    <row r="20" spans="1:28" s="39" customFormat="1">
+      <c r="A20" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="B20" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="J20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="K20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="L20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="M20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="N20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="O20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="P20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="R20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="S20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="T20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="U20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="V20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="W20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="X20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA20" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB20" s="48" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" s="41" customFormat="1" spans="1:28">
-      <c r="A21" s="53" t="s">
+      <c r="B20" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="N20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="P20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="R20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="S20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="T20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="U20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="V20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="W20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="X20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA20" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB20" s="46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="39" customFormat="1">
+      <c r="A21" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="H21" s="53" t="s">
+      <c r="H21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="I21" s="53" t="s">
+      <c r="I21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="J21" s="53" t="s">
+      <c r="J21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="K21" s="53" t="s">
+      <c r="K21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="L21" s="53" t="s">
+      <c r="L21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="M21" s="53" t="s">
+      <c r="M21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="N21" s="53" t="s">
+      <c r="N21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="O21" s="53" t="s">
+      <c r="O21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="P21" s="53" t="s">
+      <c r="P21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="Q21" s="53" t="s">
+      <c r="Q21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="R21" s="53" t="s">
+      <c r="R21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="S21" s="53" t="s">
+      <c r="S21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="T21" s="53" t="s">
+      <c r="T21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="U21" s="53" t="s">
+      <c r="U21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="V21" s="53" t="s">
+      <c r="V21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="W21" s="53" t="s">
+      <c r="W21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="X21" s="53" t="s">
+      <c r="X21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="Y21" s="53" t="s">
+      <c r="Y21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="Z21" s="53" t="s">
+      <c r="Z21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="AA21" s="53" t="s">
+      <c r="AA21" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="AB21" s="53" t="s">
+      <c r="AB21" s="51" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="22" s="41" customFormat="1" spans="1:28">
-      <c r="A22" s="53" t="s">
+    <row r="22" spans="1:28" s="39" customFormat="1">
+      <c r="A22" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="B22" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="57" t="s">
+      <c r="B22" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="G22" s="57" t="s">
+      <c r="G22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="I22" s="57" t="s">
+      <c r="I22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="K22" s="57" t="s">
+      <c r="K22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="L22" s="57" t="s">
+      <c r="L22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="M22" s="57" t="s">
+      <c r="M22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="N22" s="57" t="s">
+      <c r="N22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="O22" s="57" t="s">
+      <c r="O22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="P22" s="57" t="s">
+      <c r="P22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="Q22" s="57" t="s">
+      <c r="Q22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="R22" s="57" t="s">
+      <c r="R22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="S22" s="57" t="s">
+      <c r="S22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="T22" s="57" t="s">
+      <c r="T22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="U22" s="57" t="s">
+      <c r="U22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="V22" s="57" t="s">
+      <c r="V22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="W22" s="57" t="s">
+      <c r="W22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="X22" s="57" t="s">
+      <c r="X22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="Y22" s="57" t="s">
+      <c r="Y22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="Z22" s="57" t="s">
+      <c r="Z22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="AA22" s="57" t="s">
+      <c r="AA22" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="AB22" s="57" t="s">
+      <c r="AB22" s="55" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="23" s="41" customFormat="1" spans="1:28">
-      <c r="A23" s="53" t="s">
+    <row r="23" spans="1:28" s="39" customFormat="1">
+      <c r="A23" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="58" t="s">
+      <c r="B23" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="H23" s="58" t="s">
+      <c r="H23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="I23" s="58" t="s">
+      <c r="I23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="J23" s="58" t="s">
+      <c r="J23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="K23" s="58" t="s">
+      <c r="K23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="L23" s="58" t="s">
+      <c r="L23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="M23" s="58" t="s">
+      <c r="M23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="N23" s="58" t="s">
+      <c r="N23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="O23" s="58" t="s">
+      <c r="O23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="P23" s="58" t="s">
+      <c r="P23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="Q23" s="58" t="s">
+      <c r="Q23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="R23" s="58" t="s">
+      <c r="R23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="S23" s="58" t="s">
+      <c r="S23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="T23" s="58" t="s">
+      <c r="T23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="U23" s="58" t="s">
+      <c r="U23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="V23" s="58" t="s">
+      <c r="V23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="W23" s="58" t="s">
+      <c r="W23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="X23" s="58" t="s">
+      <c r="X23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="Y23" s="58" t="s">
+      <c r="Y23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="Z23" s="58" t="s">
+      <c r="Z23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="AA23" s="58" t="s">
+      <c r="AA23" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="AB23" s="58" t="s">
+      <c r="AB23" s="56" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="24" s="45" customFormat="1" spans="1:28">
+    <row r="24" spans="1:28" s="43" customFormat="1">
       <c r="A24" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="54"/>
-      <c r="AB24" s="64"/>
-    </row>
-    <row r="25" s="41" customFormat="1" spans="1:28">
-      <c r="A25" s="53" t="s">
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="62"/>
+    </row>
+    <row r="25" spans="1:28" s="39" customFormat="1">
+      <c r="A25" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="D25" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E25" s="53" t="s">
+      <c r="D25" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="I25" s="53" t="s">
+      <c r="I25" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="K25" s="53" t="s">
+      <c r="K25" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="L25" s="53" t="s">
+      <c r="L25" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="M25" s="53" t="s">
+      <c r="M25" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="N25" s="53" t="s">
+      <c r="N25" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="O25" s="53" t="s">
+      <c r="O25" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="P25" s="53" t="s">
+      <c r="P25" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="Q25" s="53" t="s">
+      <c r="Q25" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="R25" s="53" t="s">
+      <c r="R25" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="S25" s="53" t="s">
+      <c r="S25" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="T25" s="53" t="s">
+      <c r="T25" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="U25" s="53" t="s">
+      <c r="U25" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="V25" s="53" t="s">
+      <c r="V25" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="W25" s="53" t="s">
+      <c r="W25" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="X25" s="53" t="s">
+      <c r="X25" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="Y25" s="53" t="s">
+      <c r="Y25" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="Z25" s="53" t="s">
+      <c r="Z25" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="AA25" s="53" t="s">
+      <c r="AA25" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="AB25" s="53" t="s">
+      <c r="AB25" s="51" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="26" s="41" customFormat="1" spans="1:28">
-      <c r="A26" s="53" t="s">
+    <row r="26" spans="1:28" s="39" customFormat="1">
+      <c r="A26" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="D26" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E26" s="53" t="s">
+      <c r="D26" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="I26" s="53" t="s">
+      <c r="I26" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="J26" s="53" t="s">
+      <c r="J26" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="K26" s="53" t="s">
+      <c r="K26" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="L26" s="53" t="s">
+      <c r="L26" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="M26" s="53" t="s">
+      <c r="M26" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="N26" s="53" t="s">
+      <c r="N26" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="O26" s="53" t="s">
+      <c r="O26" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="P26" s="53" t="s">
+      <c r="P26" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="Q26" s="53" t="s">
+      <c r="Q26" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="R26" s="53" t="s">
+      <c r="R26" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="S26" s="53" t="s">
+      <c r="S26" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="T26" s="53" t="s">
+      <c r="T26" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="U26" s="53" t="s">
+      <c r="U26" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="V26" s="53" t="s">
+      <c r="V26" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="W26" s="53" t="s">
+      <c r="W26" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="X26" s="53" t="s">
+      <c r="X26" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="Y26" s="53" t="s">
+      <c r="Y26" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="Z26" s="53" t="s">
+      <c r="Z26" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="AA26" s="53" t="s">
+      <c r="AA26" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="AB26" s="53" t="s">
+      <c r="AB26" s="51" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="27" s="41" customFormat="1" spans="1:28">
-      <c r="A27" s="53" t="s">
+    <row r="27" spans="1:28" s="39" customFormat="1">
+      <c r="A27" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="D27" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E27" s="53" t="s">
+      <c r="D27" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="F27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="G27" s="53" t="s">
+      <c r="G27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="J27" s="53" t="s">
+      <c r="J27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="K27" s="53" t="s">
+      <c r="K27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="L27" s="53" t="s">
+      <c r="L27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="M27" s="53" t="s">
+      <c r="M27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="N27" s="53" t="s">
+      <c r="N27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="O27" s="53" t="s">
+      <c r="O27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="P27" s="53" t="s">
+      <c r="P27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="Q27" s="53" t="s">
+      <c r="Q27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="R27" s="53" t="s">
+      <c r="R27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="S27" s="53" t="s">
+      <c r="S27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="T27" s="53" t="s">
+      <c r="T27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="U27" s="53" t="s">
+      <c r="U27" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="V27" s="53" t="s">
+      <c r="V27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="W27" s="53" t="s">
+      <c r="W27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="X27" s="53" t="s">
+      <c r="X27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="Y27" s="53" t="s">
+      <c r="Y27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="Z27" s="53" t="s">
+      <c r="Z27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="AA27" s="53" t="s">
+      <c r="AA27" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="AB27" s="53" t="s">
+      <c r="AB27" s="51" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="28" s="41" customFormat="1" spans="1:28">
-      <c r="A28" s="53" t="s">
+    <row r="28" spans="1:28" s="39" customFormat="1">
+      <c r="A28" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="B28" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F28" s="53" t="s">
+      <c r="B28" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="H28" s="53" t="s">
+      <c r="H28" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="I28" s="53" t="s">
+      <c r="I28" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="J28" s="53" t="s">
+      <c r="J28" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="K28" s="53" t="s">
+      <c r="K28" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="L28" s="53" t="s">
+      <c r="L28" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="M28" s="53" t="s">
+      <c r="M28" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="N28" s="53" t="s">
+      <c r="N28" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="O28" s="53" t="s">
+      <c r="O28" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="P28" s="53" t="s">
+      <c r="P28" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="Q28" s="53" t="s">
+      <c r="Q28" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="R28" s="53" t="s">
+      <c r="R28" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="S28" s="53" t="s">
+      <c r="S28" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="T28" s="53" t="s">
+      <c r="T28" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="U28" s="53" t="s">
+      <c r="U28" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="V28" s="53" t="s">
+      <c r="V28" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="W28" s="53" t="s">
+      <c r="W28" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="X28" s="53" t="s">
+      <c r="X28" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="Y28" s="53" t="s">
+      <c r="Y28" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="Z28" s="53" t="s">
+      <c r="Z28" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="AA28" s="53" t="s">
+      <c r="AA28" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="AB28" s="53" t="s">
+      <c r="AB28" s="51" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="29" s="41" customFormat="1" spans="1:28">
-      <c r="A29" s="53" t="s">
+    <row r="29" spans="1:28" s="39" customFormat="1">
+      <c r="A29" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="B29" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" s="53" t="s">
+      <c r="B29" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="I29" s="53" t="s">
+      <c r="I29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="J29" s="53" t="s">
+      <c r="J29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="K29" s="53" t="s">
+      <c r="K29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="L29" s="53" t="s">
+      <c r="L29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="M29" s="53" t="s">
+      <c r="M29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="N29" s="53" t="s">
+      <c r="N29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="O29" s="53" t="s">
+      <c r="O29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="P29" s="53" t="s">
+      <c r="P29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="Q29" s="53" t="s">
+      <c r="Q29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="R29" s="53" t="s">
+      <c r="R29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="S29" s="53" t="s">
+      <c r="S29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="T29" s="53" t="s">
+      <c r="T29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="U29" s="53" t="s">
+      <c r="U29" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="V29" s="53" t="s">
+      <c r="V29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="W29" s="53" t="s">
+      <c r="W29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="X29" s="53" t="s">
+      <c r="X29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="Y29" s="53" t="s">
+      <c r="Y29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="Z29" s="53" t="s">
+      <c r="Z29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="AA29" s="53" t="s">
+      <c r="AA29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="AB29" s="53" t="s">
+      <c r="AB29" s="51" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="30" s="41" customFormat="1" spans="1:28">
-      <c r="A30" s="53" t="s">
+    <row r="30" spans="1:28" s="39" customFormat="1">
+      <c r="A30" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E30" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F30" s="53" t="s">
+      <c r="B30" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="H30" s="53" t="s">
+      <c r="H30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="I30" s="53" t="s">
+      <c r="I30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="J30" s="53" t="s">
+      <c r="J30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="K30" s="53" t="s">
+      <c r="K30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="L30" s="53" t="s">
+      <c r="L30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="M30" s="53" t="s">
+      <c r="M30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="N30" s="53" t="s">
+      <c r="N30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="O30" s="53" t="s">
+      <c r="O30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="P30" s="53" t="s">
+      <c r="P30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="Q30" s="53" t="s">
+      <c r="Q30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="R30" s="53" t="s">
+      <c r="R30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="S30" s="53" t="s">
+      <c r="S30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="T30" s="53" t="s">
+      <c r="T30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="U30" s="53" t="s">
+      <c r="U30" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="V30" s="53" t="s">
+      <c r="V30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="W30" s="53" t="s">
+      <c r="W30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="X30" s="53" t="s">
+      <c r="X30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="Y30" s="53" t="s">
+      <c r="Y30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="Z30" s="53" t="s">
+      <c r="Z30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="AA30" s="53" t="s">
+      <c r="AA30" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="AB30" s="53" t="s">
+      <c r="AB30" s="51" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="31" s="41" customFormat="1" spans="1:28">
-      <c r="A31" s="53" t="s">
+    <row r="31" spans="1:28" s="39" customFormat="1">
+      <c r="A31" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E31" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" s="53" t="s">
+      <c r="B31" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="H31" s="53" t="s">
+      <c r="H31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="I31" s="53" t="s">
+      <c r="I31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="J31" s="53" t="s">
+      <c r="J31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="K31" s="53" t="s">
+      <c r="K31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="L31" s="53" t="s">
+      <c r="L31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="M31" s="53" t="s">
+      <c r="M31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="N31" s="53" t="s">
+      <c r="N31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="O31" s="53" t="s">
+      <c r="O31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="P31" s="53" t="s">
+      <c r="P31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="Q31" s="53" t="s">
+      <c r="Q31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="R31" s="53" t="s">
+      <c r="R31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="S31" s="53" t="s">
+      <c r="S31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="T31" s="53" t="s">
+      <c r="T31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="U31" s="53" t="s">
+      <c r="U31" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="V31" s="53" t="s">
+      <c r="V31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="W31" s="53" t="s">
+      <c r="W31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="X31" s="53" t="s">
+      <c r="X31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="Y31" s="53" t="s">
+      <c r="Y31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="Z31" s="53" t="s">
+      <c r="Z31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="AA31" s="53" t="s">
+      <c r="AA31" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="AB31" s="53" t="s">
+      <c r="AB31" s="51" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="32" s="41" customFormat="1" spans="1:28">
-      <c r="A32" s="53" t="s">
+    <row r="32" spans="1:28" s="39" customFormat="1">
+      <c r="A32" s="51" t="s">
         <v>289</v>
       </c>
-      <c r="B32" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F32" s="53" t="s">
+      <c r="B32" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="H32" s="53" t="s">
+      <c r="H32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="I32" s="53" t="s">
+      <c r="I32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="J32" s="53" t="s">
+      <c r="J32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="K32" s="53" t="s">
+      <c r="K32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="L32" s="53" t="s">
+      <c r="L32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="M32" s="53" t="s">
+      <c r="M32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="N32" s="53" t="s">
+      <c r="N32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="O32" s="53" t="s">
+      <c r="O32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="P32" s="53" t="s">
+      <c r="P32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="Q32" s="53" t="s">
+      <c r="Q32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="R32" s="53" t="s">
+      <c r="R32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="S32" s="53" t="s">
+      <c r="S32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="T32" s="53" t="s">
+      <c r="T32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="U32" s="53" t="s">
+      <c r="U32" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="V32" s="53" t="s">
+      <c r="V32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="W32" s="53" t="s">
+      <c r="W32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="X32" s="53" t="s">
+      <c r="X32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="Y32" s="53" t="s">
+      <c r="Y32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="Z32" s="53" t="s">
+      <c r="Z32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="AA32" s="53" t="s">
+      <c r="AA32" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="AB32" s="53" t="s">
+      <c r="AB32" s="51" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="33" s="41" customFormat="1" spans="1:28">
-      <c r="A33" s="53" t="s">
+    <row r="33" spans="1:28" s="39" customFormat="1">
+      <c r="A33" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" s="53" t="s">
+      <c r="B33" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="I33" s="53" t="s">
+      <c r="I33" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="J33" s="53" t="s">
+      <c r="J33" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="K33" s="53" t="s">
+      <c r="K33" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="L33" s="53" t="s">
+      <c r="L33" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="M33" s="53" t="s">
+      <c r="M33" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="N33" s="53" t="s">
+      <c r="N33" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="O33" s="53" t="s">
+      <c r="O33" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="P33" s="53" t="s">
+      <c r="P33" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="Q33" s="53" t="s">
+      <c r="Q33" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="R33" s="53" t="s">
+      <c r="R33" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="S33" s="53" t="s">
+      <c r="S33" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="T33" s="53" t="s">
+      <c r="T33" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="U33" s="53" t="s">
+      <c r="U33" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="V33" s="53" t="s">
+      <c r="V33" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="W33" s="53" t="s">
+      <c r="W33" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="X33" s="53" t="s">
+      <c r="X33" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="Y33" s="53" t="s">
+      <c r="Y33" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="Z33" s="53" t="s">
+      <c r="Z33" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="AA33" s="53" t="s">
+      <c r="AA33" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="AB33" s="53" t="s">
+      <c r="AB33" s="51" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="34" s="41" customFormat="1" spans="1:28">
-      <c r="A34" s="53" t="s">
+    <row r="34" spans="1:28" s="39" customFormat="1">
+      <c r="A34" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="D34" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E34" s="53" t="s">
+      <c r="D34" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="F34" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="G34" s="53" t="s">
+      <c r="G34" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="I34" s="53" t="s">
+      <c r="I34" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="J34" s="53" t="s">
+      <c r="J34" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="K34" s="53" t="s">
+      <c r="K34" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="L34" s="53" t="s">
+      <c r="L34" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="M34" s="53" t="s">
+      <c r="M34" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="N34" s="53" t="s">
+      <c r="N34" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="O34" s="53" t="s">
+      <c r="O34" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="P34" s="53" t="s">
+      <c r="P34" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="Q34" s="53" t="s">
+      <c r="Q34" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="R34" s="53" t="s">
+      <c r="R34" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="S34" s="53" t="s">
+      <c r="S34" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="T34" s="53" t="s">
+      <c r="T34" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="U34" s="53" t="s">
+      <c r="U34" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="V34" s="53" t="s">
+      <c r="V34" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="W34" s="53" t="s">
+      <c r="W34" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="X34" s="53" t="s">
+      <c r="X34" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="Y34" s="53" t="s">
+      <c r="Y34" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="Z34" s="53" t="s">
+      <c r="Z34" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="AA34" s="53" t="s">
+      <c r="AA34" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="AB34" s="53" t="s">
+      <c r="AB34" s="51" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="35" s="41" customFormat="1" spans="1:28">
-      <c r="A35" s="53" t="s">
+    <row r="35" spans="1:28" s="39" customFormat="1">
+      <c r="A35" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="D35" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E35" s="53" t="s">
+      <c r="D35" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="G35" s="53" t="s">
+      <c r="G35" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="H35" s="53" t="s">
+      <c r="H35" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="I35" s="53" t="s">
+      <c r="I35" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="J35" s="53" t="s">
+      <c r="J35" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="K35" s="53" t="s">
+      <c r="K35" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="L35" s="53" t="s">
+      <c r="L35" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="M35" s="53" t="s">
+      <c r="M35" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="N35" s="53" t="s">
+      <c r="N35" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="O35" s="53" t="s">
+      <c r="O35" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="P35" s="53" t="s">
+      <c r="P35" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="Q35" s="53" t="s">
+      <c r="Q35" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="R35" s="53" t="s">
+      <c r="R35" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="S35" s="53" t="s">
+      <c r="S35" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="T35" s="53" t="s">
+      <c r="T35" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="U35" s="53" t="s">
+      <c r="U35" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="V35" s="53" t="s">
+      <c r="V35" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="W35" s="53" t="s">
+      <c r="W35" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="X35" s="53" t="s">
+      <c r="X35" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="Y35" s="53" t="s">
+      <c r="Y35" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="Z35" s="53" t="s">
+      <c r="Z35" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="AA35" s="53" t="s">
+      <c r="AA35" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="AB35" s="53" t="s">
+      <c r="AB35" s="51" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="36" s="41" customFormat="1" spans="1:28">
-      <c r="A36" s="53" t="s">
+    <row r="36" spans="1:28" s="39" customFormat="1">
+      <c r="A36" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="B36" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F36" s="53" t="s">
+      <c r="B36" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="G36" s="53" t="s">
+      <c r="G36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="H36" s="53" t="s">
+      <c r="H36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="I36" s="53" t="s">
+      <c r="I36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="J36" s="53" t="s">
+      <c r="J36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="K36" s="53" t="s">
+      <c r="K36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="L36" s="53" t="s">
+      <c r="L36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="M36" s="53" t="s">
+      <c r="M36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="N36" s="53" t="s">
+      <c r="N36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="O36" s="53" t="s">
+      <c r="O36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="P36" s="53" t="s">
+      <c r="P36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="Q36" s="53" t="s">
+      <c r="Q36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="R36" s="53" t="s">
+      <c r="R36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="S36" s="53" t="s">
+      <c r="S36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="T36" s="53" t="s">
+      <c r="T36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="U36" s="53" t="s">
+      <c r="U36" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="V36" s="53" t="s">
+      <c r="V36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="W36" s="53" t="s">
+      <c r="W36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="X36" s="53" t="s">
+      <c r="X36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="Y36" s="53" t="s">
+      <c r="Y36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="Z36" s="53" t="s">
+      <c r="Z36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="AA36" s="53" t="s">
+      <c r="AA36" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="AB36" s="53" t="s">
+      <c r="AB36" s="51" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="37" s="41" customFormat="1" spans="1:28">
-      <c r="A37" s="53" t="s">
+    <row r="37" spans="1:28" s="39" customFormat="1">
+      <c r="A37" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E37" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" s="53" t="s">
+      <c r="B37" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="G37" s="53" t="s">
+      <c r="G37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="H37" s="53" t="s">
+      <c r="H37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="I37" s="53" t="s">
+      <c r="I37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="J37" s="53" t="s">
+      <c r="J37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="K37" s="53" t="s">
+      <c r="K37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="L37" s="53" t="s">
+      <c r="L37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="M37" s="53" t="s">
+      <c r="M37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="N37" s="53" t="s">
+      <c r="N37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="O37" s="53" t="s">
+      <c r="O37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="P37" s="53" t="s">
+      <c r="P37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="Q37" s="53" t="s">
+      <c r="Q37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="R37" s="53" t="s">
+      <c r="R37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="S37" s="53" t="s">
+      <c r="S37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="T37" s="53" t="s">
+      <c r="T37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="U37" s="53" t="s">
+      <c r="U37" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="V37" s="53" t="s">
+      <c r="V37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="W37" s="53" t="s">
+      <c r="W37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="X37" s="53" t="s">
+      <c r="X37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="Y37" s="53" t="s">
+      <c r="Y37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="Z37" s="53" t="s">
+      <c r="Z37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="AA37" s="53" t="s">
+      <c r="AA37" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="AB37" s="53" t="s">
+      <c r="AB37" s="51" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="38" s="41" customFormat="1" spans="1:28">
-      <c r="A38" s="53" t="s">
+    <row r="38" spans="1:28" s="39" customFormat="1">
+      <c r="A38" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="D38" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E38" s="53" t="s">
+      <c r="D38" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="F38" s="53" t="s">
+      <c r="F38" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="G38" s="53" t="s">
+      <c r="G38" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="H38" s="53" t="s">
+      <c r="H38" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="I38" s="53" t="s">
+      <c r="I38" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="J38" s="53" t="s">
+      <c r="J38" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="K38" s="53" t="s">
+      <c r="K38" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="L38" s="53" t="s">
+      <c r="L38" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="M38" s="53" t="s">
+      <c r="M38" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="N38" s="53" t="s">
+      <c r="N38" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="O38" s="53" t="s">
+      <c r="O38" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="P38" s="53" t="s">
+      <c r="P38" s="51" t="s">
         <v>329</v>
       </c>
-      <c r="Q38" s="53" t="s">
+      <c r="Q38" s="51" t="s">
         <v>329</v>
       </c>
-      <c r="R38" s="53" t="s">
+      <c r="R38" s="51" t="s">
         <v>329</v>
       </c>
-      <c r="S38" s="53" t="s">
+      <c r="S38" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="T38" s="53" t="s">
+      <c r="T38" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="U38" s="53" t="s">
+      <c r="U38" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="V38" s="53" t="s">
+      <c r="V38" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="W38" s="53" t="s">
+      <c r="W38" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="X38" s="53" t="s">
+      <c r="X38" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="Y38" s="53" t="s">
+      <c r="Y38" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="Z38" s="53" t="s">
+      <c r="Z38" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="AA38" s="53" t="s">
+      <c r="AA38" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="AB38" s="53" t="s">
+      <c r="AB38" s="51" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="39" s="41" customFormat="1" spans="1:28">
-      <c r="A39" s="53" t="s">
+    <row r="39" spans="1:28" s="39" customFormat="1">
+      <c r="A39" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="B39" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C39" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D39" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F39" s="53" t="s">
+      <c r="B39" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="H39" s="53" t="s">
+      <c r="H39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="I39" s="53" t="s">
+      <c r="I39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="J39" s="53" t="s">
+      <c r="J39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="K39" s="53" t="s">
+      <c r="K39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="L39" s="53" t="s">
+      <c r="L39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="M39" s="53" t="s">
+      <c r="M39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="N39" s="53" t="s">
+      <c r="N39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="O39" s="53" t="s">
+      <c r="O39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="P39" s="53" t="s">
+      <c r="P39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="Q39" s="53" t="s">
+      <c r="Q39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="R39" s="53" t="s">
+      <c r="R39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="S39" s="53" t="s">
+      <c r="S39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="T39" s="53" t="s">
+      <c r="T39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="U39" s="53" t="s">
+      <c r="U39" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="V39" s="53" t="s">
+      <c r="V39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="W39" s="53" t="s">
+      <c r="W39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="X39" s="53" t="s">
+      <c r="X39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="Y39" s="53" t="s">
+      <c r="Y39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="Z39" s="53" t="s">
+      <c r="Z39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="AA39" s="53" t="s">
+      <c r="AA39" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="AB39" s="53" t="s">
+      <c r="AB39" s="51" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="40" s="41" customFormat="1" spans="1:28">
-      <c r="A40" s="53" t="s">
+    <row r="40" spans="1:28" s="39" customFormat="1">
+      <c r="A40" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="D40" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="53" t="s">
+      <c r="D40" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="F40" s="59" t="s">
+      <c r="F40" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="H40" s="59" t="s">
+      <c r="H40" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="I40" s="59" t="s">
+      <c r="I40" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="J40" s="59" t="s">
+      <c r="J40" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="K40" s="59" t="s">
+      <c r="K40" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="L40" s="59" t="s">
+      <c r="L40" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="M40" s="62" t="s">
+      <c r="M40" s="60" t="s">
         <v>337</v>
       </c>
-      <c r="N40" s="62" t="s">
+      <c r="N40" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="O40" s="62" t="s">
+      <c r="O40" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="P40" s="62" t="s">
+      <c r="P40" s="60" t="s">
         <v>338</v>
       </c>
-      <c r="Q40" s="62" t="s">
+      <c r="Q40" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="R40" s="62" t="s">
+      <c r="R40" s="60" t="s">
         <v>339</v>
       </c>
-      <c r="S40" s="62" t="s">
+      <c r="S40" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="T40" s="62" t="s">
+      <c r="T40" s="60" t="s">
         <v>336</v>
       </c>
-      <c r="U40" s="59" t="s">
+      <c r="U40" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="V40" s="59" t="s">
+      <c r="V40" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="W40" s="59" t="s">
+      <c r="W40" s="57" t="s">
         <v>341</v>
       </c>
-      <c r="X40" s="59" t="s">
+      <c r="X40" s="57" t="s">
         <v>342</v>
       </c>
-      <c r="Y40" s="59" t="s">
+      <c r="Y40" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="Z40" s="59" t="s">
+      <c r="Z40" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="AA40" s="59" t="s">
+      <c r="AA40" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="AB40" s="59" t="s">
+      <c r="AB40" s="57" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="41" s="41" customFormat="1" spans="1:28">
-      <c r="A41" s="53" t="s">
+    <row r="41" spans="1:28" s="39" customFormat="1">
+      <c r="A41" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="B41" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E41" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F41" s="53" t="s">
+      <c r="B41" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="G41" s="53" t="s">
+      <c r="G41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="H41" s="53" t="s">
+      <c r="H41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="I41" s="53" t="s">
+      <c r="I41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="J41" s="53" t="s">
+      <c r="J41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="K41" s="53" t="s">
+      <c r="K41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="L41" s="53" t="s">
+      <c r="L41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="M41" s="53" t="s">
+      <c r="M41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="N41" s="53" t="s">
+      <c r="N41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="O41" s="53" t="s">
+      <c r="O41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="P41" s="53" t="s">
+      <c r="P41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="Q41" s="53" t="s">
+      <c r="Q41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="R41" s="53" t="s">
+      <c r="R41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="S41" s="53" t="s">
+      <c r="S41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="T41" s="53" t="s">
+      <c r="T41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="U41" s="53" t="s">
+      <c r="U41" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="V41" s="53" t="s">
+      <c r="V41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="W41" s="53" t="s">
+      <c r="W41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="X41" s="53" t="s">
+      <c r="X41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="Y41" s="53" t="s">
+      <c r="Y41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="Z41" s="53" t="s">
+      <c r="Z41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="AA41" s="53" t="s">
+      <c r="AA41" s="51" t="s">
         <v>345</v>
       </c>
-      <c r="AB41" s="53" t="s">
+      <c r="AB41" s="51" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="42" s="41" customFormat="1" spans="1:28">
-      <c r="A42" s="53" t="s">
+    <row r="42" spans="1:28" s="39" customFormat="1">
+      <c r="A42" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="B42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="G42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="H42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="I42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="J42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="K42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="L42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="M42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="N42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="O42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="P42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="R42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="S42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="T42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="U42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="V42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="W42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="X42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA42" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB42" s="53" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" s="41" customFormat="1" spans="1:28">
-      <c r="A43" s="53" t="s">
+      <c r="B42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="I42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="J42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="K42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="L42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="M42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="N42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="O42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="P42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="R42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="S42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="T42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="U42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="V42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="W42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="X42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA42" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB42" s="51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" s="39" customFormat="1">
+      <c r="A43" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="B43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="G43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="H43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="I43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="J43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="K43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="L43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="M43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="N43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="O43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="P43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="R43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="S43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="T43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="U43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="V43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="W43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="X43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA43" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB43" s="53" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" s="46" customFormat="1" spans="1:28">
-      <c r="A44" s="60" t="s">
+      <c r="B43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="I43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="J43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="K43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="L43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="M43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="N43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="O43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="P43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="R43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="S43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="T43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="U43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="V43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="W43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="X43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA43" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB43" s="51" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" s="44" customFormat="1">
+      <c r="A44" s="58" t="s">
         <v>350</v>
       </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="61"/>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="61"/>
-      <c r="S44" s="61"/>
-      <c r="T44" s="61"/>
-      <c r="U44" s="61"/>
-      <c r="V44" s="61"/>
-      <c r="W44" s="61"/>
-      <c r="X44" s="61"/>
-      <c r="Y44" s="61"/>
-      <c r="Z44" s="61"/>
-      <c r="AA44" s="61"/>
-      <c r="AB44" s="61"/>
-    </row>
-    <row r="45" s="41" customFormat="1" spans="1:28">
-      <c r="A45" s="53" t="s">
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="59"/>
+      <c r="R44" s="59"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="59"/>
+      <c r="X44" s="59"/>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="59"/>
+      <c r="AA44" s="59"/>
+      <c r="AB44" s="59"/>
+    </row>
+    <row r="45" spans="1:28" s="39" customFormat="1">
+      <c r="A45" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="B45" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D45" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="F45" s="53" t="s">
+      <c r="B45" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="G45" s="53" t="s">
+      <c r="G45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="H45" s="53" t="s">
+      <c r="H45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="I45" s="53" t="s">
+      <c r="I45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="J45" s="53" t="s">
+      <c r="J45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="K45" s="53" t="s">
+      <c r="K45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="L45" s="53" t="s">
+      <c r="L45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="M45" s="53" t="s">
+      <c r="M45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="N45" s="53" t="s">
+      <c r="N45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="O45" s="53" t="s">
+      <c r="O45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="P45" s="53" t="s">
+      <c r="P45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="Q45" s="53" t="s">
+      <c r="Q45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="R45" s="53" t="s">
+      <c r="R45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="S45" s="53" t="s">
+      <c r="S45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="T45" s="53" t="s">
+      <c r="T45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="U45" s="53" t="s">
+      <c r="U45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="V45" s="53" t="s">
+      <c r="V45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="W45" s="53" t="s">
+      <c r="W45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="X45" s="53" t="s">
+      <c r="X45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="Y45" s="53" t="s">
+      <c r="Y45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="Z45" s="53" t="s">
+      <c r="Z45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="AA45" s="53" t="s">
+      <c r="AA45" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="AB45" s="53" t="s">
+      <c r="AB45" s="51" t="s">
         <v>352</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="F23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="F40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="G22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="G23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="H22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="H23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="I22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="I23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="J22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="J23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="M22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="M23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="M40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="N22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="N23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="N40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="O22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="O23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="O40" r:id="rId3" display="&quot;MARVIN.SUTANTO@DOCSOL.ID&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="P22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="P23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="P40" r:id="rId3" display="&quot;MARVIN.SUTANTO@DOCSOL.ID&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="Q22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="Q23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="Q40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="K22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="K23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="L22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="L23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="R22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="R23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="R40" r:id="rId3" display="&quot;MARVIN.SUTANTO@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="S22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="S23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="S40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="T22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="T23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="T40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="U22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="U23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="U40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="V22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="V23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="V40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;EDUARDUS.AXEL@GMAIL.COM&quot;"/>
-    <hyperlink ref="W22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="W23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="W40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;&quot;"/>
-    <hyperlink ref="X22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="X23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="X40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;HELMI.AA@AD-INS.COM&quot;"/>
-    <hyperlink ref="G40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="H40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="I40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="J40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="K40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="L40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="Y22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="Y23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="Y40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="Z22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="Z23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="AA22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="AA23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="Z40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AA40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;"/>
-    <hyperlink ref="AB22" r:id="rId1" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/ResumeESignProcess?trxNo=WS-ANDY-TKNAJ-0001&quot;"/>
-    <hyperlink ref="AB23" r:id="rId2" display="&quot;http://storm20/WOMF/ESIGN/api/ESign/UploadDocToDms&quot;"/>
-    <hyperlink ref="AB40" r:id="rId3" display="&quot;ANDY@AD-INS.COM&quot;;&quot;USERCJAH@GMAIL.COM&quot;;&quot;VIDA.AACC@ESIGNHUB.MY.ID&quot;"/>
+    <hyperlink ref="F22" r:id="rId1"/>
+    <hyperlink ref="F23" r:id="rId2"/>
+    <hyperlink ref="F40" r:id="rId3"/>
+    <hyperlink ref="G22" r:id="rId4"/>
+    <hyperlink ref="G23" r:id="rId5"/>
+    <hyperlink ref="H22" r:id="rId6"/>
+    <hyperlink ref="H23" r:id="rId7"/>
+    <hyperlink ref="I22" r:id="rId8"/>
+    <hyperlink ref="I23" r:id="rId9"/>
+    <hyperlink ref="J22" r:id="rId10"/>
+    <hyperlink ref="J23" r:id="rId11"/>
+    <hyperlink ref="M22" r:id="rId12"/>
+    <hyperlink ref="M23" r:id="rId13"/>
+    <hyperlink ref="M40" r:id="rId14"/>
+    <hyperlink ref="N22" r:id="rId15"/>
+    <hyperlink ref="N23" r:id="rId16"/>
+    <hyperlink ref="N40" r:id="rId17"/>
+    <hyperlink ref="O22" r:id="rId18"/>
+    <hyperlink ref="O23" r:id="rId19"/>
+    <hyperlink ref="O40" r:id="rId20"/>
+    <hyperlink ref="P22" r:id="rId21"/>
+    <hyperlink ref="P23" r:id="rId22"/>
+    <hyperlink ref="P40" r:id="rId23"/>
+    <hyperlink ref="Q22" r:id="rId24"/>
+    <hyperlink ref="Q23" r:id="rId25"/>
+    <hyperlink ref="Q40" r:id="rId26"/>
+    <hyperlink ref="K22" r:id="rId27"/>
+    <hyperlink ref="K23" r:id="rId28"/>
+    <hyperlink ref="L22" r:id="rId29"/>
+    <hyperlink ref="L23" r:id="rId30"/>
+    <hyperlink ref="R22" r:id="rId31"/>
+    <hyperlink ref="R23" r:id="rId32"/>
+    <hyperlink ref="R40" r:id="rId33"/>
+    <hyperlink ref="S22" r:id="rId34"/>
+    <hyperlink ref="S23" r:id="rId35"/>
+    <hyperlink ref="S40" r:id="rId36"/>
+    <hyperlink ref="T22" r:id="rId37"/>
+    <hyperlink ref="T23" r:id="rId38"/>
+    <hyperlink ref="T40" r:id="rId39"/>
+    <hyperlink ref="U22" r:id="rId40"/>
+    <hyperlink ref="U23" r:id="rId41"/>
+    <hyperlink ref="U40" r:id="rId42"/>
+    <hyperlink ref="V22" r:id="rId43"/>
+    <hyperlink ref="V23" r:id="rId44"/>
+    <hyperlink ref="V40" r:id="rId45"/>
+    <hyperlink ref="W22" r:id="rId46"/>
+    <hyperlink ref="W23" r:id="rId47"/>
+    <hyperlink ref="W40" r:id="rId48"/>
+    <hyperlink ref="X22" r:id="rId49"/>
+    <hyperlink ref="X23" r:id="rId50"/>
+    <hyperlink ref="X40" r:id="rId51"/>
+    <hyperlink ref="G40" r:id="rId52"/>
+    <hyperlink ref="H40" r:id="rId53"/>
+    <hyperlink ref="I40" r:id="rId54"/>
+    <hyperlink ref="J40" r:id="rId55"/>
+    <hyperlink ref="K40" r:id="rId56"/>
+    <hyperlink ref="L40" r:id="rId57"/>
+    <hyperlink ref="Y22" r:id="rId58"/>
+    <hyperlink ref="Y23" r:id="rId59"/>
+    <hyperlink ref="Y40" r:id="rId60"/>
+    <hyperlink ref="Z22" r:id="rId61"/>
+    <hyperlink ref="Z23" r:id="rId62"/>
+    <hyperlink ref="AA22" r:id="rId63"/>
+    <hyperlink ref="AA23" r:id="rId64"/>
+    <hyperlink ref="Z40" r:id="rId65"/>
+    <hyperlink ref="AA40" r:id="rId66"/>
+    <hyperlink ref="AB22" r:id="rId67"/>
+    <hyperlink ref="AB23" r:id="rId68"/>
+    <hyperlink ref="AB40" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="R1" sqref="R1:R53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="18" width="22" customWidth="1" collapsed="1"/>
   </cols>
@@ -9349,7 +9230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="50.25" customHeight="1" spans="1:18">
+    <row r="3" spans="1:18" ht="50.25" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -9734,23 +9615,23 @@
       <c r="A12" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="5" t="s">
@@ -9804,7 +9685,7 @@
       <c r="Q13" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="R13" s="68" t="s">
+      <c r="R13" s="66" t="s">
         <v>405</v>
       </c>
     </row>
@@ -10313,7 +10194,7 @@
       </c>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>105</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -10369,7 +10250,7 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>289</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -10425,7 +10306,7 @@
       </c>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>267</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -10503,7 +10384,7 @@
       <c r="R26" s="16"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>118</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -10559,7 +10440,7 @@
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="37" t="s">
         <v>121</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -10615,7 +10496,7 @@
       </c>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>122</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -10671,7 +10552,7 @@
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="37" t="s">
         <v>123</v>
       </c>
       <c r="B30" s="5"/>
@@ -10717,7 +10598,7 @@
       </c>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="31" t="s">
         <v>125</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -10773,7 +10654,7 @@
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="31" t="s">
         <v>126</v>
       </c>
       <c r="B32" s="5"/>
@@ -10781,45 +10662,45 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="65" t="s">
+      <c r="G32" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="H32" s="65" t="s">
+      <c r="H32" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="J32" s="65" t="s">
+      <c r="J32" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="K32" s="65" t="s">
+      <c r="K32" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="L32" s="65" t="s">
+      <c r="L32" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="M32" s="65" t="s">
+      <c r="M32" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="65" t="s">
+      <c r="N32" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="O32" s="65" t="s">
+      <c r="O32" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="P32" s="65" t="s">
+      <c r="P32" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="Q32" s="65" t="s">
+      <c r="Q32" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="R32" s="65" t="s">
+      <c r="R32" s="63" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="5"/>
@@ -10865,7 +10746,7 @@
       </c>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="38" t="s">
         <v>470</v>
       </c>
       <c r="B34" s="16"/>
@@ -11107,7 +10988,7 @@
       <c r="R44" s="5"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="31" t="s">
         <v>105</v>
       </c>
       <c r="B45" s="5"/>
@@ -11129,7 +11010,7 @@
       <c r="R45" s="5"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="31" t="s">
         <v>289</v>
       </c>
       <c r="B46" s="5"/>
@@ -11151,7 +11032,7 @@
       <c r="R46" s="5"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="31" t="s">
         <v>267</v>
       </c>
       <c r="B47" s="5"/>
@@ -11195,7 +11076,7 @@
       <c r="R48" s="16"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="31" t="s">
         <v>131</v>
       </c>
       <c r="B49" s="5"/>
@@ -11241,7 +11122,7 @@
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="31" t="s">
         <v>134</v>
       </c>
       <c r="B50" s="5"/>
@@ -11287,7 +11168,7 @@
       </c>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="31" t="s">
         <v>125</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -11343,7 +11224,7 @@
       </c>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="31" t="s">
         <v>126</v>
       </c>
       <c r="B52" s="5"/>
@@ -11351,45 +11232,45 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="65" t="s">
+      <c r="G52" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="H52" s="65" t="s">
+      <c r="H52" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="I52" s="65" t="s">
+      <c r="I52" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="J52" s="65" t="s">
+      <c r="J52" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="K52" s="65" t="s">
+      <c r="K52" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="L52" s="65" t="s">
+      <c r="L52" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="M52" s="65" t="s">
+      <c r="M52" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="N52" s="65" t="s">
+      <c r="N52" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="O52" s="65" t="s">
+      <c r="O52" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="P52" s="65" t="s">
+      <c r="P52" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="Q52" s="65" t="s">
+      <c r="Q52" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="R52" s="65" t="s">
+      <c r="R52" s="63" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="5"/>
@@ -11436,28 +11317,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R13" r:id="rId3" display="&quot;userCIIH@AD-INS.COM&quot;"/>
+    <hyperlink ref="R13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="25.7090909090909" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11524,7 +11403,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="21" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="21" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -11555,10 +11434,10 @@
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -11567,13 +11446,13 @@
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="63" t="s">
         <v>473</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>474</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="63" t="s">
         <v>473</v>
       </c>
       <c r="E9" s="5"/>
@@ -11585,10 +11464,10 @@
       <c r="B10" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>474</v>
       </c>
       <c r="E10" s="5"/>
@@ -11612,16 +11491,16 @@
       <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="36"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
@@ -11642,13 +11521,13 @@
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="63" t="s">
         <v>476</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="67" t="s">
         <v>477</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="34" t="s">
         <v>474</v>
       </c>
       <c r="E14" s="5"/>
@@ -11669,13 +11548,13 @@
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
@@ -11768,7 +11647,7 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>109</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -11795,32 +11674,30 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId3" display="wikiy.hendraa@ad-ins.com" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
-    <hyperlink ref="D15" r:id="rId3" display="wikiy.hendraa@ad-ins.com" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
-    <hyperlink ref="B15" r:id="rId4" display="MARVIN.SUTANTO05051991_1@ANDYRESEARCH.MY.ID"/>
+    <hyperlink ref="C15" r:id="rId1" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
+    <hyperlink ref="D15" r:id="rId2" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
+    <hyperlink ref="B15" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11893,7 +11770,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="21" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="21" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -11934,7 +11811,7 @@
       <c r="C9" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="68" t="s">
         <v>487</v>
       </c>
       <c r="E9" s="5"/>
@@ -11946,7 +11823,7 @@
       <c r="B10" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="63" t="s">
         <v>490</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -11973,7 +11850,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="5"/>
@@ -11991,30 +11868,28 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId3" display="HELLO.PANDA@DOCSOL.ID"/>
+    <hyperlink ref="D9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.4272727272727" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7090909090909" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12081,7 +11956,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="21" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="21" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>482</v>
       </c>
@@ -12126,7 +12001,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="63" t="s">
         <v>494</v>
       </c>
       <c r="E9" s="5"/>
@@ -12136,7 +12011,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="63" t="s">
         <v>495</v>
       </c>
       <c r="D10" s="5"/>
@@ -12163,31 +12038,29 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="VIVIANAYU30@GMAIL.COM"/>
+    <hyperlink ref="B11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.8545454545455" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.8545454545455" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.8545454545455" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12230,7 +12103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" ht="43.5" spans="1:6">
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="45">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -12307,7 +12180,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" ht="29" spans="1:6">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="5" t="s">
         <v>502</v>
       </c>
@@ -12325,7 +12198,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" ht="58" spans="1:6">
+    <row r="10" spans="1:6" ht="60">
       <c r="A10" s="5" t="s">
         <v>506</v>
       </c>
@@ -12405,30 +12278,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L2" sqref="B1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7090909090909" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="25.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="32.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.8545454545455" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.2818181818182" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -12507,7 +12378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="101.5" spans="1:12">
+    <row r="3" spans="1:12" ht="120">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -12594,7 +12465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:12">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -12604,7 +12475,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:12">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
@@ -12614,7 +12485,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:12">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="5"/>
@@ -12624,7 +12495,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8" s="13" t="s">
         <v>350</v>
       </c>
@@ -12676,7 +12547,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:10">
+    <row r="10" spans="1:12" s="11" customFormat="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -12688,7 +12559,7 @@
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" ht="29" spans="1:12">
+    <row r="11" spans="1:12" ht="30">
       <c r="A11" s="5" t="s">
         <v>522</v>
       </c>
@@ -12726,7 +12597,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="12" s="11" customFormat="1" ht="87" spans="1:12">
+    <row r="12" spans="1:12" s="11" customFormat="1" ht="90">
       <c r="A12" s="27" t="s">
         <v>525</v>
       </c>
@@ -12766,42 +12637,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="ANDY@AD-INS.COM"/>
-    <hyperlink ref="C11" r:id="rId1" display="ANDY@AD-INS.COM" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="E11" r:id="rId1" display="ANDY@AD-INS.COM" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="F11" r:id="rId1" display="ANDY@AD-INS.COM" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="G11" r:id="rId2" display="HELMI.AA@AD-INS.COM" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
-    <hyperlink ref="H11" r:id="rId2" display="HELMI.AA@AD-INS.COM" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
-    <hyperlink ref="I11" r:id="rId1" display="ANDY@AD-INS.COM"/>
-    <hyperlink ref="J11" r:id="rId1" display="ANDY@AD-INS.COM"/>
-    <hyperlink ref="K11" r:id="rId1" display="ANDY@AD-INS.COM"/>
-    <hyperlink ref="D11" r:id="rId1" display="ANDY@AD-INS.COM" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="L11" r:id="rId1" display="ANDY@AD-INS.COM"/>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId2" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink ref="E11" r:id="rId3" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink ref="F11" r:id="rId4" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink ref="G11" r:id="rId5" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
+    <hyperlink ref="H11" r:id="rId6" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
+    <hyperlink ref="I11" r:id="rId7"/>
+    <hyperlink ref="J11" r:id="rId8"/>
+    <hyperlink ref="K11" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink ref="L11" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70909090909091" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7090909090909" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="45.1363636363636" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="32.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.8545454545455" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.4272727272727" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.5727272727273" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.1363636363636" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -12868,7 +12737,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" ht="43.5" spans="1:9">
+    <row r="3" spans="1:10" s="7" customFormat="1" ht="60">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -12935,7 +12804,7 @@
       </c>
       <c r="J4" s="23"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>540</v>
       </c>
@@ -12954,7 +12823,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -12965,7 +12834,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -13020,7 +12889,7 @@
       </c>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" s="11" customFormat="1" spans="1:10">
+    <row r="10" spans="1:10" s="11" customFormat="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -13032,7 +12901,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" ht="29" spans="1:10">
+    <row r="11" spans="1:10" ht="30">
       <c r="A11" s="5" t="s">
         <v>334</v>
       </c>
@@ -13062,7 +12931,7 @@
       </c>
       <c r="J11" s="25"/>
     </row>
-    <row r="12" s="12" customFormat="1" ht="29" spans="1:9">
+    <row r="12" spans="1:10" s="12" customFormat="1" ht="30">
       <c r="A12" s="20" t="s">
         <v>502</v>
       </c>
@@ -13091,7 +12960,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
         <v>546</v>
       </c>
@@ -13106,17 +12975,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" display="ANDY@AD-INS.COM"/>
-    <hyperlink ref="D11" r:id="rId1" display="ANDY@AD-INS.COM"/>
-    <hyperlink ref="E11" r:id="rId1" display="ANDY@AD-INS.COM"/>
-    <hyperlink ref="F11" r:id="rId2" display="HELMI.AA@AD-INS.COM" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
-    <hyperlink ref="G11" r:id="rId2" display="HELMI.AA@AD-INS.COM" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
-    <hyperlink ref="H11" r:id="rId1" display="ANDY@AD-INS.COM" tooltip="mailto:ANDY@AD-INS.COM"/>
-    <hyperlink ref="I11" r:id="rId1" display="ANDY@AD-INS.COM"/>
-    <hyperlink ref="C11" r:id="rId1" display="ANDY@AD-INS.COM"/>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="D11" r:id="rId2"/>
+    <hyperlink ref="E11" r:id="rId3"/>
+    <hyperlink ref="F11" r:id="rId4" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
+    <hyperlink ref="G11" r:id="rId5" tooltip="mailto:HELMI.AA@AD-INS.COM"/>
+    <hyperlink ref="H11" r:id="rId6" tooltip="mailto:ANDY@AD-INS.COM"/>
+    <hyperlink ref="I11" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 

--- a/Excel/2. Esign.xlsx
+++ b/Excel/2. Esign.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\ATeSign\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7065" firstSheet="8" activeTab="11"/>
+    <workbookView activeTab="12" firstSheet="9" windowHeight="7065" windowWidth="18525" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BuatUndangan" sheetId="2" r:id="rId1"/>
-    <sheet name="API Send Document" sheetId="4" r:id="rId2"/>
-    <sheet name="API Generate Inv Link" sheetId="6" r:id="rId3"/>
-    <sheet name="PencarianPengguna-Inveditor" sheetId="7" r:id="rId4"/>
-    <sheet name="PencarianPengguna-Karyawan" sheetId="13" r:id="rId5"/>
-    <sheet name="PencarianPengguna-Pelanggan" sheetId="11" r:id="rId6"/>
-    <sheet name="API Agreement Canceled" sheetId="8" r:id="rId7"/>
-    <sheet name="API Bulk Sign Document" sheetId="9" r:id="rId8"/>
-    <sheet name="API Sign Document" sheetId="10" r:id="rId9"/>
-    <sheet name="Masukan" sheetId="15" r:id="rId10"/>
-    <sheet name="PengaturanDokumen" sheetId="14" r:id="rId11"/>
-    <sheet name="PencarianDokumen" sheetId="16" r:id="rId12"/>
+    <sheet name="BuatUndangan" r:id="rId1" sheetId="2"/>
+    <sheet name="API Send Document" r:id="rId2" sheetId="4"/>
+    <sheet name="API Generate Inv Link" r:id="rId3" sheetId="6"/>
+    <sheet name="PencarianPengguna-Inveditor" r:id="rId4" sheetId="7"/>
+    <sheet name="PencarianPengguna-Karyawan" r:id="rId5" sheetId="13"/>
+    <sheet name="PencarianPengguna-Pelanggan" r:id="rId6" sheetId="11"/>
+    <sheet name="API Agreement Canceled" r:id="rId7" sheetId="8"/>
+    <sheet name="API Bulk Sign Document" r:id="rId8" sheetId="9"/>
+    <sheet name="API Sign Document" r:id="rId9" sheetId="10"/>
+    <sheet name="Masukan" r:id="rId10" sheetId="15"/>
+    <sheet name="PengaturanDokumen" r:id="rId11" sheetId="14"/>
+    <sheet name="PencarianDokumen" r:id="rId12" sheetId="16"/>
+    <sheet name="isiSaldo" r:id="rId13" sheetId="17"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -35,7 +36,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A13" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A32" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A41" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +114,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A30" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A30" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +146,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A13" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +179,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A11" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A12" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +235,7 @@
     <author>Fendy Tio</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A11" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -258,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A12" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A13" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A14" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -330,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A18" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -358,8 +359,44 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Fendy Tio</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A15" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fendy Tio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Format
+yyyy-MM-dd
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="613">
   <si>
     <t>Status</t>
   </si>
@@ -2170,18 +2207,65 @@
   </si>
   <si>
     <t>Tipe Dokumen</t>
+  </si>
+  <si>
+    <t>$Tenant</t>
+  </si>
+  <si>
+    <t>$Vendor</t>
+  </si>
+  <si>
+    <t>$Tipe Saldo</t>
+  </si>
+  <si>
+    <t>$Tambah Saldo</t>
+  </si>
+  <si>
+    <t>$Nomor Tagihan</t>
+  </si>
+  <si>
+    <t>$Catatan</t>
+  </si>
+  <si>
+    <t>$Tanggal Pembelian</t>
+  </si>
+  <si>
+    <t>WOM Finance</t>
+  </si>
+  <si>
+    <t>ESIGN/ADINS</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>2023041301</t>
+  </si>
+  <si>
+    <t>tambah saldo otp</t>
+  </si>
+  <si>
+    <t>2023-04-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20">
+  <numFmts count="0"/>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2413,133 +2497,136 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="79">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="7" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="5" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="2"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="9" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="5" fontId="5" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="7" numFmtId="0" quotePrefix="1" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" quotePrefix="1" xfId="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="14" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2556,10 +2643,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2723,21 +2810,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2754,7 +2841,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2808,8 +2895,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:P61"/>
   <sheetViews>
     <sheetView topLeftCell="L25" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
@@ -2817,10 +2904,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="13" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="2" max="13" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2870,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="92.25" customHeight="1">
+    <row customHeight="1" ht="92.25" r="2" spans="1:15">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -2969,59 +3056,59 @@
         <v>30</v>
       </c>
       <c r="B4" s="6">
-        <f t="shared" ref="B4:O4" si="0">COUNTIFS($A9:$A21,"*$*",B9:B21,"")</f>
+        <f ref="B4:O4" si="0" t="shared">COUNTIFS($A9:$A21,"*$*",B9:B21,"")</f>
         <v>3</v>
       </c>
       <c r="C4" s="6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4816,66 +4903,66 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:O6">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B6:O6" type="list">
       <formula1>"Edit, Resend"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33:O33 B55:O55 B61:O61 B29:O31">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B33:O33 B55:O55 B61:O61 B29:O31" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:O7">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:O7" type="list">
       <formula1>"Phone, Id no, Email"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:O13 B41:O41">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B13:O13 B41:O41" type="list">
       <formula1>"M, F"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59:O59">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B59:O59" type="list">
       <formula1>"SMS, Email"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
-    <hyperlink ref="C15" r:id="rId2"/>
-    <hyperlink ref="D15" r:id="rId3"/>
-    <hyperlink ref="E15" r:id="rId4"/>
-    <hyperlink ref="F15" r:id="rId5"/>
-    <hyperlink ref="M15" r:id="rId6"/>
-    <hyperlink ref="O15" r:id="rId7"/>
-    <hyperlink ref="M53" r:id="rId8"/>
-    <hyperlink ref="M54" r:id="rId9"/>
-    <hyperlink ref="N53" r:id="rId10"/>
-    <hyperlink ref="N54" r:id="rId11"/>
-    <hyperlink ref="J15" r:id="rId12"/>
-    <hyperlink ref="J53" r:id="rId13"/>
-    <hyperlink ref="J54" r:id="rId14"/>
-    <hyperlink ref="G53" r:id="rId15"/>
-    <hyperlink ref="G54" r:id="rId16"/>
-    <hyperlink ref="H53" r:id="rId17"/>
-    <hyperlink ref="H54" r:id="rId18"/>
-    <hyperlink ref="I53" r:id="rId19"/>
-    <hyperlink ref="I54" r:id="rId20"/>
-    <hyperlink ref="O53" r:id="rId21"/>
-    <hyperlink ref="O54" r:id="rId22"/>
-    <hyperlink ref="N15" r:id="rId23"/>
-    <hyperlink ref="K15" r:id="rId24"/>
-    <hyperlink ref="K54" r:id="rId25"/>
-    <hyperlink ref="K53" r:id="rId26"/>
-    <hyperlink ref="L15" r:id="rId27"/>
-    <hyperlink ref="L53" r:id="rId28"/>
-    <hyperlink ref="L54" r:id="rId29"/>
-    <hyperlink ref="G15" r:id="rId30"/>
-    <hyperlink ref="H15" r:id="rId31"/>
-    <hyperlink ref="I15" r:id="rId32"/>
-    <hyperlink ref="N5" r:id="rId33"/>
+    <hyperlink r:id="rId1" ref="B15" tooltip="mailto:wikiy.hendraa@ad-ins.com"/>
+    <hyperlink r:id="rId2" ref="C15"/>
+    <hyperlink r:id="rId3" ref="D15"/>
+    <hyperlink r:id="rId4" ref="E15"/>
+    <hyperlink r:id="rId5" ref="F15"/>
+    <hyperlink r:id="rId6" ref="M15"/>
+    <hyperlink r:id="rId7" ref="O15"/>
+    <hyperlink r:id="rId8" ref="M53"/>
+    <hyperlink r:id="rId9" ref="M54"/>
+    <hyperlink r:id="rId10" ref="N53"/>
+    <hyperlink r:id="rId11" ref="N54"/>
+    <hyperlink r:id="rId12" ref="J15"/>
+    <hyperlink r:id="rId13" ref="J53"/>
+    <hyperlink r:id="rId14" ref="J54"/>
+    <hyperlink r:id="rId15" ref="G53"/>
+    <hyperlink r:id="rId16" ref="G54"/>
+    <hyperlink r:id="rId17" ref="H53"/>
+    <hyperlink r:id="rId18" ref="H54"/>
+    <hyperlink r:id="rId19" ref="I53"/>
+    <hyperlink r:id="rId20" ref="I54"/>
+    <hyperlink r:id="rId21" ref="O53"/>
+    <hyperlink r:id="rId22" ref="O54"/>
+    <hyperlink r:id="rId23" ref="N15"/>
+    <hyperlink r:id="rId24" ref="K15"/>
+    <hyperlink r:id="rId25" ref="K54"/>
+    <hyperlink r:id="rId26" ref="K53"/>
+    <hyperlink r:id="rId27" ref="L15"/>
+    <hyperlink r:id="rId28" ref="L53"/>
+    <hyperlink r:id="rId29" ref="L54"/>
+    <hyperlink r:id="rId30" ref="G15"/>
+    <hyperlink r:id="rId31" ref="H15"/>
+    <hyperlink r:id="rId32" ref="I15"/>
+    <hyperlink r:id="rId33" ref="N5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <legacyDrawing r:id="rId34"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -4883,10 +4970,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="25.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="33.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="33.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="34.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5015,17 +5102,17 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:D9">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B9:D9" type="list">
       <formula1>"1, 2, 3, 4 ,5"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:C20"/>
@@ -5033,9 +5120,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="44.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5148,7 +5235,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45">
+    <row ht="45" r="13" spans="1:3">
       <c r="A13" s="6" t="s">
         <v>561</v>
       </c>
@@ -5232,32 +5319,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="36.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
-        <v>142</v>
+      <c r="B1" t="s">
+        <v>143</v>
       </c>
       <c r="C1" s="73" t="s">
         <v>142</v>
@@ -5297,11 +5384,11 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:D4" si="0">COUNTIFS($A$9:$A$16,"*$*",C9:C16,"")+IF(C7="Download",COUNTIFS($A$18,"*$*",C18,""),0)</f>
+        <f ref="C4:D4" si="0" t="shared">COUNTIFS($A$9:$A$16,"*$*",C9:C16,"")+IF(C7="Download",COUNTIFS($A$18,"*$*",C18,""),0)</f>
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -5475,55 +5562,257 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:D7">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:D7" type="list">
       <formula1>"View Dokumen, Download, View Signer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:D18">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B18:D18" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="2" max="4" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2">
+        <f>COUNTIFS($A$9:$A$15,"*$*",B9:B15,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f>COUNTIFS($A$9:$A$15,"*$*",C9:C15,"")+IF(C7="Download",COUNTIFS(#REF!,"*$*",#REF!,""),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f>COUNTIFS($A$9:$A$15,"*$*",D9:D15,"")+IF(D7="Download",COUNTIFS(#REF!,"*$*",#REF!,""),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>609</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="76" t="s">
+        <v>603</v>
+      </c>
+      <c r="B12" s="69">
+        <v>1</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="76" t="s">
+        <v>604</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>610</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="76" t="s">
+        <v>605</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>611</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="76" t="s">
+        <v>606</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>612</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>591</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B7:D7" type="list">
+      <formula1>"View Dokumen, Download, View Signer"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+    <sheetView topLeftCell="V1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="AG16" sqref="W15:AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="24.42578125" style="45" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.85546875" style="45" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.28515625" style="45" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.28515625" style="45" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.5703125" style="45" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" style="45" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.7109375" style="45" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.85546875" style="45" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.5703125" style="45" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="29.28515625" style="45" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="37.85546875" style="45" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="42.140625" style="45" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="40.7109375" style="45" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="37.5703125" style="45" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="35.7109375" style="45" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="36.5703125" style="45" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="36" style="45" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="43.28515625" style="45" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="63" style="45" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="45.5703125" style="45" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="39.5703125" style="45" customWidth="1" collapsed="1"/>
-    <col min="25" max="28" width="45.28515625" style="45" customWidth="1" collapsed="1"/>
-    <col min="29" max="16384" width="9" style="45" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="45" width="24.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="45" width="31.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="45" width="39.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="45" width="45.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="45" width="32.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="45" width="28.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="45" width="30.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="45" width="30.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="45" width="30.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="45" width="29.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="45" width="37.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="45" width="42.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="45" width="40.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="45" width="37.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="45" width="35.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="45" width="36.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="45" width="36.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="45" width="43.28515625" collapsed="true"/>
+    <col min="21" max="22" customWidth="true" style="45" width="63.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="45" width="45.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="45" width="39.5703125" collapsed="true"/>
+    <col min="25" max="28" customWidth="true" style="45" width="45.28515625" collapsed="true"/>
+    <col min="29" max="16384" style="45" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="1" s="39" spans="1:28">
       <c r="A1" t="s">
         <v>142</v>
       </c>
@@ -5609,7 +5898,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="2" s="39" spans="1:28">
       <c r="A2" s="39" t="s">
         <v>3</v>
       </c>
@@ -5695,7 +5984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="40" customFormat="1" ht="60">
+    <row customFormat="1" ht="60" r="3" s="40" spans="1:28">
       <c r="A3" s="40" t="s">
         <v>15</v>
       </c>
@@ -5781,112 +6070,112 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="4" s="39" spans="1:28">
       <c r="A4" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="40">
-        <f t="shared" ref="B4:AA4" si="0">COUNTIFS($A9:$A45,"*$*",B9:B45,"")</f>
+        <f ref="B4:AA4" si="0" t="shared">COUNTIFS($A9:$A45,"*$*",B9:B45,"")</f>
         <v>0</v>
       </c>
       <c r="C4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="D4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="G4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="H4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="I4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="J4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="K4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="L4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="M4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="N4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="R4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="S4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="T4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="U4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="V4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="W4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="X4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Y4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="Z4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AA4" s="40">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="AB4" s="40">
@@ -5894,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="5" s="39" spans="1:28">
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
@@ -5918,7 +6207,7 @@
       <c r="AA5" s="40"/>
       <c r="AB5" s="40"/>
     </row>
-    <row r="6" spans="1:28" s="40" customFormat="1">
+    <row customFormat="1" r="6" s="40" spans="1:28">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
@@ -5948,7 +6237,7 @@
       <c r="AA6" s="46"/>
       <c r="AB6" s="46"/>
     </row>
-    <row r="7" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="7" s="39" spans="1:28">
       <c r="A7" s="46"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
@@ -5978,7 +6267,7 @@
       <c r="AA7" s="47"/>
       <c r="AB7" s="47"/>
     </row>
-    <row r="8" spans="1:28" s="41" customFormat="1">
+    <row customFormat="1" r="8" s="41" spans="1:28">
       <c r="A8" s="48"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -6008,7 +6297,7 @@
       <c r="AA8" s="49"/>
       <c r="AB8" s="49"/>
     </row>
-    <row r="9" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="9" s="39" spans="1:28">
       <c r="A9" s="51" t="s">
         <v>186</v>
       </c>
@@ -6094,7 +6383,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="42" customFormat="1">
+    <row customFormat="1" r="10" s="42" spans="1:28">
       <c r="A10" s="3" t="s">
         <v>190</v>
       </c>
@@ -6126,7 +6415,7 @@
       <c r="AA10" s="53"/>
       <c r="AB10" s="61"/>
     </row>
-    <row r="11" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="11" s="39" spans="1:28">
       <c r="A11" s="51" t="s">
         <v>191</v>
       </c>
@@ -6212,7 +6501,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="12" s="39" spans="1:28">
       <c r="A12" s="51" t="s">
         <v>218</v>
       </c>
@@ -6298,7 +6587,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="13" s="39" spans="1:28">
       <c r="A13" s="51" t="s">
         <v>223</v>
       </c>
@@ -6384,7 +6673,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="14" s="39" spans="1:28">
       <c r="A14" s="51" t="s">
         <v>227</v>
       </c>
@@ -6470,7 +6759,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="15" s="39" spans="1:28">
       <c r="A15" s="51" t="s">
         <v>229</v>
       </c>
@@ -6556,7 +6845,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="16" s="39" spans="1:28">
       <c r="A16" s="51" t="s">
         <v>232</v>
       </c>
@@ -6642,7 +6931,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="17" s="39" spans="1:28">
       <c r="A17" s="51" t="s">
         <v>235</v>
       </c>
@@ -6728,7 +7017,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="18" s="39" spans="1:28">
       <c r="A18" s="51" t="s">
         <v>237</v>
       </c>
@@ -6814,7 +7103,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="19" s="39" spans="1:28">
       <c r="A19" s="51" t="s">
         <v>239</v>
       </c>
@@ -6900,7 +7189,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="20" s="39" spans="1:28">
       <c r="A20" s="51" t="s">
         <v>241</v>
       </c>
@@ -6986,7 +7275,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="21" s="39" spans="1:28">
       <c r="A21" s="51" t="s">
         <v>242</v>
       </c>
@@ -7072,7 +7361,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="22" s="39" spans="1:28">
       <c r="A22" s="51" t="s">
         <v>244</v>
       </c>
@@ -7158,7 +7447,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="23" s="39" spans="1:28">
       <c r="A23" s="51" t="s">
         <v>246</v>
       </c>
@@ -7244,7 +7533,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="43" customFormat="1">
+    <row customFormat="1" r="24" s="43" spans="1:28">
       <c r="A24" s="3" t="s">
         <v>248</v>
       </c>
@@ -7276,7 +7565,7 @@
       <c r="AA24" s="52"/>
       <c r="AB24" s="62"/>
     </row>
-    <row r="25" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="25" s="39" spans="1:28">
       <c r="A25" s="51" t="s">
         <v>249</v>
       </c>
@@ -7362,7 +7651,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="26" s="39" spans="1:28">
       <c r="A26" s="51" t="s">
         <v>255</v>
       </c>
@@ -7448,7 +7737,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="27" s="39" spans="1:28">
       <c r="A27" s="51" t="s">
         <v>263</v>
       </c>
@@ -7534,7 +7823,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="28" s="39" spans="1:28">
       <c r="A28" s="51" t="s">
         <v>267</v>
       </c>
@@ -7620,7 +7909,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="29" s="39" spans="1:28">
       <c r="A29" s="51" t="s">
         <v>279</v>
       </c>
@@ -7706,7 +7995,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="30" s="39" spans="1:28">
       <c r="A30" s="51" t="s">
         <v>103</v>
       </c>
@@ -7792,7 +8081,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="31" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="31" s="39" spans="1:28">
       <c r="A31" s="51" t="s">
         <v>105</v>
       </c>
@@ -7878,7 +8167,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="32" s="39" spans="1:28">
       <c r="A32" s="51" t="s">
         <v>289</v>
       </c>
@@ -7964,7 +8253,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="33" s="39" spans="1:28">
       <c r="A33" s="51" t="s">
         <v>101</v>
       </c>
@@ -8050,7 +8339,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="34" s="39" spans="1:28">
       <c r="A34" s="51" t="s">
         <v>297</v>
       </c>
@@ -8136,7 +8425,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="35" s="39" spans="1:28">
       <c r="A35" s="51" t="s">
         <v>306</v>
       </c>
@@ -8222,7 +8511,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="36" s="39" spans="1:28">
       <c r="A36" s="51" t="s">
         <v>317</v>
       </c>
@@ -8308,7 +8597,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="37" s="39" spans="1:28">
       <c r="A37" s="51" t="s">
         <v>99</v>
       </c>
@@ -8394,7 +8683,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="38" s="39" spans="1:28">
       <c r="A38" s="51" t="s">
         <v>324</v>
       </c>
@@ -8480,7 +8769,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="39" s="39" spans="1:28">
       <c r="A39" s="51" t="s">
         <v>333</v>
       </c>
@@ -8566,7 +8855,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="40" s="39" spans="1:28">
       <c r="A40" s="51" t="s">
         <v>334</v>
       </c>
@@ -8652,7 +8941,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="41" s="39" spans="1:28">
       <c r="A41" s="51" t="s">
         <v>344</v>
       </c>
@@ -8738,7 +9027,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="42" s="39" spans="1:28">
       <c r="A42" s="51" t="s">
         <v>348</v>
       </c>
@@ -8824,7 +9113,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="43" s="39" spans="1:28">
       <c r="A43" s="51" t="s">
         <v>349</v>
       </c>
@@ -8910,7 +9199,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="44" customFormat="1">
+    <row customFormat="1" r="44" s="44" spans="1:28">
       <c r="A44" s="58" t="s">
         <v>350</v>
       </c>
@@ -8942,7 +9231,7 @@
       <c r="AA44" s="59"/>
       <c r="AB44" s="59"/>
     </row>
-    <row r="45" spans="1:28" s="39" customFormat="1">
+    <row customFormat="1" r="45" s="39" spans="1:28">
       <c r="A45" s="51" t="s">
         <v>351</v>
       </c>
@@ -9030,84 +9319,84 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F22" r:id="rId1"/>
-    <hyperlink ref="F23" r:id="rId2"/>
-    <hyperlink ref="F40" r:id="rId3"/>
-    <hyperlink ref="G22" r:id="rId4"/>
-    <hyperlink ref="G23" r:id="rId5"/>
-    <hyperlink ref="H22" r:id="rId6"/>
-    <hyperlink ref="H23" r:id="rId7"/>
-    <hyperlink ref="I22" r:id="rId8"/>
-    <hyperlink ref="I23" r:id="rId9"/>
-    <hyperlink ref="J22" r:id="rId10"/>
-    <hyperlink ref="J23" r:id="rId11"/>
-    <hyperlink ref="M22" r:id="rId12"/>
-    <hyperlink ref="M23" r:id="rId13"/>
-    <hyperlink ref="M40" r:id="rId14"/>
-    <hyperlink ref="N22" r:id="rId15"/>
-    <hyperlink ref="N23" r:id="rId16"/>
-    <hyperlink ref="N40" r:id="rId17"/>
-    <hyperlink ref="O22" r:id="rId18"/>
-    <hyperlink ref="O23" r:id="rId19"/>
-    <hyperlink ref="O40" r:id="rId20"/>
-    <hyperlink ref="P22" r:id="rId21"/>
-    <hyperlink ref="P23" r:id="rId22"/>
-    <hyperlink ref="P40" r:id="rId23"/